--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -722,22 +722,22 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
@@ -855,10 +855,10 @@
         <v>2.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -1126,25 +1126,25 @@
         <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1173,10 +1173,10 @@
         <v>2.63</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA5" t="n">
         <v>10</v>
@@ -1197,7 +1197,7 @@
         <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH5" t="n">
         <v>6.5</v>
@@ -1209,10 +1209,10 @@
         <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM5" t="n">
         <v>9</v>
@@ -1703,7 +1703,7 @@
         <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB9" t="n">
         <v>7.5</v>
@@ -1760,7 +1760,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
@@ -1842,10 +1842,10 @@
         <v>6.5</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K10" t="n">
         <v>2.88</v>
@@ -1857,7 +1857,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O10" t="n">
         <v>1.1</v>
@@ -1898,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
         <v>10</v>
@@ -2133,13 +2133,13 @@
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M12" t="n">
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2186,7 +2186,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2262,7 +2262,7 @@
         <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
         <v>1.91</v>
@@ -2303,10 +2303,10 @@
         <v>1.3</v>
       </c>
       <c r="W13" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y13" t="n">
         <v>1.8</v>
@@ -2315,7 +2315,7 @@
         <v>1.95</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
@@ -2333,7 +2333,7 @@
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH13" t="n">
         <v>6.5</v>
@@ -2363,7 +2363,7 @@
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2450,10 +2450,10 @@
         <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
@@ -2474,7 +2474,7 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>7.5</v>
@@ -2489,7 +2489,7 @@
         <v>251</v>
       </c>
       <c r="AL14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM14" t="n">
         <v>7.5</v>
@@ -2504,7 +2504,7 @@
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
@@ -2830,7 +2830,7 @@
         <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I17" t="n">
         <v>5.25</v>
@@ -3126,13 +3126,13 @@
         <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K19" t="n">
         <v>2.75</v>
       </c>
       <c r="L19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3177,7 +3177,7 @@
         <v>1.44</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>5.5</v>
@@ -3189,22 +3189,22 @@
         <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>41</v>
       </c>
       <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
         <v>13</v>
       </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
       <c r="AI19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
@@ -3275,13 +3275,13 @@
         <v>2.88</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
@@ -3304,28 +3304,28 @@
         <v>1.91</v>
       </c>
       <c r="W20" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X20" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
@@ -3334,16 +3334,16 @@
         <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
         <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="n">
         <v>151</v>
@@ -3355,10 +3355,10 @@
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP20" t="n">
         <v>51</v>
@@ -3410,7 +3410,7 @@
         <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
@@ -3499,7 +3499,7 @@
         <v>12</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
@@ -3558,7 +3558,7 @@
         <v>2.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
         <v>7.5</v>
@@ -3651,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="23">
@@ -3749,7 +3749,7 @@
         <v>1.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB23" t="n">
         <v>9.5</v>
@@ -4157,7 +4157,7 @@
         <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O26" t="n">
         <v>1.8</v>
@@ -4166,24 +4166,24 @@
         <v>1.91</v>
       </c>
       <c r="Q26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X26" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Y26" t="n">
         <v>2.75</v>
@@ -4722,10 +4722,10 @@
         <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
         <v>1.53</v>
@@ -4811,10 +4811,10 @@
         <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="31">
@@ -5153,10 +5153,10 @@
         <v>4.33</v>
       </c>
       <c r="M33" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.67</v>
@@ -7417,10 +7417,10 @@
         <v>3.25</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
         <v>1.3</v>
@@ -7569,7 +7569,7 @@
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
         <v>1.22</v>
@@ -7706,10 +7706,10 @@
         <v>8.5</v>
       </c>
       <c r="J51" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K51" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L51" t="n">
         <v>8</v>
@@ -7718,7 +7718,7 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O51" t="n">
         <v>1.22</v>
@@ -7757,7 +7757,7 @@
         <v>1.67</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB51" t="n">
         <v>6</v>
@@ -7766,7 +7766,7 @@
         <v>9</v>
       </c>
       <c r="AD51" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE51" t="n">
         <v>12</v>
@@ -7778,7 +7778,7 @@
         <v>12</v>
       </c>
       <c r="AH51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI51" t="n">
         <v>23</v>
@@ -7790,19 +7790,19 @@
         <v>301</v>
       </c>
       <c r="AL51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM51" t="n">
         <v>41</v>
       </c>
       <c r="AN51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO51" t="n">
         <v>101</v>
       </c>
       <c r="AP51" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ51" t="n">
         <v>51</v>
@@ -7987,16 +7987,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I53" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K53" t="n">
         <v>2.3</v>
@@ -8037,10 +8037,10 @@
         <v>3.25</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z53" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA53" t="n">
         <v>8</v>
@@ -8064,7 +8064,7 @@
         <v>12</v>
       </c>
       <c r="AH53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI53" t="n">
         <v>15</v>
@@ -8079,7 +8079,7 @@
         <v>15</v>
       </c>
       <c r="AM53" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN53" t="n">
         <v>17</v>
@@ -8128,13 +8128,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H54" t="n">
         <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
         <v>2.1</v>
@@ -8149,7 +8149,7 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O54" t="n">
         <v>1.18</v>
@@ -8164,10 +8164,10 @@
         <v>2.3</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T54" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U54" t="n">
         <v>2.5</v>
@@ -8188,16 +8188,16 @@
         <v>2.1</v>
       </c>
       <c r="AA54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC54" t="n">
         <v>8.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE54" t="n">
         <v>12</v>
@@ -8233,7 +8233,7 @@
         <v>51</v>
       </c>
       <c r="AP54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ54" t="n">
         <v>34</v>
@@ -8456,10 +8456,10 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W56" t="n">
         <v>1.18</v>
@@ -8580,7 +8580,7 @@
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
@@ -8708,16 +8708,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J58" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
         <v>1.91</v>
@@ -8726,25 +8726,25 @@
         <v>3.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R58" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S58" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T58" t="n">
         <v>1.21</v>
@@ -8777,7 +8777,7 @@
         <v>12</v>
       </c>
       <c r="AD58" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE58" t="n">
         <v>29</v>
@@ -8819,10 +8819,10 @@
         <v>41</v>
       </c>
       <c r="AR58" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="59">
@@ -9006,28 +9006,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H60" t="n">
         <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K60" t="n">
         <v>2.1</v>
       </c>
       <c r="L60" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M60" t="n">
         <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O60" t="n">
         <v>1.33</v>
@@ -9036,18 +9036,18 @@
         <v>3.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R60" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V60" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W60" t="n">
         <v>1.44</v>
@@ -9056,22 +9056,22 @@
         <v>2.63</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC60" t="n">
         <v>9</v>
       </c>
       <c r="AD60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE60" t="n">
         <v>17</v>
@@ -9080,7 +9080,7 @@
         <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH60" t="n">
         <v>6.5</v>
@@ -10014,7 +10014,7 @@
         <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O67" t="n">
         <v>1.36</v>
@@ -11727,10 +11727,10 @@
         <v>3.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N79" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O79" t="n">
         <v>1.36</v>
@@ -11879,7 +11879,7 @@
         <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O80" t="n">
         <v>1.33</v>
@@ -12194,7 +12194,7 @@
         <v>3.25</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z82" t="n">
         <v>2.2</v>
@@ -12335,7 +12335,7 @@
         <v>3</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z83" t="n">
         <v>2.2</v>
@@ -12480,7 +12480,7 @@
         <v>3.5</v>
       </c>
       <c r="Y84" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Z84" t="n">
         <v>2.5</v>
@@ -12621,7 +12621,7 @@
         <v>3</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z85" t="n">
         <v>2.2</v>
@@ -12712,13 +12712,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H86" t="n">
         <v>3.5</v>
       </c>
       <c r="I86" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J86" t="n">
         <v>3</v>
@@ -12762,7 +12762,7 @@
         <v>3.25</v>
       </c>
       <c r="Y86" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z86" t="n">
         <v>2.25</v>
@@ -12780,7 +12780,7 @@
         <v>23</v>
       </c>
       <c r="AE86" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF86" t="n">
         <v>23</v>
@@ -12798,7 +12798,7 @@
         <v>41</v>
       </c>
       <c r="AK86" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL86" t="n">
         <v>11</v>
@@ -12910,7 +12910,7 @@
         <v>2.25</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA87" t="n">
         <v>5.5</v>
@@ -13157,10 +13157,10 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="J89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K89" t="n">
         <v>2.2</v>
@@ -13175,16 +13175,16 @@
         <v>9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P89" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q89" t="n">
         <v>2.05</v>
       </c>
       <c r="R89" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S89" t="n">
         <v>2.85</v>
@@ -13199,10 +13199,10 @@
         <v>1.29</v>
       </c>
       <c r="W89" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X89" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y89" t="n">
         <v>2.2</v>
@@ -13244,7 +13244,7 @@
         <v>501</v>
       </c>
       <c r="AL89" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM89" t="n">
         <v>6</v>
@@ -13493,10 +13493,10 @@
         <v>1.33</v>
       </c>
       <c r="W91" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X91" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y91" t="n">
         <v>1.73</v>
@@ -13532,13 +13532,13 @@
         <v>15</v>
       </c>
       <c r="AJ91" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK91" t="n">
         <v>201</v>
       </c>
       <c r="AL91" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM91" t="n">
         <v>19</v>
@@ -13970,7 +13970,7 @@
         <v>11.5</v>
       </c>
       <c r="AO94" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP94" t="n">
         <v>32</v>
@@ -14744,18 +14744,18 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R100" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V100" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W100" t="n">
         <v>1.4</v>
@@ -14855,16 +14855,16 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H101" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I101" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J101" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K101" t="n">
         <v>2.05</v>
@@ -14876,7 +14876,7 @@
         <v>1.07</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O101" t="n">
         <v>1.36</v>
@@ -14920,13 +14920,13 @@
         <v>9</v>
       </c>
       <c r="AD101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE101" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG101" t="n">
         <v>8.5</v>
@@ -14941,10 +14941,10 @@
         <v>51</v>
       </c>
       <c r="AK101" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL101" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM101" t="n">
         <v>17</v>
@@ -15034,10 +15034,10 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V102" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W102" t="n">
         <v>1.25</v>
@@ -15419,13 +15419,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H105" t="n">
         <v>3.2</v>
       </c>
       <c r="I105" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J105" t="n">
         <v>3.4</v>
@@ -15481,7 +15481,7 @@
         <v>11</v>
       </c>
       <c r="AC105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD105" t="n">
         <v>23</v>
@@ -15520,7 +15520,7 @@
         <v>29</v>
       </c>
       <c r="AP105" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ105" t="n">
         <v>41</v>
@@ -16017,18 +16017,18 @@
         <v>3</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R109" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V109" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W109" t="n">
         <v>1.44</v>
@@ -16149,7 +16149,7 @@
         <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O110" t="n">
         <v>1.33</v>
@@ -16158,10 +16158,10 @@
         <v>3.25</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R110" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
@@ -16567,10 +16567,10 @@
         <v>2.02</v>
       </c>
       <c r="K113" t="n">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
       <c r="L113" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
@@ -16954,34 +16954,34 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J116" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K116" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L116" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M116" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N116" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O116" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P116" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q116" t="n">
         <v>2.5</v>
@@ -17010,16 +17010,16 @@
         <v>1.62</v>
       </c>
       <c r="AA116" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB116" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC116" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD116" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AE116" t="n">
         <v>21</v>
@@ -17028,10 +17028,10 @@
         <v>41</v>
       </c>
       <c r="AG116" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI116" t="n">
         <v>19</v>
@@ -17043,28 +17043,28 @@
         <v>101</v>
       </c>
       <c r="AL116" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM116" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AN116" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO116" t="n">
         <v>41</v>
       </c>
       <c r="AP116" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ116" t="n">
         <v>41</v>
       </c>
-      <c r="AQ116" t="n">
-        <v>51</v>
-      </c>
       <c r="AR116" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="117">
@@ -17117,16 +17117,16 @@
         <v>5</v>
       </c>
       <c r="M117" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N117" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O117" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P117" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q117" t="n">
         <v>2.6</v>
@@ -17206,10 +17206,10 @@
         <v>51</v>
       </c>
       <c r="AR117" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="118">
@@ -17244,13 +17244,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I118" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J118" t="n">
         <v>2.75</v>
@@ -17309,7 +17309,7 @@
         <v>9.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE118" t="n">
         <v>21</v>
@@ -17321,7 +17321,7 @@
         <v>6</v>
       </c>
       <c r="AH118" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI118" t="n">
         <v>21</v>
@@ -17351,10 +17351,10 @@
         <v>51</v>
       </c>
       <c r="AR118" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="119">
@@ -18573,10 +18573,10 @@
         <v>15</v>
       </c>
       <c r="O127" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P127" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q127" t="n">
         <v>1.7</v>
@@ -19016,7 +19016,7 @@
         <v>1.3</v>
       </c>
       <c r="W130" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X130" t="n">
         <v>2.75</v>
@@ -19157,10 +19157,10 @@
         <v>1.22</v>
       </c>
       <c r="W131" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X131" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y131" t="n">
         <v>2</v>
@@ -19298,7 +19298,7 @@
         <v>1.13</v>
       </c>
       <c r="W132" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X132" t="n">
         <v>2.2</v>
@@ -19441,7 +19441,7 @@
         <v>1.4</v>
       </c>
       <c r="W133" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X133" t="n">
         <v>3.25</v>
@@ -19582,7 +19582,7 @@
         <v>1.17</v>
       </c>
       <c r="W134" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X134" t="n">
         <v>2.25</v>
@@ -19727,7 +19727,7 @@
         <v>1.22</v>
       </c>
       <c r="W135" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X135" t="n">
         <v>2.5</v>
@@ -19828,13 +19828,13 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H136" t="n">
         <v>3</v>
       </c>
       <c r="I136" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J136" t="n">
         <v>3.6</v>
@@ -19920,7 +19920,7 @@
         <v>7</v>
       </c>
       <c r="AM136" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN136" t="n">
         <v>11</v>
@@ -19929,7 +19929,7 @@
         <v>26</v>
       </c>
       <c r="AP136" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ136" t="n">
         <v>41</v>
@@ -20118,22 +20118,22 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="H138" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I138" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="J138" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="K138" t="n">
         <v>2.35</v>
       </c>
       <c r="L138" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M138" t="n">
         <v>1.03</v>
@@ -20174,28 +20174,28 @@
         <v>2.75</v>
       </c>
       <c r="AA138" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB138" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC138" t="n">
         <v>10</v>
       </c>
       <c r="AD138" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE138" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF138" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG138" t="n">
         <v>9.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI138" t="n">
         <v>10.5</v>
@@ -20204,13 +20204,13 @@
         <v>29</v>
       </c>
       <c r="AK138" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AL138" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AM138" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AN138" t="n">
         <v>9.75</v>
@@ -20219,10 +20219,10 @@
         <v>29</v>
       </c>
       <c r="AP138" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ138" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr"/>
@@ -20400,22 +20400,22 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H140" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I140" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="J140" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K140" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L140" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M140" t="n">
         <v>1.03</v>
@@ -20424,87 +20424,87 @@
         <v>9</v>
       </c>
       <c r="O140" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P140" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R140" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="V140" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W140" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X140" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Y140" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Z140" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="AA140" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB140" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AC140" t="n">
         <v>11.5</v>
       </c>
       <c r="AD140" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE140" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF140" t="n">
         <v>25</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>23</v>
       </c>
       <c r="AG140" t="n">
         <v>9</v>
       </c>
       <c r="AH140" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI140" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ140" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK140" t="n">
         <v>150</v>
       </c>
       <c r="AL140" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AM140" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AN140" t="n">
         <v>8.5</v>
       </c>
       <c r="AO140" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP140" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ140" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AR140" t="inlineStr"/>
       <c r="AS140" t="inlineStr"/>
@@ -20981,8 +20981,12 @@
       <c r="L144" t="n">
         <v>1.73</v>
       </c>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N144" t="n">
+        <v>34</v>
+      </c>
       <c r="O144" t="n">
         <v>1.05</v>
       </c>
@@ -21101,22 +21105,22 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="H145" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I145" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J145" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="K145" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L145" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M145" t="n">
         <v>1.01</v>
@@ -21131,24 +21135,24 @@
         <v>13</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="R145" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V145" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W145" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X145" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y145" t="n">
         <v>1.44</v>
@@ -21157,16 +21161,16 @@
         <v>2.63</v>
       </c>
       <c r="AA145" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB145" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC145" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD145" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE145" t="n">
         <v>10</v>
@@ -21178,7 +21182,7 @@
         <v>34</v>
       </c>
       <c r="AH145" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI145" t="n">
         <v>21</v>
@@ -21196,16 +21200,16 @@
         <v>51</v>
       </c>
       <c r="AN145" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO145" t="n">
         <v>101</v>
       </c>
       <c r="AP145" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ145" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR145" t="inlineStr"/>
       <c r="AS145" t="inlineStr"/>
@@ -21248,22 +21252,22 @@
         <v>3.55</v>
       </c>
       <c r="I146" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J146" t="n">
         <v>2.45</v>
       </c>
       <c r="K146" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L146" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="M146" t="n">
         <v>1.06</v>
       </c>
       <c r="N146" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O146" t="n">
         <v>1.29</v>
@@ -21313,13 +21317,13 @@
         <v>15.5</v>
       </c>
       <c r="AF146" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG146" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH146" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AI146" t="n">
         <v>15.5</v>
@@ -22391,7 +22395,7 @@
         <v>1.07</v>
       </c>
       <c r="N154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O154" t="n">
         <v>1.36</v>
@@ -22529,10 +22533,10 @@
         <v>3.6</v>
       </c>
       <c r="M155" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O155" t="n">
         <v>1.29</v>
@@ -22541,10 +22545,10 @@
         <v>3.5</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R155" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
@@ -22815,10 +22819,10 @@
         <v>13</v>
       </c>
       <c r="M157" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N157" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O157" t="n">
         <v>1.3</v>
@@ -24493,16 +24497,16 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H169" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="I169" t="n">
         <v>2.2</v>
       </c>
       <c r="J169" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K169" t="n">
         <v>2.2</v>
@@ -24531,16 +24535,16 @@
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
       <c r="U169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X169" t="n">
         <v>3</v>
-      </c>
-      <c r="V169" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W169" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X169" t="n">
-        <v>2.75</v>
       </c>
       <c r="Y169" t="n">
         <v>1.67</v>
@@ -24549,22 +24553,22 @@
         <v>2.1</v>
       </c>
       <c r="AA169" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB169" t="n">
         <v>17</v>
       </c>
       <c r="AC169" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD169" t="n">
         <v>34</v>
       </c>
       <c r="AE169" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF169" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG169" t="n">
         <v>11</v>
@@ -24579,7 +24583,7 @@
         <v>41</v>
       </c>
       <c r="AK169" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL169" t="n">
         <v>8.5</v>
@@ -25305,16 +25309,16 @@
         <v>11</v>
       </c>
       <c r="O175" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P175" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q175" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R175" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
@@ -25837,54 +25841,54 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="H179" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="I179" t="n">
-        <v>13</v>
+        <v>11.25</v>
       </c>
       <c r="J179" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="K179" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="L179" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M179" t="n">
         <v>1.03</v>
       </c>
       <c r="N179" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O179" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P179" t="n">
-        <v>4.7</v>
+        <v>4.35</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="R179" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="V179" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="W179" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X179" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="Y179" t="n">
         <v>2.12</v>
@@ -25893,16 +25897,16 @@
         <v>1.65</v>
       </c>
       <c r="AA179" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AB179" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC179" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD179" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE179" t="n">
         <v>10.75</v>
@@ -25911,34 +25915,34 @@
         <v>32</v>
       </c>
       <c r="AG179" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH179" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AI179" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AJ179" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AK179" t="n">
         <v>101</v>
       </c>
       <c r="AL179" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN179" t="n">
         <v>35</v>
       </c>
-      <c r="AM179" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN179" t="n">
-        <v>40</v>
-      </c>
       <c r="AO179" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AP179" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AQ179" t="n">
         <v>120</v>
@@ -25981,83 +25985,83 @@
         <v>1.03</v>
       </c>
       <c r="H180" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I180" t="n">
         <v>60</v>
       </c>
       <c r="J180" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="K180" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="L180" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="P180" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="R180" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V180" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="W180" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X180" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Y180" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Z180" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AA180" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB180" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AC180" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD180" t="n">
         <v>5.9</v>
       </c>
       <c r="AE180" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF180" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG180" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH180" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI180" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ180" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AK180" t="inlineStr"/>
       <c r="AL180" t="n">
@@ -26065,7 +26069,7 @@
       </c>
       <c r="AM180" t="inlineStr"/>
       <c r="AN180" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AO180" t="inlineStr"/>
       <c r="AP180" t="inlineStr"/>
@@ -26565,7 +26569,7 @@
         <v>2.25</v>
       </c>
       <c r="R184" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
@@ -26710,7 +26714,7 @@
         <v>2.5</v>
       </c>
       <c r="R185" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S185" t="inlineStr"/>
       <c r="T185" t="inlineStr"/>
@@ -26855,7 +26859,7 @@
         <v>2.05</v>
       </c>
       <c r="R186" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
@@ -26984,7 +26988,7 @@
         <v>1.03</v>
       </c>
       <c r="N187" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O187" t="n">
         <v>1.18</v>
@@ -26993,16 +26997,16 @@
         <v>4.5</v>
       </c>
       <c r="Q187" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R187" t="n">
         <v>2.3</v>
       </c>
       <c r="S187" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T187" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U187" t="n">
         <v>2.5</v>
@@ -27279,7 +27283,7 @@
         <v>5.5</v>
       </c>
       <c r="Q189" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R189" t="n">
         <v>2.4</v>
@@ -27424,7 +27428,7 @@
         <v>6</v>
       </c>
       <c r="Q190" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R190" t="n">
         <v>2.7</v>
@@ -27471,7 +27475,7 @@
         <v>21</v>
       </c>
       <c r="AH190" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI190" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -843,10 +843,10 @@
         <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
@@ -855,10 +855,10 @@
         <v>2.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="AD3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -921,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -936,7 +936,7 @@
         <v>17</v>
       </c>
       <c r="AN3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
@@ -1565,13 +1565,13 @@
         <v>2.63</v>
       </c>
       <c r="L8" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O8" t="n">
         <v>1.11</v>
@@ -2139,7 +2139,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2400,13 +2400,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>4.1</v>
@@ -2881,10 +2881,10 @@
         <v>3.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA17" t="n">
         <v>8.5</v>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
@@ -3484,7 +3484,7 @@
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="n">
         <v>1250</v>
@@ -3508,10 +3508,10 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="22">
@@ -4581,30 +4581,30 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="V29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W29" t="n">
         <v>1.67</v>
@@ -4873,10 +4873,10 @@
         <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q31" t="n">
         <v>3.1</v>
@@ -5981,111 +5981,111 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="H39" t="n">
-        <v>4.9</v>
+        <v>4.45</v>
       </c>
       <c r="I39" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="J39" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="K39" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="L39" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="O39" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="R39" t="n">
-        <v>2.05</v>
+        <v>1.82</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="V39" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="W39" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X39" t="n">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AA39" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB39" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AC39" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE39" t="n">
         <v>110</v>
       </c>
       <c r="AF39" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG39" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AH39" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AI39" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ39" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK39" t="n">
         <v>800</v>
       </c>
       <c r="AL39" t="n">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="AM39" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AN39" t="n">
         <v>8.75</v>
       </c>
       <c r="AO39" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AP39" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6265,7 +6265,7 @@
         <v>3.95</v>
       </c>
       <c r="I41" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J41" t="n">
         <v>2.02</v>
@@ -6274,7 +6274,7 @@
         <v>2.15</v>
       </c>
       <c r="L41" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
@@ -6282,7 +6282,7 @@
         <v>1.32</v>
       </c>
       <c r="P41" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="Q41" t="n">
         <v>1.93</v>
@@ -6293,10 +6293,10 @@
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="V41" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W41" t="n">
         <v>1.42</v>
@@ -6305,28 +6305,28 @@
         <v>2.47</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB41" t="n">
         <v>6</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE41" t="n">
         <v>13.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AG41" t="n">
         <v>9</v>
@@ -6350,7 +6350,7 @@
         <v>37</v>
       </c>
       <c r="AN41" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO41" t="n">
         <v>150</v>
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H42" t="n">
         <v>5.5</v>
@@ -6414,13 +6414,13 @@
         <v>8</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
         <v>17</v>
       </c>
       <c r="O42" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -6438,10 +6438,10 @@
         <v>1.9</v>
       </c>
       <c r="U42" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V42" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W42" t="n">
         <v>1.29</v>
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="H43" t="n">
         <v>3.8</v>
@@ -6559,13 +6559,13 @@
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P43" t="n">
         <v>4.5</v>
@@ -6586,7 +6586,7 @@
         <v>2.5</v>
       </c>
       <c r="V43" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W43" t="n">
         <v>1.3</v>
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="H44" t="n">
         <v>3.6</v>
@@ -6704,13 +6704,13 @@
         <v>3.1</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
         <v>13</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
         <v>3.5</v>
@@ -6727,7 +6727,7 @@
         <v>3.25</v>
       </c>
       <c r="V44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W44" t="n">
         <v>1.4</v>
@@ -6845,13 +6845,13 @@
         <v>2.88</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P45" t="n">
         <v>3.4</v>
@@ -6868,7 +6868,7 @@
         <v>3.5</v>
       </c>
       <c r="V45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6974,7 +6974,7 @@
         <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J46" t="n">
         <v>3.1</v>
@@ -6986,13 +6986,13 @@
         <v>3.4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
         <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P46" t="n">
         <v>3.4</v>
@@ -7009,7 +7009,7 @@
         <v>3.5</v>
       </c>
       <c r="V46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W46" t="n">
         <v>1.4</v>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
@@ -7121,19 +7121,19 @@
         <v>2.6</v>
       </c>
       <c r="K47" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L47" t="n">
         <v>3.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N47" t="n">
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P47" t="n">
         <v>4.5</v>
@@ -7154,7 +7154,7 @@
         <v>2.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W47" t="n">
         <v>1.3</v>
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H48" t="n">
         <v>3.25</v>
@@ -7272,13 +7272,13 @@
         <v>3.75</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N48" t="n">
         <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -7295,7 +7295,7 @@
         <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W48" t="n">
         <v>1.5</v>
@@ -7578,13 +7578,13 @@
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R50" t="n">
         <v>2.05</v>
       </c>
       <c r="S50" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="T50" t="n">
         <v>1.62</v>
@@ -7697,28 +7697,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>5</v>
       </c>
       <c r="I51" t="n">
+        <v>9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L51" t="n">
         <v>8.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L51" t="n">
-        <v>8</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O51" t="n">
         <v>1.22</v>
@@ -7727,16 +7727,16 @@
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R51" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S51" t="n">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="T51" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="U51" t="n">
         <v>2.75</v>
@@ -7751,13 +7751,13 @@
         <v>3.25</v>
       </c>
       <c r="Y51" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z51" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA51" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
         <v>6</v>
@@ -7766,7 +7766,7 @@
         <v>9</v>
       </c>
       <c r="AD51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE51" t="n">
         <v>12</v>
@@ -7778,40 +7778,40 @@
         <v>12</v>
       </c>
       <c r="AH51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI51" t="n">
         <v>23</v>
       </c>
       <c r="AJ51" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK51" t="n">
         <v>301</v>
       </c>
       <c r="AL51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM51" t="n">
         <v>41</v>
       </c>
       <c r="AN51" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO51" t="n">
         <v>101</v>
       </c>
       <c r="AP51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ51" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AS51" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="52">
@@ -7846,13 +7846,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H52" t="n">
         <v>2.9</v>
       </c>
       <c r="I52" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
         <v>3.1</v>
@@ -7864,36 +7864,36 @@
         <v>3.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R52" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X52" t="n">
         <v>3</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W52" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X52" t="n">
-        <v>2.75</v>
       </c>
       <c r="Y52" t="n">
         <v>1.62</v>
@@ -7914,7 +7914,7 @@
         <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF52" t="n">
         <v>26</v>
@@ -8017,10 +8017,10 @@
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R53" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8158,7 +8158,7 @@
         <v>4.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R54" t="n">
         <v>2.3</v>
@@ -8297,13 +8297,13 @@
         <v>19</v>
       </c>
       <c r="O55" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P55" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R55" t="n">
         <v>2.6</v>
@@ -8418,31 +8418,31 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H56" t="n">
         <v>6.5</v>
       </c>
       <c r="I56" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="K56" t="n">
         <v>3</v>
       </c>
       <c r="L56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M56" t="n">
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O56" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P56" t="n">
         <v>8</v>
@@ -8456,10 +8456,10 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="V56" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W56" t="n">
         <v>1.18</v>
@@ -8468,7 +8468,7 @@
         <v>4.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z56" t="n">
         <v>2.2</v>
@@ -8483,7 +8483,7 @@
         <v>9.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE56" t="n">
         <v>10</v>
@@ -8495,7 +8495,7 @@
         <v>29</v>
       </c>
       <c r="AH56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI56" t="n">
         <v>19</v>
@@ -8504,7 +8504,7 @@
         <v>41</v>
       </c>
       <c r="AK56" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL56" t="n">
         <v>34</v>
@@ -8577,16 +8577,16 @@
         <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
         <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P57" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q57" t="n">
         <v>2.35</v>
@@ -8604,7 +8604,7 @@
         <v>4.33</v>
       </c>
       <c r="V57" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W57" t="n">
         <v>1.53</v>
@@ -8616,7 +8616,7 @@
         <v>2</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA57" t="n">
         <v>8.5</v>
@@ -8720,19 +8720,19 @@
         <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L58" t="n">
         <v>3.5</v>
       </c>
       <c r="M58" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
         <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P58" t="n">
         <v>2.5</v>
@@ -8753,7 +8753,7 @@
         <v>5.5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W58" t="n">
         <v>1.62</v>
@@ -8765,7 +8765,7 @@
         <v>2.2</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA58" t="n">
         <v>7</v>
@@ -8857,34 +8857,34 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H59" t="n">
         <v>2.9</v>
       </c>
       <c r="I59" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
       </c>
       <c r="K59" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L59" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N59" t="n">
         <v>7</v>
       </c>
       <c r="O59" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P59" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q59" t="n">
         <v>2.4</v>
@@ -8902,7 +8902,7 @@
         <v>4.5</v>
       </c>
       <c r="V59" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W59" t="n">
         <v>1.53</v>
@@ -8914,7 +8914,7 @@
         <v>2</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AA59" t="n">
         <v>8</v>
@@ -8950,7 +8950,7 @@
         <v>1000</v>
       </c>
       <c r="AL59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM59" t="n">
         <v>11</v>
@@ -8962,10 +8962,10 @@
         <v>23</v>
       </c>
       <c r="AP59" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ59" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR59" t="n">
         <v>1.8</v>
@@ -9006,13 +9006,13 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H60" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I60" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J60" t="n">
         <v>2.6</v>
@@ -9024,22 +9024,22 @@
         <v>4.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P60" t="n">
         <v>3.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R60" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -9047,7 +9047,7 @@
         <v>3.75</v>
       </c>
       <c r="V60" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W60" t="n">
         <v>1.44</v>
@@ -9056,10 +9056,10 @@
         <v>2.63</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA60" t="n">
         <v>6.5</v>
@@ -9086,13 +9086,13 @@
         <v>6.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ60" t="n">
         <v>51</v>
       </c>
       <c r="AK60" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL60" t="n">
         <v>11</v>
@@ -9107,7 +9107,7 @@
         <v>41</v>
       </c>
       <c r="AP60" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ60" t="n">
         <v>41</v>
@@ -9165,13 +9165,13 @@
         <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N61" t="n">
         <v>9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -9180,7 +9180,7 @@
         <v>2.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -9188,7 +9188,7 @@
         <v>3.75</v>
       </c>
       <c r="V61" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W61" t="n">
         <v>1.44</v>
@@ -9429,22 +9429,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="H63" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I63" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="J63" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="K63" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="L63" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="M63" t="n">
         <v>1.04</v>
@@ -9456,45 +9456,45 @@
         <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R63" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="V63" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="W63" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X63" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA63" t="n">
         <v>6.8</v>
       </c>
       <c r="AB63" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD63" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE63" t="n">
         <v>11.75</v>
@@ -9506,34 +9506,34 @@
         <v>9.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI63" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ63" t="n">
         <v>120</v>
       </c>
       <c r="AK63" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL63" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM63" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN63" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AO63" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AP63" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AQ63" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9570,16 +9570,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H64" t="n">
         <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K64" t="n">
         <v>2.2</v>
@@ -9588,22 +9588,22 @@
         <v>3.75</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N64" t="n">
         <v>11</v>
       </c>
       <c r="O64" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P64" t="n">
         <v>3.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R64" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
@@ -9611,7 +9611,7 @@
         <v>3.25</v>
       </c>
       <c r="V64" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W64" t="n">
         <v>1.4</v>
@@ -9629,13 +9629,13 @@
         <v>8</v>
       </c>
       <c r="AB64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC64" t="n">
         <v>9</v>
       </c>
       <c r="AD64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE64" t="n">
         <v>17</v>
@@ -9659,19 +9659,19 @@
         <v>201</v>
       </c>
       <c r="AL64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM64" t="n">
         <v>17</v>
       </c>
       <c r="AN64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO64" t="n">
         <v>34</v>
       </c>
       <c r="AP64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ64" t="n">
         <v>34</v>
@@ -9729,19 +9729,19 @@
         <v>4.75</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N65" t="n">
         <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P65" t="n">
         <v>4.33</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R65" t="n">
         <v>2.15</v>
@@ -9749,10 +9749,10 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V65" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W65" t="n">
         <v>1.33</v>
@@ -10011,13 +10011,13 @@
         <v>2.6</v>
       </c>
       <c r="M67" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N67" t="n">
         <v>9</v>
       </c>
       <c r="O67" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -10026,7 +10026,7 @@
         <v>2.15</v>
       </c>
       <c r="R67" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -10034,7 +10034,7 @@
         <v>3.75</v>
       </c>
       <c r="V67" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W67" t="n">
         <v>1.44</v>
@@ -10152,13 +10152,13 @@
         <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N68" t="n">
         <v>15</v>
       </c>
       <c r="O68" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P68" t="n">
         <v>4.33</v>
@@ -10172,10 +10172,10 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V68" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W68" t="n">
         <v>1.33</v>
@@ -10293,13 +10293,13 @@
         <v>6.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N69" t="n">
         <v>19</v>
       </c>
       <c r="O69" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P69" t="n">
         <v>5.5</v>
@@ -10320,7 +10320,7 @@
         <v>2.1</v>
       </c>
       <c r="V69" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W69" t="n">
         <v>1.25</v>
@@ -10438,13 +10438,13 @@
         <v>2.1</v>
       </c>
       <c r="M70" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N70" t="n">
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P70" t="n">
         <v>4.5</v>
@@ -10465,7 +10465,7 @@
         <v>2.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W70" t="n">
         <v>1.3</v>
@@ -10583,13 +10583,13 @@
         <v>3.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N71" t="n">
         <v>13</v>
       </c>
       <c r="O71" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -10606,7 +10606,7 @@
         <v>2.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W71" t="n">
         <v>1.33</v>
@@ -10724,13 +10724,13 @@
         <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N72" t="n">
         <v>21</v>
       </c>
       <c r="O72" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P72" t="n">
         <v>5.5</v>
@@ -10751,7 +10751,7 @@
         <v>2.2</v>
       </c>
       <c r="V72" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W72" t="n">
         <v>1.25</v>
@@ -10869,13 +10869,13 @@
         <v>8.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
         <v>13</v>
       </c>
       <c r="O73" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P73" t="n">
         <v>4.33</v>
@@ -10893,10 +10893,10 @@
         <v>1.8</v>
       </c>
       <c r="U73" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V73" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W73" t="n">
         <v>1.3</v>
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H74" t="n">
         <v>4.75</v>
@@ -11005,7 +11005,7 @@
         <v>5.25</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K74" t="n">
         <v>2.5</v>
@@ -11014,10 +11014,10 @@
         <v>5.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O74" t="n">
         <v>1.17</v>
@@ -11032,16 +11032,16 @@
         <v>2.4</v>
       </c>
       <c r="S74" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T74" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U74" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V74" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W74" t="n">
         <v>1.29</v>
@@ -11074,7 +11074,7 @@
         <v>21</v>
       </c>
       <c r="AG74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH74" t="n">
         <v>9.5</v>
@@ -11089,10 +11089,10 @@
         <v>151</v>
       </c>
       <c r="AL74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN74" t="n">
         <v>17</v>
@@ -11104,7 +11104,7 @@
         <v>41</v>
       </c>
       <c r="AQ74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11159,10 +11159,10 @@
         <v>6</v>
       </c>
       <c r="M75" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
         <v>1.4</v>
@@ -11433,16 +11433,16 @@
         <v>2.75</v>
       </c>
       <c r="I77" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="K77" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L77" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="M77" t="n">
         <v>1.14</v>
@@ -11465,16 +11465,16 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="V77" t="n">
         <v>1.15</v>
       </c>
       <c r="W77" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X77" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="Y77" t="n">
         <v>2.15</v>
@@ -11483,10 +11483,10 @@
         <v>1.62</v>
       </c>
       <c r="AA77" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB77" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AC77" t="n">
         <v>9.25</v>
@@ -11495,10 +11495,10 @@
         <v>21</v>
       </c>
       <c r="AE77" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF77" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG77" t="n">
         <v>5</v>
@@ -11516,19 +11516,19 @@
         <v>101</v>
       </c>
       <c r="AL77" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AM77" t="n">
         <v>19.5</v>
       </c>
       <c r="AN77" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO77" t="n">
         <v>70</v>
       </c>
       <c r="AP77" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ77" t="n">
         <v>70</v>
@@ -11858,22 +11858,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H80" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="M80" t="n">
         <v>1.06</v>
@@ -11896,10 +11896,10 @@
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V80" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W80" t="n">
         <v>1.44</v>
@@ -11914,22 +11914,22 @@
         <v>1.95</v>
       </c>
       <c r="AA80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB80" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC80" t="n">
         <v>12</v>
       </c>
       <c r="AD80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF80" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG80" t="n">
         <v>9.5</v>
@@ -11944,22 +11944,22 @@
         <v>51</v>
       </c>
       <c r="AK80" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL80" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN80" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO80" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AP80" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ80" t="n">
         <v>29</v>
@@ -12306,7 +12306,7 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O83" t="n">
         <v>1.22</v>
@@ -12447,7 +12447,7 @@
         <v>1.03</v>
       </c>
       <c r="N84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O84" t="n">
         <v>1.17</v>
@@ -12736,24 +12736,24 @@
         <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P86" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R86" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V86" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W86" t="n">
         <v>1.33</v>
@@ -12853,13 +12853,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H87" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J87" t="n">
         <v>2.2</v>
@@ -12871,10 +12871,10 @@
         <v>7</v>
       </c>
       <c r="M87" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>
@@ -12934,7 +12934,7 @@
         <v>8</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI87" t="n">
         <v>23</v>
@@ -13032,10 +13032,10 @@
         <v>3.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R88" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S88" t="n">
         <v>2.6</v>
@@ -14016,38 +14016,38 @@
         <v>1.62</v>
       </c>
       <c r="H95" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I95" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J95" t="n">
         <v>2.22</v>
       </c>
       <c r="K95" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L95" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P95" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R95" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="V95" t="n">
         <v>1.3</v>
@@ -14056,7 +14056,7 @@
         <v>1.4</v>
       </c>
       <c r="X95" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="Y95" t="n">
         <v>1.83</v>
@@ -14068,7 +14068,7 @@
         <v>6.4</v>
       </c>
       <c r="AB95" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AC95" t="n">
         <v>8</v>
@@ -14080,13 +14080,13 @@
         <v>13.5</v>
       </c>
       <c r="AF95" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG95" t="n">
         <v>9.75</v>
       </c>
       <c r="AH95" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AI95" t="n">
         <v>16.5</v>
@@ -14104,13 +14104,13 @@
         <v>30</v>
       </c>
       <c r="AN95" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO95" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP95" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ95" t="n">
         <v>55</v>
@@ -14150,22 +14150,22 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J96" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
@@ -14180,18 +14180,18 @@
         <v>3.4</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R96" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V96" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W96" t="n">
         <v>1.4</v>
@@ -14215,7 +14215,7 @@
         <v>8.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE96" t="n">
         <v>13</v>
@@ -14227,7 +14227,7 @@
         <v>10</v>
       </c>
       <c r="AH96" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI96" t="n">
         <v>19</v>
@@ -14239,22 +14239,22 @@
         <v>401</v>
       </c>
       <c r="AL96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM96" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN96" t="n">
         <v>17</v>
       </c>
       <c r="AO96" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP96" t="n">
         <v>41</v>
       </c>
       <c r="AQ96" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14576,10 +14576,10 @@
         <v>3</v>
       </c>
       <c r="H99" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J99" t="n">
         <v>3.6</v>
@@ -15017,7 +15017,7 @@
         <v>1.02</v>
       </c>
       <c r="N102" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O102" t="n">
         <v>1.14</v>
@@ -15302,16 +15302,16 @@
         <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P104" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R104" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -15526,10 +15526,10 @@
         <v>41</v>
       </c>
       <c r="AR105" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="106">
@@ -15735,10 +15735,10 @@
         <v>3.5</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R107" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
@@ -16128,13 +16128,13 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H110" t="n">
         <v>3.5</v>
       </c>
       <c r="I110" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J110" t="n">
         <v>4</v>
@@ -16143,7 +16143,7 @@
         <v>2.1</v>
       </c>
       <c r="L110" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M110" t="n">
         <v>1.06</v>
@@ -16158,10 +16158,10 @@
         <v>3.25</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R110" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
@@ -16199,7 +16199,7 @@
         <v>29</v>
       </c>
       <c r="AF110" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG110" t="n">
         <v>9.5</v>
@@ -16220,7 +16220,7 @@
         <v>7</v>
       </c>
       <c r="AM110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN110" t="n">
         <v>9</v>
@@ -16440,7 +16440,7 @@
         <v>4.33</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R112" t="n">
         <v>2.15</v>
@@ -16558,7 +16558,7 @@
         <v>1.55</v>
       </c>
       <c r="H113" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I113" t="n">
         <v>5.3</v>
@@ -16581,18 +16581,18 @@
         <v>3.55</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R113" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="V113" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr"/>
@@ -16603,7 +16603,7 @@
         <v>1.91</v>
       </c>
       <c r="AA113" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AB113" t="n">
         <v>7.7</v>
@@ -16615,7 +16615,7 @@
         <v>11.25</v>
       </c>
       <c r="AE113" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF113" t="n">
         <v>23</v>
@@ -16624,7 +16624,7 @@
         <v>12.5</v>
       </c>
       <c r="AH113" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI113" t="n">
         <v>15.5</v>
@@ -16636,7 +16636,7 @@
         <v>450</v>
       </c>
       <c r="AL113" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM113" t="n">
         <v>35</v>
@@ -16688,22 +16688,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I114" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K114" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L114" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
@@ -16711,21 +16711,21 @@
         <v>1.23</v>
       </c>
       <c r="P114" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="Q114" t="n">
         <v>1.7</v>
       </c>
       <c r="R114" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="V114" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
@@ -16736,31 +16736,31 @@
         <v>1.8</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB114" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AC114" t="n">
         <v>8</v>
       </c>
       <c r="AD114" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE114" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF114" t="n">
         <v>25</v>
       </c>
       <c r="AG114" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH114" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI114" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ114" t="n">
         <v>75</v>
@@ -16769,22 +16769,22 @@
         <v>600</v>
       </c>
       <c r="AL114" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM114" t="n">
         <v>40</v>
       </c>
       <c r="AN114" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO114" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP114" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AQ114" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
         <v>2.5</v>
       </c>
       <c r="R116" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
@@ -17132,7 +17132,7 @@
         <v>2.6</v>
       </c>
       <c r="R117" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -17262,16 +17262,16 @@
         <v>5.5</v>
       </c>
       <c r="M118" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O118" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P118" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q118" t="n">
         <v>2.7</v>
@@ -17285,7 +17285,7 @@
         <v>5.5</v>
       </c>
       <c r="V118" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W118" t="n">
         <v>1.62</v>
@@ -17351,10 +17351,10 @@
         <v>51</v>
       </c>
       <c r="AR118" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="119">
@@ -17407,13 +17407,13 @@
         <v>5.5</v>
       </c>
       <c r="M119" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N119" t="n">
         <v>15</v>
       </c>
       <c r="O119" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P119" t="n">
         <v>4.33</v>
@@ -17431,10 +17431,10 @@
         <v>1.93</v>
       </c>
       <c r="U119" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V119" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W119" t="n">
         <v>1.33</v>
@@ -17552,13 +17552,13 @@
         <v>2.75</v>
       </c>
       <c r="M120" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N120" t="n">
         <v>17</v>
       </c>
       <c r="O120" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P120" t="n">
         <v>5</v>
@@ -17576,10 +17576,10 @@
         <v>1.93</v>
       </c>
       <c r="U120" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V120" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W120" t="n">
         <v>1.29</v>
@@ -17697,16 +17697,16 @@
         <v>3.75</v>
       </c>
       <c r="M121" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N121" t="n">
         <v>8</v>
       </c>
       <c r="O121" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P121" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q121" t="n">
         <v>2.35</v>
@@ -17720,7 +17720,7 @@
         <v>4.33</v>
       </c>
       <c r="V121" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W121" t="n">
         <v>1.53</v>
@@ -17841,7 +17841,7 @@
         <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O122" t="n">
         <v>1.2</v>
@@ -17874,7 +17874,7 @@
         <v>3.25</v>
       </c>
       <c r="Y122" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z122" t="n">
         <v>2.25</v>
@@ -18026,7 +18026,7 @@
         <v>2.1</v>
       </c>
       <c r="Z123" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA123" t="n">
         <v>9</v>
@@ -18080,10 +18080,10 @@
         <v>41</v>
       </c>
       <c r="AR123" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="124">
@@ -18154,10 +18154,10 @@
         <v>2.3</v>
       </c>
       <c r="S124" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="T124" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="U124" t="n">
         <v>2.5</v>
@@ -18172,10 +18172,10 @@
         <v>3.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z124" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA124" t="n">
         <v>8</v>
@@ -18297,10 +18297,10 @@
         <v>3.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R125" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
@@ -18317,7 +18317,7 @@
         <v>2.75</v>
       </c>
       <c r="Y125" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z125" t="n">
         <v>2.05</v>
@@ -18458,7 +18458,7 @@
         <v>3.25</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Z126" t="n">
         <v>2.2</v>
@@ -18599,10 +18599,10 @@
         <v>3.25</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA127" t="n">
         <v>7.5</v>
@@ -19397,28 +19397,28 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H133" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I133" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J133" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K133" t="n">
         <v>2.5</v>
       </c>
       <c r="L133" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M133" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N133" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O133" t="n">
         <v>1.22</v>
@@ -19447,10 +19447,10 @@
         <v>3.25</v>
       </c>
       <c r="Y133" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA133" t="n">
         <v>19</v>
@@ -19459,10 +19459,10 @@
         <v>41</v>
       </c>
       <c r="AC133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD133" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE133" t="n">
         <v>51</v>
@@ -19474,16 +19474,16 @@
         <v>13</v>
       </c>
       <c r="AH133" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ133" t="n">
         <v>67</v>
       </c>
       <c r="AK133" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL133" t="n">
         <v>7</v>
@@ -19492,7 +19492,7 @@
         <v>6.5</v>
       </c>
       <c r="AN133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO133" t="n">
         <v>8.5</v>
@@ -19683,28 +19683,28 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H135" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I135" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J135" t="n">
         <v>3.75</v>
       </c>
       <c r="K135" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L135" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M135" t="n">
         <v>1.07</v>
       </c>
       <c r="N135" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O135" t="n">
         <v>1.36</v>
@@ -19739,7 +19739,7 @@
         <v>1.8</v>
       </c>
       <c r="AA135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB135" t="n">
         <v>15</v>
@@ -19751,16 +19751,16 @@
         <v>34</v>
       </c>
       <c r="AE135" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF135" t="n">
         <v>41</v>
       </c>
       <c r="AG135" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH135" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI135" t="n">
         <v>17</v>
@@ -19775,13 +19775,13 @@
         <v>7</v>
       </c>
       <c r="AM135" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN135" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO135" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP135" t="n">
         <v>21</v>
@@ -20003,10 +20003,10 @@
         <v>2.63</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R137" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
@@ -20080,10 +20080,10 @@
         <v>41</v>
       </c>
       <c r="AR137" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="138">
@@ -20559,13 +20559,13 @@
         <v>2.75</v>
       </c>
       <c r="M141" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N141" t="n">
         <v>9</v>
       </c>
       <c r="O141" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P141" t="n">
         <v>3.4</v>
@@ -20582,7 +20582,7 @@
         <v>3.5</v>
       </c>
       <c r="V141" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W141" t="n">
         <v>1.44</v>
@@ -20691,13 +20691,13 @@
         <v>3.5</v>
       </c>
       <c r="J142" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K142" t="n">
         <v>1.98</v>
       </c>
       <c r="L142" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M142" t="n">
         <v>1.09</v>
@@ -20709,10 +20709,10 @@
         <v>1.4</v>
       </c>
       <c r="P142" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="R142" t="n">
         <v>1.62</v>
@@ -20720,7 +20720,7 @@
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="V142" t="n">
         <v>1.23</v>
@@ -20729,7 +20729,7 @@
         <v>1.5</v>
       </c>
       <c r="X142" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Y142" t="n">
         <v>1.93</v>
@@ -20738,28 +20738,28 @@
         <v>1.78</v>
       </c>
       <c r="AA142" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB142" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC142" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AC142" t="n">
-        <v>9</v>
       </c>
       <c r="AD142" t="n">
         <v>18.5</v>
       </c>
       <c r="AE142" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF142" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG142" t="n">
         <v>6.3</v>
       </c>
       <c r="AH142" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AI142" t="n">
         <v>16</v>
@@ -20783,7 +20783,7 @@
         <v>50</v>
       </c>
       <c r="AP142" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ142" t="n">
         <v>45</v>
@@ -20964,72 +20964,68 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H144" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I144" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J144" t="n">
         <v>5.5</v>
       </c>
       <c r="K144" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="L144" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M144" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N144" t="n">
-        <v>34</v>
-      </c>
+        <v>1.67</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
       <c r="O144" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P144" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="R144" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="V144" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W144" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="X144" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y144" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Z144" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AA144" t="n">
         <v>41</v>
       </c>
       <c r="AB144" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC144" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD144" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE144" t="n">
         <v>41</v>
@@ -21041,7 +21037,7 @@
         <v>34</v>
       </c>
       <c r="AH144" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI144" t="n">
         <v>15</v>
@@ -21050,22 +21046,22 @@
         <v>29</v>
       </c>
       <c r="AK144" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL144" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM144" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN144" t="n">
         <v>11</v>
       </c>
       <c r="AO144" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP144" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ144" t="n">
         <v>15</v>
@@ -21108,66 +21104,62 @@
         <v>1.22</v>
       </c>
       <c r="H145" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I145" t="n">
         <v>7</v>
       </c>
       <c r="J145" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K145" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L145" t="n">
         <v>7</v>
       </c>
-      <c r="M145" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N145" t="n">
-        <v>34</v>
-      </c>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
       <c r="O145" t="n">
         <v>1.04</v>
       </c>
       <c r="P145" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="R145" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="V145" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W145" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X145" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y145" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Z145" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AA145" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB145" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC145" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD145" t="n">
         <v>11</v>
@@ -21182,7 +21174,7 @@
         <v>34</v>
       </c>
       <c r="AH145" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI145" t="n">
         <v>21</v>
@@ -21191,10 +21183,10 @@
         <v>41</v>
       </c>
       <c r="AK145" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL145" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM145" t="n">
         <v>51</v>
@@ -21203,13 +21195,13 @@
         <v>23</v>
       </c>
       <c r="AO145" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP145" t="n">
         <v>41</v>
       </c>
       <c r="AQ145" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR145" t="inlineStr"/>
       <c r="AS145" t="inlineStr"/>
@@ -21255,45 +21247,45 @@
         <v>4.1</v>
       </c>
       <c r="J146" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="K146" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L146" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="M146" t="n">
         <v>1.06</v>
       </c>
       <c r="N146" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O146" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P146" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q146" t="n">
         <v>1.85</v>
       </c>
       <c r="R146" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V146" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W146" t="n">
         <v>1.42</v>
       </c>
       <c r="X146" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="Y146" t="n">
         <v>1.75</v>
@@ -21302,10 +21294,10 @@
         <v>1.98</v>
       </c>
       <c r="AA146" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB146" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC146" t="n">
         <v>8.75</v>
@@ -21317,28 +21309,28 @@
         <v>15.5</v>
       </c>
       <c r="AF146" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG146" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AH146" t="n">
         <v>7.1</v>
       </c>
       <c r="AI146" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ146" t="n">
         <v>70</v>
       </c>
       <c r="AK146" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL146" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM146" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN146" t="n">
         <v>14</v>
@@ -21350,7 +21342,7 @@
         <v>40</v>
       </c>
       <c r="AQ146" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR146" t="inlineStr"/>
       <c r="AS146" t="inlineStr"/>
@@ -21528,22 +21520,22 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H148" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="I148" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J148" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="K148" t="n">
         <v>2.2</v>
       </c>
       <c r="L148" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="M148" t="n">
         <v>1.06</v>
@@ -21555,21 +21547,21 @@
         <v>1.29</v>
       </c>
       <c r="P148" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R148" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="V148" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="W148" t="n">
         <v>1.4</v>
@@ -21578,25 +21570,25 @@
         <v>2.7</v>
       </c>
       <c r="Y148" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z148" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA148" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB148" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AC148" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AD148" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AE148" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AF148" t="n">
         <v>65</v>
@@ -21605,34 +21597,34 @@
         <v>7.5</v>
       </c>
       <c r="AH148" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI148" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ148" t="n">
         <v>100</v>
       </c>
       <c r="AK148" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL148" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AM148" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AN148" t="n">
         <v>8.25</v>
       </c>
       <c r="AO148" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AP148" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ148" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR148" t="inlineStr"/>
       <c r="AS148" t="inlineStr"/>
@@ -21669,22 +21661,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H149" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I149" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="J149" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="K149" t="n">
         <v>2.32</v>
       </c>
       <c r="L149" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M149" t="n">
         <v>1.04</v>
@@ -21696,21 +21688,21 @@
         <v>1.21</v>
       </c>
       <c r="P149" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R149" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V149" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="W149" t="n">
         <v>1.33</v>
@@ -21725,19 +21717,19 @@
         <v>1.98</v>
       </c>
       <c r="AA149" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB149" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AC149" t="n">
         <v>8</v>
       </c>
       <c r="AD149" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AE149" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF149" t="n">
         <v>23</v>
@@ -21746,10 +21738,10 @@
         <v>8.5</v>
       </c>
       <c r="AH149" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI149" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ149" t="n">
         <v>65</v>
@@ -21758,19 +21750,19 @@
         <v>450</v>
       </c>
       <c r="AL149" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AM149" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AN149" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AO149" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AP149" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AQ149" t="n">
         <v>45</v>
@@ -22142,10 +22134,10 @@
         <v>2.63</v>
       </c>
       <c r="Y152" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA152" t="n">
         <v>7.5</v>
@@ -22283,10 +22275,10 @@
         <v>2.63</v>
       </c>
       <c r="Y153" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z153" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA153" t="n">
         <v>9</v>
@@ -22374,7 +22366,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H154" t="n">
         <v>3.5</v>
@@ -22427,7 +22419,7 @@
         <v>2.1</v>
       </c>
       <c r="Z154" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA154" t="n">
         <v>6</v>
@@ -22565,7 +22557,7 @@
         <v>2.75</v>
       </c>
       <c r="Y155" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z155" t="n">
         <v>2</v>
@@ -22656,7 +22648,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H156" t="n">
         <v>3.25</v>
@@ -22709,7 +22701,7 @@
         <v>2.1</v>
       </c>
       <c r="Z156" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA156" t="n">
         <v>6</v>
@@ -22801,7 +22793,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H157" t="n">
         <v>5</v>
@@ -22831,10 +22823,10 @@
         <v>3.4</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R157" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
@@ -22854,7 +22846,7 @@
         <v>3</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AA157" t="n">
         <v>5</v>
@@ -24365,7 +24357,7 @@
         <v>1.7</v>
       </c>
       <c r="J168" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="K168" t="n">
         <v>2.35</v>
@@ -24383,13 +24375,13 @@
         <v>1.18</v>
       </c>
       <c r="P168" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q168" t="n">
         <v>1.55</v>
       </c>
       <c r="R168" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
@@ -24403,13 +24395,13 @@
         <v>1.3</v>
       </c>
       <c r="X168" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Y168" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Z168" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AA168" t="n">
         <v>16.5</v>
@@ -24454,7 +24446,7 @@
         <v>8</v>
       </c>
       <c r="AO168" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP168" t="n">
         <v>12</v>
@@ -24783,16 +24775,16 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H171" t="n">
         <v>4.1</v>
       </c>
       <c r="I171" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J171" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K171" t="n">
         <v>2.4</v>
@@ -24843,16 +24835,16 @@
         <v>2.25</v>
       </c>
       <c r="AA171" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB171" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC171" t="n">
         <v>8.5</v>
       </c>
       <c r="AD171" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE171" t="n">
         <v>12</v>
@@ -24864,7 +24856,7 @@
         <v>17</v>
       </c>
       <c r="AH171" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI171" t="n">
         <v>13</v>
@@ -24873,7 +24865,7 @@
         <v>41</v>
       </c>
       <c r="AK171" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL171" t="n">
         <v>17</v>
@@ -24885,13 +24877,13 @@
         <v>15</v>
       </c>
       <c r="AO171" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP171" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ171" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR171" t="inlineStr"/>
       <c r="AS171" t="inlineStr"/>
@@ -25982,98 +25974,108 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="H180" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="I180" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="J180" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="K180" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="L180" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P180" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="R180" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="V180" t="n">
-        <v>2.42</v>
+        <v>2.2</v>
       </c>
       <c r="W180" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X180" t="n">
-        <v>4.9</v>
+        <v>4.55</v>
       </c>
       <c r="Y180" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="Z180" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AA180" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB180" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AC180" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AD180" t="n">
         <v>5.9</v>
       </c>
       <c r="AE180" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AF180" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AG180" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH180" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="AI180" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AJ180" t="n">
-        <v>700</v>
-      </c>
-      <c r="AK180" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>101</v>
+      </c>
       <c r="AL180" t="n">
-        <v>350</v>
-      </c>
-      <c r="AM180" t="inlineStr"/>
+        <v>200</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>101</v>
+      </c>
       <c r="AN180" t="n">
-        <v>450</v>
-      </c>
-      <c r="AO180" t="inlineStr"/>
-      <c r="AP180" t="inlineStr"/>
-      <c r="AQ180" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>101</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>800</v>
+      </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
     </row>
@@ -26115,16 +26117,16 @@
         <v>3.8</v>
       </c>
       <c r="I181" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J181" t="n">
         <v>3.15</v>
       </c>
       <c r="K181" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L181" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="M181" t="n">
         <v>1.03</v>
@@ -26136,7 +26138,7 @@
         <v>1.17</v>
       </c>
       <c r="P181" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="Q181" t="n">
         <v>1.52</v>
@@ -26156,7 +26158,7 @@
         <v>1.27</v>
       </c>
       <c r="X181" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Y181" t="n">
         <v>1.47</v>
@@ -26168,16 +26170,16 @@
         <v>13.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC181" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD181" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE181" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF181" t="n">
         <v>22</v>
@@ -26186,7 +26188,7 @@
         <v>9.25</v>
       </c>
       <c r="AH181" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI181" t="n">
         <v>11.75</v>
@@ -26204,16 +26206,16 @@
         <v>13.5</v>
       </c>
       <c r="AN181" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AO181" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP181" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ181" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR181" t="inlineStr"/>
       <c r="AS181" t="inlineStr"/>
@@ -26250,22 +26252,22 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H182" t="n">
         <v>3.7</v>
       </c>
       <c r="I182" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="J182" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K182" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L182" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="M182" t="n">
         <v>1.04</v>
@@ -26294,31 +26296,31 @@
         <v>1.5</v>
       </c>
       <c r="W182" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X182" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Y182" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Z182" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AA182" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB182" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC182" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD182" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE182" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF182" t="n">
         <v>28</v>
@@ -26339,22 +26341,22 @@
         <v>250</v>
       </c>
       <c r="AL182" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM182" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AN182" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO182" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP182" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ182" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR182" t="inlineStr"/>
       <c r="AS182" t="inlineStr"/>
@@ -26391,7 +26393,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>3.4</v>
@@ -26409,10 +26411,10 @@
         <v>5.5</v>
       </c>
       <c r="M183" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N183" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O183" t="n">
         <v>1.44</v>
@@ -26450,13 +26452,13 @@
         <v>5.5</v>
       </c>
       <c r="AB183" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC183" t="n">
         <v>9</v>
       </c>
       <c r="AD183" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE183" t="n">
         <v>17</v>
@@ -26483,7 +26485,7 @@
         <v>10</v>
       </c>
       <c r="AM183" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN183" t="n">
         <v>17</v>
@@ -26681,16 +26683,16 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H185" t="n">
         <v>3.1</v>
       </c>
       <c r="I185" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J185" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K185" t="n">
         <v>1.91</v>
@@ -26705,10 +26707,10 @@
         <v>7</v>
       </c>
       <c r="O185" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P185" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q185" t="n">
         <v>2.5</v>
@@ -26746,7 +26748,7 @@
         <v>11</v>
       </c>
       <c r="AD185" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE185" t="n">
         <v>26</v>
@@ -26788,10 +26790,10 @@
         <v>41</v>
       </c>
       <c r="AR185" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="186">
@@ -26826,13 +26828,13 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H186" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I186" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J186" t="n">
         <v>7</v>
@@ -26844,10 +26846,10 @@
         <v>2.1</v>
       </c>
       <c r="M186" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N186" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O186" t="n">
         <v>1.33</v>
@@ -26903,7 +26905,7 @@
         <v>9</v>
       </c>
       <c r="AH186" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI186" t="n">
         <v>21</v>
@@ -26921,13 +26923,13 @@
         <v>6.5</v>
       </c>
       <c r="AN186" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO186" t="n">
         <v>10</v>
       </c>
       <c r="AP186" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ186" t="n">
         <v>34</v>
@@ -26967,22 +26969,22 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H187" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I187" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J187" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K187" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L187" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M187" t="n">
         <v>1.03</v>
@@ -27030,7 +27032,7 @@
         <v>11</v>
       </c>
       <c r="AB187" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC187" t="n">
         <v>9</v>
@@ -27063,7 +27065,7 @@
         <v>13</v>
       </c>
       <c r="AM187" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN187" t="n">
         <v>11</v>
@@ -27075,7 +27077,7 @@
         <v>21</v>
       </c>
       <c r="AQ187" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR187" t="inlineStr"/>
       <c r="AS187" t="inlineStr"/>
@@ -27112,22 +27114,22 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H188" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I188" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J188" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K188" t="n">
         <v>2.2</v>
       </c>
       <c r="L188" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M188" t="n">
         <v>1.06</v>
@@ -27136,24 +27138,24 @@
         <v>10</v>
       </c>
       <c r="O188" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P188" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q188" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R188" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V188" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W188" t="n">
         <v>1.4</v>
@@ -27162,28 +27164,28 @@
         <v>2.75</v>
       </c>
       <c r="Y188" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z188" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA188" t="n">
         <v>6.5</v>
       </c>
       <c r="AB188" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC188" t="n">
         <v>8.5</v>
       </c>
       <c r="AD188" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE188" t="n">
         <v>13</v>
       </c>
-      <c r="AE188" t="n">
-        <v>15</v>
-      </c>
       <c r="AF188" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG188" t="n">
         <v>10</v>
@@ -27201,13 +27203,13 @@
         <v>301</v>
       </c>
       <c r="AL188" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM188" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN188" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO188" t="n">
         <v>51</v>
@@ -27680,10 +27682,10 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="H192" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I192" t="n">
         <v>2.55</v>
@@ -27692,10 +27694,10 @@
         <v>3.45</v>
       </c>
       <c r="K192" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L192" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
@@ -27706,7 +27708,7 @@
         <v>2.47</v>
       </c>
       <c r="Q192" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R192" t="n">
         <v>1.53</v>
@@ -27714,10 +27716,10 @@
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="V192" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W192" t="n">
         <v>1.47</v>
@@ -27726,25 +27728,25 @@
         <v>2.35</v>
       </c>
       <c r="Y192" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Z192" t="n">
         <v>1.75</v>
       </c>
       <c r="AA192" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB192" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC192" t="n">
         <v>10.5</v>
       </c>
       <c r="AD192" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE192" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF192" t="n">
         <v>40</v>
@@ -27753,19 +27755,19 @@
         <v>7.1</v>
       </c>
       <c r="AH192" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI192" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ192" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK192" t="n">
         <v>800</v>
       </c>
       <c r="AL192" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AM192" t="n">
         <v>11.75</v>
@@ -27817,30 +27819,30 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="H193" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I193" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="J193" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K193" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L193" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P193" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q193" t="n">
         <v>1.98</v>
@@ -27851,10 +27853,10 @@
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="V193" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W193" t="n">
         <v>1.39</v>
@@ -27863,61 +27865,61 @@
         <v>2.57</v>
       </c>
       <c r="Y193" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="Z193" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AA193" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AB193" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AC193" t="n">
         <v>8.25</v>
       </c>
       <c r="AD193" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE193" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF193" t="n">
         <v>29</v>
       </c>
       <c r="AG193" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH193" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI193" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ193" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO193" t="n">
         <v>80</v>
       </c>
-      <c r="AK193" t="n">
-        <v>700</v>
-      </c>
-      <c r="AL193" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AM193" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN193" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO193" t="n">
-        <v>70</v>
-      </c>
       <c r="AP193" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ193" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR193" t="inlineStr"/>
       <c r="AS193" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -722,16 +722,16 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S2" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -867,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="R3" t="n">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>3.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1294,10 +1294,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.83</v>
@@ -1703,7 +1703,7 @@
         <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
         <v>7.5</v>
@@ -1760,7 +1760,7 @@
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
         <v>11</v>
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>7</v>
@@ -1886,10 +1886,10 @@
         <v>4.33</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
@@ -1898,10 +1898,10 @@
         <v>9</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
@@ -1913,10 +1913,10 @@
         <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1937,7 +1937,7 @@
         <v>81</v>
       </c>
       <c r="AP10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -1995,10 +1995,10 @@
         <v>2.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
@@ -2559,13 +2559,13 @@
         <v>2.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P15" t="n">
         <v>3.5</v>
@@ -2582,7 +2582,7 @@
         <v>3.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2700,13 +2700,13 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
         <v>19</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P16" t="n">
         <v>5.5</v>
@@ -2727,7 +2727,7 @@
         <v>2.25</v>
       </c>
       <c r="V16" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
         <v>1.25</v>
@@ -2845,13 +2845,13 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P17" t="n">
         <v>4.5</v>
@@ -2872,7 +2872,7 @@
         <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W17" t="n">
         <v>1.3</v>
@@ -2972,16 +2972,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H18" t="n">
         <v>4.75</v>
       </c>
       <c r="I18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K18" t="n">
         <v>2.5</v>
@@ -2993,19 +2993,19 @@
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S18" t="n">
         <v>1.98</v>
@@ -3014,10 +3014,10 @@
         <v>1.88</v>
       </c>
       <c r="U18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W18" t="n">
         <v>1.3</v>
@@ -3062,7 +3062,7 @@
         <v>51</v>
       </c>
       <c r="AK18" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL18" t="n">
         <v>21</v>
@@ -3126,7 +3126,7 @@
         <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="K19" t="n">
         <v>2.75</v>
@@ -3138,19 +3138,19 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O19" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P19" t="n">
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
         <v>2.08</v>
@@ -3159,10 +3159,10 @@
         <v>1.82</v>
       </c>
       <c r="U19" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="W19" t="n">
         <v>1.3</v>
@@ -3177,7 +3177,7 @@
         <v>1.44</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB19" t="n">
         <v>5.5</v>
@@ -3208,16 +3208,16 @@
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN19" t="n">
         <v>41</v>
       </c>
       <c r="AO19" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AP19" t="n">
         <v>151</v>
@@ -3269,10 +3269,10 @@
         <v>8.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="K20" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3284,7 +3284,7 @@
         <v>26</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P20" t="n">
         <v>6.5</v>
@@ -3298,10 +3298,10 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="V20" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="W20" t="n">
         <v>1.2</v>
@@ -3413,7 +3413,7 @@
         <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L21" t="n">
         <v>3.75</v>
@@ -3508,10 +3508,10 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="22">
@@ -3651,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="23">
@@ -3701,16 +3701,16 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L23" t="n">
         <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
         <v>1.73</v>
@@ -3743,10 +3743,10 @@
         <v>2.03</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA23" t="n">
         <v>5</v>
@@ -3755,7 +3755,7 @@
         <v>9.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>23</v>
@@ -3776,7 +3776,7 @@
         <v>23</v>
       </c>
       <c r="AJ23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK23" t="n">
         <v>451</v>
@@ -3847,10 +3847,10 @@
         <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K24" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L24" t="n">
         <v>4.5</v>
@@ -3859,7 +3859,7 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3919,7 +3919,7 @@
         <v>7.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI24" t="n">
         <v>19</v>
@@ -3949,10 +3949,10 @@
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="25">
@@ -3996,19 +3996,19 @@
         <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.4</v>
@@ -4017,16 +4017,16 @@
         <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U25" t="n">
         <v>4.33</v>
@@ -4035,10 +4035,10 @@
         <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y25" t="n">
         <v>1.95</v>
@@ -4050,7 +4050,7 @@
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
         <v>10</v>
@@ -4065,7 +4065,7 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH25" t="n">
         <v>5.5</v>
@@ -4077,7 +4077,7 @@
         <v>51</v>
       </c>
       <c r="AK25" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL25" t="n">
         <v>8.5</v>
@@ -4157,7 +4157,7 @@
         <v>1.17</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O26" t="n">
         <v>1.8</v>
@@ -4186,10 +4186,10 @@
         <v>2</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AA26" t="n">
         <v>5.5</v>
@@ -4204,7 +4204,7 @@
         <v>34</v>
       </c>
       <c r="AE26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
@@ -4295,16 +4295,16 @@
         <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P27" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
         <v>2.88</v>
@@ -4431,7 +4431,7 @@
         <v>3.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
         <v>1.8</v>
@@ -4440,10 +4440,10 @@
         <v>4.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>1.67</v>
@@ -4481,7 +4481,7 @@
         <v>5.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC28" t="n">
         <v>11</v>
@@ -4511,7 +4511,7 @@
         <v>101</v>
       </c>
       <c r="AL28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
@@ -4581,10 +4581,10 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>1.67</v>
@@ -4607,19 +4607,19 @@
         <v>1.1</v>
       </c>
       <c r="W29" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="X29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB29" t="n">
         <v>11</v>
@@ -4640,13 +4640,13 @@
         <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
         <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="n">
         <v>101</v>
@@ -4754,10 +4754,10 @@
         <v>2.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA30" t="n">
         <v>5.5</v>
@@ -4778,13 +4778,13 @@
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>81</v>
@@ -4914,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE31" t="n">
         <v>26</v>
@@ -5144,19 +5144,19 @@
         <v>3.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K33" t="n">
         <v>1.8</v>
       </c>
       <c r="L33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
         <v>1.67</v>
@@ -5194,7 +5194,7 @@
         <v>5.5</v>
       </c>
       <c r="AB33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
         <v>12</v>
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I34" t="n">
         <v>3.3</v>
@@ -5558,13 +5558,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J36" t="n">
         <v>3.25</v>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H37" t="n">
         <v>3.7</v>
@@ -5846,7 +5846,7 @@
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J38" t="n">
         <v>3.6</v>
@@ -5962,7 +5962,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -5981,87 +5981,87 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="H39" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="I39" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="J39" t="n">
         <v>7.4</v>
       </c>
       <c r="K39" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="L39" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="M39" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="O39" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="R39" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>3.1</v>
+        <v>2.85</v>
       </c>
       <c r="V39" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="W39" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X39" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="Y39" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AA39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE39" t="n">
         <v>110</v>
       </c>
       <c r="AF39" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG39" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AH39" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AI39" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ39" t="n">
         <v>150</v>
@@ -6070,22 +6070,22 @@
         <v>800</v>
       </c>
       <c r="AL39" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="AM39" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AN39" t="n">
         <v>8.75</v>
       </c>
       <c r="AO39" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AP39" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AQ39" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
@@ -6259,95 +6259,95 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H41" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I41" t="n">
         <v>6.3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="K41" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="L41" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="P41" t="n">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="R41" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="V41" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="W41" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="X41" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="Y41" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AA41" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB41" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AC41" t="n">
         <v>8.5</v>
       </c>
       <c r="AD41" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE41" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AG41" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AH41" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI41" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ41" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AK41" t="n">
-        <v>101</v>
+        <v>1000</v>
       </c>
       <c r="AL41" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN41" t="n">
         <v>21</v>
@@ -6356,10 +6356,10 @@
         <v>150</v>
       </c>
       <c r="AP41" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ41" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
         <v>5.5</v>
@@ -6405,22 +6405,22 @@
         <v>8.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K42" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L42" t="n">
         <v>8</v>
       </c>
       <c r="M42" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
         <v>17</v>
       </c>
       <c r="O42" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -6432,16 +6432,16 @@
         <v>2.35</v>
       </c>
       <c r="S42" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="T42" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U42" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="V42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W42" t="n">
         <v>1.29</v>
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H43" t="n">
         <v>3.8</v>
@@ -6559,13 +6559,13 @@
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
         <v>4.5</v>
@@ -6577,16 +6577,16 @@
         <v>2.25</v>
       </c>
       <c r="S43" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="T43" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="U43" t="n">
         <v>2.5</v>
       </c>
       <c r="V43" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W43" t="n">
         <v>1.3</v>
@@ -6686,13 +6686,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="H44" t="n">
         <v>3.6</v>
       </c>
       <c r="I44" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J44" t="n">
         <v>3.4</v>
@@ -6704,22 +6704,22 @@
         <v>3.1</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
         <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="R44" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6727,7 +6727,7 @@
         <v>3.25</v>
       </c>
       <c r="V44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W44" t="n">
         <v>1.4</v>
@@ -6745,7 +6745,7 @@
         <v>9.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC44" t="n">
         <v>10</v>
@@ -6775,7 +6775,7 @@
         <v>201</v>
       </c>
       <c r="AL44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM44" t="n">
         <v>12</v>
@@ -6845,13 +6845,13 @@
         <v>2.88</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
         <v>3.4</v>
@@ -6868,7 +6868,7 @@
         <v>3.5</v>
       </c>
       <c r="V45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W45" t="n">
         <v>1.4</v>
@@ -6877,10 +6877,10 @@
         <v>2.75</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA45" t="n">
         <v>9.5</v>
@@ -6971,13 +6971,13 @@
         <v>2.4</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I46" t="n">
         <v>2.62</v>
       </c>
       <c r="J46" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
@@ -6986,22 +6986,22 @@
         <v>3.4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
         <v>3.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7009,22 +7009,22 @@
         <v>3.5</v>
       </c>
       <c r="V46" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W46" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="Z46" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB46" t="n">
         <v>12</v>
@@ -7036,13 +7036,13 @@
         <v>23</v>
       </c>
       <c r="AE46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF46" t="n">
         <v>29</v>
       </c>
       <c r="AG46" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH46" t="n">
         <v>6.5</v>
@@ -7051,13 +7051,13 @@
         <v>15</v>
       </c>
       <c r="AJ46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK46" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM46" t="n">
         <v>13</v>
@@ -7069,10 +7069,10 @@
         <v>29</v>
       </c>
       <c r="AP46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7121,19 +7121,19 @@
         <v>2.6</v>
       </c>
       <c r="K47" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L47" t="n">
         <v>3.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P47" t="n">
         <v>4.5</v>
@@ -7154,7 +7154,7 @@
         <v>2.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W47" t="n">
         <v>1.3</v>
@@ -7163,10 +7163,10 @@
         <v>3.4</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA47" t="n">
         <v>10</v>
@@ -7263,22 +7263,22 @@
         <v>3.1</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N48" t="n">
         <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
         <v>3</v>
@@ -7295,7 +7295,7 @@
         <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W48" t="n">
         <v>1.5</v>
@@ -7304,10 +7304,10 @@
         <v>2.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AA48" t="n">
         <v>7</v>
@@ -7328,13 +7328,13 @@
         <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH48" t="n">
         <v>6</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ48" t="n">
         <v>51</v>
@@ -7355,7 +7355,7 @@
         <v>34</v>
       </c>
       <c r="AP48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ48" t="n">
         <v>41</v>
@@ -7399,13 +7399,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J49" t="n">
         <v>3.4</v>
@@ -7548,7 +7548,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H50" t="n">
         <v>3.6</v>
@@ -7578,7 +7578,7 @@
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R50" t="n">
         <v>2.05</v>
@@ -7697,7 +7697,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H51" t="n">
         <v>5</v>
@@ -7727,10 +7727,10 @@
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R51" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S51" t="n">
         <v>2.27</v>
@@ -7846,10 +7846,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.63</v>
+        <v>2.57</v>
       </c>
       <c r="H52" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -7864,30 +7864,30 @@
         <v>3.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V52" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W52" t="n">
         <v>1.36</v>
@@ -7987,10 +7987,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H53" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I53" t="n">
         <v>5</v>
@@ -8017,10 +8017,10 @@
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R53" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8082,7 +8082,7 @@
         <v>26</v>
       </c>
       <c r="AN53" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO53" t="n">
         <v>51</v>
@@ -8128,13 +8128,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J54" t="n">
         <v>2.1</v>
@@ -8149,7 +8149,7 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O54" t="n">
         <v>1.18</v>
@@ -8158,16 +8158,16 @@
         <v>4.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R54" t="n">
         <v>2.3</v>
       </c>
       <c r="S54" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="T54" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="U54" t="n">
         <v>2.5</v>
@@ -8182,10 +8182,10 @@
         <v>3.4</v>
       </c>
       <c r="Y54" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA54" t="n">
         <v>8.5</v>
@@ -8227,7 +8227,7 @@
         <v>29</v>
       </c>
       <c r="AN54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO54" t="n">
         <v>51</v>
@@ -8236,7 +8236,7 @@
         <v>41</v>
       </c>
       <c r="AQ54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
@@ -8273,7 +8273,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H55" t="n">
         <v>3.9</v>
@@ -8297,13 +8297,13 @@
         <v>19</v>
       </c>
       <c r="O55" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P55" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R55" t="n">
         <v>2.6</v>
@@ -8418,7 +8418,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="H56" t="n">
         <v>6.5</v>
@@ -8439,24 +8439,24 @@
         <v>1.01</v>
       </c>
       <c r="N56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O56" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="P56" t="n">
         <v>8</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R56" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V56" t="n">
         <v>2</v>
@@ -8468,7 +8468,7 @@
         <v>4.5</v>
       </c>
       <c r="Y56" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z56" t="n">
         <v>2.2</v>
@@ -8565,7 +8565,7 @@
         <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J57" t="n">
         <v>4.33</v>
@@ -8577,16 +8577,16 @@
         <v>3</v>
       </c>
       <c r="M57" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
         <v>8</v>
       </c>
       <c r="O57" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P57" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q57" t="n">
         <v>2.35</v>
@@ -8595,7 +8595,7 @@
         <v>1.57</v>
       </c>
       <c r="S57" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="T57" t="n">
         <v>1.28</v>
@@ -8604,7 +8604,7 @@
         <v>4.33</v>
       </c>
       <c r="V57" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W57" t="n">
         <v>1.53</v>
@@ -8616,7 +8616,7 @@
         <v>2</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA57" t="n">
         <v>8.5</v>
@@ -8670,10 +8670,10 @@
         <v>34</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="58">
@@ -8708,7 +8708,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
@@ -8717,22 +8717,22 @@
         <v>2.5</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K58" t="n">
         <v>1.87</v>
       </c>
       <c r="L58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
         <v>2.5</v>
@@ -8750,22 +8750,22 @@
         <v>1.21</v>
       </c>
       <c r="U58" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.11</v>
+        <v>1.17</v>
       </c>
       <c r="W58" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X58" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y58" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AA58" t="n">
         <v>7</v>
@@ -8777,7 +8777,7 @@
         <v>12</v>
       </c>
       <c r="AD58" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE58" t="n">
         <v>29</v>
@@ -8786,7 +8786,7 @@
         <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH58" t="n">
         <v>6</v>
@@ -8795,13 +8795,13 @@
         <v>19</v>
       </c>
       <c r="AJ58" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK58" t="n">
         <v>101</v>
       </c>
       <c r="AL58" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM58" t="n">
         <v>11</v>
@@ -8819,10 +8819,10 @@
         <v>41</v>
       </c>
       <c r="AR58" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="59">
@@ -8860,10 +8860,10 @@
         <v>3.25</v>
       </c>
       <c r="H59" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I59" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
@@ -8875,16 +8875,16 @@
         <v>3.2</v>
       </c>
       <c r="M59" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N59" t="n">
         <v>7</v>
       </c>
       <c r="O59" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P59" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q59" t="n">
         <v>2.4</v>
@@ -8902,7 +8902,7 @@
         <v>4.5</v>
       </c>
       <c r="V59" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W59" t="n">
         <v>1.53</v>
@@ -8914,7 +8914,7 @@
         <v>2</v>
       </c>
       <c r="Z59" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA59" t="n">
         <v>8</v>
@@ -8968,10 +8968,10 @@
         <v>34</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="60">
@@ -9024,22 +9024,22 @@
         <v>4.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O60" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P60" t="n">
         <v>3.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R60" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -9047,7 +9047,7 @@
         <v>3.75</v>
       </c>
       <c r="V60" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W60" t="n">
         <v>1.44</v>
@@ -9056,10 +9056,10 @@
         <v>2.63</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA60" t="n">
         <v>6.5</v>
@@ -9165,22 +9165,22 @@
         <v>4</v>
       </c>
       <c r="M61" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
         <v>9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R61" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -9188,7 +9188,7 @@
         <v>3.75</v>
       </c>
       <c r="V61" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W61" t="n">
         <v>1.44</v>
@@ -9588,22 +9588,22 @@
         <v>3.75</v>
       </c>
       <c r="M64" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N64" t="n">
         <v>11</v>
       </c>
       <c r="O64" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P64" t="n">
         <v>3.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R64" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
@@ -9611,7 +9611,7 @@
         <v>3.25</v>
       </c>
       <c r="V64" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W64" t="n">
         <v>1.4</v>
@@ -9729,19 +9729,19 @@
         <v>4.75</v>
       </c>
       <c r="M65" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
         <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P65" t="n">
         <v>4.33</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R65" t="n">
         <v>2.15</v>
@@ -9749,10 +9749,10 @@
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V65" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W65" t="n">
         <v>1.33</v>
@@ -9993,13 +9993,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H67" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I67" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J67" t="n">
         <v>4.75</v>
@@ -10011,13 +10011,13 @@
         <v>2.6</v>
       </c>
       <c r="M67" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N67" t="n">
         <v>9</v>
       </c>
       <c r="O67" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -10026,7 +10026,7 @@
         <v>2.15</v>
       </c>
       <c r="R67" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -10034,7 +10034,7 @@
         <v>3.75</v>
       </c>
       <c r="V67" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W67" t="n">
         <v>1.44</v>
@@ -10079,13 +10079,13 @@
         <v>51</v>
       </c>
       <c r="AK67" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL67" t="n">
         <v>6.5</v>
       </c>
       <c r="AM67" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AN67" t="n">
         <v>9</v>
@@ -10152,13 +10152,13 @@
         <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N68" t="n">
         <v>15</v>
       </c>
       <c r="O68" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P68" t="n">
         <v>4.33</v>
@@ -10172,10 +10172,10 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V68" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W68" t="n">
         <v>1.33</v>
@@ -10293,16 +10293,16 @@
         <v>6.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N69" t="n">
         <v>19</v>
       </c>
       <c r="O69" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P69" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q69" t="n">
         <v>1.48</v>
@@ -10320,7 +10320,7 @@
         <v>2.1</v>
       </c>
       <c r="V69" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W69" t="n">
         <v>1.25</v>
@@ -10438,34 +10438,34 @@
         <v>2.1</v>
       </c>
       <c r="M70" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N70" t="n">
         <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P70" t="n">
         <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R70" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S70" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U70" t="n">
         <v>2.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W70" t="n">
         <v>1.3</v>
@@ -10565,16 +10565,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H71" t="n">
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J71" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K71" t="n">
         <v>2.25</v>
@@ -10583,13 +10583,13 @@
         <v>3.75</v>
       </c>
       <c r="M71" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N71" t="n">
         <v>13</v>
       </c>
       <c r="O71" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -10606,7 +10606,7 @@
         <v>2.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W71" t="n">
         <v>1.33</v>
@@ -10621,7 +10621,7 @@
         <v>2.2</v>
       </c>
       <c r="AA71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB71" t="n">
         <v>11</v>
@@ -10642,7 +10642,7 @@
         <v>13</v>
       </c>
       <c r="AH71" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI71" t="n">
         <v>12</v>
@@ -10663,7 +10663,7 @@
         <v>12</v>
       </c>
       <c r="AO71" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP71" t="n">
         <v>26</v>
@@ -10706,13 +10706,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H72" t="n">
         <v>6</v>
       </c>
       <c r="I72" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J72" t="n">
         <v>1.83</v>
@@ -10727,19 +10727,19 @@
         <v>1.01</v>
       </c>
       <c r="N72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O72" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P72" t="n">
         <v>5.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R72" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S72" t="n">
         <v>1.8</v>
@@ -10751,7 +10751,7 @@
         <v>2.2</v>
       </c>
       <c r="V72" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W72" t="n">
         <v>1.25</v>
@@ -10760,16 +10760,16 @@
         <v>3.75</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z72" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB72" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC72" t="n">
         <v>8.5</v>
@@ -10784,7 +10784,7 @@
         <v>21</v>
       </c>
       <c r="AG72" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH72" t="n">
         <v>12</v>
@@ -10851,10 +10851,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H73" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I73" t="n">
         <v>9</v>
@@ -10863,28 +10863,28 @@
         <v>1.73</v>
       </c>
       <c r="K73" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L73" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M73" t="n">
         <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O73" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P73" t="n">
         <v>4.33</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R73" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S73" t="n">
         <v>2.05</v>
@@ -10893,10 +10893,10 @@
         <v>1.8</v>
       </c>
       <c r="U73" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="W73" t="n">
         <v>1.3</v>
@@ -10920,22 +10920,22 @@
         <v>9</v>
       </c>
       <c r="AD73" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF73" t="n">
         <v>29</v>
       </c>
       <c r="AG73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH73" t="n">
         <v>11</v>
       </c>
       <c r="AI73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ73" t="n">
         <v>81</v>
@@ -10953,7 +10953,7 @@
         <v>26</v>
       </c>
       <c r="AO73" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP73" t="n">
         <v>67</v>
@@ -11159,13 +11159,13 @@
         <v>6</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N75" t="n">
         <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P75" t="n">
         <v>2.75</v>
@@ -11174,7 +11174,7 @@
         <v>2.25</v>
       </c>
       <c r="R75" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -11182,7 +11182,7 @@
         <v>4.33</v>
       </c>
       <c r="V75" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W75" t="n">
         <v>1.5</v>
@@ -11194,7 +11194,7 @@
         <v>2.2</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA75" t="n">
         <v>5.5</v>
@@ -11304,19 +11304,19 @@
         <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N76" t="n">
         <v>12</v>
       </c>
       <c r="O76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P76" t="n">
         <v>3.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R76" t="n">
         <v>2.05</v>
@@ -11327,7 +11327,7 @@
         <v>3</v>
       </c>
       <c r="V76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W76" t="n">
         <v>1.36</v>
@@ -11336,10 +11336,10 @@
         <v>3</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA76" t="n">
         <v>7</v>
@@ -11709,13 +11709,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H79" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
         <v>3.1</v>
@@ -11727,22 +11727,22 @@
         <v>3.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N79" t="n">
         <v>9</v>
       </c>
       <c r="O79" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P79" t="n">
         <v>3.2</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R79" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="S79" t="n">
         <v>3.1</v>
@@ -11754,7 +11754,7 @@
         <v>4</v>
       </c>
       <c r="V79" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W79" t="n">
         <v>1.44</v>
@@ -11763,13 +11763,13 @@
         <v>2.63</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA79" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB79" t="n">
         <v>11</v>
@@ -11793,19 +11793,19 @@
         <v>6.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ79" t="n">
         <v>51</v>
       </c>
       <c r="AK79" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN79" t="n">
         <v>11</v>
@@ -11858,16 +11858,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J80" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
@@ -11876,13 +11876,13 @@
         <v>2.75</v>
       </c>
       <c r="M80" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P80" t="n">
         <v>3.25</v>
@@ -11891,7 +11891,7 @@
         <v>2.05</v>
       </c>
       <c r="R80" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -11899,7 +11899,7 @@
         <v>3.5</v>
       </c>
       <c r="V80" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W80" t="n">
         <v>1.44</v>
@@ -11908,10 +11908,10 @@
         <v>2.63</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA80" t="n">
         <v>10</v>
@@ -11956,7 +11956,7 @@
         <v>9</v>
       </c>
       <c r="AO80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP80" t="n">
         <v>17</v>
@@ -12577,10 +12577,10 @@
         <v>3.4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K85" t="n">
         <v>2.25</v>
@@ -12592,7 +12592,7 @@
         <v>1.04</v>
       </c>
       <c r="N85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O85" t="n">
         <v>1.22</v>
@@ -12601,10 +12601,10 @@
         <v>4</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R85" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
@@ -12630,7 +12630,7 @@
         <v>9</v>
       </c>
       <c r="AB85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC85" t="n">
         <v>9</v>
@@ -12648,7 +12648,7 @@
         <v>12</v>
       </c>
       <c r="AH85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI85" t="n">
         <v>13</v>
@@ -12660,13 +12660,13 @@
         <v>151</v>
       </c>
       <c r="AL85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM85" t="n">
         <v>17</v>
       </c>
       <c r="AN85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO85" t="n">
         <v>34</v>
@@ -12712,22 +12712,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K86" t="n">
         <v>2.25</v>
       </c>
       <c r="L86" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M86" t="n">
         <v>1.04</v>
@@ -12774,7 +12774,7 @@
         <v>13</v>
       </c>
       <c r="AC86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD86" t="n">
         <v>23</v>
@@ -12789,7 +12789,7 @@
         <v>13</v>
       </c>
       <c r="AH86" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI86" t="n">
         <v>12</v>
@@ -12798,7 +12798,7 @@
         <v>41</v>
       </c>
       <c r="AK86" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL86" t="n">
         <v>11</v>
@@ -12807,10 +12807,10 @@
         <v>15</v>
       </c>
       <c r="AN86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP86" t="n">
         <v>21</v>
@@ -12853,13 +12853,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I87" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
         <v>2.2</v>
@@ -12868,13 +12868,13 @@
         <v>2.1</v>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O87" t="n">
         <v>1.36</v>
@@ -12889,10 +12889,10 @@
         <v>1.65</v>
       </c>
       <c r="S87" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T87" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="U87" t="n">
         <v>4</v>
@@ -12916,13 +12916,13 @@
         <v>5.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC87" t="n">
         <v>9</v>
       </c>
       <c r="AD87" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE87" t="n">
         <v>15</v>
@@ -12934,7 +12934,7 @@
         <v>8</v>
       </c>
       <c r="AH87" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI87" t="n">
         <v>23</v>
@@ -12952,10 +12952,10 @@
         <v>29</v>
       </c>
       <c r="AN87" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO87" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP87" t="n">
         <v>51</v>
@@ -12964,10 +12964,10 @@
         <v>51</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.22</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="88">
@@ -13020,28 +13020,28 @@
         <v>1.8</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N88" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O88" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P88" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R88" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="S88" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="T88" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="U88" t="n">
         <v>3.25</v>
@@ -13113,10 +13113,10 @@
         <v>41</v>
       </c>
       <c r="AR88" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="89">
@@ -13608,13 +13608,13 @@
         <v>2.3</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N92" t="n">
         <v>10</v>
       </c>
       <c r="O92" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P92" t="n">
         <v>3.5</v>
@@ -13631,7 +13631,7 @@
         <v>3.25</v>
       </c>
       <c r="V92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W92" t="n">
         <v>1.4</v>
@@ -13640,10 +13640,10 @@
         <v>2.75</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA92" t="n">
         <v>13</v>
@@ -13749,13 +13749,13 @@
         <v>5.5</v>
       </c>
       <c r="M93" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N93" t="n">
         <v>17</v>
       </c>
       <c r="O93" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -13767,16 +13767,16 @@
         <v>2.35</v>
       </c>
       <c r="S93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T93" t="n">
         <v>1.93</v>
       </c>
-      <c r="T93" t="n">
-        <v>1.88</v>
-      </c>
       <c r="U93" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V93" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W93" t="n">
         <v>1.29</v>
@@ -13785,7 +13785,7 @@
         <v>3.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Z93" t="n">
         <v>2.1</v>
@@ -13827,7 +13827,7 @@
         <v>19</v>
       </c>
       <c r="AM93" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN93" t="n">
         <v>17</v>
@@ -14150,40 +14150,40 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H96" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I96" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M96" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N96" t="n">
         <v>11</v>
       </c>
       <c r="O96" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P96" t="n">
         <v>3.4</v>
       </c>
       <c r="Q96" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R96" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
@@ -14191,7 +14191,7 @@
         <v>3.5</v>
       </c>
       <c r="V96" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W96" t="n">
         <v>1.4</v>
@@ -14203,7 +14203,7 @@
         <v>2</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA96" t="n">
         <v>6.5</v>
@@ -14215,7 +14215,7 @@
         <v>8.5</v>
       </c>
       <c r="AD96" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE96" t="n">
         <v>13</v>
@@ -14227,7 +14227,7 @@
         <v>10</v>
       </c>
       <c r="AH96" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI96" t="n">
         <v>19</v>
@@ -14239,7 +14239,7 @@
         <v>401</v>
       </c>
       <c r="AL96" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM96" t="n">
         <v>26</v>
@@ -14309,13 +14309,13 @@
         <v>4.33</v>
       </c>
       <c r="M97" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N97" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O97" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P97" t="n">
         <v>2.75</v>
@@ -14332,7 +14332,7 @@
         <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W97" t="n">
         <v>1.5</v>
@@ -14341,10 +14341,10 @@
         <v>2.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="AA97" t="n">
         <v>6.5</v>
@@ -14371,13 +14371,13 @@
         <v>6</v>
       </c>
       <c r="AI97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ97" t="n">
         <v>51</v>
       </c>
       <c r="AK97" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AL97" t="n">
         <v>9.5</v>
@@ -14435,10 +14435,10 @@
         <v>2.3</v>
       </c>
       <c r="H98" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J98" t="n">
         <v>3.1</v>
@@ -14447,13 +14447,13 @@
         <v>2</v>
       </c>
       <c r="L98" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M98" t="n">
         <v>1.08</v>
       </c>
       <c r="N98" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O98" t="n">
         <v>1.4</v>
@@ -14465,7 +14465,7 @@
         <v>2.3</v>
       </c>
       <c r="R98" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -14494,10 +14494,10 @@
         <v>10</v>
       </c>
       <c r="AC98" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD98" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE98" t="n">
         <v>21</v>
@@ -14509,25 +14509,25 @@
         <v>7.5</v>
       </c>
       <c r="AH98" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI98" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ98" t="n">
         <v>51</v>
       </c>
       <c r="AK98" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL98" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM98" t="n">
         <v>15</v>
       </c>
       <c r="AN98" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO98" t="n">
         <v>34</v>
@@ -14579,7 +14579,7 @@
         <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J99" t="n">
         <v>3.6</v>
@@ -14606,7 +14606,7 @@
         <v>2.15</v>
       </c>
       <c r="R99" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -14714,7 +14714,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H100" t="n">
         <v>3.75</v>
@@ -14744,18 +14744,18 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="R100" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V100" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W100" t="n">
         <v>1.4</v>
@@ -14855,7 +14855,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H101" t="n">
         <v>3.3</v>
@@ -14888,7 +14888,7 @@
         <v>2.2</v>
       </c>
       <c r="R101" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -15017,7 +15017,7 @@
         <v>1.02</v>
       </c>
       <c r="N102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O102" t="n">
         <v>1.14</v>
@@ -15034,10 +15034,10 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V102" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W102" t="n">
         <v>1.25</v>
@@ -15167,18 +15167,18 @@
         <v>3.75</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R103" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V103" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W103" t="n">
         <v>1.4</v>
@@ -16128,19 +16128,19 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H110" t="n">
         <v>3.5</v>
       </c>
       <c r="I110" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K110" t="n">
         <v>2.05</v>
-      </c>
-      <c r="J110" t="n">
-        <v>4</v>
-      </c>
-      <c r="K110" t="n">
-        <v>2.1</v>
       </c>
       <c r="L110" t="n">
         <v>2.75</v>
@@ -16158,18 +16158,18 @@
         <v>3.25</v>
       </c>
       <c r="Q110" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R110" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V110" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W110" t="n">
         <v>1.44</v>
@@ -16178,55 +16178,55 @@
         <v>2.63</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Z110" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="AA110" t="n">
         <v>9.5</v>
       </c>
       <c r="AB110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC110" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD110" t="n">
         <v>41</v>
       </c>
       <c r="AE110" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF110" t="n">
         <v>41</v>
       </c>
       <c r="AG110" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH110" t="n">
         <v>6.5</v>
       </c>
       <c r="AI110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ110" t="n">
         <v>51</v>
       </c>
       <c r="AK110" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL110" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM110" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN110" t="n">
         <v>9</v>
       </c>
       <c r="AO110" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP110" t="n">
         <v>17</v>
@@ -16275,7 +16275,7 @@
         <v>3.5</v>
       </c>
       <c r="I111" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J111" t="n">
         <v>3.6</v>
@@ -16319,7 +16319,7 @@
         <v>2.75</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z111" t="n">
         <v>2</v>
@@ -16410,16 +16410,16 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H112" t="n">
         <v>5.5</v>
       </c>
       <c r="I112" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J112" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="K112" t="n">
         <v>2.5</v>
@@ -16467,7 +16467,7 @@
         <v>2.1</v>
       </c>
       <c r="Z112" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA112" t="n">
         <v>7</v>
@@ -16476,7 +16476,7 @@
         <v>6</v>
       </c>
       <c r="AC112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD112" t="n">
         <v>8</v>
@@ -16497,10 +16497,10 @@
         <v>23</v>
       </c>
       <c r="AJ112" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK112" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL112" t="n">
         <v>21</v>
@@ -16691,19 +16691,19 @@
         <v>1.5</v>
       </c>
       <c r="H114" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I114" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="J114" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L114" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
@@ -16717,12 +16717,12 @@
         <v>1.7</v>
       </c>
       <c r="R114" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="V114" t="n">
         <v>1.37</v>
@@ -16736,10 +16736,10 @@
         <v>1.8</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AB114" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC114" t="n">
         <v>8</v>
@@ -16748,7 +16748,7 @@
         <v>10.5</v>
       </c>
       <c r="AE114" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF114" t="n">
         <v>25</v>
@@ -16757,34 +16757,34 @@
         <v>11.25</v>
       </c>
       <c r="AH114" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AI114" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ114" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK114" t="n">
         <v>600</v>
       </c>
       <c r="AL114" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM114" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN114" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO114" t="n">
         <v>120</v>
       </c>
       <c r="AP114" t="n">
+        <v>65</v>
+      </c>
+      <c r="AQ114" t="n">
         <v>60</v>
-      </c>
-      <c r="AQ114" t="n">
-        <v>55</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16954,22 +16954,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J116" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="K116" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="L116" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M116" t="n">
         <v>1.11</v>
@@ -17007,19 +17007,19 @@
         <v>2.2</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA116" t="n">
         <v>6</v>
       </c>
       <c r="AB116" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC116" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD116" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE116" t="n">
         <v>21</v>
@@ -17043,10 +17043,10 @@
         <v>101</v>
       </c>
       <c r="AL116" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM116" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN116" t="n">
         <v>13</v>
@@ -17061,10 +17061,10 @@
         <v>41</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="117">
@@ -17099,7 +17099,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
@@ -17111,7 +17111,7 @@
         <v>2.75</v>
       </c>
       <c r="K117" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L117" t="n">
         <v>5</v>
@@ -17152,7 +17152,7 @@
         <v>2.25</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA117" t="n">
         <v>5.5</v>
@@ -17262,16 +17262,16 @@
         <v>5.5</v>
       </c>
       <c r="M118" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N118" t="n">
         <v>6.5</v>
       </c>
       <c r="O118" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P118" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q118" t="n">
         <v>2.7</v>
@@ -17285,7 +17285,7 @@
         <v>5.5</v>
       </c>
       <c r="V118" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W118" t="n">
         <v>1.62</v>
@@ -17407,13 +17407,13 @@
         <v>5.5</v>
       </c>
       <c r="M119" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O119" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P119" t="n">
         <v>4.33</v>
@@ -17431,10 +17431,10 @@
         <v>1.93</v>
       </c>
       <c r="U119" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V119" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W119" t="n">
         <v>1.33</v>
@@ -17552,13 +17552,13 @@
         <v>2.75</v>
       </c>
       <c r="M120" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N120" t="n">
         <v>17</v>
       </c>
       <c r="O120" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P120" t="n">
         <v>5</v>
@@ -17576,10 +17576,10 @@
         <v>1.93</v>
       </c>
       <c r="U120" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="V120" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W120" t="n">
         <v>1.29</v>
@@ -17697,16 +17697,16 @@
         <v>3.75</v>
       </c>
       <c r="M121" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N121" t="n">
         <v>8</v>
       </c>
       <c r="O121" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P121" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q121" t="n">
         <v>2.35</v>
@@ -17720,7 +17720,7 @@
         <v>4.33</v>
       </c>
       <c r="V121" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W121" t="n">
         <v>1.53</v>
@@ -17820,13 +17820,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J122" t="n">
         <v>2.75</v>
@@ -17838,13 +17838,13 @@
         <v>3.6</v>
       </c>
       <c r="M122" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N122" t="n">
         <v>13</v>
       </c>
       <c r="O122" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P122" t="n">
         <v>4.33</v>
@@ -17856,16 +17856,16 @@
         <v>2.08</v>
       </c>
       <c r="S122" t="n">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="T122" t="n">
         <v>1.68</v>
       </c>
       <c r="U122" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V122" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W122" t="n">
         <v>1.33</v>
@@ -17874,19 +17874,19 @@
         <v>3.25</v>
       </c>
       <c r="Y122" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z122" t="n">
         <v>2.25</v>
       </c>
       <c r="AA122" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB122" t="n">
         <v>12</v>
       </c>
       <c r="AC122" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD122" t="n">
         <v>21</v>
@@ -17987,16 +17987,16 @@
         <v>2.88</v>
       </c>
       <c r="M123" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N123" t="n">
         <v>6.5</v>
       </c>
       <c r="O123" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P123" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q123" t="n">
         <v>2.5</v>
@@ -18014,7 +18014,7 @@
         <v>5</v>
       </c>
       <c r="V123" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W123" t="n">
         <v>1.57</v>
@@ -18026,7 +18026,7 @@
         <v>2.1</v>
       </c>
       <c r="Z123" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA123" t="n">
         <v>9</v>
@@ -18080,10 +18080,10 @@
         <v>41</v>
       </c>
       <c r="AR123" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="124">
@@ -18136,13 +18136,13 @@
         <v>7.5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N124" t="n">
         <v>17</v>
       </c>
       <c r="O124" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P124" t="n">
         <v>4.5</v>
@@ -18154,16 +18154,16 @@
         <v>2.3</v>
       </c>
       <c r="S124" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="T124" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U124" t="n">
         <v>2.5</v>
       </c>
       <c r="V124" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W124" t="n">
         <v>1.29</v>
@@ -18172,10 +18172,10 @@
         <v>3.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z124" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA124" t="n">
         <v>8</v>
@@ -18285,22 +18285,22 @@
         <v>3.75</v>
       </c>
       <c r="M125" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N125" t="n">
         <v>11</v>
       </c>
       <c r="O125" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P125" t="n">
         <v>3.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R125" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
@@ -18308,7 +18308,7 @@
         <v>3.25</v>
       </c>
       <c r="V125" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W125" t="n">
         <v>1.4</v>
@@ -18317,7 +18317,7 @@
         <v>2.75</v>
       </c>
       <c r="Y125" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z125" t="n">
         <v>2.05</v>
@@ -18426,13 +18426,13 @@
         <v>3.5</v>
       </c>
       <c r="M126" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N126" t="n">
         <v>13</v>
       </c>
       <c r="O126" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P126" t="n">
         <v>4</v>
@@ -18449,7 +18449,7 @@
         <v>2.75</v>
       </c>
       <c r="V126" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W126" t="n">
         <v>1.33</v>
@@ -18458,7 +18458,7 @@
         <v>3.25</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Z126" t="n">
         <v>2.2</v>
@@ -18567,30 +18567,30 @@
         <v>6</v>
       </c>
       <c r="M127" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N127" t="n">
         <v>15</v>
       </c>
       <c r="O127" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P127" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R127" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V127" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="W127" t="n">
         <v>1.33</v>
@@ -18599,10 +18599,10 @@
         <v>3.25</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA127" t="n">
         <v>7.5</v>
@@ -19415,10 +19415,10 @@
         <v>1.83</v>
       </c>
       <c r="M133" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N133" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O133" t="n">
         <v>1.22</v>
@@ -19538,13 +19538,13 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H134" t="n">
         <v>3.1</v>
       </c>
       <c r="I134" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J134" t="n">
         <v>3.1</v>
@@ -19627,7 +19627,7 @@
         <v>501</v>
       </c>
       <c r="AL134" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM134" t="n">
         <v>15</v>
@@ -19704,7 +19704,7 @@
         <v>1.07</v>
       </c>
       <c r="N135" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O135" t="n">
         <v>1.36</v>
@@ -19713,10 +19713,10 @@
         <v>3</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R135" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
@@ -20003,10 +20003,10 @@
         <v>2.63</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R137" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
@@ -20080,10 +20080,10 @@
         <v>41</v>
       </c>
       <c r="AR137" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="138">
@@ -20271,99 +20271,99 @@
         <v>3</v>
       </c>
       <c r="K139" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L139" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M139" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N139" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O139" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P139" t="n">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R139" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="V139" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="W139" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="X139" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="Y139" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="Z139" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="AA139" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC139" t="n">
         <v>9.5</v>
       </c>
       <c r="AD139" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE139" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF139" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG139" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH139" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AI139" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL139" t="n">
         <v>12</v>
       </c>
-      <c r="AJ139" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK139" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL139" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AM139" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN139" t="n">
         <v>9.5</v>
       </c>
       <c r="AO139" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP139" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ139" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AR139" t="inlineStr"/>
       <c r="AS139" t="inlineStr"/>
@@ -20547,7 +20547,7 @@
         <v>3.3</v>
       </c>
       <c r="I141" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J141" t="n">
         <v>4.33</v>
@@ -20964,36 +20964,36 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="H144" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I144" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="J144" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K144" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L144" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P144" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="R144" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
@@ -21004,10 +21004,10 @@
         <v>2.75</v>
       </c>
       <c r="W144" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X144" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y144" t="n">
         <v>1.3</v>
@@ -21019,13 +21019,13 @@
         <v>41</v>
       </c>
       <c r="AB144" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC144" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD144" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE144" t="n">
         <v>41</v>
@@ -21037,13 +21037,13 @@
         <v>34</v>
       </c>
       <c r="AH144" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI144" t="n">
         <v>15</v>
       </c>
       <c r="AJ144" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK144" t="n">
         <v>51</v>
@@ -21101,7 +21101,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="H145" t="n">
         <v>7</v>
@@ -21238,19 +21238,19 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H146" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I146" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J146" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K146" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L146" t="n">
         <v>4.35</v>
@@ -21285,31 +21285,31 @@
         <v>1.42</v>
       </c>
       <c r="X146" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Y146" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z146" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AA146" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB146" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC146" t="n">
         <v>8.75</v>
       </c>
       <c r="AD146" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE146" t="n">
         <v>15.5</v>
       </c>
       <c r="AF146" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG146" t="n">
         <v>8</v>
@@ -21321,7 +21321,7 @@
         <v>15</v>
       </c>
       <c r="AJ146" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK146" t="n">
         <v>500</v>
@@ -21520,22 +21520,22 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="H148" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J148" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="K148" t="n">
         <v>2.2</v>
       </c>
       <c r="L148" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="M148" t="n">
         <v>1.06</v>
@@ -21553,15 +21553,15 @@
         <v>1.87</v>
       </c>
       <c r="R148" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="V148" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W148" t="n">
         <v>1.4</v>
@@ -21570,25 +21570,25 @@
         <v>2.7</v>
       </c>
       <c r="Y148" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Z148" t="n">
         <v>1.75</v>
       </c>
       <c r="AA148" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB148" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC148" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD148" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AE148" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF148" t="n">
         <v>65</v>
@@ -21600,28 +21600,28 @@
         <v>7.7</v>
       </c>
       <c r="AI148" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ148" t="n">
         <v>100</v>
       </c>
       <c r="AK148" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL148" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AM148" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AN148" t="n">
         <v>8.25</v>
       </c>
       <c r="AO148" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AP148" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ148" t="n">
         <v>29</v>
@@ -22102,10 +22102,10 @@
         <v>4</v>
       </c>
       <c r="M152" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N152" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O152" t="n">
         <v>1.33</v>
@@ -22114,10 +22114,10 @@
         <v>3.25</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R152" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
@@ -22134,10 +22134,10 @@
         <v>2.63</v>
       </c>
       <c r="Y152" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA152" t="n">
         <v>7.5</v>
@@ -22240,7 +22240,7 @@
         <v>2.05</v>
       </c>
       <c r="L153" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M153" t="n">
         <v>1.07</v>
@@ -22255,10 +22255,10 @@
         <v>3</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R153" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
@@ -22329,7 +22329,7 @@
         <v>21</v>
       </c>
       <c r="AQ153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR153" t="inlineStr"/>
       <c r="AS153" t="inlineStr"/>
@@ -22366,13 +22366,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="H154" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I154" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J154" t="n">
         <v>2.5</v>
@@ -22387,7 +22387,7 @@
         <v>1.07</v>
       </c>
       <c r="N154" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O154" t="n">
         <v>1.36</v>
@@ -22399,7 +22399,7 @@
         <v>2.2</v>
       </c>
       <c r="R154" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
@@ -22416,22 +22416,22 @@
         <v>2.5</v>
       </c>
       <c r="Y154" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z154" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="AA154" t="n">
         <v>6</v>
       </c>
       <c r="AB154" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC154" t="n">
         <v>9</v>
       </c>
       <c r="AD154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE154" t="n">
         <v>17</v>
@@ -22464,7 +22464,7 @@
         <v>15</v>
       </c>
       <c r="AO154" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP154" t="n">
         <v>41</v>
@@ -22537,10 +22537,10 @@
         <v>3.5</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R155" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
@@ -22666,10 +22666,10 @@
         <v>4.75</v>
       </c>
       <c r="M156" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O156" t="n">
         <v>1.44</v>
@@ -22678,10 +22678,10 @@
         <v>2.63</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R156" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
@@ -22755,10 +22755,10 @@
         <v>41</v>
       </c>
       <c r="AR156" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="157">
@@ -22811,10 +22811,10 @@
         <v>13</v>
       </c>
       <c r="M157" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O157" t="n">
         <v>1.3</v>
@@ -22823,18 +22823,18 @@
         <v>3.4</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R157" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V157" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W157" t="n">
         <v>1.4</v>
@@ -22934,7 +22934,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H158" t="n">
         <v>3.25</v>
@@ -22967,7 +22967,7 @@
         <v>2.2</v>
       </c>
       <c r="R158" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
@@ -22984,10 +22984,10 @@
         <v>2.5</v>
       </c>
       <c r="Y158" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z158" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA158" t="n">
         <v>6.5</v>
@@ -23075,7 +23075,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="H159" t="n">
         <v>3.4</v>
@@ -23105,10 +23105,10 @@
         <v>3.25</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R159" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
@@ -23125,10 +23125,10 @@
         <v>2.63</v>
       </c>
       <c r="Y159" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA159" t="n">
         <v>6.5</v>
@@ -23375,10 +23375,10 @@
         <v>4</v>
       </c>
       <c r="M161" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N161" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O161" t="n">
         <v>1.25</v>
@@ -23387,10 +23387,10 @@
         <v>3.75</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R161" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
@@ -24648,10 +24648,10 @@
         <v>7</v>
       </c>
       <c r="M170" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N170" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O170" t="n">
         <v>1.14</v>
@@ -24684,13 +24684,13 @@
         <v>3.75</v>
       </c>
       <c r="Y170" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z170" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA170" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB170" t="n">
         <v>7.5</v>
@@ -24720,7 +24720,7 @@
         <v>51</v>
       </c>
       <c r="AK170" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL170" t="n">
         <v>23</v>
@@ -24729,7 +24729,7 @@
         <v>41</v>
       </c>
       <c r="AN170" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO170" t="n">
         <v>81</v>
@@ -24738,7 +24738,7 @@
         <v>51</v>
       </c>
       <c r="AQ170" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR170" t="inlineStr"/>
       <c r="AS170" t="inlineStr"/>
@@ -24805,16 +24805,16 @@
         <v>5</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R171" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S171" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T171" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U171" t="n">
         <v>2.38</v>
@@ -25421,37 +25421,37 @@
         <v>2.92</v>
       </c>
       <c r="H176" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I176" t="n">
         <v>2.7</v>
       </c>
-      <c r="I176" t="n">
-        <v>2.67</v>
-      </c>
       <c r="J176" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K176" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="L176" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="M176" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N176" t="n">
-        <v>5.8</v>
+        <v>4.35</v>
       </c>
       <c r="O176" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P176" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="R176" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
@@ -25462,43 +25462,43 @@
         <v>1.14</v>
       </c>
       <c r="W176" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="X176" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="Y176" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="Z176" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AA176" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AB176" t="n">
         <v>13.5</v>
       </c>
       <c r="AC176" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD176" t="n">
         <v>40</v>
       </c>
       <c r="AE176" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF176" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG176" t="n">
-        <v>5.7</v>
+        <v>4.65</v>
       </c>
       <c r="AH176" t="n">
         <v>5.4</v>
       </c>
       <c r="AI176" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ176" t="n">
         <v>120</v>
@@ -25510,13 +25510,13 @@
         <v>6.1</v>
       </c>
       <c r="AM176" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AN176" t="n">
         <v>10.75</v>
       </c>
       <c r="AO176" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP176" t="n">
         <v>30</v>
@@ -25696,16 +25696,16 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H178" t="n">
         <v>4.15</v>
       </c>
       <c r="I178" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="J178" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="K178" t="n">
         <v>2.22</v>
@@ -25716,24 +25716,24 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P178" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R178" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>2.77</v>
+        <v>2.7</v>
       </c>
       <c r="V178" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W178" t="n">
         <v>1.38</v>
@@ -25742,13 +25742,13 @@
         <v>2.6</v>
       </c>
       <c r="Y178" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA178" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB178" t="n">
         <v>6.2</v>
@@ -25760,43 +25760,43 @@
         <v>9</v>
       </c>
       <c r="AE178" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF178" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG178" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH178" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI178" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ178" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK178" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL178" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AM178" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN178" t="n">
         <v>23</v>
       </c>
       <c r="AO178" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AP178" t="n">
         <v>90</v>
       </c>
       <c r="AQ178" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -25974,107 +25974,107 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="H180" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="I180" t="n">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J180" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="K180" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L180" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P180" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="R180" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="V180" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="W180" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="X180" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="Y180" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="Z180" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA180" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB180" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AC180" t="n">
         <v>16.5</v>
       </c>
       <c r="AD180" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AE180" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF180" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG180" t="n">
         <v>24</v>
       </c>
       <c r="AH180" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI180" t="n">
         <v>75</v>
       </c>
       <c r="AJ180" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AK180" t="n">
         <v>101</v>
       </c>
       <c r="AL180" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="AM180" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="AN180" t="n">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="AO180" t="n">
         <v>101</v>
       </c>
       <c r="AP180" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AQ180" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26111,22 +26111,22 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.77</v>
+        <v>2.65</v>
       </c>
       <c r="H181" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I181" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="J181" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="K181" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L181" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="M181" t="n">
         <v>1.03</v>
@@ -26138,7 +26138,7 @@
         <v>1.17</v>
       </c>
       <c r="P181" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="Q181" t="n">
         <v>1.52</v>
@@ -26167,19 +26167,19 @@
         <v>2.5</v>
       </c>
       <c r="AA181" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB181" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC181" t="n">
         <v>10.25</v>
       </c>
       <c r="AD181" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE181" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF181" t="n">
         <v>22</v>
@@ -26188,7 +26188,7 @@
         <v>9.25</v>
       </c>
       <c r="AH181" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AI181" t="n">
         <v>11.75</v>
@@ -26200,19 +26200,19 @@
         <v>200</v>
       </c>
       <c r="AL181" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM181" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AN181" t="n">
         <v>9.25</v>
       </c>
       <c r="AO181" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP181" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ181" t="n">
         <v>20</v>
@@ -26588,10 +26588,10 @@
         <v>2.5</v>
       </c>
       <c r="Y184" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Z184" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA184" t="n">
         <v>7</v>
@@ -26736,7 +26736,7 @@
         <v>2.1</v>
       </c>
       <c r="Z185" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="AA185" t="n">
         <v>7</v>
@@ -26790,10 +26790,10 @@
         <v>41</v>
       </c>
       <c r="AR185" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="186">
@@ -26881,7 +26881,7 @@
         <v>2.2</v>
       </c>
       <c r="Z186" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AA186" t="n">
         <v>15</v>
@@ -27005,10 +27005,10 @@
         <v>2.3</v>
       </c>
       <c r="S187" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="T187" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="U187" t="n">
         <v>2.5</v>
@@ -27023,10 +27023,10 @@
         <v>3.4</v>
       </c>
       <c r="Y187" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z187" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AA187" t="n">
         <v>11</v>
@@ -27120,10 +27120,10 @@
         <v>3.8</v>
       </c>
       <c r="I188" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J188" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K188" t="n">
         <v>2.2</v>
@@ -27132,10 +27132,10 @@
         <v>5.5</v>
       </c>
       <c r="M188" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N188" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O188" t="n">
         <v>1.29</v>
@@ -27144,10 +27144,10 @@
         <v>3.5</v>
       </c>
       <c r="Q188" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R188" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
@@ -27164,13 +27164,13 @@
         <v>2.75</v>
       </c>
       <c r="Y188" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Z188" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="AA188" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB188" t="n">
         <v>7.5</v>
@@ -27179,7 +27179,7 @@
         <v>8.5</v>
       </c>
       <c r="AD188" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE188" t="n">
         <v>13</v>
@@ -27291,10 +27291,10 @@
         <v>2.4</v>
       </c>
       <c r="S189" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="T189" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U189" t="n">
         <v>2.25</v>
@@ -27309,7 +27309,7 @@
         <v>3.5</v>
       </c>
       <c r="Y189" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Z189" t="n">
         <v>2.5</v>
@@ -27450,7 +27450,7 @@
         <v>3.75</v>
       </c>
       <c r="Y190" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z190" t="n">
         <v>2.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -722,10 +722,10 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
@@ -746,7 +746,7 @@
         <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Z2" t="n">
         <v>2.25</v>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
         <v>2.2</v>
@@ -855,19 +855,19 @@
         <v>2.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
         <v>3</v>
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Z3" t="n">
         <v>3</v>
@@ -1003,7 +1003,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1032,10 +1032,10 @@
         <v>2.63</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
@@ -1141,22 +1141,22 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
@@ -1167,10 +1167,10 @@
         <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y5" t="n">
         <v>1.95</v>
@@ -1294,10 +1294,10 @@
         <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>1.83</v>
@@ -1318,7 +1318,7 @@
         <v>3.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z6" t="n">
         <v>2</v>
@@ -1453,7 +1453,7 @@
         <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X7" t="n">
         <v>3</v>
@@ -1553,10 +1553,10 @@
         <v>4.33</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J8" t="n">
         <v>4.33</v>
@@ -1568,10 +1568,10 @@
         <v>2.1</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
         <v>1.11</v>
@@ -1580,10 +1580,10 @@
         <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
@@ -1594,7 +1594,7 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="X8" t="n">
         <v>4</v>
@@ -1739,7 +1739,7 @@
         <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
         <v>3.75</v>
@@ -1857,7 +1857,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O10" t="n">
         <v>1.1</v>
@@ -1874,10 +1874,10 @@
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>1.2</v>
@@ -1886,10 +1886,10 @@
         <v>4.33</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA10" t="n">
         <v>12</v>
@@ -1913,10 +1913,10 @@
         <v>29</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>41</v>
@@ -1983,7 +1983,7 @@
         <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1995,10 +1995,10 @@
         <v>2.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
@@ -2118,13 +2118,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
@@ -2139,7 +2139,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2559,13 +2559,13 @@
         <v>2.6</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
         <v>3.5</v>
@@ -2582,7 +2582,7 @@
         <v>3.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2682,31 +2682,31 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I16" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J16" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
         <v>19</v>
       </c>
       <c r="O16" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
         <v>5.5</v>
@@ -2718,16 +2718,16 @@
         <v>2.5</v>
       </c>
       <c r="S16" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U16" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>1.25</v>
@@ -2745,25 +2745,25 @@
         <v>9.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG16" t="n">
         <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -2775,22 +2775,22 @@
         <v>151</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
         <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
         <v>5.25</v>
@@ -2842,16 +2842,16 @@
         <v>2.4</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
         <v>4.5</v>
@@ -2872,7 +2872,7 @@
         <v>2.5</v>
       </c>
       <c r="V17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
         <v>1.3</v>
@@ -2881,10 +2881,10 @@
         <v>3.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA17" t="n">
         <v>8.5</v>
@@ -2972,13 +2972,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J18" t="n">
         <v>1.8</v>
@@ -2987,16 +2987,16 @@
         <v>2.5</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
         <v>4.5</v>
@@ -3008,16 +3008,16 @@
         <v>2.25</v>
       </c>
       <c r="S18" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="U18" t="n">
         <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
         <v>1.3</v>
@@ -3041,7 +3041,7 @@
         <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
@@ -3053,25 +3053,25 @@
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>51</v>
       </c>
       <c r="AK18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO18" t="n">
         <v>101</v>
@@ -3126,43 +3126,43 @@
         <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="K19" t="n">
         <v>2.75</v>
       </c>
       <c r="L19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P19" t="n">
         <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S19" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="T19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U19" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="V19" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
         <v>1.3</v>
@@ -3266,13 +3266,13 @@
         <v>6.25</v>
       </c>
       <c r="I20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K20" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3281,10 +3281,10 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O20" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
         <v>6.5</v>
@@ -3298,10 +3298,10 @@
       <c r="S20" t="inlineStr"/>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="W20" t="n">
         <v>1.2</v>
@@ -3316,13 +3316,13 @@
         <v>2.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
         <v>8.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
         <v>9.5</v>
@@ -3349,16 +3349,16 @@
         <v>151</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP20" t="n">
         <v>51</v>
@@ -3413,7 +3413,7 @@
         <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L21" t="n">
         <v>3.75</v>
@@ -3508,10 +3508,10 @@
         <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="22">
@@ -3564,22 +3564,22 @@
         <v>7.5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
@@ -3651,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="23">
@@ -3689,28 +3689,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
         <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L23" t="n">
         <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.73</v>
@@ -3725,10 +3725,10 @@
         <v>1.3</v>
       </c>
       <c r="S23" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U23" t="n">
         <v>8</v>
@@ -3847,10 +3847,10 @@
         <v>3.8</v>
       </c>
       <c r="J24" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
         <v>4.5</v>
@@ -3949,10 +3949,10 @@
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="25">
@@ -4008,7 +4008,7 @@
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O25" t="n">
         <v>1.4</v>
@@ -4017,22 +4017,22 @@
         <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="U25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="I31" t="n">
         <v>3.4</v>
@@ -4893,7 +4893,7 @@
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X31" t="n">
         <v>2.1</v>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -5417,28 +5417,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H35" t="n">
         <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J35" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K35" t="n">
         <v>2.6</v>
       </c>
       <c r="L35" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="O35" t="n">
         <v>1.1</v>
@@ -5461,7 +5461,7 @@
         <v>1.91</v>
       </c>
       <c r="W35" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X35" t="n">
         <v>4.33</v>
@@ -5479,13 +5479,13 @@
         <v>19</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
         <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>17</v>
@@ -5494,10 +5494,10 @@
         <v>29</v>
       </c>
       <c r="AH35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ35" t="n">
         <v>23</v>
@@ -5558,13 +5558,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="J36" t="n">
         <v>3.25</v>
@@ -5602,7 +5602,7 @@
         <v>1.22</v>
       </c>
       <c r="W36" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X36" t="n">
         <v>2.5</v>
@@ -5699,7 +5699,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="H37" t="n">
         <v>3.7</v>
@@ -5743,7 +5743,7 @@
         <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X37" t="n">
         <v>2.75</v>
@@ -5846,7 +5846,7 @@
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
         <v>3.6</v>
@@ -5884,10 +5884,10 @@
         <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X38" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y38" t="n">
         <v>1.8</v>
@@ -6125,33 +6125,33 @@
         <v>3.25</v>
       </c>
       <c r="H40" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I40" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J40" t="n">
         <v>3.9</v>
       </c>
       <c r="K40" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L40" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P40" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R40" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
@@ -6162,13 +6162,13 @@
         <v>1.2</v>
       </c>
       <c r="W40" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X40" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Z40" t="n">
         <v>1.72</v>
@@ -6177,7 +6177,7 @@
         <v>8.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC40" t="n">
         <v>11.75</v>
@@ -6192,13 +6192,13 @@
         <v>45</v>
       </c>
       <c r="AG40" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AH40" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AI40" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AJ40" t="n">
         <v>90</v>
@@ -6210,19 +6210,19 @@
         <v>6.3</v>
       </c>
       <c r="AM40" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AN40" t="n">
         <v>9.25</v>
       </c>
       <c r="AO40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP40" t="n">
         <v>20</v>
       </c>
-      <c r="AP40" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AQ40" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6396,22 +6396,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H42" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L42" t="n">
         <v>8.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="L42" t="n">
-        <v>8</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -6432,10 +6432,10 @@
         <v>2.35</v>
       </c>
       <c r="S42" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="T42" t="n">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="U42" t="n">
         <v>2.38</v>
@@ -6450,22 +6450,22 @@
         <v>3.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA42" t="n">
         <v>8</v>
       </c>
       <c r="AB42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC42" t="n">
         <v>9</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE42" t="n">
         <v>11</v>
@@ -6474,19 +6474,19 @@
         <v>26</v>
       </c>
       <c r="AG42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH42" t="n">
         <v>11</v>
       </c>
       <c r="AI42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK42" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL42" t="n">
         <v>21</v>
@@ -6544,7 +6544,7 @@
         <v>1.55</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I43" t="n">
         <v>5.5</v>
@@ -6556,7 +6556,7 @@
         <v>2.4</v>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6577,10 +6577,10 @@
         <v>2.25</v>
       </c>
       <c r="S43" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="T43" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="n">
         <v>2.5</v>
@@ -6601,7 +6601,7 @@
         <v>2.1</v>
       </c>
       <c r="AA43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB43" t="n">
         <v>8.5</v>
@@ -6622,10 +6622,10 @@
         <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ43" t="n">
         <v>41</v>
@@ -6637,7 +6637,7 @@
         <v>19</v>
       </c>
       <c r="AM43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN43" t="n">
         <v>17</v>
@@ -6701,7 +6701,7 @@
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>1.04</v>
@@ -6716,10 +6716,10 @@
         <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6877,10 +6877,10 @@
         <v>2.75</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA45" t="n">
         <v>9.5</v>
@@ -6974,7 +6974,7 @@
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="J46" t="n">
         <v>3.2</v>
@@ -6992,16 +6992,16 @@
         <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P46" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7018,10 +7018,10 @@
         <v>2.63</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AA46" t="n">
         <v>8</v>
@@ -7063,7 +7063,7 @@
         <v>13</v>
       </c>
       <c r="AN46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO46" t="n">
         <v>29</v>
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
@@ -7121,7 +7121,7 @@
         <v>2.6</v>
       </c>
       <c r="K47" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L47" t="n">
         <v>3.75</v>
@@ -7163,10 +7163,10 @@
         <v>3.4</v>
       </c>
       <c r="Y47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z47" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AA47" t="n">
         <v>10</v>
@@ -7260,7 +7260,7 @@
         <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -7292,10 +7292,10 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V48" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W48" t="n">
         <v>1.5</v>
@@ -7304,10 +7304,10 @@
         <v>2.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AA48" t="n">
         <v>7</v>
@@ -7322,19 +7322,19 @@
         <v>21</v>
       </c>
       <c r="AE48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="n">
         <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH48" t="n">
         <v>6</v>
       </c>
       <c r="AI48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ48" t="n">
         <v>51</v>
@@ -7343,7 +7343,7 @@
         <v>351</v>
       </c>
       <c r="AL48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM48" t="n">
         <v>15</v>
@@ -7399,13 +7399,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J49" t="n">
         <v>3.4</v>
@@ -7548,7 +7548,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H50" t="n">
         <v>3.6</v>
@@ -7697,7 +7697,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>5</v>
@@ -7846,10 +7846,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="H52" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I52" t="n">
         <v>3</v>
@@ -7987,16 +7987,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H53" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K53" t="n">
         <v>2.3</v>
@@ -8008,7 +8008,7 @@
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O53" t="n">
         <v>1.22</v>
@@ -8037,10 +8037,10 @@
         <v>3.25</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z53" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA53" t="n">
         <v>8</v>
@@ -8064,7 +8064,7 @@
         <v>12</v>
       </c>
       <c r="AH53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI53" t="n">
         <v>15</v>
@@ -8079,10 +8079,10 @@
         <v>15</v>
       </c>
       <c r="AM53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO53" t="n">
         <v>51</v>
@@ -8128,7 +8128,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H54" t="n">
         <v>4.33</v>
@@ -8137,19 +8137,19 @@
         <v>5.25</v>
       </c>
       <c r="J54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K54" t="n">
         <v>2.4</v>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O54" t="n">
         <v>1.18</v>
@@ -8164,10 +8164,10 @@
         <v>2.3</v>
       </c>
       <c r="S54" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="U54" t="n">
         <v>2.5</v>
@@ -8176,10 +8176,10 @@
         <v>1.5</v>
       </c>
       <c r="W54" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X54" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y54" t="n">
         <v>1.7</v>
@@ -8188,7 +8188,7 @@
         <v>2.05</v>
       </c>
       <c r="AA54" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB54" t="n">
         <v>8.5</v>
@@ -8273,13 +8273,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="H55" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J55" t="n">
         <v>2.2</v>
@@ -8336,7 +8336,7 @@
         <v>11</v>
       </c>
       <c r="AB55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
         <v>8.5</v>
@@ -8418,16 +8418,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="H56" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I56" t="n">
         <v>8</v>
       </c>
       <c r="J56" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K56" t="n">
         <v>3</v>
@@ -8448,10 +8448,10 @@
         <v>8</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R56" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
@@ -8507,16 +8507,16 @@
         <v>126</v>
       </c>
       <c r="AL56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="n">
         <v>23</v>
       </c>
       <c r="AO56" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP56" t="n">
         <v>51</v>
@@ -8565,7 +8565,7 @@
         <v>3.25</v>
       </c>
       <c r="I57" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J57" t="n">
         <v>4.33</v>
@@ -8670,10 +8670,10 @@
         <v>34</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="58">
@@ -8708,19 +8708,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H58" t="n">
         <v>3</v>
       </c>
       <c r="I58" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J58" t="n">
         <v>3.75</v>
       </c>
       <c r="K58" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L58" t="n">
         <v>3.4</v>
@@ -8732,28 +8732,28 @@
         <v>6.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P58" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R58" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S58" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="T58" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W58" t="n">
         <v>1.57</v>
@@ -8819,10 +8819,10 @@
         <v>41</v>
       </c>
       <c r="AR58" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="59">
@@ -8860,16 +8860,16 @@
         <v>3.25</v>
       </c>
       <c r="H59" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I59" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
       </c>
       <c r="K59" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L59" t="n">
         <v>3.2</v>
@@ -8968,10 +8968,10 @@
         <v>34</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="60">
@@ -9006,105 +9006,105 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="H60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I60" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J60" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K60" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L60" t="n">
         <v>4.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O60" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P60" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R60" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V60" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W60" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z60" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA60" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC60" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>9</v>
       </c>
       <c r="AD60" t="n">
         <v>15</v>
       </c>
       <c r="AE60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF60" t="n">
         <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH60" t="n">
         <v>6.5</v>
       </c>
       <c r="AI60" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ60" t="n">
         <v>51</v>
       </c>
       <c r="AK60" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL60" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN60" t="n">
         <v>15</v>
       </c>
       <c r="AO60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP60" t="n">
         <v>41</v>
@@ -9288,22 +9288,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="J62" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K62" t="n">
         <v>2.05</v>
       </c>
       <c r="L62" t="n">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="M62" t="n">
         <v>1.07</v>
@@ -9318,7 +9318,7 @@
         <v>3.3</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R62" t="n">
         <v>1.83</v>
@@ -9332,10 +9332,10 @@
         <v>1.33</v>
       </c>
       <c r="W62" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X62" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="Y62" t="n">
         <v>1.7</v>
@@ -9344,19 +9344,19 @@
         <v>2.02</v>
       </c>
       <c r="AA62" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AB62" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD62" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF62" t="n">
         <v>37</v>
@@ -9377,19 +9377,19 @@
         <v>500</v>
       </c>
       <c r="AL62" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AM62" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AN62" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AO62" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP62" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ62" t="n">
         <v>29</v>
@@ -9429,72 +9429,72 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="I63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J63" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="K63" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="L63" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="M63" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N63" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O63" t="n">
         <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R63" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="V63" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W63" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="X63" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Y63" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Z63" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AA63" t="n">
         <v>6.8</v>
       </c>
       <c r="AB63" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE63" t="n">
         <v>11.75</v>
@@ -9503,13 +9503,13 @@
         <v>32</v>
       </c>
       <c r="AG63" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH63" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AI63" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ63" t="n">
         <v>120</v>
@@ -9518,22 +9518,22 @@
         <v>1000</v>
       </c>
       <c r="AL63" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM63" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN63" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO63" t="n">
         <v>250</v>
       </c>
       <c r="AP63" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AQ63" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9600,10 +9600,10 @@
         <v>3.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R64" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
@@ -9711,13 +9711,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H65" t="n">
         <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J65" t="n">
         <v>2.3</v>
@@ -9726,13 +9726,13 @@
         <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
         <v>1.2</v>
@@ -9761,10 +9761,10 @@
         <v>3.25</v>
       </c>
       <c r="Y65" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA65" t="n">
         <v>8.5</v>
@@ -9776,7 +9776,7 @@
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE65" t="n">
         <v>13</v>
@@ -9791,7 +9791,7 @@
         <v>7.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ65" t="n">
         <v>41</v>
@@ -9809,7 +9809,7 @@
         <v>15</v>
       </c>
       <c r="AO65" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP65" t="n">
         <v>34</v>
@@ -9993,48 +9993,48 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I67" t="n">
         <v>1.9</v>
       </c>
       <c r="J67" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L67" t="n">
         <v>2.6</v>
       </c>
       <c r="M67" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N67" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O67" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P67" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R67" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V67" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W67" t="n">
         <v>1.44</v>
@@ -10043,10 +10043,10 @@
         <v>2.63</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA67" t="n">
         <v>11</v>
@@ -10061,40 +10061,40 @@
         <v>41</v>
       </c>
       <c r="AE67" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF67" t="n">
         <v>41</v>
       </c>
       <c r="AG67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH67" t="n">
         <v>6.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ67" t="n">
         <v>51</v>
       </c>
       <c r="AK67" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM67" t="n">
         <v>8.5</v>
       </c>
       <c r="AN67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO67" t="n">
         <v>15</v>
       </c>
       <c r="AP67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ67" t="n">
         <v>29</v>
@@ -10278,19 +10278,19 @@
         <v>1.4</v>
       </c>
       <c r="H69" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I69" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J69" t="n">
         <v>1.83</v>
       </c>
       <c r="K69" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L69" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M69" t="n">
         <v>1.02</v>
@@ -10305,10 +10305,10 @@
         <v>6</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="R69" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S69" t="n">
         <v>1.8</v>
@@ -10329,34 +10329,34 @@
         <v>3.75</v>
       </c>
       <c r="Y69" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z69" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC69" t="n">
         <v>8.5</v>
       </c>
       <c r="AD69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE69" t="n">
         <v>11</v>
       </c>
       <c r="AF69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI69" t="n">
         <v>15</v>
@@ -10365,10 +10365,10 @@
         <v>41</v>
       </c>
       <c r="AK69" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL69" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM69" t="n">
         <v>41</v>
@@ -10380,7 +10380,7 @@
         <v>81</v>
       </c>
       <c r="AP69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ69" t="n">
         <v>41</v>
@@ -10450,16 +10450,16 @@
         <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R70" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S70" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T70" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U70" t="n">
         <v>2.5</v>
@@ -10568,7 +10568,7 @@
         <v>2.1</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I71" t="n">
         <v>3.4</v>
@@ -10595,10 +10595,10 @@
         <v>4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R71" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10621,7 +10621,7 @@
         <v>2.2</v>
       </c>
       <c r="AA71" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB71" t="n">
         <v>11</v>
@@ -10630,7 +10630,7 @@
         <v>9</v>
       </c>
       <c r="AD71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -10654,7 +10654,7 @@
         <v>151</v>
       </c>
       <c r="AL71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM71" t="n">
         <v>19</v>
@@ -10666,7 +10666,7 @@
         <v>34</v>
       </c>
       <c r="AP71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ71" t="n">
         <v>29</v>
@@ -10724,10 +10724,10 @@
         <v>6</v>
       </c>
       <c r="M72" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O72" t="n">
         <v>1.14</v>
@@ -10736,7 +10736,7 @@
         <v>5.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R72" t="n">
         <v>2.7</v>
@@ -10851,22 +10851,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J73" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K73" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M73" t="n">
         <v>1.03</v>
@@ -10875,16 +10875,16 @@
         <v>15</v>
       </c>
       <c r="O73" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P73" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R73" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S73" t="n">
         <v>2.05</v>
@@ -10893,16 +10893,16 @@
         <v>1.8</v>
       </c>
       <c r="U73" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V73" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W73" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X73" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y73" t="n">
         <v>2.1</v>
@@ -10920,25 +10920,25 @@
         <v>9</v>
       </c>
       <c r="AD73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF73" t="n">
         <v>29</v>
       </c>
       <c r="AG73" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI73" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ73" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK73" t="n">
         <v>351</v>
@@ -10953,7 +10953,7 @@
         <v>26</v>
       </c>
       <c r="AO73" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP73" t="n">
         <v>67</v>
@@ -10996,16 +10996,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H74" t="n">
         <v>4.75</v>
       </c>
       <c r="I74" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J74" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
         <v>2.5</v>
@@ -11026,7 +11026,7 @@
         <v>5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R74" t="n">
         <v>2.4</v>
@@ -11089,10 +11089,10 @@
         <v>151</v>
       </c>
       <c r="AL74" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM74" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN74" t="n">
         <v>17</v>
@@ -11104,7 +11104,7 @@
         <v>41</v>
       </c>
       <c r="AQ74" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11141,7 +11141,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H75" t="n">
         <v>3.75</v>
@@ -11150,7 +11150,7 @@
         <v>5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K75" t="n">
         <v>2.05</v>
@@ -11159,30 +11159,30 @@
         <v>6</v>
       </c>
       <c r="M75" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N75" t="n">
         <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P75" t="n">
         <v>2.75</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R75" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V75" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="W75" t="n">
         <v>1.5</v>
@@ -11194,7 +11194,7 @@
         <v>2.2</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA75" t="n">
         <v>5.5</v>
@@ -11304,19 +11304,19 @@
         <v>6</v>
       </c>
       <c r="M76" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N76" t="n">
         <v>12</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P76" t="n">
         <v>3.75</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R76" t="n">
         <v>2.05</v>
@@ -11327,7 +11327,7 @@
         <v>3</v>
       </c>
       <c r="V76" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W76" t="n">
         <v>1.36</v>
@@ -11336,10 +11336,10 @@
         <v>3</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA76" t="n">
         <v>7</v>
@@ -11427,25 +11427,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H77" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J77" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="K77" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="L77" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="M77" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N77" t="n">
         <v>5</v>
@@ -11465,7 +11465,7 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="V77" t="n">
         <v>1.15</v>
@@ -11474,49 +11474,49 @@
         <v>1.6</v>
       </c>
       <c r="X77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y77" t="n">
         <v>2.18</v>
       </c>
-      <c r="Y77" t="n">
-        <v>2.15</v>
-      </c>
       <c r="Z77" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AA77" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AB77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC77" t="n">
         <v>9.25</v>
       </c>
       <c r="AD77" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE77" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF77" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG77" t="n">
         <v>5</v>
       </c>
       <c r="AH77" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AI77" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ77" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK77" t="n">
         <v>101</v>
       </c>
       <c r="AL77" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AM77" t="n">
         <v>19.5</v>
@@ -11525,10 +11525,10 @@
         <v>14.5</v>
       </c>
       <c r="AO77" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP77" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ77" t="n">
         <v>70</v>
@@ -11727,22 +11727,22 @@
         <v>3.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N79" t="n">
         <v>9</v>
       </c>
       <c r="O79" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P79" t="n">
         <v>3.2</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R79" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="S79" t="n">
         <v>3.1</v>
@@ -11754,7 +11754,7 @@
         <v>4</v>
       </c>
       <c r="V79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W79" t="n">
         <v>1.44</v>
@@ -11763,10 +11763,10 @@
         <v>2.63</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA79" t="n">
         <v>7.5</v>
@@ -11876,13 +11876,13 @@
         <v>2.75</v>
       </c>
       <c r="M80" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O80" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P80" t="n">
         <v>3.25</v>
@@ -11891,7 +11891,7 @@
         <v>2.05</v>
       </c>
       <c r="R80" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -11899,7 +11899,7 @@
         <v>3.5</v>
       </c>
       <c r="V80" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W80" t="n">
         <v>1.44</v>
@@ -11908,10 +11908,10 @@
         <v>2.63</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA80" t="n">
         <v>10</v>
@@ -12174,10 +12174,10 @@
         <v>4.33</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R82" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
@@ -12426,13 +12426,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J84" t="n">
         <v>3.4</v>
@@ -12447,7 +12447,7 @@
         <v>1.03</v>
       </c>
       <c r="N84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O84" t="n">
         <v>1.17</v>
@@ -12486,13 +12486,13 @@
         <v>2.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB84" t="n">
         <v>19</v>
       </c>
       <c r="AC84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD84" t="n">
         <v>34</v>
@@ -12601,10 +12601,10 @@
         <v>4</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
@@ -12736,24 +12736,24 @@
         <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P86" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R86" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V86" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W86" t="n">
         <v>1.33</v>
@@ -12910,7 +12910,7 @@
         <v>2.25</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AA87" t="n">
         <v>5.5</v>
@@ -13005,25 +13005,25 @@
         <v>11</v>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I88" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J88" t="n">
         <v>10</v>
       </c>
       <c r="K88" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L88" t="n">
         <v>1.8</v>
       </c>
       <c r="M88" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O88" t="n">
         <v>1.25</v>
@@ -13050,19 +13050,19 @@
         <v>1.33</v>
       </c>
       <c r="W88" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X88" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Z88" t="n">
         <v>1.5</v>
       </c>
       <c r="AA88" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB88" t="n">
         <v>51</v>
@@ -13080,13 +13080,13 @@
         <v>81</v>
       </c>
       <c r="AG88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH88" t="n">
         <v>10</v>
       </c>
       <c r="AI88" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ88" t="n">
         <v>101</v>
@@ -13095,7 +13095,7 @@
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM88" t="n">
         <v>5.5</v>
@@ -13107,10 +13107,10 @@
         <v>7.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ88" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR88" t="n">
         <v>1.43</v>
@@ -13151,22 +13151,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I89" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J89" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K89" t="n">
         <v>2.2</v>
       </c>
       <c r="L89" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M89" t="n">
         <v>1.07</v>
@@ -13190,7 +13190,7 @@
         <v>2.85</v>
       </c>
       <c r="T89" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U89" t="n">
         <v>3.5</v>
@@ -13205,10 +13205,10 @@
         <v>2.63</v>
       </c>
       <c r="Y89" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z89" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AA89" t="n">
         <v>15</v>
@@ -13217,7 +13217,7 @@
         <v>34</v>
       </c>
       <c r="AC89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD89" t="n">
         <v>81</v>
@@ -13232,28 +13232,28 @@
         <v>9</v>
       </c>
       <c r="AH89" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI89" t="n">
         <v>21</v>
       </c>
       <c r="AJ89" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK89" t="n">
         <v>501</v>
       </c>
       <c r="AL89" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM89" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN89" t="n">
         <v>8.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP89" t="n">
         <v>13</v>
@@ -13357,7 +13357,7 @@
         <v>2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AA90" t="n">
         <v>6.5</v>
@@ -13499,7 +13499,7 @@
         <v>3</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Z91" t="n">
         <v>2</v>
@@ -13608,22 +13608,22 @@
         <v>2.3</v>
       </c>
       <c r="M92" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O92" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P92" t="n">
         <v>3.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R92" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
@@ -13631,7 +13631,7 @@
         <v>3.25</v>
       </c>
       <c r="V92" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W92" t="n">
         <v>1.4</v>
@@ -13640,10 +13640,10 @@
         <v>2.75</v>
       </c>
       <c r="Y92" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z92" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA92" t="n">
         <v>13</v>
@@ -13731,10 +13731,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I93" t="n">
         <v>5.25</v>
@@ -13749,34 +13749,34 @@
         <v>5.5</v>
       </c>
       <c r="M93" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N93" t="n">
         <v>17</v>
       </c>
       <c r="O93" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R93" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S93" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="T93" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U93" t="n">
         <v>2.25</v>
       </c>
       <c r="V93" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W93" t="n">
         <v>1.29</v>
@@ -13785,7 +13785,7 @@
         <v>3.5</v>
       </c>
       <c r="Y93" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Z93" t="n">
         <v>2.1</v>
@@ -13803,13 +13803,13 @@
         <v>12</v>
       </c>
       <c r="AE93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF93" t="n">
         <v>21</v>
       </c>
       <c r="AG93" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH93" t="n">
         <v>8.5</v>
@@ -14168,22 +14168,22 @@
         <v>6</v>
       </c>
       <c r="M96" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N96" t="n">
         <v>11</v>
       </c>
       <c r="O96" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P96" t="n">
         <v>3.4</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R96" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
@@ -14191,7 +14191,7 @@
         <v>3.5</v>
       </c>
       <c r="V96" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W96" t="n">
         <v>1.4</v>
@@ -14203,7 +14203,7 @@
         <v>2</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA96" t="n">
         <v>6.5</v>
@@ -14291,31 +14291,31 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>3</v>
       </c>
       <c r="I97" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K97" t="n">
         <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M97" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N97" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O97" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P97" t="n">
         <v>2.75</v>
@@ -14324,7 +14324,7 @@
         <v>2.25</v>
       </c>
       <c r="R97" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -14332,7 +14332,7 @@
         <v>4</v>
       </c>
       <c r="V97" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W97" t="n">
         <v>1.5</v>
@@ -14341,22 +14341,22 @@
         <v>2.5</v>
       </c>
       <c r="Y97" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Z97" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="AA97" t="n">
         <v>6.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC97" t="n">
         <v>9.5</v>
       </c>
       <c r="AD97" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE97" t="n">
         <v>19</v>
@@ -14371,7 +14371,7 @@
         <v>6</v>
       </c>
       <c r="AI97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ97" t="n">
         <v>51</v>
@@ -14380,13 +14380,13 @@
         <v>351</v>
       </c>
       <c r="AL97" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM97" t="n">
         <v>19</v>
       </c>
       <c r="AN97" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO97" t="n">
         <v>41</v>
@@ -14432,7 +14432,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H98" t="n">
         <v>3</v>
@@ -14573,28 +14573,28 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J99" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K99" t="n">
         <v>2.05</v>
       </c>
       <c r="L99" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M99" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N99" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O99" t="n">
         <v>1.36</v>
@@ -14606,7 +14606,7 @@
         <v>2.15</v>
       </c>
       <c r="R99" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
@@ -14629,13 +14629,13 @@
         <v>1.91</v>
       </c>
       <c r="AA99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB99" t="n">
         <v>15</v>
       </c>
       <c r="AC99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD99" t="n">
         <v>34</v>
@@ -14644,10 +14644,10 @@
         <v>26</v>
       </c>
       <c r="AF99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG99" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH99" t="n">
         <v>6</v>
@@ -14668,7 +14668,7 @@
         <v>11</v>
       </c>
       <c r="AN99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO99" t="n">
         <v>23</v>
@@ -14714,7 +14714,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H100" t="n">
         <v>3.75</v>
@@ -14732,10 +14732,10 @@
         <v>5.5</v>
       </c>
       <c r="M100" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O100" t="n">
         <v>1.29</v>
@@ -14744,10 +14744,10 @@
         <v>3.5</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R100" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
@@ -14785,7 +14785,7 @@
         <v>13</v>
       </c>
       <c r="AF100" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG100" t="n">
         <v>10</v>
@@ -14803,7 +14803,7 @@
         <v>301</v>
       </c>
       <c r="AL100" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM100" t="n">
         <v>29</v>
@@ -14855,7 +14855,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H101" t="n">
         <v>3.3</v>
@@ -14888,7 +14888,7 @@
         <v>2.2</v>
       </c>
       <c r="R101" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
@@ -15017,7 +15017,7 @@
         <v>1.02</v>
       </c>
       <c r="N102" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O102" t="n">
         <v>1.14</v>
@@ -15034,10 +15034,10 @@
       <c r="S102" t="inlineStr"/>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V102" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W102" t="n">
         <v>1.25</v>
@@ -15137,7 +15137,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>3.6</v>
@@ -15146,7 +15146,7 @@
         <v>2.3</v>
       </c>
       <c r="J103" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K103" t="n">
         <v>2.2</v>
@@ -15158,7 +15158,7 @@
         <v>1.04</v>
       </c>
       <c r="N103" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O103" t="n">
         <v>1.25</v>
@@ -15181,25 +15181,25 @@
         <v>1.36</v>
       </c>
       <c r="W103" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X103" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y103" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Z103" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AA103" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB103" t="n">
         <v>15</v>
       </c>
       <c r="AC103" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD103" t="n">
         <v>29</v>
@@ -15217,7 +15217,7 @@
         <v>7</v>
       </c>
       <c r="AI103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ103" t="n">
         <v>41</v>
@@ -15226,7 +15226,7 @@
         <v>201</v>
       </c>
       <c r="AL103" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM103" t="n">
         <v>12</v>
@@ -15235,7 +15235,7 @@
         <v>9.5</v>
       </c>
       <c r="AO103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP103" t="n">
         <v>19</v>
@@ -15278,13 +15278,13 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H104" t="n">
         <v>3.5</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="J104" t="n">
         <v>4</v>
@@ -15302,16 +15302,16 @@
         <v>11</v>
       </c>
       <c r="O104" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P104" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R104" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S104" t="inlineStr"/>
       <c r="T104" t="inlineStr"/>
@@ -15337,7 +15337,7 @@
         <v>11</v>
       </c>
       <c r="AB104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC104" t="n">
         <v>12</v>
@@ -15346,7 +15346,7 @@
         <v>41</v>
       </c>
       <c r="AE104" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF104" t="n">
         <v>34</v>
@@ -15358,7 +15358,7 @@
         <v>6.5</v>
       </c>
       <c r="AI104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ104" t="n">
         <v>41</v>
@@ -15419,13 +15419,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>3.2</v>
       </c>
       <c r="I105" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="J105" t="n">
         <v>3.4</v>
@@ -15437,10 +15437,10 @@
         <v>3.75</v>
       </c>
       <c r="M105" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N105" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O105" t="n">
         <v>1.44</v>
@@ -15452,7 +15452,7 @@
         <v>2.4</v>
       </c>
       <c r="R105" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
@@ -15526,10 +15526,10 @@
         <v>41</v>
       </c>
       <c r="AR105" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H106" t="n">
         <v>3.5</v>
@@ -15582,10 +15582,10 @@
         <v>4.5</v>
       </c>
       <c r="M106" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N106" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O106" t="n">
         <v>1.36</v>
@@ -15594,10 +15594,10 @@
         <v>3</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R106" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
@@ -15711,7 +15711,7 @@
         <v>3.6</v>
       </c>
       <c r="I107" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J107" t="n">
         <v>3.75</v>
@@ -15723,22 +15723,22 @@
         <v>2.88</v>
       </c>
       <c r="M107" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N107" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O107" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P107" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R107" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
@@ -15846,13 +15846,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H108" t="n">
         <v>3.3</v>
       </c>
       <c r="I108" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J108" t="n">
         <v>3.4</v>
@@ -15861,7 +15861,7 @@
         <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M108" t="n">
         <v>1.07</v>
@@ -15870,10 +15870,10 @@
         <v>9</v>
       </c>
       <c r="O108" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P108" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q108" t="n">
         <v>2.2</v>
@@ -15890,7 +15890,7 @@
         <v>1.22</v>
       </c>
       <c r="W108" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X108" t="n">
         <v>2.5</v>
@@ -15941,10 +15941,10 @@
         <v>12</v>
       </c>
       <c r="AN108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP108" t="n">
         <v>23</v>
@@ -16017,24 +16017,24 @@
         <v>3</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R109" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S109" t="inlineStr"/>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V109" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W109" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X109" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y109" t="n">
         <v>1.91</v>
@@ -16128,22 +16128,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H110" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I110" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
         <v>4.33</v>
       </c>
       <c r="K110" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L110" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M110" t="n">
         <v>1.06</v>
@@ -16161,7 +16161,7 @@
         <v>2.05</v>
       </c>
       <c r="R110" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
@@ -16172,19 +16172,19 @@
         <v>1.29</v>
       </c>
       <c r="W110" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X110" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Z110" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="AA110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB110" t="n">
         <v>19</v>
@@ -16196,28 +16196,28 @@
         <v>41</v>
       </c>
       <c r="AE110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF110" t="n">
         <v>41</v>
       </c>
       <c r="AG110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH110" t="n">
         <v>6.5</v>
       </c>
       <c r="AI110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ110" t="n">
         <v>51</v>
       </c>
       <c r="AK110" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL110" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM110" t="n">
         <v>9</v>
@@ -16275,7 +16275,7 @@
         <v>3.5</v>
       </c>
       <c r="I111" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J111" t="n">
         <v>3.6</v>
@@ -16313,13 +16313,13 @@
         <v>1.33</v>
       </c>
       <c r="W111" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X111" t="n">
         <v>2.75</v>
       </c>
       <c r="Y111" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z111" t="n">
         <v>2</v>
@@ -16410,7 +16410,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>5.5</v>
@@ -16419,7 +16419,7 @@
         <v>9</v>
       </c>
       <c r="J112" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K112" t="n">
         <v>2.5</v>
@@ -16458,7 +16458,7 @@
         <v>1.44</v>
       </c>
       <c r="W112" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X112" t="n">
         <v>3.25</v>
@@ -16467,7 +16467,7 @@
         <v>2.1</v>
       </c>
       <c r="Z112" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA112" t="n">
         <v>7</v>
@@ -16963,10 +16963,10 @@
         <v>3.5</v>
       </c>
       <c r="J116" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K116" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L116" t="n">
         <v>4.5</v>
@@ -16998,7 +16998,7 @@
         <v>1.17</v>
       </c>
       <c r="W116" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X116" t="n">
         <v>2.25</v>
@@ -17007,7 +17007,7 @@
         <v>2.2</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA116" t="n">
         <v>6</v>
@@ -17099,7 +17099,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
@@ -17108,19 +17108,19 @@
         <v>3.75</v>
       </c>
       <c r="J117" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K117" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L117" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M117" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N117" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O117" t="n">
         <v>1.53</v>
@@ -17132,7 +17132,7 @@
         <v>2.6</v>
       </c>
       <c r="R117" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
         <v>2.25</v>
       </c>
       <c r="Z117" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA117" t="n">
         <v>5.5</v>
@@ -17161,7 +17161,7 @@
         <v>8</v>
       </c>
       <c r="AC117" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD117" t="n">
         <v>17</v>
@@ -17188,10 +17188,10 @@
         <v>101</v>
       </c>
       <c r="AL117" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN117" t="n">
         <v>15</v>
@@ -17259,13 +17259,13 @@
         <v>1.91</v>
       </c>
       <c r="L118" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M118" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N118" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O118" t="n">
         <v>1.53</v>
@@ -17306,7 +17306,7 @@
         <v>7.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD118" t="n">
         <v>17</v>
@@ -17321,7 +17321,7 @@
         <v>6</v>
       </c>
       <c r="AH118" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI118" t="n">
         <v>21</v>
@@ -17333,7 +17333,7 @@
         <v>101</v>
       </c>
       <c r="AL118" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM118" t="n">
         <v>21</v>
@@ -17389,28 +17389,28 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H119" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I119" t="n">
         <v>5.5</v>
       </c>
       <c r="J119" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K119" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L119" t="n">
         <v>5.5</v>
       </c>
       <c r="M119" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N119" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O119" t="n">
         <v>1.2</v>
@@ -17470,7 +17470,7 @@
         <v>13</v>
       </c>
       <c r="AH119" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI119" t="n">
         <v>17</v>
@@ -17844,28 +17844,28 @@
         <v>13</v>
       </c>
       <c r="O122" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P122" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R122" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S122" t="n">
-        <v>2.19</v>
+        <v>2.27</v>
       </c>
       <c r="T122" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="U122" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="V122" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="W122" t="n">
         <v>1.33</v>
@@ -17931,10 +17931,10 @@
         <v>29</v>
       </c>
       <c r="AR122" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AS122" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="123">
@@ -17987,22 +17987,22 @@
         <v>2.88</v>
       </c>
       <c r="M123" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N123" t="n">
         <v>6.5</v>
       </c>
       <c r="O123" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P123" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q123" t="n">
         <v>2.5</v>
       </c>
       <c r="R123" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S123" t="n">
         <v>4</v>
@@ -18014,7 +18014,7 @@
         <v>5</v>
       </c>
       <c r="V123" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="W123" t="n">
         <v>1.57</v>
@@ -18080,10 +18080,10 @@
         <v>41</v>
       </c>
       <c r="AR123" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="124">
@@ -18118,52 +18118,52 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="H124" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="I124" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J124" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="K124" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L124" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="M124" t="n">
         <v>1.02</v>
       </c>
       <c r="N124" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O124" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="P124" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R124" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S124" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="T124" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="U124" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="V124" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W124" t="n">
         <v>1.29</v>
@@ -18172,67 +18172,67 @@
         <v>3.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z124" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA124" t="n">
         <v>8</v>
       </c>
       <c r="AB124" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC124" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD124" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AE124" t="n">
         <v>11</v>
       </c>
       <c r="AF124" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AG124" t="n">
         <v>15</v>
       </c>
       <c r="AH124" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI124" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ124" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM124" t="n">
         <v>51</v>
       </c>
-      <c r="AK124" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL124" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM124" t="n">
-        <v>41</v>
-      </c>
       <c r="AN124" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO124" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP124" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ124" t="n">
         <v>51</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS124" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125">
@@ -18267,13 +18267,13 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H125" t="n">
         <v>3.3</v>
       </c>
       <c r="I125" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J125" t="n">
         <v>2.75</v>
@@ -18282,7 +18282,7 @@
         <v>2.2</v>
       </c>
       <c r="L125" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M125" t="n">
         <v>1.03</v>
@@ -18297,10 +18297,10 @@
         <v>3.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R125" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
@@ -18317,16 +18317,16 @@
         <v>2.75</v>
       </c>
       <c r="Y125" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z125" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA125" t="n">
         <v>8</v>
       </c>
       <c r="AB125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC125" t="n">
         <v>9</v>
@@ -18341,7 +18341,7 @@
         <v>26</v>
       </c>
       <c r="AG125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH125" t="n">
         <v>6.5</v>
@@ -18359,16 +18359,16 @@
         <v>11</v>
       </c>
       <c r="AM125" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN125" t="n">
         <v>12</v>
       </c>
       <c r="AO125" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP125" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ125" t="n">
         <v>34</v>
@@ -18417,7 +18417,7 @@
         <v>2.88</v>
       </c>
       <c r="J126" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K126" t="n">
         <v>2.25</v>
@@ -18549,19 +18549,19 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H127" t="n">
         <v>4.33</v>
       </c>
       <c r="I127" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J127" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K127" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L127" t="n">
         <v>6</v>
@@ -18579,10 +18579,10 @@
         <v>4</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R127" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
@@ -18599,10 +18599,10 @@
         <v>3.25</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA127" t="n">
         <v>7.5</v>
@@ -18614,7 +18614,7 @@
         <v>8.5</v>
       </c>
       <c r="AD127" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE127" t="n">
         <v>12</v>
@@ -18629,7 +18629,7 @@
         <v>8.5</v>
       </c>
       <c r="AI127" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ127" t="n">
         <v>51</v>
@@ -18638,13 +18638,13 @@
         <v>251</v>
       </c>
       <c r="AL127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM127" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN127" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO127" t="n">
         <v>67</v>
@@ -18696,7 +18696,7 @@
         <v>3.5</v>
       </c>
       <c r="I128" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J128" t="n">
         <v>2.4</v>
@@ -18705,16 +18705,16 @@
         <v>2.2</v>
       </c>
       <c r="L128" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M128" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O128" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P128" t="n">
         <v>3.4</v>
@@ -18731,7 +18731,7 @@
         <v>3.4</v>
       </c>
       <c r="V128" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W128" t="n">
         <v>1.4</v>
@@ -18749,7 +18749,7 @@
         <v>7</v>
       </c>
       <c r="AB128" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC128" t="n">
         <v>8.5</v>
@@ -18764,7 +18764,7 @@
         <v>29</v>
       </c>
       <c r="AG128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH128" t="n">
         <v>7</v>
@@ -18779,7 +18779,7 @@
         <v>301</v>
       </c>
       <c r="AL128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM128" t="n">
         <v>21</v>
@@ -18990,10 +18990,10 @@
         <v>5.5</v>
       </c>
       <c r="M130" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O130" t="n">
         <v>1.29</v>
@@ -19260,7 +19260,7 @@
         <v>3.2</v>
       </c>
       <c r="I132" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J132" t="n">
         <v>4.75</v>
@@ -19304,10 +19304,10 @@
         <v>2.2</v>
       </c>
       <c r="Y132" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z132" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA132" t="n">
         <v>7.5</v>
@@ -19316,7 +19316,7 @@
         <v>17</v>
       </c>
       <c r="AC132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD132" t="n">
         <v>41</v>
@@ -19328,16 +19328,16 @@
         <v>51</v>
       </c>
       <c r="AG132" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH132" t="n">
         <v>6.5</v>
       </c>
       <c r="AI132" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ132" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK132" t="inlineStr"/>
       <c r="AL132" t="n">
@@ -19353,7 +19353,7 @@
         <v>19</v>
       </c>
       <c r="AP132" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ132" t="n">
         <v>41</v>
@@ -19582,7 +19582,7 @@
         <v>1.17</v>
       </c>
       <c r="W134" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="X134" t="n">
         <v>2.25</v>
@@ -19683,63 +19683,63 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H135" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I135" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J135" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K135" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L135" t="n">
         <v>3.1</v>
       </c>
       <c r="M135" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N135" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O135" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P135" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R135" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V135" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W135" t="n">
         <v>1.5</v>
       </c>
       <c r="X135" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Y135" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z135" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA135" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB135" t="n">
         <v>15</v>
@@ -19757,28 +19757,28 @@
         <v>41</v>
       </c>
       <c r="AG135" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH135" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI135" t="n">
         <v>17</v>
       </c>
       <c r="AJ135" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK135" t="n">
         <v>351</v>
       </c>
       <c r="AL135" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM135" t="n">
         <v>10</v>
       </c>
       <c r="AN135" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO135" t="n">
         <v>21</v>
@@ -19790,10 +19790,10 @@
         <v>34</v>
       </c>
       <c r="AR135" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="136">
@@ -19872,10 +19872,10 @@
         <v>1.18</v>
       </c>
       <c r="W136" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X136" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y136" t="n">
         <v>2</v>
@@ -19994,13 +19994,13 @@
         <v>1.08</v>
       </c>
       <c r="N137" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O137" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P137" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q137" t="n">
         <v>2.35</v>
@@ -20011,16 +20011,16 @@
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V137" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W137" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X137" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y137" t="n">
         <v>2</v>
@@ -20047,7 +20047,7 @@
         <v>41</v>
       </c>
       <c r="AG137" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH137" t="n">
         <v>6</v>
@@ -20056,10 +20056,10 @@
         <v>17</v>
       </c>
       <c r="AJ137" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK137" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL137" t="n">
         <v>7</v>
@@ -20068,7 +20068,7 @@
         <v>11</v>
       </c>
       <c r="AN137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO137" t="n">
         <v>26</v>
@@ -20118,60 +20118,60 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="H138" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I138" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="J138" t="n">
-        <v>2.92</v>
+        <v>2.85</v>
       </c>
       <c r="K138" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="L138" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="M138" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N138" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="O138" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P138" t="n">
-        <v>4.85</v>
+        <v>5.1</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="R138" t="n">
-        <v>2.55</v>
+        <v>2.67</v>
       </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V138" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W138" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X138" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="Y138" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Z138" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AA138" t="n">
         <v>15</v>
@@ -20183,31 +20183,31 @@
         <v>10</v>
       </c>
       <c r="AD138" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE138" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF138" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG138" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH138" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AI138" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ138" t="n">
         <v>29</v>
       </c>
       <c r="AK138" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL138" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AM138" t="n">
         <v>16.5</v>
@@ -20216,13 +20216,13 @@
         <v>9.75</v>
       </c>
       <c r="AO138" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP138" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ138" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr"/>
@@ -20259,22 +20259,22 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H139" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I139" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J139" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="K139" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L139" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="M139" t="n">
         <v>1.03</v>
@@ -20303,10 +20303,10 @@
         <v>1.53</v>
       </c>
       <c r="W139" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X139" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Y139" t="n">
         <v>1.47</v>
@@ -20315,7 +20315,7 @@
         <v>2.5</v>
       </c>
       <c r="AA139" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB139" t="n">
         <v>15</v>
@@ -20327,10 +20327,10 @@
         <v>28</v>
       </c>
       <c r="AE139" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF139" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG139" t="n">
         <v>9</v>
@@ -20348,22 +20348,22 @@
         <v>200</v>
       </c>
       <c r="AL139" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM139" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AN139" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO139" t="n">
         <v>29</v>
       </c>
       <c r="AP139" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ139" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR139" t="inlineStr"/>
       <c r="AS139" t="inlineStr"/>
@@ -20541,13 +20541,13 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H141" t="n">
         <v>3.3</v>
       </c>
       <c r="I141" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="J141" t="n">
         <v>4.33</v>
@@ -20556,22 +20556,22 @@
         <v>2.1</v>
       </c>
       <c r="L141" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M141" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N141" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O141" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P141" t="n">
         <v>3.4</v>
       </c>
       <c r="Q141" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R141" t="n">
         <v>1.8</v>
@@ -20582,13 +20582,13 @@
         <v>3.5</v>
       </c>
       <c r="V141" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W141" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X141" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y141" t="n">
         <v>1.8</v>
@@ -20609,16 +20609,16 @@
         <v>41</v>
       </c>
       <c r="AE141" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF141" t="n">
         <v>41</v>
       </c>
       <c r="AG141" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH141" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI141" t="n">
         <v>15</v>
@@ -20633,13 +20633,13 @@
         <v>7</v>
       </c>
       <c r="AM141" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN141" t="n">
         <v>9</v>
       </c>
       <c r="AO141" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP141" t="n">
         <v>17</v>
@@ -20691,13 +20691,13 @@
         <v>3.5</v>
       </c>
       <c r="J142" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K142" t="n">
         <v>1.98</v>
       </c>
       <c r="L142" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="M142" t="n">
         <v>1.09</v>
@@ -20712,7 +20712,7 @@
         <v>2.75</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R142" t="n">
         <v>1.62</v>
@@ -20738,7 +20738,7 @@
         <v>1.78</v>
       </c>
       <c r="AA142" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB142" t="n">
         <v>9</v>
@@ -20750,10 +20750,10 @@
         <v>18.5</v>
       </c>
       <c r="AE142" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG142" t="n">
         <v>6.3</v>
@@ -20771,7 +20771,7 @@
         <v>800</v>
       </c>
       <c r="AL142" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM142" t="n">
         <v>18</v>
@@ -20783,7 +20783,7 @@
         <v>50</v>
       </c>
       <c r="AP142" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AQ142" t="n">
         <v>45</v>
@@ -20964,13 +20964,13 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H144" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I144" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="J144" t="n">
         <v>5</v>
@@ -20979,32 +20979,32 @@
         <v>3.2</v>
       </c>
       <c r="L144" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="P144" t="n">
         <v>13</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="R144" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="V144" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W144" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="X144" t="n">
         <v>6</v>
@@ -21028,10 +21028,10 @@
         <v>67</v>
       </c>
       <c r="AE144" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF144" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG144" t="n">
         <v>34</v>
@@ -21040,10 +21040,10 @@
         <v>15</v>
       </c>
       <c r="AI144" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ144" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK144" t="n">
         <v>51</v>
@@ -21101,7 +21101,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="H145" t="n">
         <v>7</v>
@@ -21110,7 +21110,7 @@
         <v>7</v>
       </c>
       <c r="J145" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="K145" t="n">
         <v>3.2</v>
@@ -21118,10 +21118,14 @@
       <c r="L145" t="n">
         <v>7</v>
       </c>
-      <c r="M145" t="inlineStr"/>
-      <c r="N145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N145" t="n">
+        <v>34</v>
+      </c>
       <c r="O145" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="P145" t="n">
         <v>10</v>
@@ -21135,13 +21139,13 @@
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="V145" t="n">
         <v>2.25</v>
       </c>
       <c r="W145" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="X145" t="n">
         <v>5.5</v>
@@ -21379,22 +21383,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H147" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="J147" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K147" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L147" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="M147" t="n">
         <v>1.06</v>
@@ -21403,87 +21407,87 @@
         <v>8</v>
       </c>
       <c r="O147" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P147" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R147" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V147" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W147" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X147" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y147" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB147" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC147" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD147" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE147" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE147" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AF147" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG147" t="n">
         <v>8</v>
       </c>
       <c r="AH147" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AI147" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AJ147" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK147" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AL147" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AM147" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AN147" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AO147" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AP147" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AQ147" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr"/>
@@ -21846,7 +21850,7 @@
         <v>1.33</v>
       </c>
       <c r="W150" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X150" t="n">
         <v>2.75</v>
@@ -21987,10 +21991,10 @@
         <v>1.25</v>
       </c>
       <c r="W151" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X151" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y151" t="n">
         <v>1.83</v>
@@ -22093,7 +22097,7 @@
         <v>3.3</v>
       </c>
       <c r="J152" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K152" t="n">
         <v>2.1</v>
@@ -22128,10 +22132,10 @@
         <v>1.25</v>
       </c>
       <c r="W152" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X152" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y152" t="n">
         <v>1.83</v>
@@ -22243,13 +22247,13 @@
         <v>3.1</v>
       </c>
       <c r="M153" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N153" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O153" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P153" t="n">
         <v>3</v>
@@ -22258,7 +22262,7 @@
         <v>2.15</v>
       </c>
       <c r="R153" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
@@ -22266,19 +22270,19 @@
         <v>3.75</v>
       </c>
       <c r="V153" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W153" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X153" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y153" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z153" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA153" t="n">
         <v>9</v>
@@ -22366,7 +22370,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>3.4</v>
@@ -22384,13 +22388,13 @@
         <v>5</v>
       </c>
       <c r="M154" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O154" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P154" t="n">
         <v>3</v>
@@ -22399,7 +22403,7 @@
         <v>2.2</v>
       </c>
       <c r="R154" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
@@ -22407,10 +22411,10 @@
         <v>4</v>
       </c>
       <c r="V154" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W154" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X154" t="n">
         <v>2.5</v>
@@ -22419,7 +22423,7 @@
         <v>2</v>
       </c>
       <c r="Z154" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AA154" t="n">
         <v>6</v>
@@ -22519,54 +22523,54 @@
         <v>3</v>
       </c>
       <c r="K155" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L155" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M155" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N155" t="n">
         <v>11</v>
       </c>
       <c r="O155" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P155" t="n">
         <v>3.5</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R155" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V155" t="n">
         <v>1.3</v>
       </c>
       <c r="W155" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X155" t="n">
         <v>2.75</v>
       </c>
       <c r="Y155" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z155" t="n">
         <v>2</v>
       </c>
       <c r="AA155" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC155" t="n">
         <v>9.5</v>
@@ -22581,7 +22585,7 @@
         <v>26</v>
       </c>
       <c r="AG155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH155" t="n">
         <v>6.5</v>
@@ -22605,13 +22609,13 @@
         <v>11</v>
       </c>
       <c r="AO155" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP155" t="n">
         <v>23</v>
       </c>
       <c r="AQ155" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR155" t="inlineStr"/>
       <c r="AS155" t="inlineStr"/>
@@ -22648,40 +22652,40 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I156" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J156" t="n">
         <v>2.75</v>
       </c>
       <c r="K156" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L156" t="n">
         <v>4.75</v>
       </c>
       <c r="M156" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N156" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O156" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P156" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q156" t="n">
         <v>2.4</v>
       </c>
       <c r="R156" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
@@ -22689,25 +22693,25 @@
         <v>4.5</v>
       </c>
       <c r="V156" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="W156" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X156" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Y156" t="n">
         <v>2.1</v>
       </c>
       <c r="Z156" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA156" t="n">
         <v>6</v>
       </c>
       <c r="AB156" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC156" t="n">
         <v>9.5</v>
@@ -22796,7 +22800,7 @@
         <v>1.22</v>
       </c>
       <c r="H157" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I157" t="n">
         <v>15</v>
@@ -22805,28 +22809,28 @@
         <v>1.73</v>
       </c>
       <c r="K157" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M157" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N157" t="n">
         <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P157" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q157" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R157" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
@@ -22834,40 +22838,40 @@
         <v>3.4</v>
       </c>
       <c r="V157" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W157" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X157" t="n">
         <v>2.75</v>
       </c>
       <c r="Y157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AA157" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB157" t="n">
         <v>5</v>
       </c>
-      <c r="AB157" t="n">
-        <v>4.75</v>
-      </c>
       <c r="AC157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD157" t="n">
         <v>6.5</v>
       </c>
       <c r="AE157" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF157" t="n">
         <v>41</v>
       </c>
       <c r="AG157" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH157" t="n">
         <v>11</v>
@@ -22876,7 +22880,7 @@
         <v>34</v>
       </c>
       <c r="AJ157" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK157" t="n">
         <v>101</v>
@@ -22891,13 +22895,13 @@
         <v>41</v>
       </c>
       <c r="AO157" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP157" t="n">
         <v>126</v>
       </c>
       <c r="AQ157" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR157" t="inlineStr"/>
       <c r="AS157" t="inlineStr"/>
@@ -22934,7 +22938,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>3.25</v>
@@ -22952,19 +22956,19 @@
         <v>4.5</v>
       </c>
       <c r="M158" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N158" t="n">
         <v>9</v>
       </c>
       <c r="O158" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P158" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R158" t="n">
         <v>1.62</v>
@@ -22975,19 +22979,19 @@
         <v>4</v>
       </c>
       <c r="V158" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="W158" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X158" t="n">
         <v>2.5</v>
       </c>
       <c r="Y158" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z158" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA158" t="n">
         <v>6.5</v>
@@ -23075,7 +23079,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="H159" t="n">
         <v>3.4</v>
@@ -23105,10 +23109,10 @@
         <v>3.25</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R159" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
@@ -23125,10 +23129,10 @@
         <v>2.63</v>
       </c>
       <c r="Y159" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA159" t="n">
         <v>6.5</v>
@@ -23234,10 +23238,10 @@
         <v>4</v>
       </c>
       <c r="M160" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N160" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O160" t="n">
         <v>1.3</v>
@@ -23290,10 +23294,10 @@
         <v>29</v>
       </c>
       <c r="AG160" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH160" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI160" t="n">
         <v>15</v>
@@ -23669,16 +23673,16 @@
         <v>4.5</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R163" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S163" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T163" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U163" t="n">
         <v>2.5</v>
@@ -23784,45 +23788,45 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H164" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I164" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="J164" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="K164" t="n">
         <v>2.25</v>
       </c>
       <c r="L164" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="M164" t="n">
         <v>1.04</v>
       </c>
       <c r="N164" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O164" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P164" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q164" t="n">
         <v>1.6</v>
       </c>
       <c r="R164" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="V164" t="n">
         <v>1.5</v>
@@ -23831,7 +23835,7 @@
         <v>1.32</v>
       </c>
       <c r="X164" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Y164" t="n">
         <v>1.52</v>
@@ -23840,52 +23844,52 @@
         <v>2.37</v>
       </c>
       <c r="AA164" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB164" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AO164" t="n">
         <v>21</v>
       </c>
-      <c r="AC164" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK164" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL164" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AM164" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AN164" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO164" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AP164" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AQ164" t="n">
         <v>20</v>
@@ -23925,40 +23929,40 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="H165" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I165" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J165" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K165" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L165" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="M165" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N165" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O165" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P165" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R165" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
@@ -23969,64 +23973,64 @@
         <v>1.44</v>
       </c>
       <c r="W165" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X165" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Y165" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Z165" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AA165" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AB165" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC165" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD165" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AE165" t="n">
         <v>23</v>
       </c>
       <c r="AF165" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG165" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH165" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AI165" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ165" t="n">
         <v>45</v>
       </c>
       <c r="AK165" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL165" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AM165" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="AN165" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AO165" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AP165" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ165" t="n">
         <v>22</v>
@@ -24489,13 +24493,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H169" t="n">
         <v>3.5</v>
       </c>
       <c r="I169" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J169" t="n">
         <v>3.6</v>
@@ -24504,7 +24508,7 @@
         <v>2.2</v>
       </c>
       <c r="L169" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M169" t="n">
         <v>1.05</v>
@@ -24519,10 +24523,10 @@
         <v>3.75</v>
       </c>
       <c r="Q169" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R169" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
@@ -24533,28 +24537,28 @@
         <v>1.33</v>
       </c>
       <c r="W169" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X169" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y169" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z169" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA169" t="n">
         <v>10</v>
       </c>
       <c r="AB169" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC169" t="n">
         <v>11</v>
       </c>
       <c r="AD169" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE169" t="n">
         <v>23</v>
@@ -24584,13 +24588,13 @@
         <v>11</v>
       </c>
       <c r="AN169" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO169" t="n">
         <v>21</v>
       </c>
       <c r="AP169" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ169" t="n">
         <v>26</v>
@@ -24648,10 +24652,10 @@
         <v>7</v>
       </c>
       <c r="M170" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N170" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O170" t="n">
         <v>1.14</v>
@@ -24708,7 +24712,7 @@
         <v>23</v>
       </c>
       <c r="AG170" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH170" t="n">
         <v>11</v>
@@ -24775,22 +24779,22 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H171" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I171" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J171" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K171" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L171" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M171" t="n">
         <v>1.03</v>
@@ -24811,16 +24815,16 @@
         <v>2.4</v>
       </c>
       <c r="S171" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T171" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="U171" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V171" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W171" t="n">
         <v>1.29</v>
@@ -24859,13 +24863,13 @@
         <v>8.5</v>
       </c>
       <c r="AI171" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ171" t="n">
         <v>41</v>
       </c>
       <c r="AK171" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL171" t="n">
         <v>17</v>
@@ -24938,10 +24942,10 @@
         <v>4.33</v>
       </c>
       <c r="M172" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N172" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O172" t="n">
         <v>1.44</v>
@@ -25286,19 +25290,19 @@
         <v>3.1</v>
       </c>
       <c r="J175" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K175" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L175" t="n">
         <v>3.6</v>
       </c>
       <c r="M175" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N175" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O175" t="n">
         <v>1.29</v>
@@ -25321,16 +25325,16 @@
         <v>1.33</v>
       </c>
       <c r="W175" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X175" t="n">
         <v>2.75</v>
       </c>
       <c r="Y175" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z175" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA175" t="n">
         <v>8.5</v>
@@ -25345,7 +25349,7 @@
         <v>21</v>
       </c>
       <c r="AE175" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF175" t="n">
         <v>26</v>
@@ -25354,7 +25358,7 @@
         <v>10</v>
       </c>
       <c r="AH175" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI175" t="n">
         <v>13</v>
@@ -25366,10 +25370,10 @@
         <v>201</v>
       </c>
       <c r="AL175" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM175" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN175" t="n">
         <v>12</v>
@@ -25421,16 +25425,16 @@
         <v>2.92</v>
       </c>
       <c r="H176" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="I176" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="J176" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K176" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="L176" t="n">
         <v>3.45</v>
@@ -25439,19 +25443,19 @@
         <v>1.14</v>
       </c>
       <c r="N176" t="n">
-        <v>4.35</v>
+        <v>4.25</v>
       </c>
       <c r="O176" t="n">
         <v>1.57</v>
       </c>
       <c r="P176" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R176" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
@@ -25474,10 +25478,10 @@
         <v>1.6</v>
       </c>
       <c r="AA176" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB176" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC176" t="n">
         <v>11.5</v>
@@ -25489,13 +25493,13 @@
         <v>35</v>
       </c>
       <c r="AF176" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG176" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="AH176" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AI176" t="n">
         <v>18</v>
@@ -25507,10 +25511,10 @@
         <v>101</v>
       </c>
       <c r="AL176" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AM176" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN176" t="n">
         <v>10.75</v>
@@ -25980,16 +25984,16 @@
         <v>10</v>
       </c>
       <c r="I180" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J180" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="K180" t="n">
         <v>3.6</v>
       </c>
       <c r="L180" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
@@ -25997,63 +26001,63 @@
         <v>1.08</v>
       </c>
       <c r="P180" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="R180" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V180" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W180" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X180" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="Y180" t="n">
-        <v>2.87</v>
+        <v>2.65</v>
       </c>
       <c r="Z180" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AA180" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AB180" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AC180" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD180" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AE180" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF180" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI180" t="n">
         <v>65</v>
       </c>
-      <c r="AG180" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH180" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI180" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ180" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AK180" t="n">
         <v>101</v>
@@ -26062,19 +26066,19 @@
         <v>90</v>
       </c>
       <c r="AM180" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN180" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO180" t="n">
         <v>101</v>
       </c>
       <c r="AP180" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AQ180" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26114,7 +26118,7 @@
         <v>2.65</v>
       </c>
       <c r="H181" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I181" t="n">
         <v>2.27</v>
@@ -26135,39 +26139,39 @@
         <v>9.25</v>
       </c>
       <c r="O181" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P181" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R181" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V181" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W181" t="n">
         <v>1.27</v>
       </c>
       <c r="X181" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Y181" t="n">
         <v>1.47</v>
       </c>
       <c r="Z181" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="AA181" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB181" t="n">
         <v>17</v>
@@ -26176,13 +26180,13 @@
         <v>10.25</v>
       </c>
       <c r="AD181" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AE181" t="n">
         <v>19</v>
       </c>
       <c r="AF181" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG181" t="n">
         <v>9.25</v>
@@ -26191,10 +26195,10 @@
         <v>7.9</v>
       </c>
       <c r="AI181" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ181" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AK181" t="n">
         <v>200</v>
@@ -26252,37 +26256,37 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="H182" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I182" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="J182" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K182" t="n">
         <v>2.3</v>
       </c>
       <c r="L182" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="M182" t="n">
         <v>1.04</v>
       </c>
       <c r="N182" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O182" t="n">
         <v>1.2</v>
       </c>
       <c r="P182" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="Q182" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R182" t="n">
         <v>2.18</v>
@@ -26290,10 +26294,10 @@
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="V182" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W182" t="n">
         <v>1.31</v>
@@ -26305,58 +26309,58 @@
         <v>1.57</v>
       </c>
       <c r="Z182" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AA182" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB182" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC182" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD182" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE182" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AF182" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG182" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH182" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AI182" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ182" t="n">
         <v>45</v>
       </c>
       <c r="AK182" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL182" t="n">
         <v>9.25</v>
       </c>
       <c r="AM182" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AN182" t="n">
         <v>8.25</v>
       </c>
       <c r="AO182" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP182" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AQ182" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR182" t="inlineStr"/>
       <c r="AS182" t="inlineStr"/>
@@ -26411,10 +26415,10 @@
         <v>5.5</v>
       </c>
       <c r="M183" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N183" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O183" t="n">
         <v>1.44</v>
@@ -26556,22 +26560,22 @@
         <v>4</v>
       </c>
       <c r="M184" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N184" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O184" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P184" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R184" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
@@ -26588,10 +26592,10 @@
         <v>2.5</v>
       </c>
       <c r="Y184" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z184" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA184" t="n">
         <v>7</v>
@@ -26707,10 +26711,10 @@
         <v>7</v>
       </c>
       <c r="O185" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P185" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q185" t="n">
         <v>2.5</v>
@@ -26736,7 +26740,7 @@
         <v>2.1</v>
       </c>
       <c r="Z185" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AA185" t="n">
         <v>7</v>
@@ -26790,10 +26794,10 @@
         <v>41</v>
       </c>
       <c r="AR185" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="186">
@@ -26881,7 +26885,7 @@
         <v>2.2</v>
       </c>
       <c r="Z186" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AA186" t="n">
         <v>15</v>
@@ -26981,7 +26985,7 @@
         <v>2.63</v>
       </c>
       <c r="K187" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L187" t="n">
         <v>3.6</v>
@@ -26990,31 +26994,31 @@
         <v>1.03</v>
       </c>
       <c r="N187" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O187" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P187" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q187" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R187" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S187" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="T187" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U187" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V187" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W187" t="n">
         <v>1.3</v>
@@ -27023,13 +27027,13 @@
         <v>3.4</v>
       </c>
       <c r="Y187" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Z187" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="AA187" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB187" t="n">
         <v>12</v>
@@ -27047,7 +27051,7 @@
         <v>21</v>
       </c>
       <c r="AG187" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH187" t="n">
         <v>7.5</v>
@@ -27074,7 +27078,7 @@
         <v>34</v>
       </c>
       <c r="AP187" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ187" t="n">
         <v>26</v>
@@ -27144,10 +27148,10 @@
         <v>3.5</v>
       </c>
       <c r="Q188" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R188" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
@@ -27164,10 +27168,10 @@
         <v>2.75</v>
       </c>
       <c r="Y188" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Z188" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="AA188" t="n">
         <v>7</v>
@@ -27291,10 +27295,10 @@
         <v>2.4</v>
       </c>
       <c r="S189" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="T189" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="U189" t="n">
         <v>2.25</v>
@@ -27309,7 +27313,7 @@
         <v>3.5</v>
       </c>
       <c r="Y189" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Z189" t="n">
         <v>2.5</v>
@@ -27400,13 +27404,13 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H190" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I190" t="n">
         <v>5</v>
-      </c>
-      <c r="I190" t="n">
-        <v>5.25</v>
       </c>
       <c r="J190" t="n">
         <v>2</v>
@@ -27450,7 +27454,7 @@
         <v>3.75</v>
       </c>
       <c r="Y190" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z190" t="n">
         <v>2.25</v>
@@ -27489,13 +27493,13 @@
         <v>126</v>
       </c>
       <c r="AL190" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM190" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN190" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO190" t="n">
         <v>51</v>
@@ -27541,22 +27545,22 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="H191" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I191" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J191" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="K191" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L191" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="M191" t="n">
         <v>1.11</v>
@@ -27568,10 +27572,10 @@
         <v>1.47</v>
       </c>
       <c r="P191" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q191" t="n">
         <v>2.32</v>
-      </c>
-      <c r="Q191" t="n">
-        <v>2.35</v>
       </c>
       <c r="R191" t="n">
         <v>1.47</v>
@@ -27579,37 +27583,37 @@
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="V191" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W191" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="X191" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="Y191" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="Z191" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="AA191" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AB191" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AC191" t="n">
         <v>8.75</v>
       </c>
       <c r="AD191" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE191" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF191" t="n">
         <v>40</v>
@@ -27618,7 +27622,7 @@
         <v>6.5</v>
       </c>
       <c r="AH191" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI191" t="n">
         <v>21</v>
@@ -27630,19 +27634,19 @@
         <v>101</v>
       </c>
       <c r="AL191" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM191" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN191" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AO191" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP191" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ191" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -716,10 +716,10 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.62</v>
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -746,7 +746,7 @@
         <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Z2" t="n">
         <v>2.25</v>
@@ -861,10 +861,10 @@
         <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Z3" t="n">
         <v>3</v>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1003,7 +1003,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1032,19 +1032,19 @@
         <v>2.63</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AA4" t="n">
         <v>10</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="AF4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
         <v>9.5</v>
@@ -1161,16 +1161,16 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y5" t="n">
         <v>1.95</v>
@@ -1318,7 +1318,7 @@
         <v>3.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z6" t="n">
         <v>2</v>
@@ -1453,7 +1453,7 @@
         <v>1.4</v>
       </c>
       <c r="W7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X7" t="n">
         <v>3</v>
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.63</v>
@@ -1594,7 +1594,7 @@
         <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
         <v>4</v>
@@ -1624,16 +1624,16 @@
         <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
         <v>81</v>
@@ -1642,7 +1642,7 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>9</v>
@@ -1651,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ8" t="n">
         <v>17</v>
@@ -1694,16 +1694,16 @@
         <v>1.33</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I9" t="n">
         <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
@@ -1739,7 +1739,7 @@
         <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X9" t="n">
         <v>3.75</v>
@@ -1751,19 +1751,19 @@
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB9" t="n">
         <v>7.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
         <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
@@ -1866,10 +1866,10 @@
         <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="J11" t="n">
         <v>3.75</v>
@@ -1992,13 +1992,13 @@
         <v>2.5</v>
       </c>
       <c r="L11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
         <v>1.14</v>
@@ -2048,10 +2048,10 @@
         <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH11" t="n">
         <v>8</v>
@@ -2139,7 +2139,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.4</v>
@@ -2168,13 +2168,13 @@
         <v>2.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB12" t="n">
         <v>17</v>
@@ -2186,16 +2186,16 @@
         <v>41</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2204,13 +2204,13 @@
         <v>51</v>
       </c>
       <c r="AK12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL12" t="n">
         <v>7</v>
       </c>
       <c r="AM12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN12" t="n">
         <v>9.5</v>
@@ -2289,18 +2289,18 @@
         <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R13" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W13" t="n">
         <v>1.44</v>
@@ -2309,10 +2309,10 @@
         <v>2.63</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
@@ -2345,13 +2345,13 @@
         <v>51</v>
       </c>
       <c r="AK13" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL13" t="n">
         <v>7</v>
       </c>
       <c r="AM13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN13" t="n">
         <v>8.5</v>
@@ -2360,7 +2360,7 @@
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
@@ -2571,10 +2571,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2742,7 +2742,7 @@
         <v>2.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
         <v>8.5</v>
@@ -2763,7 +2763,7 @@
         <v>19</v>
       </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -3132,7 +3132,7 @@
         <v>2.75</v>
       </c>
       <c r="L19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3153,22 +3153,22 @@
         <v>2.3</v>
       </c>
       <c r="S19" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W19" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y19" t="n">
         <v>2.63</v>
@@ -3177,7 +3177,7 @@
         <v>1.44</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>5.5</v>
@@ -3195,7 +3195,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
         <v>13</v>
@@ -3266,7 +3266,7 @@
         <v>6.25</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.67</v>
@@ -3316,13 +3316,13 @@
         <v>2.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB20" t="n">
         <v>8.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD20" t="n">
         <v>9.5</v>
@@ -3334,7 +3334,7 @@
         <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
         <v>13</v>
@@ -3349,16 +3349,16 @@
         <v>151</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP20" t="n">
         <v>51</v>
@@ -3590,31 +3590,31 @@
         <v>1.2</v>
       </c>
       <c r="W22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z22" t="n">
         <v>1.53</v>
       </c>
-      <c r="X22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>1.5</v>
-      </c>
       <c r="AA22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AB22" t="n">
         <v>6</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
         <v>10</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>41</v>
@@ -3626,14 +3626,14 @@
         <v>7.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
         <v>101</v>
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
@@ -3651,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23">
@@ -3728,7 +3728,7 @@
         <v>6.2</v>
       </c>
       <c r="T23" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="U23" t="n">
         <v>8</v>
@@ -4440,10 +4440,10 @@
         <v>4.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.67</v>
@@ -4704,13 +4704,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H30" t="n">
         <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J30" t="n">
         <v>2.88</v>
@@ -4719,13 +4719,13 @@
         <v>1.91</v>
       </c>
       <c r="L30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.53</v>
@@ -4754,22 +4754,22 @@
         <v>2.2</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA30" t="n">
         <v>5.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="n">
         <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>21</v>
@@ -4778,13 +4778,13 @@
         <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH30" t="n">
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ30" t="n">
         <v>81</v>
@@ -4799,7 +4799,7 @@
         <v>19</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>41</v>
@@ -4811,10 +4811,10 @@
         <v>51</v>
       </c>
       <c r="AR30" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="31">
@@ -4849,10 +4849,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H31" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="I31" t="n">
         <v>3.4</v>
@@ -4893,7 +4893,7 @@
         <v>1.11</v>
       </c>
       <c r="W31" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X31" t="n">
         <v>2.1</v>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -5012,10 +5012,10 @@
         <v>6.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N32" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.73</v>
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H33" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="I33" t="n">
         <v>3.2</v>
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H34" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I34" t="n">
         <v>3.3</v>
@@ -5417,28 +5417,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K35" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M35" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O35" t="n">
         <v>1.1</v>
@@ -5455,13 +5455,13 @@
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V35" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X35" t="n">
         <v>4.33</v>
@@ -5479,13 +5479,13 @@
         <v>19</v>
       </c>
       <c r="AC35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
         <v>26</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF35" t="n">
         <v>17</v>
@@ -5521,7 +5521,7 @@
         <v>17</v>
       </c>
       <c r="AQ35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
@@ -5558,13 +5558,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.77</v>
+        <v>2.88</v>
       </c>
       <c r="J36" t="n">
         <v>3.25</v>
@@ -5602,7 +5602,7 @@
         <v>1.22</v>
       </c>
       <c r="W36" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X36" t="n">
         <v>2.5</v>
@@ -5699,19 +5699,19 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="H37" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I37" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J37" t="n">
         <v>2.25</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L37" t="n">
         <v>5.5</v>
@@ -5723,16 +5723,16 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
@@ -5743,7 +5743,7 @@
         <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X37" t="n">
         <v>2.75</v>
@@ -5779,19 +5779,19 @@
         <v>7</v>
       </c>
       <c r="AI37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="n">
         <v>51</v>
       </c>
       <c r="AK37" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL37" t="n">
         <v>15</v>
       </c>
       <c r="AM37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN37" t="n">
         <v>17</v>
@@ -5840,28 +5840,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K38" t="n">
         <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O38" t="n">
         <v>1.33</v>
@@ -5884,10 +5884,10 @@
         <v>1.25</v>
       </c>
       <c r="W38" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X38" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y38" t="n">
         <v>1.8</v>
@@ -5899,7 +5899,7 @@
         <v>9</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC38" t="n">
         <v>11</v>
@@ -5914,7 +5914,7 @@
         <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH38" t="n">
         <v>6</v>
@@ -5932,16 +5932,16 @@
         <v>8</v>
       </c>
       <c r="AM38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO38" t="n">
         <v>23</v>
       </c>
       <c r="AP38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ38" t="n">
         <v>29</v>
@@ -5981,22 +5981,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="H39" t="n">
         <v>4.65</v>
       </c>
       <c r="I39" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="J39" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="K39" t="n">
         <v>2.35</v>
       </c>
       <c r="L39" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M39" t="n">
         <v>1.05</v>
@@ -6019,7 +6019,7 @@
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="V39" t="n">
         <v>1.37</v>
@@ -6034,19 +6034,19 @@
         <v>2.18</v>
       </c>
       <c r="Z39" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AA39" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC39" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD39" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE39" t="n">
         <v>110</v>
@@ -6122,107 +6122,107 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H40" t="n">
         <v>3.05</v>
       </c>
       <c r="I40" t="n">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="J40" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K40" t="n">
         <v>1.93</v>
       </c>
       <c r="L40" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P40" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="R40" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="V40" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W40" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X40" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="Z40" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AA40" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC40" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD40" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AE40" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AF40" t="n">
         <v>45</v>
       </c>
       <c r="AG40" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AH40" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ40" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AL40" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AM40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN40" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AO40" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AP40" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ40" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AR40" t="inlineStr"/>
       <c r="AS40" t="inlineStr"/>
@@ -6259,27 +6259,27 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H41" t="n">
         <v>4.2</v>
       </c>
       <c r="I41" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="K41" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L41" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P41" t="n">
         <v>3.2</v>
@@ -6305,28 +6305,28 @@
         <v>2.57</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD41" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE41" t="n">
         <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
         <v>11</v>
@@ -6335,31 +6335,31 @@
         <v>8.25</v>
       </c>
       <c r="AI41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL41" t="n">
         <v>15.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO41" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP41" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AQ41" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6689,7 +6689,7 @@
         <v>2.7</v>
       </c>
       <c r="H44" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
         <v>2.35</v>
@@ -6701,13 +6701,13 @@
         <v>2.2</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
         <v>1.29</v>
@@ -6716,10 +6716,10 @@
         <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R44" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
@@ -6736,10 +6736,10 @@
         <v>2.75</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA44" t="n">
         <v>9.5</v>
@@ -6760,7 +6760,7 @@
         <v>29</v>
       </c>
       <c r="AG44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH44" t="n">
         <v>7</v>
@@ -6968,22 +6968,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="H46" t="n">
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
       </c>
       <c r="L46" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M46" t="n">
         <v>1.06</v>
@@ -7024,22 +7024,22 @@
         <v>1.91</v>
       </c>
       <c r="AA46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE46" t="n">
         <v>23</v>
       </c>
-      <c r="AE46" t="n">
-        <v>21</v>
-      </c>
       <c r="AF46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG46" t="n">
         <v>9.5</v>
@@ -7057,22 +7057,22 @@
         <v>251</v>
       </c>
       <c r="AL46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ46" t="n">
         <v>29</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>34</v>
       </c>
       <c r="AR46" t="inlineStr"/>
       <c r="AS46" t="inlineStr"/>
@@ -7121,7 +7121,7 @@
         <v>2.6</v>
       </c>
       <c r="K47" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L47" t="n">
         <v>3.75</v>
@@ -7284,18 +7284,18 @@
         <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W48" t="n">
         <v>1.5</v>
@@ -7718,7 +7718,7 @@
         <v>1.04</v>
       </c>
       <c r="N51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O51" t="n">
         <v>1.22</v>
@@ -7727,10 +7727,10 @@
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R51" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S51" t="n">
         <v>2.27</v>
@@ -7864,10 +7864,10 @@
         <v>3.4</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>1.25</v>
@@ -7890,10 +7890,10 @@
         <v>1.36</v>
       </c>
       <c r="W52" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X52" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Y52" t="n">
         <v>1.62</v>
@@ -7914,7 +7914,7 @@
         <v>26</v>
       </c>
       <c r="AE52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF52" t="n">
         <v>26</v>
@@ -7987,48 +7987,48 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P53" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R53" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V53" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W53" t="n">
         <v>1.33</v>
@@ -8046,22 +8046,22 @@
         <v>8</v>
       </c>
       <c r="AB53" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC53" t="n">
         <v>8.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF53" t="n">
         <v>23</v>
       </c>
       <c r="AG53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH53" t="n">
         <v>7.5</v>
@@ -8076,13 +8076,13 @@
         <v>201</v>
       </c>
       <c r="AL53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM53" t="n">
         <v>29</v>
       </c>
       <c r="AN53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO53" t="n">
         <v>51</v>
@@ -8149,7 +8149,7 @@
         <v>1.03</v>
       </c>
       <c r="N54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O54" t="n">
         <v>1.18</v>
@@ -8273,13 +8273,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
         <v>2.2</v>
@@ -8288,7 +8288,7 @@
         <v>2.5</v>
       </c>
       <c r="L55" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M55" t="n">
         <v>1.02</v>
@@ -8336,7 +8336,7 @@
         <v>11</v>
       </c>
       <c r="AB55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC55" t="n">
         <v>8.5</v>
@@ -8348,13 +8348,13 @@
         <v>12</v>
       </c>
       <c r="AF55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH55" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI55" t="n">
         <v>12</v>
@@ -8372,16 +8372,16 @@
         <v>29</v>
       </c>
       <c r="AN55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO55" t="n">
         <v>51</v>
       </c>
       <c r="AP55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
@@ -8430,7 +8430,7 @@
         <v>1.67</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L56" t="n">
         <v>7</v>
@@ -8448,24 +8448,24 @@
         <v>8</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R56" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W56" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X56" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Y56" t="n">
         <v>1.62</v>
@@ -8474,16 +8474,16 @@
         <v>2.2</v>
       </c>
       <c r="AA56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC56" t="n">
         <v>9.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE56" t="n">
         <v>10</v>
@@ -8492,7 +8492,7 @@
         <v>19</v>
       </c>
       <c r="AG56" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH56" t="n">
         <v>13</v>
@@ -8504,7 +8504,7 @@
         <v>41</v>
       </c>
       <c r="AK56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL56" t="n">
         <v>29</v>
@@ -8726,28 +8726,28 @@
         <v>3.4</v>
       </c>
       <c r="M58" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P58" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R58" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S58" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T58" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="U58" t="n">
         <v>5.5</v>
@@ -8819,10 +8819,10 @@
         <v>41</v>
       </c>
       <c r="AR58" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="59">
@@ -8857,13 +8857,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H59" t="n">
         <v>2.9</v>
       </c>
       <c r="I59" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
@@ -8872,13 +8872,13 @@
         <v>1.95</v>
       </c>
       <c r="L59" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O59" t="n">
         <v>1.44</v>
@@ -8935,7 +8935,7 @@
         <v>41</v>
       </c>
       <c r="AG59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH59" t="n">
         <v>5.5</v>
@@ -8962,16 +8962,16 @@
         <v>23</v>
       </c>
       <c r="AP59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="60">
@@ -9006,19 +9006,19 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K60" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L60" t="n">
         <v>4.75</v>
@@ -9030,30 +9030,30 @@
         <v>10</v>
       </c>
       <c r="O60" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="R60" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V60" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y60" t="n">
         <v>1.83</v>
@@ -9062,7 +9062,7 @@
         <v>1.83</v>
       </c>
       <c r="AA60" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB60" t="n">
         <v>8</v>
@@ -9080,7 +9080,7 @@
         <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH60" t="n">
         <v>6.5</v>
@@ -9711,28 +9711,28 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J65" t="n">
         <v>2.3</v>
       </c>
       <c r="K65" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L65" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M65" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O65" t="n">
         <v>1.2</v>
@@ -9776,7 +9776,7 @@
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE65" t="n">
         <v>13</v>
@@ -9791,7 +9791,7 @@
         <v>7.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ65" t="n">
         <v>41</v>
@@ -9803,13 +9803,13 @@
         <v>15</v>
       </c>
       <c r="AM65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN65" t="n">
         <v>15</v>
       </c>
       <c r="AO65" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP65" t="n">
         <v>34</v>
@@ -10017,24 +10017,24 @@
         <v>10</v>
       </c>
       <c r="O67" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P67" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R67" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V67" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W67" t="n">
         <v>1.44</v>
@@ -10164,10 +10164,10 @@
         <v>4.33</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R68" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
@@ -10305,7 +10305,7 @@
         <v>6</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R69" t="n">
         <v>2.7</v>
@@ -10450,7 +10450,7 @@
         <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R70" t="n">
         <v>2.3</v>
@@ -10565,16 +10565,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H71" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I71" t="n">
         <v>3.4</v>
       </c>
       <c r="J71" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K71" t="n">
         <v>2.25</v>
@@ -10595,7 +10595,7 @@
         <v>4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R71" t="n">
         <v>2.05</v>
@@ -10630,7 +10630,7 @@
         <v>9</v>
       </c>
       <c r="AD71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -10654,7 +10654,7 @@
         <v>151</v>
       </c>
       <c r="AL71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM71" t="n">
         <v>19</v>
@@ -10663,10 +10663,10 @@
         <v>12</v>
       </c>
       <c r="AO71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ71" t="n">
         <v>29</v>
@@ -10736,10 +10736,10 @@
         <v>5.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="R72" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S72" t="n">
         <v>1.8</v>
@@ -10875,16 +10875,16 @@
         <v>15</v>
       </c>
       <c r="O73" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q73" t="n">
         <v>1.67</v>
       </c>
       <c r="R73" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S73" t="n">
         <v>2.05</v>
@@ -10996,16 +10996,16 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H74" t="n">
         <v>4.75</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K74" t="n">
         <v>2.5</v>
@@ -11026,7 +11026,7 @@
         <v>5</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R74" t="n">
         <v>2.4</v>
@@ -11089,10 +11089,10 @@
         <v>151</v>
       </c>
       <c r="AL74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM74" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN74" t="n">
         <v>17</v>
@@ -11104,7 +11104,7 @@
         <v>41</v>
       </c>
       <c r="AQ74" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR74" t="inlineStr"/>
       <c r="AS74" t="inlineStr"/>
@@ -11141,22 +11141,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H75" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I75" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J75" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K75" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M75" t="n">
         <v>1.07</v>
@@ -11191,25 +11191,25 @@
         <v>2.5</v>
       </c>
       <c r="Y75" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z75" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA75" t="n">
         <v>5.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC75" t="n">
         <v>9</v>
       </c>
       <c r="AD75" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE75" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF75" t="n">
         <v>34</v>
@@ -11218,10 +11218,10 @@
         <v>8</v>
       </c>
       <c r="AH75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI75" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ75" t="n">
         <v>81</v>
@@ -11230,19 +11230,19 @@
         <v>800</v>
       </c>
       <c r="AL75" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM75" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN75" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO75" t="n">
+        <v>67</v>
+      </c>
+      <c r="AP75" t="n">
         <v>51</v>
-      </c>
-      <c r="AP75" t="n">
-        <v>41</v>
       </c>
       <c r="AQ75" t="n">
         <v>51</v>
@@ -11307,13 +11307,13 @@
         <v>1.04</v>
       </c>
       <c r="N76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O76" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P76" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="n">
         <v>1.75</v>
@@ -11324,10 +11324,10 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V76" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W76" t="n">
         <v>1.36</v>
@@ -11709,13 +11709,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H79" t="n">
         <v>3.4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J79" t="n">
         <v>3.1</v>
@@ -11778,13 +11778,13 @@
         <v>9.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE79" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG79" t="n">
         <v>9</v>
@@ -11811,7 +11811,7 @@
         <v>11</v>
       </c>
       <c r="AO79" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP79" t="n">
         <v>26</v>
@@ -12285,19 +12285,19 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>3.4</v>
       </c>
       <c r="I83" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J83" t="n">
         <v>2.75</v>
       </c>
       <c r="K83" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L83" t="n">
         <v>3.75</v>
@@ -12335,13 +12335,13 @@
         <v>3</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB83" t="n">
         <v>11</v>
@@ -12350,7 +12350,7 @@
         <v>9</v>
       </c>
       <c r="AD83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE83" t="n">
         <v>17</v>
@@ -12359,13 +12359,13 @@
         <v>23</v>
       </c>
       <c r="AG83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH83" t="n">
         <v>6.5</v>
       </c>
       <c r="AI83" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ83" t="n">
         <v>41</v>
@@ -12386,10 +12386,10 @@
         <v>34</v>
       </c>
       <c r="AP83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ83" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
@@ -12712,13 +12712,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H86" t="n">
         <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J86" t="n">
         <v>3.1</v>
@@ -12736,24 +12736,24 @@
         <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P86" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R86" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V86" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W86" t="n">
         <v>1.33</v>
@@ -12768,16 +12768,16 @@
         <v>2.25</v>
       </c>
       <c r="AA86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC86" t="n">
         <v>10</v>
       </c>
       <c r="AD86" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE86" t="n">
         <v>19</v>
@@ -12798,7 +12798,7 @@
         <v>41</v>
       </c>
       <c r="AK86" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL86" t="n">
         <v>11</v>
@@ -12813,7 +12813,7 @@
         <v>26</v>
       </c>
       <c r="AP86" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ86" t="n">
         <v>26</v>
@@ -12910,7 +12910,7 @@
         <v>2.25</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AA87" t="n">
         <v>5.5</v>
@@ -13038,10 +13038,10 @@
         <v>1.98</v>
       </c>
       <c r="S88" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="T88" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U88" t="n">
         <v>3.25</v>
@@ -13056,10 +13056,10 @@
         <v>3</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA88" t="n">
         <v>21</v>
@@ -13086,7 +13086,7 @@
         <v>10</v>
       </c>
       <c r="AI88" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ88" t="n">
         <v>101</v>
@@ -13107,16 +13107,16 @@
         <v>7.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ88" t="n">
         <v>34</v>
       </c>
       <c r="AR88" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="89">
@@ -13151,22 +13151,22 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H89" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="J89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K89" t="n">
         <v>2.2</v>
       </c>
       <c r="L89" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M89" t="n">
         <v>1.07</v>
@@ -13187,10 +13187,10 @@
         <v>1.75</v>
       </c>
       <c r="S89" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="T89" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="U89" t="n">
         <v>3.5</v>
@@ -13205,10 +13205,10 @@
         <v>2.63</v>
       </c>
       <c r="Y89" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z89" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AA89" t="n">
         <v>15</v>
@@ -13217,7 +13217,7 @@
         <v>34</v>
       </c>
       <c r="AC89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD89" t="n">
         <v>81</v>
@@ -13232,28 +13232,28 @@
         <v>9</v>
       </c>
       <c r="AH89" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI89" t="n">
         <v>21</v>
       </c>
       <c r="AJ89" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK89" t="n">
         <v>501</v>
       </c>
       <c r="AL89" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AM89" t="n">
         <v>6</v>
-      </c>
-      <c r="AM89" t="n">
-        <v>6.5</v>
       </c>
       <c r="AN89" t="n">
         <v>8.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP89" t="n">
         <v>13</v>
@@ -13262,10 +13262,10 @@
         <v>34</v>
       </c>
       <c r="AR89" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="90">
@@ -13300,10 +13300,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H90" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I90" t="n">
         <v>5.25</v>
@@ -13357,13 +13357,13 @@
         <v>2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA90" t="n">
         <v>6.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC90" t="n">
         <v>8.5</v>
@@ -13387,13 +13387,13 @@
         <v>19</v>
       </c>
       <c r="AJ90" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK90" t="n">
         <v>401</v>
       </c>
       <c r="AL90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM90" t="n">
         <v>26</v>
@@ -13408,13 +13408,13 @@
         <v>41</v>
       </c>
       <c r="AQ90" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR90" t="n">
         <v>1.54</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="91">
@@ -13449,22 +13449,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>3.5</v>
       </c>
       <c r="I91" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J91" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K91" t="n">
         <v>2.2</v>
       </c>
       <c r="L91" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M91" t="n">
         <v>1.05</v>
@@ -13499,7 +13499,7 @@
         <v>3</v>
       </c>
       <c r="Y91" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Z91" t="n">
         <v>2</v>
@@ -13508,10 +13508,10 @@
         <v>8</v>
       </c>
       <c r="AB91" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC91" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD91" t="n">
         <v>17</v>
@@ -13529,7 +13529,7 @@
         <v>7</v>
       </c>
       <c r="AI91" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ91" t="n">
         <v>41</v>
@@ -13538,13 +13538,13 @@
         <v>201</v>
       </c>
       <c r="AL91" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM91" t="n">
         <v>19</v>
       </c>
       <c r="AN91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO91" t="n">
         <v>41</v>
@@ -13620,10 +13620,10 @@
         <v>3.5</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R92" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S92" t="inlineStr"/>
       <c r="T92" t="inlineStr"/>
@@ -13731,16 +13731,16 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H93" t="n">
         <v>4.2</v>
       </c>
       <c r="I93" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J93" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
         <v>2.5</v>
@@ -13755,22 +13755,22 @@
         <v>17</v>
       </c>
       <c r="O93" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P93" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R93" t="n">
         <v>2.4</v>
       </c>
       <c r="S93" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="T93" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="U93" t="n">
         <v>2.25</v>
@@ -13800,7 +13800,7 @@
         <v>8.5</v>
       </c>
       <c r="AD93" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE93" t="n">
         <v>11</v>
@@ -13824,16 +13824,16 @@
         <v>151</v>
       </c>
       <c r="AL93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM93" t="n">
         <v>34</v>
       </c>
       <c r="AN93" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO93" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP93" t="n">
         <v>41</v>
@@ -13885,7 +13885,7 @@
         <v>3.35</v>
       </c>
       <c r="J94" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="K94" t="n">
         <v>2.1</v>
@@ -13896,13 +13896,13 @@
       <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P94" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R94" t="n">
         <v>1.7</v>
@@ -13928,10 +13928,10 @@
         <v>1.9</v>
       </c>
       <c r="AA94" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB94" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AC94" t="n">
         <v>8.5</v>
@@ -13940,10 +13940,10 @@
         <v>21</v>
       </c>
       <c r="AE94" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF94" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG94" t="n">
         <v>8.75</v>
@@ -13952,7 +13952,7 @@
         <v>6.1</v>
       </c>
       <c r="AI94" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ94" t="n">
         <v>65</v>
@@ -13970,7 +13970,7 @@
         <v>11.5</v>
       </c>
       <c r="AO94" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP94" t="n">
         <v>32</v>
@@ -14180,10 +14180,10 @@
         <v>3.4</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="R96" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
@@ -14315,16 +14315,16 @@
         <v>8</v>
       </c>
       <c r="O97" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P97" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q97" t="n">
         <v>2.25</v>
       </c>
       <c r="R97" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -14453,7 +14453,7 @@
         <v>1.08</v>
       </c>
       <c r="N98" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O98" t="n">
         <v>1.4</v>
@@ -14465,7 +14465,7 @@
         <v>2.3</v>
       </c>
       <c r="R98" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
@@ -14591,10 +14591,10 @@
         <v>3.1</v>
       </c>
       <c r="M99" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N99" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O99" t="n">
         <v>1.36</v>
@@ -14714,19 +14714,19 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I100" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J100" t="n">
         <v>2.2</v>
       </c>
       <c r="K100" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L100" t="n">
         <v>5.5</v>
@@ -14791,7 +14791,7 @@
         <v>10</v>
       </c>
       <c r="AH100" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI100" t="n">
         <v>17</v>
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H102" t="n">
         <v>4.75</v>
@@ -15011,13 +15011,13 @@
         <v>2.5</v>
       </c>
       <c r="L102" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M102" t="n">
         <v>1.02</v>
       </c>
       <c r="N102" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O102" t="n">
         <v>1.14</v>
@@ -15091,7 +15091,7 @@
         <v>26</v>
       </c>
       <c r="AN102" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO102" t="n">
         <v>51</v>
@@ -15143,7 +15143,7 @@
         <v>3.6</v>
       </c>
       <c r="I103" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J103" t="n">
         <v>3.4</v>
@@ -15152,7 +15152,7 @@
         <v>2.2</v>
       </c>
       <c r="L103" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103" t="n">
         <v>1.04</v>
@@ -15167,10 +15167,10 @@
         <v>3.75</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R103" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S103" t="inlineStr"/>
       <c r="T103" t="inlineStr"/>
@@ -15223,7 +15223,7 @@
         <v>41</v>
       </c>
       <c r="AK103" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL103" t="n">
         <v>9</v>
@@ -15284,7 +15284,7 @@
         <v>3.5</v>
       </c>
       <c r="I104" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="J104" t="n">
         <v>4</v>
@@ -15419,13 +15419,13 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H105" t="n">
         <v>3.2</v>
       </c>
       <c r="I105" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="J105" t="n">
         <v>3.4</v>
@@ -15437,10 +15437,10 @@
         <v>3.75</v>
       </c>
       <c r="M105" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N105" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O105" t="n">
         <v>1.44</v>
@@ -15452,7 +15452,7 @@
         <v>2.4</v>
       </c>
       <c r="R105" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S105" t="inlineStr"/>
       <c r="T105" t="inlineStr"/>
@@ -15481,7 +15481,7 @@
         <v>11</v>
       </c>
       <c r="AC105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD105" t="n">
         <v>23</v>
@@ -15520,16 +15520,16 @@
         <v>29</v>
       </c>
       <c r="AP105" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ105" t="n">
         <v>41</v>
       </c>
       <c r="AR105" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS105" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="106">
@@ -15564,10 +15564,10 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I106" t="n">
         <v>3.6</v>
@@ -15582,10 +15582,10 @@
         <v>4.5</v>
       </c>
       <c r="M106" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N106" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O106" t="n">
         <v>1.36</v>
@@ -15594,10 +15594,10 @@
         <v>3</v>
       </c>
       <c r="Q106" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R106" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="S106" t="inlineStr"/>
       <c r="T106" t="inlineStr"/>
@@ -15711,7 +15711,7 @@
         <v>3.6</v>
       </c>
       <c r="I107" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J107" t="n">
         <v>3.75</v>
@@ -15723,22 +15723,22 @@
         <v>2.88</v>
       </c>
       <c r="M107" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N107" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O107" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P107" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R107" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S107" t="inlineStr"/>
       <c r="T107" t="inlineStr"/>
@@ -15870,10 +15870,10 @@
         <v>9</v>
       </c>
       <c r="O108" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P108" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q108" t="n">
         <v>2.2</v>
@@ -15890,7 +15890,7 @@
         <v>1.22</v>
       </c>
       <c r="W108" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X108" t="n">
         <v>2.5</v>
@@ -15987,22 +15987,22 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="H109" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I109" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="J109" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K109" t="n">
         <v>2.05</v>
       </c>
       <c r="L109" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M109" t="n">
         <v>1.06</v>
@@ -16031,10 +16031,10 @@
         <v>1.22</v>
       </c>
       <c r="W109" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X109" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y109" t="n">
         <v>1.91</v>
@@ -16043,28 +16043,28 @@
         <v>1.8</v>
       </c>
       <c r="AA109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB109" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD109" t="n">
         <v>41</v>
       </c>
       <c r="AE109" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF109" t="n">
         <v>41</v>
       </c>
       <c r="AG109" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH109" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI109" t="n">
         <v>17</v>
@@ -16079,19 +16079,19 @@
         <v>6.5</v>
       </c>
       <c r="AM109" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN109" t="n">
         <v>9</v>
       </c>
       <c r="AO109" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP109" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ109" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR109" t="inlineStr"/>
       <c r="AS109" t="inlineStr"/>
@@ -16128,16 +16128,16 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H110" t="n">
         <v>3.6</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J110" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K110" t="n">
         <v>2.1</v>
@@ -16149,7 +16149,7 @@
         <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O110" t="n">
         <v>1.33</v>
@@ -16166,16 +16166,16 @@
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V110" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W110" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X110" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y110" t="n">
         <v>1.91</v>
@@ -16196,7 +16196,7 @@
         <v>41</v>
       </c>
       <c r="AE110" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF110" t="n">
         <v>41</v>
@@ -16208,7 +16208,7 @@
         <v>6.5</v>
       </c>
       <c r="AI110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ110" t="n">
         <v>51</v>
@@ -16299,21 +16299,21 @@
         <v>3.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R111" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V111" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W111" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X111" t="n">
         <v>2.75</v>
@@ -16416,16 +16416,16 @@
         <v>5.5</v>
       </c>
       <c r="I112" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J112" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K112" t="n">
         <v>2.5</v>
       </c>
       <c r="L112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M112" t="n">
         <v>1.03</v>
@@ -16440,7 +16440,7 @@
         <v>4.33</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R112" t="n">
         <v>2.15</v>
@@ -16458,7 +16458,7 @@
         <v>1.44</v>
       </c>
       <c r="W112" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X112" t="n">
         <v>3.25</v>
@@ -16476,7 +16476,7 @@
         <v>6</v>
       </c>
       <c r="AC112" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD112" t="n">
         <v>8</v>
@@ -16491,16 +16491,16 @@
         <v>13</v>
       </c>
       <c r="AH112" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI112" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ112" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK112" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL112" t="n">
         <v>21</v>
@@ -16555,22 +16555,22 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="H113" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I113" t="n">
-        <v>5.3</v>
+        <v>4.65</v>
       </c>
       <c r="J113" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="K113" t="n">
         <v>2.39</v>
       </c>
       <c r="L113" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
@@ -16578,18 +16578,18 @@
         <v>1.21</v>
       </c>
       <c r="P113" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="Q113" t="n">
         <v>1.65</v>
       </c>
       <c r="R113" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V113" t="n">
         <v>1.4</v>
@@ -16597,25 +16597,25 @@
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr"/>
       <c r="Y113" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z113" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="AA113" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB113" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AC113" t="n">
         <v>8</v>
       </c>
       <c r="AD113" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AE113" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF113" t="n">
         <v>23</v>
@@ -16624,34 +16624,34 @@
         <v>12.5</v>
       </c>
       <c r="AH113" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI113" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ113" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK113" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL113" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AM113" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AN113" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AO113" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AP113" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AQ113" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR113" t="inlineStr"/>
       <c r="AS113" t="inlineStr"/>
@@ -16821,16 +16821,16 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="H115" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I115" t="n">
         <v>2.22</v>
       </c>
       <c r="J115" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K115" t="n">
         <v>2.15</v>
@@ -16869,16 +16869,16 @@
         <v>2</v>
       </c>
       <c r="AA115" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB115" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC115" t="n">
         <v>10.5</v>
       </c>
       <c r="AD115" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE115" t="n">
         <v>23</v>
@@ -16890,7 +16890,7 @@
         <v>11.25</v>
       </c>
       <c r="AH115" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI115" t="n">
         <v>13.5</v>
@@ -16914,7 +16914,7 @@
         <v>22</v>
       </c>
       <c r="AP115" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ115" t="n">
         <v>26</v>
@@ -16987,7 +16987,7 @@
         <v>2.5</v>
       </c>
       <c r="R116" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
@@ -16998,7 +16998,7 @@
         <v>1.17</v>
       </c>
       <c r="W116" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X116" t="n">
         <v>2.25</v>
@@ -17117,30 +17117,30 @@
         <v>4.75</v>
       </c>
       <c r="M117" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N117" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O117" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P117" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R117" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V117" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W117" t="n">
         <v>1.57</v>
@@ -17206,10 +17206,10 @@
         <v>51</v>
       </c>
       <c r="AR117" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="118">
@@ -17262,10 +17262,10 @@
         <v>5</v>
       </c>
       <c r="M118" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N118" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O118" t="n">
         <v>1.53</v>
@@ -17351,10 +17351,10 @@
         <v>51</v>
       </c>
       <c r="AR118" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="119">
@@ -17389,19 +17389,19 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H119" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I119" t="n">
         <v>5.5</v>
       </c>
       <c r="J119" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K119" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L119" t="n">
         <v>5.5</v>
@@ -17470,7 +17470,7 @@
         <v>13</v>
       </c>
       <c r="AH119" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI119" t="n">
         <v>17</v>
@@ -17540,7 +17540,7 @@
         <v>3.6</v>
       </c>
       <c r="I120" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J120" t="n">
         <v>3.4</v>
@@ -17838,22 +17838,22 @@
         <v>3.6</v>
       </c>
       <c r="M122" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N122" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O122" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P122" t="n">
         <v>4</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R122" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S122" t="n">
         <v>2.27</v>
@@ -17865,7 +17865,7 @@
         <v>2.75</v>
       </c>
       <c r="V122" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W122" t="n">
         <v>1.33</v>
@@ -18002,7 +18002,7 @@
         <v>2.5</v>
       </c>
       <c r="R123" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S123" t="n">
         <v>4</v>
@@ -18080,10 +18080,10 @@
         <v>41</v>
       </c>
       <c r="AR123" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="124">
@@ -18127,43 +18127,43 @@
         <v>10</v>
       </c>
       <c r="J124" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="K124" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L124" t="n">
         <v>9</v>
       </c>
       <c r="M124" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O124" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P124" t="n">
         <v>5</v>
       </c>
       <c r="Q124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V124" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R124" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S124" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U124" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="V124" t="n">
-        <v>1.5</v>
       </c>
       <c r="W124" t="n">
         <v>1.29</v>
@@ -18285,13 +18285,13 @@
         <v>4</v>
       </c>
       <c r="M125" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N125" t="n">
         <v>11</v>
       </c>
       <c r="O125" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P125" t="n">
         <v>3.5</v>
@@ -18308,7 +18308,7 @@
         <v>3.25</v>
       </c>
       <c r="V125" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W125" t="n">
         <v>1.4</v>
@@ -18417,7 +18417,7 @@
         <v>2.88</v>
       </c>
       <c r="J126" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K126" t="n">
         <v>2.25</v>
@@ -18426,13 +18426,13 @@
         <v>3.5</v>
       </c>
       <c r="M126" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N126" t="n">
         <v>13</v>
       </c>
       <c r="O126" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P126" t="n">
         <v>4</v>
@@ -18449,7 +18449,7 @@
         <v>2.75</v>
       </c>
       <c r="V126" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W126" t="n">
         <v>1.33</v>
@@ -18561,36 +18561,36 @@
         <v>2</v>
       </c>
       <c r="K127" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L127" t="n">
         <v>6</v>
       </c>
       <c r="M127" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N127" t="n">
         <v>15</v>
       </c>
       <c r="O127" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P127" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R127" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V127" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="W127" t="n">
         <v>1.33</v>
@@ -18690,31 +18690,31 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H128" t="n">
         <v>3.5</v>
       </c>
       <c r="I128" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J128" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K128" t="n">
         <v>2.2</v>
       </c>
       <c r="L128" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M128" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N128" t="n">
         <v>10</v>
       </c>
       <c r="O128" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P128" t="n">
         <v>3.4</v>
@@ -18731,7 +18731,7 @@
         <v>3.4</v>
       </c>
       <c r="V128" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W128" t="n">
         <v>1.4</v>
@@ -18749,13 +18749,13 @@
         <v>7</v>
       </c>
       <c r="AB128" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC128" t="n">
         <v>8.5</v>
       </c>
       <c r="AD128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE128" t="n">
         <v>15</v>
@@ -18782,7 +18782,7 @@
         <v>12</v>
       </c>
       <c r="AM128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN128" t="n">
         <v>15</v>
@@ -18791,7 +18791,7 @@
         <v>51</v>
       </c>
       <c r="AP128" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ128" t="n">
         <v>41</v>
@@ -18972,22 +18972,22 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H130" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I130" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J130" t="n">
         <v>2.2</v>
       </c>
       <c r="K130" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L130" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M130" t="n">
         <v>1.06</v>
@@ -19022,22 +19022,22 @@
         <v>2.75</v>
       </c>
       <c r="Y130" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z130" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA130" t="n">
         <v>6.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC130" t="n">
         <v>8.5</v>
       </c>
       <c r="AD130" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE130" t="n">
         <v>13</v>
@@ -19055,7 +19055,7 @@
         <v>19</v>
       </c>
       <c r="AJ130" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK130" t="n">
         <v>351</v>
@@ -19113,7 +19113,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H131" t="n">
         <v>3.4</v>
@@ -19134,7 +19134,7 @@
         <v>1.07</v>
       </c>
       <c r="N131" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O131" t="n">
         <v>1.36</v>
@@ -19163,10 +19163,10 @@
         <v>2.63</v>
       </c>
       <c r="Y131" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA131" t="n">
         <v>6.5</v>
@@ -19406,7 +19406,7 @@
         <v>1.36</v>
       </c>
       <c r="J133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K133" t="n">
         <v>2.5</v>
@@ -19447,10 +19447,10 @@
         <v>3.25</v>
       </c>
       <c r="Y133" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA133" t="n">
         <v>19</v>
@@ -19459,10 +19459,10 @@
         <v>41</v>
       </c>
       <c r="AC133" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD133" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE133" t="n">
         <v>51</v>
@@ -19544,7 +19544,7 @@
         <v>3.1</v>
       </c>
       <c r="I134" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J134" t="n">
         <v>3.1</v>
@@ -19556,10 +19556,10 @@
         <v>4.33</v>
       </c>
       <c r="M134" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N134" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O134" t="n">
         <v>1.5</v>
@@ -19582,7 +19582,7 @@
         <v>1.17</v>
       </c>
       <c r="W134" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="X134" t="n">
         <v>2.25</v>
@@ -19627,7 +19627,7 @@
         <v>501</v>
       </c>
       <c r="AL134" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM134" t="n">
         <v>15</v>
@@ -19704,7 +19704,7 @@
         <v>1.08</v>
       </c>
       <c r="N135" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O135" t="n">
         <v>1.4</v>
@@ -19713,10 +19713,10 @@
         <v>2.75</v>
       </c>
       <c r="Q135" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R135" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S135" t="inlineStr"/>
       <c r="T135" t="inlineStr"/>
@@ -19727,10 +19727,10 @@
         <v>1.2</v>
       </c>
       <c r="W135" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X135" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y135" t="n">
         <v>2</v>
@@ -19872,10 +19872,10 @@
         <v>1.18</v>
       </c>
       <c r="W136" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X136" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y136" t="n">
         <v>2</v>
@@ -19994,13 +19994,13 @@
         <v>1.08</v>
       </c>
       <c r="N137" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O137" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P137" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q137" t="n">
         <v>2.35</v>
@@ -20017,10 +20017,10 @@
         <v>1.2</v>
       </c>
       <c r="W137" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X137" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y137" t="n">
         <v>2</v>
@@ -20047,7 +20047,7 @@
         <v>41</v>
       </c>
       <c r="AG137" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH137" t="n">
         <v>6</v>
@@ -20056,7 +20056,7 @@
         <v>17</v>
       </c>
       <c r="AJ137" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK137" t="n">
         <v>1250</v>
@@ -20068,7 +20068,7 @@
         <v>11</v>
       </c>
       <c r="AN137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO137" t="n">
         <v>26</v>
@@ -20080,10 +20080,10 @@
         <v>41</v>
       </c>
       <c r="AR137" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="138">
@@ -20562,7 +20562,7 @@
         <v>1.06</v>
       </c>
       <c r="N141" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O141" t="n">
         <v>1.33</v>
@@ -20585,10 +20585,10 @@
         <v>1.3</v>
       </c>
       <c r="W141" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X141" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y141" t="n">
         <v>1.8</v>
@@ -20682,22 +20682,22 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H142" t="n">
         <v>3.1</v>
       </c>
       <c r="I142" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J142" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="K142" t="n">
         <v>1.98</v>
       </c>
       <c r="L142" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="M142" t="n">
         <v>1.09</v>
@@ -20732,28 +20732,28 @@
         <v>2.42</v>
       </c>
       <c r="Y142" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Z142" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AA142" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AB142" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC142" t="n">
         <v>9</v>
       </c>
-      <c r="AC142" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AD142" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AE142" t="n">
         <v>18.5</v>
       </c>
       <c r="AF142" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG142" t="n">
         <v>6.3</v>
@@ -20771,16 +20771,16 @@
         <v>800</v>
       </c>
       <c r="AL142" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AM142" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AN142" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AO142" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP142" t="n">
         <v>35</v>
@@ -20964,83 +20964,87 @@
         </is>
       </c>
       <c r="G144" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H144" t="n">
         <v>5.5</v>
       </c>
-      <c r="H144" t="n">
-        <v>5.25</v>
-      </c>
       <c r="I144" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="J144" t="n">
         <v>5</v>
       </c>
       <c r="K144" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L144" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
+        <v>1.73</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N144" t="n">
+        <v>34</v>
+      </c>
       <c r="O144" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="P144" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="R144" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="V144" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W144" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X144" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y144" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Z144" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AA144" t="n">
         <v>41</v>
       </c>
       <c r="AB144" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE144" t="n">
         <v>41</v>
       </c>
-      <c r="AC144" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD144" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE144" t="n">
-        <v>34</v>
-      </c>
       <c r="AF144" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG144" t="n">
         <v>34</v>
       </c>
       <c r="AH144" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI144" t="n">
         <v>15</v>
-      </c>
-      <c r="AI144" t="n">
-        <v>13</v>
       </c>
       <c r="AJ144" t="n">
         <v>23</v>
@@ -21052,7 +21056,7 @@
         <v>23</v>
       </c>
       <c r="AM144" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN144" t="n">
         <v>11</v>
@@ -21110,7 +21114,7 @@
         <v>7</v>
       </c>
       <c r="J145" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="K145" t="n">
         <v>3.2</v>
@@ -21145,7 +21149,7 @@
         <v>2.25</v>
       </c>
       <c r="W145" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="X145" t="n">
         <v>5.5</v>
@@ -21668,19 +21672,19 @@
         <v>1.55</v>
       </c>
       <c r="H149" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I149" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J149" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K149" t="n">
         <v>2.32</v>
       </c>
       <c r="L149" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="M149" t="n">
         <v>1.04</v>
@@ -21692,7 +21696,7 @@
         <v>1.21</v>
       </c>
       <c r="P149" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q149" t="n">
         <v>1.65</v>
@@ -21703,10 +21707,10 @@
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="V149" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="W149" t="n">
         <v>1.33</v>
@@ -21715,10 +21719,10 @@
         <v>3.05</v>
       </c>
       <c r="Y149" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z149" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AA149" t="n">
         <v>7.9</v>
@@ -21730,13 +21734,13 @@
         <v>8</v>
       </c>
       <c r="AD149" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE149" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE149" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AF149" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG149" t="n">
         <v>8.5</v>
@@ -21748,25 +21752,25 @@
         <v>15.5</v>
       </c>
       <c r="AJ149" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK149" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL149" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM149" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN149" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AO149" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AP149" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ149" t="n">
         <v>45</v>
@@ -21830,16 +21834,16 @@
         <v>11</v>
       </c>
       <c r="O150" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P150" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q150" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R150" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
@@ -21850,7 +21854,7 @@
         <v>1.33</v>
       </c>
       <c r="W150" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X150" t="n">
         <v>2.75</v>
@@ -21991,10 +21995,10 @@
         <v>1.25</v>
       </c>
       <c r="W151" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X151" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y151" t="n">
         <v>1.83</v>
@@ -22088,16 +22092,16 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>3.25</v>
       </c>
       <c r="I152" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J152" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K152" t="n">
         <v>2.1</v>
@@ -22106,10 +22110,10 @@
         <v>4</v>
       </c>
       <c r="M152" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N152" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O152" t="n">
         <v>1.33</v>
@@ -22132,10 +22136,10 @@
         <v>1.25</v>
       </c>
       <c r="W152" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X152" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y152" t="n">
         <v>1.83</v>
@@ -22144,19 +22148,19 @@
         <v>1.83</v>
       </c>
       <c r="AA152" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB152" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC152" t="n">
         <v>9</v>
       </c>
       <c r="AD152" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE152" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF152" t="n">
         <v>29</v>
@@ -22165,7 +22169,7 @@
         <v>9</v>
       </c>
       <c r="AH152" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI152" t="n">
         <v>15</v>
@@ -22174,25 +22178,25 @@
         <v>51</v>
       </c>
       <c r="AK152" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL152" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM152" t="n">
         <v>17</v>
       </c>
       <c r="AN152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO152" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP152" t="n">
         <v>29</v>
       </c>
       <c r="AQ152" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR152" t="inlineStr"/>
       <c r="AS152" t="inlineStr"/>
@@ -22247,13 +22251,13 @@
         <v>3.1</v>
       </c>
       <c r="M153" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N153" t="n">
         <v>9</v>
       </c>
       <c r="O153" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P153" t="n">
         <v>3</v>
@@ -22267,16 +22271,16 @@
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V153" t="n">
         <v>1.22</v>
       </c>
       <c r="W153" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X153" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y153" t="n">
         <v>1.83</v>
@@ -22388,13 +22392,13 @@
         <v>5</v>
       </c>
       <c r="M154" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N154" t="n">
         <v>9</v>
       </c>
       <c r="O154" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P154" t="n">
         <v>3</v>
@@ -22411,10 +22415,10 @@
         <v>4</v>
       </c>
       <c r="V154" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W154" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X154" t="n">
         <v>2.5</v>
@@ -22529,33 +22533,33 @@
         <v>3.5</v>
       </c>
       <c r="M155" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N155" t="n">
         <v>11</v>
       </c>
       <c r="O155" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P155" t="n">
         <v>3.5</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R155" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V155" t="n">
         <v>1.3</v>
       </c>
       <c r="W155" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X155" t="n">
         <v>2.75</v>
@@ -22670,16 +22674,16 @@
         <v>4.75</v>
       </c>
       <c r="M156" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N156" t="n">
         <v>7</v>
       </c>
       <c r="O156" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P156" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q156" t="n">
         <v>2.4</v>
@@ -22693,13 +22697,13 @@
         <v>4.5</v>
       </c>
       <c r="V156" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="W156" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X156" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y156" t="n">
         <v>2.1</v>
@@ -22815,22 +22819,22 @@
         <v>12</v>
       </c>
       <c r="M157" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N157" t="n">
         <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P157" t="n">
         <v>3.5</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R157" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
@@ -22838,13 +22842,13 @@
         <v>3.4</v>
       </c>
       <c r="V157" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W157" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X157" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y157" t="n">
         <v>2.75</v>
@@ -22941,10 +22945,10 @@
         <v>2</v>
       </c>
       <c r="H158" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I158" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J158" t="n">
         <v>2.75</v>
@@ -22956,22 +22960,22 @@
         <v>4.5</v>
       </c>
       <c r="M158" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N158" t="n">
         <v>9</v>
       </c>
       <c r="O158" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P158" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R158" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
@@ -22979,25 +22983,25 @@
         <v>4</v>
       </c>
       <c r="V158" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W158" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X158" t="n">
         <v>2.5</v>
       </c>
       <c r="Y158" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z158" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA158" t="n">
         <v>6.5</v>
       </c>
       <c r="AB158" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC158" t="n">
         <v>9</v>
@@ -23006,7 +23010,7 @@
         <v>17</v>
       </c>
       <c r="AE158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF158" t="n">
         <v>34</v>
@@ -23027,7 +23031,7 @@
         <v>351</v>
       </c>
       <c r="AL158" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM158" t="n">
         <v>19</v>
@@ -23235,7 +23239,7 @@
         <v>2.1</v>
       </c>
       <c r="L160" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M160" t="n">
         <v>1.07</v>
@@ -23253,7 +23257,7 @@
         <v>2.05</v>
       </c>
       <c r="R160" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
@@ -23276,7 +23280,7 @@
         <v>1.91</v>
       </c>
       <c r="AA160" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB160" t="n">
         <v>9.5</v>
@@ -23643,13 +23647,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H163" t="n">
         <v>3.9</v>
       </c>
       <c r="I163" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J163" t="n">
         <v>2.5</v>
@@ -23673,16 +23677,16 @@
         <v>4.5</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R163" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S163" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="T163" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U163" t="n">
         <v>2.5</v>
@@ -23703,19 +23707,19 @@
         <v>2.25</v>
       </c>
       <c r="AA163" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB163" t="n">
         <v>11</v>
       </c>
       <c r="AC163" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD163" t="n">
         <v>17</v>
       </c>
       <c r="AE163" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF163" t="n">
         <v>21</v>
@@ -23742,7 +23746,7 @@
         <v>21</v>
       </c>
       <c r="AN163" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO163" t="n">
         <v>41</v>
@@ -23788,22 +23792,22 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H164" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I164" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="J164" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K164" t="n">
         <v>2.25</v>
       </c>
       <c r="L164" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="M164" t="n">
         <v>1.04</v>
@@ -23835,7 +23839,7 @@
         <v>1.32</v>
       </c>
       <c r="X164" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Y164" t="n">
         <v>1.52</v>
@@ -23844,22 +23848,22 @@
         <v>2.37</v>
       </c>
       <c r="AA164" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB164" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC164" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AD164" t="n">
         <v>40</v>
       </c>
       <c r="AE164" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF164" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG164" t="n">
         <v>8.5</v>
@@ -23871,28 +23875,28 @@
         <v>11.5</v>
       </c>
       <c r="AJ164" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK164" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL164" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AM164" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN164" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO164" t="n">
         <v>21</v>
       </c>
       <c r="AP164" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ164" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AR164" t="inlineStr"/>
       <c r="AS164" t="inlineStr"/>
@@ -23929,28 +23933,28 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="H165" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I165" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J165" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K165" t="n">
         <v>2.18</v>
       </c>
       <c r="L165" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="M165" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N165" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O165" t="n">
         <v>1.23</v>
@@ -23979,22 +23983,22 @@
         <v>2.95</v>
       </c>
       <c r="Y165" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Z165" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AA165" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB165" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC165" t="n">
         <v>10.25</v>
       </c>
       <c r="AD165" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE165" t="n">
         <v>23</v>
@@ -24003,10 +24007,10 @@
         <v>27</v>
       </c>
       <c r="AG165" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH165" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AI165" t="n">
         <v>11.75</v>
@@ -24015,19 +24019,19 @@
         <v>45</v>
       </c>
       <c r="AK165" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL165" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AM165" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AN165" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AO165" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AP165" t="n">
         <v>16.5</v>
@@ -24517,16 +24521,16 @@
         <v>11</v>
       </c>
       <c r="O169" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P169" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R169" t="n">
         <v>1.9</v>
-      </c>
-      <c r="R169" t="n">
-        <v>1.95</v>
       </c>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
@@ -24712,7 +24716,7 @@
         <v>23</v>
       </c>
       <c r="AG170" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH170" t="n">
         <v>11</v>
@@ -24924,28 +24928,28 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H172" t="n">
         <v>3.1</v>
       </c>
       <c r="I172" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J172" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K172" t="n">
         <v>1.95</v>
       </c>
       <c r="L172" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M172" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N172" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O172" t="n">
         <v>1.44</v>
@@ -24954,10 +24958,10 @@
         <v>2.63</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R172" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
@@ -25031,10 +25035,10 @@
         <v>41</v>
       </c>
       <c r="AR172" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS172" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="173">
@@ -25069,13 +25073,13 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I173" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J173" t="n">
         <v>2.4</v>
@@ -25084,7 +25088,7 @@
         <v>2.2</v>
       </c>
       <c r="L173" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M173" t="n">
         <v>1.05</v>
@@ -25119,13 +25123,13 @@
         <v>2.75</v>
       </c>
       <c r="Y173" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z173" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA173" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB173" t="n">
         <v>8.5</v>
@@ -25146,10 +25150,10 @@
         <v>11</v>
       </c>
       <c r="AH173" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI173" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ173" t="n">
         <v>51</v>
@@ -25325,7 +25329,7 @@
         <v>1.33</v>
       </c>
       <c r="W175" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="X175" t="n">
         <v>2.75</v>
@@ -25422,28 +25426,28 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="H176" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="I176" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J176" t="n">
         <v>3.7</v>
       </c>
       <c r="K176" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="L176" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M176" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="N176" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="O176" t="n">
         <v>1.57</v>
@@ -25455,7 +25459,7 @@
         <v>2.65</v>
       </c>
       <c r="R176" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
@@ -25469,22 +25473,22 @@
         <v>1.6</v>
       </c>
       <c r="X176" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="Y176" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="Z176" t="n">
         <v>1.6</v>
       </c>
       <c r="AA176" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AB176" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC176" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD176" t="n">
         <v>40</v>
@@ -25493,16 +25497,16 @@
         <v>35</v>
       </c>
       <c r="AF176" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG176" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AH176" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AI176" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ176" t="n">
         <v>120</v>
@@ -25511,22 +25515,22 @@
         <v>101</v>
       </c>
       <c r="AL176" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AM176" t="n">
         <v>12.5</v>
       </c>
       <c r="AN176" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AO176" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP176" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ176" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR176" t="inlineStr"/>
       <c r="AS176" t="inlineStr"/>
@@ -25566,33 +25570,33 @@
         <v>1.82</v>
       </c>
       <c r="H177" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I177" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="J177" t="n">
         <v>2.42</v>
       </c>
       <c r="K177" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L177" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P177" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R177" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
@@ -25603,10 +25607,10 @@
         <v>1.21</v>
       </c>
       <c r="W177" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="X177" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="Y177" t="n">
         <v>1.98</v>
@@ -25621,7 +25625,7 @@
         <v>7.7</v>
       </c>
       <c r="AC177" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD177" t="n">
         <v>14.5</v>
@@ -25654,7 +25658,7 @@
         <v>21</v>
       </c>
       <c r="AN177" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO177" t="n">
         <v>65</v>
@@ -25663,7 +25667,7 @@
         <v>45</v>
       </c>
       <c r="AQ177" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR177" t="inlineStr"/>
       <c r="AS177" t="inlineStr"/>
@@ -25700,22 +25704,22 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="I178" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J178" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="K178" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L178" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
@@ -25737,7 +25741,7 @@
         <v>2.7</v>
       </c>
       <c r="V178" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W178" t="n">
         <v>1.38</v>
@@ -25752,10 +25756,10 @@
         <v>1.7</v>
       </c>
       <c r="AA178" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB178" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AC178" t="n">
         <v>8.25</v>
@@ -25770,7 +25774,7 @@
         <v>29</v>
       </c>
       <c r="AG178" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH178" t="n">
         <v>8.5</v>
@@ -25782,22 +25786,22 @@
         <v>100</v>
       </c>
       <c r="AK178" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AL178" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM178" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN178" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO178" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AP178" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AQ178" t="n">
         <v>75</v>
@@ -25837,19 +25841,19 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="H179" t="n">
         <v>5.6</v>
       </c>
       <c r="I179" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="J179" t="n">
         <v>1.65</v>
       </c>
       <c r="K179" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L179" t="n">
         <v>8.5</v>
@@ -25864,7 +25868,7 @@
         <v>1.18</v>
       </c>
       <c r="P179" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="Q179" t="n">
         <v>1.55</v>
@@ -25878,13 +25882,13 @@
         <v>2.32</v>
       </c>
       <c r="V179" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W179" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X179" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Y179" t="n">
         <v>2.12</v>
@@ -25896,16 +25900,16 @@
         <v>7.5</v>
       </c>
       <c r="AB179" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AC179" t="n">
         <v>9.25</v>
       </c>
       <c r="AD179" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AE179" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF179" t="n">
         <v>32</v>
@@ -25920,25 +25924,25 @@
         <v>27</v>
       </c>
       <c r="AJ179" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AK179" t="n">
         <v>101</v>
       </c>
       <c r="AL179" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM179" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN179" t="n">
         <v>35</v>
       </c>
       <c r="AO179" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AP179" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AQ179" t="n">
         <v>120</v>
@@ -25978,107 +25982,107 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="H180" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="I180" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J180" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="K180" t="n">
         <v>3.6</v>
       </c>
       <c r="L180" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P180" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="R180" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V180" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W180" t="n">
         <v>1.17</v>
       </c>
       <c r="X180" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="Y180" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="Z180" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AA180" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB180" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AC180" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD180" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AE180" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF180" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>28</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI180" t="n">
         <v>55</v>
       </c>
-      <c r="AG180" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH180" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI180" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ180" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AK180" t="n">
         <v>101</v>
       </c>
       <c r="AL180" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN180" t="n">
         <v>90</v>
-      </c>
-      <c r="AM180" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN180" t="n">
-        <v>110</v>
       </c>
       <c r="AO180" t="n">
         <v>101</v>
       </c>
       <c r="AP180" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AQ180" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26397,22 +26401,22 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H183" t="n">
         <v>3.4</v>
       </c>
       <c r="I183" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J183" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K183" t="n">
         <v>2</v>
       </c>
       <c r="L183" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M183" t="n">
         <v>1.08</v>
@@ -26456,13 +26460,13 @@
         <v>5.5</v>
       </c>
       <c r="AB183" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC183" t="n">
         <v>9</v>
       </c>
       <c r="AD183" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE183" t="n">
         <v>17</v>
@@ -26486,13 +26490,13 @@
         <v>101</v>
       </c>
       <c r="AL183" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM183" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN183" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO183" t="n">
         <v>51</v>
@@ -26850,10 +26854,10 @@
         <v>2.1</v>
       </c>
       <c r="M186" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N186" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O186" t="n">
         <v>1.33</v>
@@ -26870,10 +26874,10 @@
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
       <c r="U186" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V186" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W186" t="n">
         <v>1.44</v>
@@ -26973,40 +26977,40 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H187" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I187" t="n">
         <v>3.1</v>
       </c>
       <c r="J187" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K187" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L187" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M187" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N187" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O187" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P187" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q187" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R187" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S187" t="n">
         <v>2.05</v>
@@ -27015,61 +27019,61 @@
         <v>1.8</v>
       </c>
       <c r="U187" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V187" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W187" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X187" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y187" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z187" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA187" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB187" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC187" t="n">
         <v>9</v>
       </c>
       <c r="AD187" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE187" t="n">
         <v>15</v>
       </c>
       <c r="AF187" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG187" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH187" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI187" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ187" t="n">
         <v>41</v>
       </c>
       <c r="AK187" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL187" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM187" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN187" t="n">
         <v>11</v>
@@ -27081,7 +27085,7 @@
         <v>23</v>
       </c>
       <c r="AQ187" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR187" t="inlineStr"/>
       <c r="AS187" t="inlineStr"/>
@@ -27118,22 +27122,22 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H188" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I188" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J188" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K188" t="n">
         <v>2.2</v>
       </c>
       <c r="L188" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M188" t="n">
         <v>1.05</v>
@@ -27142,24 +27146,24 @@
         <v>11</v>
       </c>
       <c r="O188" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P188" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q188" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R188" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S188" t="inlineStr"/>
       <c r="T188" t="inlineStr"/>
       <c r="U188" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V188" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W188" t="n">
         <v>1.4</v>
@@ -27168,16 +27172,16 @@
         <v>2.75</v>
       </c>
       <c r="Y188" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z188" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA188" t="n">
         <v>7</v>
       </c>
       <c r="AB188" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC188" t="n">
         <v>8.5</v>
@@ -27186,7 +27190,7 @@
         <v>13</v>
       </c>
       <c r="AE188" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF188" t="n">
         <v>26</v>
@@ -27207,13 +27211,13 @@
         <v>301</v>
       </c>
       <c r="AL188" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM188" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN188" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO188" t="n">
         <v>51</v>
@@ -27823,83 +27827,83 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="H193" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I193" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J193" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K193" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L193" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P193" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="Q193" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R193" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="V193" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W193" t="n">
         <v>1.39</v>
       </c>
       <c r="X193" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="Y193" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Z193" t="n">
         <v>1.75</v>
       </c>
       <c r="AA193" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB193" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="AC193" t="n">
         <v>8.25</v>
       </c>
       <c r="AD193" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE193" t="n">
         <v>14</v>
-      </c>
-      <c r="AE193" t="n">
-        <v>14.5</v>
       </c>
       <c r="AF193" t="n">
         <v>29</v>
       </c>
       <c r="AG193" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH193" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AI193" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ193" t="n">
         <v>90</v>
@@ -27908,19 +27912,19 @@
         <v>800</v>
       </c>
       <c r="AL193" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AM193" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AN193" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO193" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AP193" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AQ193" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -716,10 +716,10 @@
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
         <v>1.62</v>
@@ -728,10 +728,10 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
         <v>2.5</v>
@@ -1161,10 +1161,10 @@
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
         <v>1.5</v>
@@ -1264,40 +1264,40 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P6" t="n">
         <v>5.5</v>
       </c>
-      <c r="I6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>19</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6</v>
-      </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="S6" t="n">
         <v>1.83</v>
@@ -1306,25 +1306,25 @@
         <v>2.07</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
         <v>8</v>
@@ -1333,40 +1333,40 @@
         <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="n">
         <v>151</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP6" t="n">
         <v>51</v>
@@ -1409,7 +1409,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
@@ -1427,30 +1427,30 @@
         <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P7" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="W7" t="n">
         <v>1.36</v>
@@ -1459,10 +1459,10 @@
         <v>3</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA7" t="n">
         <v>8.5</v>
@@ -1498,7 +1498,7 @@
         <v>151</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM7" t="n">
         <v>21</v>
@@ -1550,10 +1550,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
         <v>1.57</v>
@@ -1562,10 +1562,10 @@
         <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1574,30 +1574,30 @@
         <v>21</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
         <v>1.44</v>
@@ -1606,13 +1606,13 @@
         <v>2.63</v>
       </c>
       <c r="AA8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
         <v>51</v>
@@ -1624,7 +1624,7 @@
         <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
         <v>9.5</v>
@@ -1633,7 +1633,7 @@
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
         <v>81</v>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
         <v>5</v>
@@ -1703,7 +1703,7 @@
         <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
         <v>8</v>
@@ -1763,13 +1763,13 @@
         <v>9.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
         <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -1857,7 +1857,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O10" t="n">
         <v>1.1</v>
@@ -1892,7 +1892,7 @@
         <v>2.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
         <v>9</v>
@@ -1931,7 +1931,7 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO10" t="n">
         <v>101</v>
@@ -1977,19 +1977,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
         <v>2.5</v>
@@ -1998,42 +1998,46 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.5</v>
       </c>
-      <c r="R11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.44</v>
-      </c>
       <c r="Z11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
         <v>21</v>
@@ -2048,10 +2052,10 @@
         <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
         <v>8</v>
@@ -2060,16 +2064,16 @@
         <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM11" t="n">
         <v>12</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>13</v>
       </c>
       <c r="AN11" t="n">
         <v>9</v>
@@ -2142,16 +2146,16 @@
         <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2168,22 +2172,22 @@
         <v>2.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB12" t="n">
         <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="n">
         <v>29</v>
@@ -2192,22 +2196,22 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH12" t="n">
         <v>6</v>
       </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ12" t="n">
         <v>51</v>
       </c>
       <c r="AK12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
@@ -2265,7 +2269,7 @@
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
@@ -2303,10 +2307,10 @@
         <v>1.25</v>
       </c>
       <c r="W13" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X13" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y13" t="n">
         <v>1.95</v>
@@ -2354,7 +2358,7 @@
         <v>9.5</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO13" t="n">
         <v>19</v>
@@ -2363,7 +2367,7 @@
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2400,13 +2404,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H14" t="n">
         <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2424,16 +2428,16 @@
         <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2477,16 +2481,16 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL14" t="n">
         <v>7</v>
@@ -2544,63 +2548,63 @@
         <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="J15" t="n">
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z15" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z15" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="n">
         <v>13</v>
@@ -2615,7 +2619,7 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AH15" t="n">
         <v>6.5</v>
@@ -2627,25 +2631,25 @@
         <v>51</v>
       </c>
       <c r="AK15" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM15" t="n">
         <v>9</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2682,22 +2686,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K16" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -2706,16 +2710,16 @@
         <v>19</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S16" t="n">
         <v>1.8</v>
@@ -2724,10 +2728,10 @@
         <v>2.05</v>
       </c>
       <c r="U16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
         <v>1.25</v>
@@ -2757,13 +2761,13 @@
         <v>11</v>
       </c>
       <c r="AF16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG16" t="n">
         <v>21</v>
       </c>
-      <c r="AG16" t="n">
-        <v>19</v>
-      </c>
       <c r="AH16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -2775,22 +2779,22 @@
         <v>151</v>
       </c>
       <c r="AL16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM16" t="n">
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP16" t="n">
         <v>41</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="inlineStr"/>
       <c r="AS16" t="inlineStr"/>
@@ -2827,19 +2831,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L17" t="n">
         <v>5.5</v>
@@ -2848,37 +2852,37 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R17" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T17" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y17" t="n">
         <v>1.7</v>
@@ -2890,16 +2894,16 @@
         <v>8.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -2908,7 +2912,7 @@
         <v>15</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI17" t="n">
         <v>15</v>
@@ -2920,16 +2924,16 @@
         <v>151</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP17" t="n">
         <v>41</v>
@@ -3002,16 +3006,16 @@
         <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
         <v>2.5</v>
@@ -3035,7 +3039,7 @@
         <v>7.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC18" t="n">
         <v>8.5</v>
@@ -3401,99 +3405,99 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="W21" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X21" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB21" t="n">
         <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH21" t="n">
         <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="n">
         <v>1250</v>
       </c>
       <c r="AL21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN21" t="n">
         <v>12</v>
@@ -3502,16 +3506,16 @@
         <v>34</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.02</v>
+        <v>2.09</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="22">
@@ -4440,10 +4444,10 @@
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.67</v>
@@ -4707,7 +4711,7 @@
         <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I30" t="n">
         <v>4.1</v>
@@ -4873,10 +4877,10 @@
         <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q31" t="n">
         <v>3.1</v>
@@ -5135,13 +5139,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H33" t="n">
         <v>2.75</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J33" t="n">
         <v>3.6</v>
@@ -5153,10 +5157,10 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O33" t="n">
         <v>1.67</v>
@@ -5200,7 +5204,7 @@
         <v>12</v>
       </c>
       <c r="AD33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE33" t="n">
         <v>29</v>
@@ -5224,7 +5228,7 @@
         <v>101</v>
       </c>
       <c r="AL33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM33" t="n">
         <v>13</v>
@@ -5558,13 +5562,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J36" t="n">
         <v>3.4</v>
@@ -5579,27 +5583,27 @@
         <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P36" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R36" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W36" t="n">
         <v>1.53</v>
@@ -5608,19 +5612,19 @@
         <v>2.38</v>
       </c>
       <c r="Y36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
       </c>
       <c r="AB36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC36" t="n">
         <v>11</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>10</v>
       </c>
       <c r="AD36" t="n">
         <v>26</v>
@@ -5703,66 +5707,66 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
         <v>5.25</v>
       </c>
       <c r="J37" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R37" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V37" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W37" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X37" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Y37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z37" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z37" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
@@ -5771,25 +5775,25 @@
         <v>13</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH37" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ37" t="n">
         <v>51</v>
       </c>
       <c r="AK37" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AL37" t="n">
         <v>13</v>
@@ -5844,22 +5848,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K38" t="n">
         <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M38" t="n">
         <v>1.07</v>
@@ -5900,19 +5904,19 @@
         <v>1.95</v>
       </c>
       <c r="AA38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC38" t="n">
         <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF38" t="n">
         <v>34</v>
@@ -5933,13 +5937,13 @@
         <v>251</v>
       </c>
       <c r="AL38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO38" t="n">
         <v>23</v>
@@ -6160,10 +6164,10 @@
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W40" t="n">
         <v>1.53</v>
@@ -6187,7 +6191,7 @@
         <v>11.25</v>
       </c>
       <c r="AD40" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE40" t="n">
         <v>30</v>
@@ -6263,107 +6267,107 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
-        <v>4.15</v>
+        <v>3.95</v>
       </c>
       <c r="I41" t="n">
         <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="K41" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L41" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="P41" t="n">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R41" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="V41" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="W41" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="X41" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="Z41" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AA41" t="n">
-        <v>6.5</v>
+        <v>5.7</v>
       </c>
       <c r="AB41" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC41" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD41" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG41" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE41" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>11</v>
-      </c>
       <c r="AH41" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AI41" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ41" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AK41" t="n">
         <v>900</v>
       </c>
       <c r="AL41" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AM41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN41" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AO41" t="n">
         <v>120</v>
       </c>
       <c r="AP41" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AQ41" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
@@ -6400,22 +6404,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I42" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K42" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -6436,10 +6440,10 @@
         <v>2.3</v>
       </c>
       <c r="S42" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U42" t="n">
         <v>2.5</v>
@@ -6448,10 +6452,10 @@
         <v>1.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y42" t="n">
         <v>1.95</v>
@@ -6460,16 +6464,16 @@
         <v>1.8</v>
       </c>
       <c r="AA42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE42" t="n">
         <v>11</v>
@@ -6481,28 +6485,28 @@
         <v>15</v>
       </c>
       <c r="AH42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI42" t="n">
         <v>21</v>
       </c>
       <c r="AJ42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK42" t="n">
         <v>301</v>
       </c>
       <c r="AL42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM42" t="n">
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP42" t="n">
         <v>51</v>
@@ -6566,7 +6570,7 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O43" t="n">
         <v>1.17</v>
@@ -6581,10 +6585,10 @@
         <v>2.35</v>
       </c>
       <c r="S43" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T43" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U43" t="n">
         <v>2.38</v>
@@ -6708,10 +6712,10 @@
         <v>3.2</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
         <v>1.3</v>
@@ -6720,18 +6724,18 @@
         <v>3.4</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V44" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W44" t="n">
         <v>1.44</v>
@@ -6831,10 +6835,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I45" t="n">
         <v>2.15</v>
@@ -6849,36 +6853,36 @@
         <v>2.88</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R45" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W45" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X45" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y45" t="n">
         <v>1.8</v>
@@ -6905,7 +6909,7 @@
         <v>34</v>
       </c>
       <c r="AG45" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH45" t="n">
         <v>6.5</v>
@@ -6932,7 +6936,7 @@
         <v>21</v>
       </c>
       <c r="AP45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ45" t="n">
         <v>29</v>
@@ -6972,13 +6976,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H46" t="n">
         <v>3.25</v>
       </c>
       <c r="I46" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J46" t="n">
         <v>3.6</v>
@@ -6987,7 +6991,7 @@
         <v>2.05</v>
       </c>
       <c r="L46" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M46" t="n">
         <v>1.07</v>
@@ -7067,7 +7071,7 @@
         <v>11</v>
       </c>
       <c r="AN46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO46" t="n">
         <v>23</v>
@@ -7125,7 +7129,7 @@
         <v>2.6</v>
       </c>
       <c r="K47" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L47" t="n">
         <v>3.75</v>
@@ -7850,63 +7854,63 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H52" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J52" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O52" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P52" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="W52" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X52" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="Z52" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AA52" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AB52" t="n">
         <v>12</v>
@@ -7915,34 +7919,34 @@
         <v>10</v>
       </c>
       <c r="AD52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE52" t="n">
         <v>21</v>
       </c>
       <c r="AF52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH52" t="n">
         <v>6</v>
       </c>
       <c r="AI52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM52" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>15</v>
       </c>
       <c r="AN52" t="n">
         <v>11</v>
@@ -7951,10 +7955,10 @@
         <v>29</v>
       </c>
       <c r="AP52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR52" t="inlineStr"/>
       <c r="AS52" t="inlineStr"/>
@@ -7991,22 +7995,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="H53" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I53" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L53" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -8021,10 +8025,10 @@
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
@@ -8041,22 +8045,22 @@
         <v>3.25</v>
       </c>
       <c r="Y53" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="Z53" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC53" t="n">
         <v>8.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE53" t="n">
         <v>12</v>
@@ -8068,28 +8072,28 @@
         <v>12</v>
       </c>
       <c r="AH53" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI53" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ53" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK53" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL53" t="n">
         <v>17</v>
       </c>
       <c r="AM53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN53" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO53" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP53" t="n">
         <v>41</v>
@@ -8135,94 +8139,94 @@
         <v>1.42</v>
       </c>
       <c r="H54" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I54" t="n">
+        <v>7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L54" t="n">
         <v>6.5</v>
       </c>
-      <c r="J54" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K54" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L54" t="n">
-        <v>6</v>
-      </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R54" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T54" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U54" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V54" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W54" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X54" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Y54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z54" t="n">
         <v>1.8</v>
       </c>
-      <c r="Z54" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AA54" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC54" t="n">
         <v>8.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF54" t="n">
         <v>23</v>
       </c>
       <c r="AG54" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH54" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ54" t="n">
         <v>51</v>
       </c>
       <c r="AK54" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL54" t="n">
         <v>19</v>
@@ -8231,16 +8235,16 @@
         <v>34</v>
       </c>
       <c r="AN54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR54" t="inlineStr"/>
       <c r="AS54" t="inlineStr"/>
@@ -8280,67 +8284,67 @@
         <v>1.7</v>
       </c>
       <c r="H55" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K55" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O55" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R55" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S55" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T55" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U55" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V55" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W55" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X55" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y55" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Z55" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AA55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC55" t="n">
         <v>8.5</v>
@@ -8352,25 +8356,25 @@
         <v>12</v>
       </c>
       <c r="AF55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG55" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH55" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI55" t="n">
         <v>13</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK55" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM55" t="n">
         <v>26</v>
@@ -8379,13 +8383,13 @@
         <v>15</v>
       </c>
       <c r="AO55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR55" t="inlineStr"/>
       <c r="AS55" t="inlineStr"/>
@@ -8422,13 +8426,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J56" t="n">
         <v>1.91</v>
@@ -8440,34 +8444,34 @@
         <v>6</v>
       </c>
       <c r="M56" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O56" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P56" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R56" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S56" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="T56" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="U56" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V56" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W56" t="n">
         <v>1.25</v>
@@ -8482,7 +8486,7 @@
         <v>2.05</v>
       </c>
       <c r="AA56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB56" t="n">
         <v>8</v>
@@ -8606,7 +8610,7 @@
         <v>3.55</v>
       </c>
       <c r="T57" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U57" t="n">
         <v>4.5</v>
@@ -8865,13 +8869,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H59" t="n">
         <v>2.9</v>
       </c>
       <c r="I59" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J59" t="n">
         <v>3.75</v>
@@ -8880,13 +8884,13 @@
         <v>1.95</v>
       </c>
       <c r="L59" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O59" t="n">
         <v>1.44</v>
@@ -8928,13 +8932,13 @@
         <v>8</v>
       </c>
       <c r="AB59" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC59" t="n">
         <v>12</v>
       </c>
       <c r="AD59" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE59" t="n">
         <v>29</v>
@@ -8964,10 +8968,10 @@
         <v>11</v>
       </c>
       <c r="AN59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP59" t="n">
         <v>23</v>
@@ -8976,10 +8980,10 @@
         <v>41</v>
       </c>
       <c r="AR59" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="60">
@@ -9155,22 +9159,22 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
         <v>2.05</v>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M61" t="n">
         <v>1.07</v>
@@ -9220,13 +9224,13 @@
         <v>9.5</v>
       </c>
       <c r="AD61" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE61" t="n">
         <v>19</v>
       </c>
       <c r="AF61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG61" t="n">
         <v>8.5</v>
@@ -9235,19 +9239,19 @@
         <v>6.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ61" t="n">
         <v>51</v>
       </c>
       <c r="AK61" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL61" t="n">
         <v>9</v>
       </c>
       <c r="AM61" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN61" t="n">
         <v>12</v>
@@ -9256,7 +9260,7 @@
         <v>34</v>
       </c>
       <c r="AP61" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ61" t="n">
         <v>41</v>
@@ -9296,31 +9300,31 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H62" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I62" t="n">
         <v>2.15</v>
       </c>
       <c r="J62" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K62" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L62" t="n">
         <v>2.77</v>
       </c>
       <c r="M62" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O62" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P62" t="n">
         <v>3.3</v>
@@ -9346,22 +9350,22 @@
         <v>2.67</v>
       </c>
       <c r="Y62" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AA62" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB62" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC62" t="n">
         <v>12</v>
       </c>
       <c r="AD62" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE62" t="n">
         <v>30</v>
@@ -9370,16 +9374,16 @@
         <v>37</v>
       </c>
       <c r="AG62" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AH62" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AI62" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ62" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AK62" t="n">
         <v>500</v>
@@ -9394,7 +9398,7 @@
         <v>9.25</v>
       </c>
       <c r="AO62" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP62" t="n">
         <v>18.5</v>
@@ -9452,19 +9456,19 @@
         <v>2.55</v>
       </c>
       <c r="L63" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M63" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O63" t="n">
         <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="Q63" t="n">
         <v>1.6</v>
@@ -9484,7 +9488,7 @@
         <v>1.31</v>
       </c>
       <c r="X63" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Y63" t="n">
         <v>2.02</v>
@@ -9511,7 +9515,7 @@
         <v>32</v>
       </c>
       <c r="AG63" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH63" t="n">
         <v>11.25</v>
@@ -9578,28 +9582,28 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I64" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L64" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O64" t="n">
         <v>1.29</v>
@@ -9640,19 +9644,19 @@
         <v>11</v>
       </c>
       <c r="AC64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD64" t="n">
         <v>21</v>
       </c>
       <c r="AE64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF64" t="n">
         <v>26</v>
       </c>
       <c r="AG64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH64" t="n">
         <v>6.5</v>
@@ -9670,7 +9674,7 @@
         <v>10</v>
       </c>
       <c r="AM64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN64" t="n">
         <v>11</v>
@@ -9719,22 +9723,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H65" t="n">
         <v>3.8</v>
       </c>
       <c r="I65" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J65" t="n">
         <v>2.3</v>
       </c>
       <c r="K65" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L65" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9784,7 +9788,7 @@
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE65" t="n">
         <v>13</v>
@@ -9799,7 +9803,7 @@
         <v>7.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ65" t="n">
         <v>41</v>
@@ -9811,13 +9815,13 @@
         <v>15</v>
       </c>
       <c r="AM65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN65" t="n">
         <v>15</v>
       </c>
       <c r="AO65" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP65" t="n">
         <v>34</v>
@@ -10142,22 +10146,22 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H68" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K68" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L68" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M68" t="n">
         <v>1.04</v>
@@ -10172,10 +10176,10 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R68" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
         <v>2.05</v>
@@ -10184,28 +10188,28 @@
         <v>1.8</v>
       </c>
       <c r="U68" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W68" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="X68" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="Z68" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA68" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB68" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC68" t="n">
         <v>8.5</v>
@@ -10217,31 +10221,31 @@
         <v>12</v>
       </c>
       <c r="AF68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG68" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL68" t="n">
         <v>15</v>
       </c>
-      <c r="AH68" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>17</v>
-      </c>
       <c r="AM68" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO68" t="n">
         <v>67</v>
@@ -10287,7 +10291,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H69" t="n">
         <v>4.5</v>
@@ -10305,10 +10309,10 @@
         <v>6</v>
       </c>
       <c r="M69" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O69" t="n">
         <v>1.14</v>
@@ -10347,7 +10351,7 @@
         <v>2.1</v>
       </c>
       <c r="AA69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB69" t="n">
         <v>8.5</v>
@@ -10380,7 +10384,7 @@
         <v>151</v>
       </c>
       <c r="AL69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM69" t="n">
         <v>41</v>
@@ -10432,28 +10436,28 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H70" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I70" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K70" t="n">
         <v>2.4</v>
       </c>
       <c r="L70" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M70" t="n">
         <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O70" t="n">
         <v>1.18</v>
@@ -10468,10 +10472,10 @@
         <v>2.3</v>
       </c>
       <c r="S70" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T70" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U70" t="n">
         <v>2.5</v>
@@ -10486,10 +10490,10 @@
         <v>3.4</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA70" t="n">
         <v>17</v>
@@ -10522,7 +10526,7 @@
         <v>41</v>
       </c>
       <c r="AK70" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL70" t="n">
         <v>8.5</v>
@@ -10577,22 +10581,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H71" t="n">
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J71" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K71" t="n">
         <v>2.3</v>
       </c>
       <c r="L71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
         <v>1.04</v>
@@ -10601,24 +10605,24 @@
         <v>13</v>
       </c>
       <c r="O71" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P71" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R71" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V71" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W71" t="n">
         <v>1.33</v>
@@ -10639,10 +10643,10 @@
         <v>11</v>
       </c>
       <c r="AC71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -10669,10 +10673,10 @@
         <v>13</v>
       </c>
       <c r="AM71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO71" t="n">
         <v>41</v>
@@ -10739,7 +10743,7 @@
         <v>1.02</v>
       </c>
       <c r="N72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O72" t="n">
         <v>1.17</v>
@@ -10748,22 +10752,22 @@
         <v>5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R72" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S72" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U72" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V72" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W72" t="n">
         <v>1.29</v>
@@ -11008,22 +11012,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H74" t="n">
         <v>4.75</v>
       </c>
       <c r="I74" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K74" t="n">
         <v>2.5</v>
       </c>
       <c r="L74" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M74" t="n">
         <v>1.02</v>
@@ -11044,10 +11048,10 @@
         <v>2.4</v>
       </c>
       <c r="S74" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T74" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="U74" t="n">
         <v>2.25</v>
@@ -11062,16 +11066,16 @@
         <v>3.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA74" t="n">
         <v>9</v>
       </c>
       <c r="AB74" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC74" t="n">
         <v>8.5</v>
@@ -11110,7 +11114,7 @@
         <v>17</v>
       </c>
       <c r="AO74" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP74" t="n">
         <v>41</v>
@@ -11322,10 +11326,10 @@
         <v>13</v>
       </c>
       <c r="O76" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P76" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q76" t="n">
         <v>1.75</v>
@@ -11336,10 +11340,10 @@
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V76" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W76" t="n">
         <v>1.36</v>
@@ -11454,13 +11458,13 @@
         <v>1.8</v>
       </c>
       <c r="L77" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M77" t="n">
         <v>1.16</v>
       </c>
       <c r="N77" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="O77" t="n">
         <v>1.7</v>
@@ -11477,7 +11481,7 @@
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="V77" t="n">
         <v>1.11</v>
@@ -11501,7 +11505,7 @@
         <v>8.25</v>
       </c>
       <c r="AC77" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD77" t="n">
         <v>20</v>
@@ -11513,7 +11517,7 @@
         <v>60</v>
       </c>
       <c r="AG77" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AH77" t="n">
         <v>5.9</v>
@@ -11528,13 +11532,13 @@
         <v>101</v>
       </c>
       <c r="AL77" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AM77" t="n">
         <v>19.5</v>
       </c>
       <c r="AN77" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO77" t="n">
         <v>75</v>
@@ -11586,7 +11590,7 @@
         <v>3.35</v>
       </c>
       <c r="I78" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="J78" t="n">
         <v>2.18</v>
@@ -11630,7 +11634,7 @@
         <v>2.37</v>
       </c>
       <c r="Y78" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Z78" t="n">
         <v>1.5</v>
@@ -11642,7 +11646,7 @@
         <v>6.1</v>
       </c>
       <c r="AC78" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD78" t="n">
         <v>11.25</v>
@@ -11657,7 +11661,7 @@
         <v>5.5</v>
       </c>
       <c r="AH78" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AI78" t="n">
         <v>25</v>
@@ -11669,19 +11673,19 @@
         <v>101</v>
       </c>
       <c r="AL78" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM78" t="n">
         <v>35</v>
       </c>
       <c r="AN78" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO78" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP78" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AQ78" t="n">
         <v>120</v>
@@ -11721,40 +11725,40 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I79" t="n">
         <v>3.1</v>
       </c>
       <c r="J79" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L79" t="n">
         <v>3.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O79" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P79" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R79" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S79" t="n">
         <v>3.1</v>
@@ -11763,34 +11767,34 @@
         <v>1.36</v>
       </c>
       <c r="U79" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V79" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W79" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X79" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB79" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC79" t="n">
         <v>10</v>
       </c>
-      <c r="AC79" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE79" t="n">
         <v>21</v>
@@ -11799,7 +11803,7 @@
         <v>34</v>
       </c>
       <c r="AG79" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH79" t="n">
         <v>6</v>
@@ -11808,34 +11812,34 @@
         <v>17</v>
       </c>
       <c r="AJ79" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK79" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AL79" t="n">
         <v>8</v>
       </c>
       <c r="AM79" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN79" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO79" t="n">
         <v>34</v>
       </c>
       <c r="AP79" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ79" t="n">
         <v>41</v>
       </c>
       <c r="AR79" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AS79" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="80">
@@ -12029,10 +12033,10 @@
         <v>3.4</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O81" t="n">
         <v>1.2</v>
@@ -12297,13 +12301,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H83" t="n">
         <v>3.4</v>
       </c>
       <c r="I83" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J83" t="n">
         <v>2.75</v>
@@ -12318,27 +12322,27 @@
         <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O83" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P83" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V83" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W83" t="n">
         <v>1.36</v>
@@ -12353,7 +12357,7 @@
         <v>2.1</v>
       </c>
       <c r="AA83" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB83" t="n">
         <v>11</v>
@@ -12362,7 +12366,7 @@
         <v>9</v>
       </c>
       <c r="AD83" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE83" t="n">
         <v>17</v>
@@ -12371,7 +12375,7 @@
         <v>23</v>
       </c>
       <c r="AG83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH83" t="n">
         <v>6.5</v>
@@ -12401,7 +12405,7 @@
         <v>26</v>
       </c>
       <c r="AQ83" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
@@ -12438,13 +12442,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H84" t="n">
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J84" t="n">
         <v>3.4</v>
@@ -12498,13 +12502,13 @@
         <v>2.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB84" t="n">
         <v>19</v>
       </c>
       <c r="AC84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD84" t="n">
         <v>34</v>
@@ -12748,24 +12752,24 @@
         <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P86" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R86" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V86" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W86" t="n">
         <v>1.33</v>
@@ -12865,22 +12869,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J87" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K87" t="n">
         <v>2.1</v>
       </c>
       <c r="L87" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M87" t="n">
         <v>1.07</v>
@@ -12889,10 +12893,10 @@
         <v>9</v>
       </c>
       <c r="O87" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P87" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="n">
         <v>2.2</v>
@@ -12901,10 +12905,10 @@
         <v>1.65</v>
       </c>
       <c r="S87" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T87" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="U87" t="n">
         <v>4</v>
@@ -12928,13 +12932,13 @@
         <v>5.5</v>
       </c>
       <c r="AB87" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC87" t="n">
         <v>9</v>
       </c>
       <c r="AD87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE87" t="n">
         <v>15</v>
@@ -12946,7 +12950,7 @@
         <v>8</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI87" t="n">
         <v>23</v>
@@ -12958,28 +12962,28 @@
         <v>101</v>
       </c>
       <c r="AL87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM87" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN87" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO87" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP87" t="n">
         <v>51</v>
       </c>
       <c r="AQ87" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.21</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="88">
@@ -13014,16 +13018,16 @@
         </is>
       </c>
       <c r="G88" t="n">
+        <v>13</v>
+      </c>
+      <c r="H88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J88" t="n">
         <v>12</v>
-      </c>
-      <c r="H88" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J88" t="n">
-        <v>10</v>
       </c>
       <c r="K88" t="n">
         <v>2.4</v>
@@ -13032,34 +13036,34 @@
         <v>1.73</v>
       </c>
       <c r="M88" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P88" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R88" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S88" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="T88" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="U88" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V88" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="W88" t="n">
         <v>1.36</v>
@@ -13068,52 +13072,52 @@
         <v>3</v>
       </c>
       <c r="Y88" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Z88" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AA88" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB88" t="n">
         <v>51</v>
       </c>
       <c r="AC88" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD88" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE88" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AF88" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG88" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI88" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ88" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AK88" t="n">
         <v>101</v>
       </c>
       <c r="AL88" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AN88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO88" t="n">
         <v>7</v>
@@ -13122,13 +13126,13 @@
         <v>13</v>
       </c>
       <c r="AQ88" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR88" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="89">
@@ -13163,46 +13167,46 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H89" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I89" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="J89" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K89" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L89" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
         <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O89" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P89" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R89" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S89" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="T89" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="U89" t="n">
         <v>3.5</v>
@@ -13211,25 +13215,25 @@
         <v>1.29</v>
       </c>
       <c r="W89" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X89" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y89" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z89" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA89" t="n">
         <v>15</v>
       </c>
       <c r="AB89" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD89" t="n">
         <v>81</v>
@@ -13241,16 +13245,16 @@
         <v>51</v>
       </c>
       <c r="AG89" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH89" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI89" t="n">
         <v>21</v>
       </c>
       <c r="AJ89" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK89" t="n">
         <v>501</v>
@@ -13259,13 +13263,13 @@
         <v>6</v>
       </c>
       <c r="AM89" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AN89" t="n">
         <v>8.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP89" t="n">
         <v>13</v>
@@ -13274,10 +13278,10 @@
         <v>34</v>
       </c>
       <c r="AR89" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="90">
@@ -13312,10 +13316,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H90" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I90" t="n">
         <v>5.25</v>
@@ -13336,22 +13340,22 @@
         <v>10</v>
       </c>
       <c r="O90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P90" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q90" t="n">
         <v>2.05</v>
       </c>
       <c r="R90" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S90" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="T90" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="U90" t="n">
         <v>3.5</v>
@@ -13423,10 +13427,10 @@
         <v>41</v>
       </c>
       <c r="AR90" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="91">
@@ -13888,13 +13892,13 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>3.1</v>
       </c>
       <c r="I94" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="J94" t="n">
         <v>2.65</v>
@@ -13934,61 +13938,61 @@
         <v>2.6</v>
       </c>
       <c r="Y94" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="Z94" t="n">
         <v>1.9</v>
       </c>
       <c r="AA94" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB94" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AC94" t="n">
         <v>8.5</v>
       </c>
       <c r="AD94" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE94" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF94" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG94" t="n">
         <v>8.75</v>
       </c>
       <c r="AH94" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AI94" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ94" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK94" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL94" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AM94" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AN94" t="n">
         <v>11.5</v>
       </c>
       <c r="AO94" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP94" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ94" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR94" t="inlineStr"/>
       <c r="AS94" t="inlineStr"/>
@@ -14162,22 +14166,22 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J96" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K96" t="n">
         <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M96" t="n">
         <v>1.05</v>
@@ -14212,16 +14216,16 @@
         <v>2.75</v>
       </c>
       <c r="Y96" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB96" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>7</v>
       </c>
       <c r="AC96" t="n">
         <v>8.5</v>
@@ -14242,31 +14246,31 @@
         <v>8</v>
       </c>
       <c r="AI96" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ96" t="n">
         <v>67</v>
       </c>
       <c r="AK96" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AL96" t="n">
         <v>13</v>
       </c>
       <c r="AM96" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN96" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO96" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP96" t="n">
         <v>41</v>
       </c>
       <c r="AQ96" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14444,13 +14448,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>3</v>
       </c>
       <c r="I98" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J98" t="n">
         <v>3.1</v>
@@ -14494,10 +14498,10 @@
         <v>2.38</v>
       </c>
       <c r="Y98" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z98" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA98" t="n">
         <v>6.5</v>
@@ -14524,7 +14528,7 @@
         <v>5.5</v>
       </c>
       <c r="AI98" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ98" t="n">
         <v>51</v>
@@ -14542,19 +14546,19 @@
         <v>13</v>
       </c>
       <c r="AO98" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP98" t="n">
         <v>34</v>
-      </c>
-      <c r="AP98" t="n">
-        <v>29</v>
       </c>
       <c r="AQ98" t="n">
         <v>41</v>
       </c>
       <c r="AR98" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="99">
@@ -14589,22 +14593,22 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="J99" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K99" t="n">
         <v>2.05</v>
       </c>
       <c r="L99" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M99" t="n">
         <v>1.08</v>
@@ -14627,16 +14631,16 @@
       <c r="S99" t="inlineStr"/>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V99" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W99" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X99" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y99" t="n">
         <v>1.91</v>
@@ -14645,22 +14649,22 @@
         <v>1.91</v>
       </c>
       <c r="AA99" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC99" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD99" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE99" t="n">
         <v>26</v>
       </c>
       <c r="AF99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG99" t="n">
         <v>8</v>
@@ -14681,10 +14685,10 @@
         <v>7.5</v>
       </c>
       <c r="AM99" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO99" t="n">
         <v>23</v>
@@ -14780,10 +14784,10 @@
         <v>2.75</v>
       </c>
       <c r="Y100" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z100" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA100" t="n">
         <v>6.5</v>
@@ -14795,7 +14799,7 @@
         <v>8.5</v>
       </c>
       <c r="AD100" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE100" t="n">
         <v>13</v>
@@ -14825,7 +14829,7 @@
         <v>34</v>
       </c>
       <c r="AN100" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO100" t="n">
         <v>67</v>
@@ -14895,24 +14899,24 @@
         <v>9</v>
       </c>
       <c r="O101" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P101" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R101" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V101" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W101" t="n">
         <v>1.5</v>
@@ -16323,10 +16327,10 @@
         <v>3.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R111" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S111" t="inlineStr"/>
       <c r="T111" t="inlineStr"/>
@@ -16434,22 +16438,22 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H112" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I112" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J112" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K112" t="n">
         <v>2.5</v>
       </c>
       <c r="L112" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M112" t="n">
         <v>1.03</v>
@@ -16458,16 +16462,16 @@
         <v>15</v>
       </c>
       <c r="O112" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P112" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R112" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S112" t="n">
         <v>2.05</v>
@@ -16515,28 +16519,28 @@
         <v>13</v>
       </c>
       <c r="AH112" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI112" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ112" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK112" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AL112" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM112" t="n">
         <v>41</v>
       </c>
       <c r="AN112" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO112" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP112" t="n">
         <v>67</v>
@@ -16712,22 +16716,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H114" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J114" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K114" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="L114" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
@@ -16746,30 +16750,30 @@
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="V114" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Z114" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AA114" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AB114" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC114" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD114" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE114" t="n">
         <v>11.75</v>
@@ -16778,25 +16782,25 @@
         <v>25</v>
       </c>
       <c r="AG114" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AH114" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AI114" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ114" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK114" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL114" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM114" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN114" t="n">
         <v>19</v>
@@ -16808,7 +16812,7 @@
         <v>65</v>
       </c>
       <c r="AQ114" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16845,13 +16849,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="H115" t="n">
         <v>3.5</v>
       </c>
       <c r="I115" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J115" t="n">
         <v>3.4</v>
@@ -16893,16 +16897,16 @@
         <v>2</v>
       </c>
       <c r="AA115" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AB115" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC115" t="n">
         <v>10.5</v>
       </c>
       <c r="AD115" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE115" t="n">
         <v>23</v>
@@ -16935,7 +16939,7 @@
         <v>9</v>
       </c>
       <c r="AO115" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP115" t="n">
         <v>17</v>
@@ -17008,18 +17012,18 @@
         <v>2.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R116" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V116" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W116" t="n">
         <v>1.57</v>
@@ -17085,10 +17089,10 @@
         <v>41</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="117">
@@ -17306,10 +17310,10 @@
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V118" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W118" t="n">
         <v>1.62</v>
@@ -17375,10 +17379,10 @@
         <v>51</v>
       </c>
       <c r="AR118" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="119">
@@ -17579,7 +17583,7 @@
         <v>1.03</v>
       </c>
       <c r="N120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O120" t="n">
         <v>1.17</v>
@@ -17594,10 +17598,10 @@
         <v>2.35</v>
       </c>
       <c r="S120" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T120" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U120" t="n">
         <v>2.38</v>
@@ -17715,7 +17719,7 @@
         <v>3.2</v>
       </c>
       <c r="K121" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L121" t="n">
         <v>4</v>
@@ -17741,10 +17745,10 @@
       <c r="S121" t="inlineStr"/>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="V121" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W121" t="n">
         <v>1.53</v>
@@ -17809,8 +17813,12 @@
       <c r="AQ121" t="n">
         <v>41</v>
       </c>
-      <c r="AR121" t="inlineStr"/>
-      <c r="AS121" t="inlineStr"/>
+      <c r="AR121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -17844,28 +17852,28 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J122" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K122" t="n">
         <v>2.25</v>
       </c>
       <c r="L122" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M122" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O122" t="n">
         <v>1.22</v>
@@ -17874,10 +17882,10 @@
         <v>4</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R122" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S122" t="n">
         <v>2.31</v>
@@ -17892,16 +17900,16 @@
         <v>1.4</v>
       </c>
       <c r="W122" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X122" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y122" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z122" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA122" t="n">
         <v>9.5</v>
@@ -17910,7 +17918,7 @@
         <v>12</v>
       </c>
       <c r="AC122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD122" t="n">
         <v>21</v>
@@ -17928,25 +17936,25 @@
         <v>6.5</v>
       </c>
       <c r="AI122" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ122" t="n">
         <v>41</v>
       </c>
       <c r="AK122" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM122" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN122" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO122" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP122" t="n">
         <v>23</v>
@@ -18142,22 +18150,22 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H124" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I124" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J124" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K124" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L124" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M124" t="n">
         <v>1.03</v>
@@ -18172,22 +18180,22 @@
         <v>5</v>
       </c>
       <c r="Q124" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V124" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R124" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S124" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T124" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U124" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V124" t="n">
-        <v>1.57</v>
       </c>
       <c r="W124" t="n">
         <v>1.29</v>
@@ -18208,25 +18216,25 @@
         <v>6.5</v>
       </c>
       <c r="AC124" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD124" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE124" t="n">
         <v>11</v>
       </c>
       <c r="AF124" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG124" t="n">
         <v>15</v>
       </c>
       <c r="AH124" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI124" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ124" t="n">
         <v>67</v>
@@ -18238,13 +18246,13 @@
         <v>23</v>
       </c>
       <c r="AM124" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN124" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO124" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP124" t="n">
         <v>67</v>
@@ -18253,10 +18261,10 @@
         <v>51</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AS124" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="125">
@@ -18291,22 +18299,22 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="H125" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I125" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="J125" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="K125" t="n">
         <v>2.2</v>
       </c>
       <c r="L125" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M125" t="n">
         <v>1.05</v>
@@ -18321,10 +18329,10 @@
         <v>3.5</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R125" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S125" t="inlineStr"/>
       <c r="T125" t="inlineStr"/>
@@ -18335,10 +18343,10 @@
         <v>1.33</v>
       </c>
       <c r="W125" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X125" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y125" t="n">
         <v>1.75</v>
@@ -18350,28 +18358,28 @@
         <v>8</v>
       </c>
       <c r="AB125" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC125" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD125" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE125" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF125" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG125" t="n">
         <v>11</v>
       </c>
       <c r="AH125" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI125" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ125" t="n">
         <v>41</v>
@@ -18380,13 +18388,13 @@
         <v>201</v>
       </c>
       <c r="AL125" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM125" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN125" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO125" t="n">
         <v>41</v>
@@ -18573,54 +18581,54 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N127" t="n">
+        <v>15</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P127" t="n">
         <v>4.33</v>
       </c>
-      <c r="I127" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="J127" t="n">
-        <v>2</v>
-      </c>
-      <c r="K127" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L127" t="n">
-        <v>6</v>
-      </c>
-      <c r="M127" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N127" t="n">
-        <v>13</v>
-      </c>
-      <c r="O127" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P127" t="n">
-        <v>4</v>
-      </c>
       <c r="Q127" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R127" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S127" t="inlineStr"/>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V127" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X127" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y127" t="n">
         <v>1.91</v>
@@ -18647,10 +18655,10 @@
         <v>23</v>
       </c>
       <c r="AG127" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH127" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI127" t="n">
         <v>19</v>
@@ -18714,16 +18722,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H128" t="n">
         <v>3.5</v>
       </c>
       <c r="I128" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J128" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K128" t="n">
         <v>2.2</v>
@@ -18732,10 +18740,10 @@
         <v>5</v>
       </c>
       <c r="M128" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N128" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O128" t="n">
         <v>1.3</v>
@@ -18770,7 +18778,7 @@
         <v>1.83</v>
       </c>
       <c r="AA128" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB128" t="n">
         <v>8</v>
@@ -18779,7 +18787,7 @@
         <v>8.5</v>
       </c>
       <c r="AD128" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE128" t="n">
         <v>15</v>
@@ -18803,10 +18811,10 @@
         <v>301</v>
       </c>
       <c r="AL128" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM128" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN128" t="n">
         <v>15</v>
@@ -18815,7 +18823,7 @@
         <v>51</v>
       </c>
       <c r="AP128" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ128" t="n">
         <v>41</v>
@@ -18855,22 +18863,22 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H129" t="n">
         <v>3.3</v>
       </c>
       <c r="I129" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J129" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K129" t="n">
         <v>2.2</v>
       </c>
       <c r="L129" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M129" t="n">
         <v>1.05</v>
@@ -18885,18 +18893,18 @@
         <v>3.5</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R129" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V129" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W129" t="n">
         <v>1.4</v>
@@ -18923,7 +18931,7 @@
         <v>29</v>
       </c>
       <c r="AE129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF129" t="n">
         <v>29</v>
@@ -18950,7 +18958,7 @@
         <v>12</v>
       </c>
       <c r="AN129" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO129" t="n">
         <v>23</v>
@@ -18959,7 +18967,7 @@
         <v>19</v>
       </c>
       <c r="AQ129" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR129" t="inlineStr"/>
       <c r="AS129" t="inlineStr"/>
@@ -19137,54 +19145,54 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H131" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I131" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L131" t="n">
         <v>5</v>
       </c>
-      <c r="J131" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K131" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L131" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M131" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N131" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O131" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P131" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q131" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R131" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V131" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W131" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X131" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y131" t="n">
         <v>2.05</v>
@@ -19199,22 +19207,22 @@
         <v>7.5</v>
       </c>
       <c r="AC131" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD131" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE131" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF131" t="n">
         <v>34</v>
       </c>
       <c r="AG131" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH131" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI131" t="n">
         <v>19</v>
@@ -19223,16 +19231,16 @@
         <v>67</v>
       </c>
       <c r="AK131" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AL131" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM131" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN131" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO131" t="n">
         <v>51</v>
@@ -19281,10 +19289,10 @@
         <v>3.6</v>
       </c>
       <c r="H132" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I132" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J132" t="n">
         <v>4.75</v>
@@ -19293,48 +19301,48 @@
         <v>1.83</v>
       </c>
       <c r="L132" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M132" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N132" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O132" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P132" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q132" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R132" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V132" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W132" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X132" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y132" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z132" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA132" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB132" t="n">
         <v>17</v>
@@ -19352,7 +19360,7 @@
         <v>51</v>
       </c>
       <c r="AG132" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH132" t="n">
         <v>6.5</v>
@@ -19365,7 +19373,7 @@
       </c>
       <c r="AK132" t="inlineStr"/>
       <c r="AL132" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM132" t="n">
         <v>8.5</v>
@@ -19374,10 +19382,10 @@
         <v>10</v>
       </c>
       <c r="AO132" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP132" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ132" t="n">
         <v>41</v>
@@ -19421,72 +19429,72 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="H133" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I133" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="J133" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K133" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L133" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N133" t="n">
+        <v>12</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P133" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q133" t="n">
         <v>1.83</v>
       </c>
-      <c r="M133" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N133" t="n">
-        <v>15</v>
-      </c>
-      <c r="O133" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P133" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>1.73</v>
-      </c>
       <c r="R133" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V133" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W133" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X133" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y133" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA133" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AB133" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD133" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE133" t="n">
         <v>51</v>
@@ -19495,19 +19503,19 @@
         <v>51</v>
       </c>
       <c r="AG133" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH133" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI133" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ133" t="n">
         <v>67</v>
       </c>
       <c r="AK133" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL133" t="n">
         <v>6.5</v>
@@ -19519,7 +19527,7 @@
         <v>8.5</v>
       </c>
       <c r="AO133" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AP133" t="n">
         <v>12</v>
@@ -19568,7 +19576,7 @@
         <v>3.1</v>
       </c>
       <c r="I134" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J134" t="n">
         <v>3.1</v>
@@ -19651,7 +19659,7 @@
         <v>501</v>
       </c>
       <c r="AL134" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM134" t="n">
         <v>15</v>
@@ -20142,75 +20150,75 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="H138" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I138" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K138" t="n">
         <v>2.42</v>
       </c>
-      <c r="J138" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="K138" t="n">
-        <v>2.45</v>
-      </c>
       <c r="L138" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="M138" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N138" t="n">
         <v>9.75</v>
       </c>
       <c r="O138" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P138" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R138" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V138" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W138" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X138" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y138" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Z138" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AA138" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB138" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AC138" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD138" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE138" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF138" t="n">
         <v>18</v>
@@ -20219,13 +20227,13 @@
         <v>9.75</v>
       </c>
       <c r="AH138" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI138" t="n">
         <v>10.75</v>
       </c>
       <c r="AJ138" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK138" t="n">
         <v>150</v>
@@ -20234,19 +20242,19 @@
         <v>14</v>
       </c>
       <c r="AM138" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN138" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AO138" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP138" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ138" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr"/>
@@ -20283,22 +20291,22 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="H139" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I139" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="J139" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="K139" t="n">
         <v>2.27</v>
       </c>
       <c r="L139" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="M139" t="n">
         <v>1.03</v>
@@ -20310,7 +20318,7 @@
         <v>1.18</v>
       </c>
       <c r="P139" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="Q139" t="n">
         <v>1.55</v>
@@ -20324,13 +20332,13 @@
         <v>2.32</v>
       </c>
       <c r="V139" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W139" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X139" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="Y139" t="n">
         <v>1.47</v>
@@ -20339,52 +20347,52 @@
         <v>2.5</v>
       </c>
       <c r="AA139" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB139" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC139" t="n">
         <v>9.5</v>
       </c>
       <c r="AD139" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE139" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF139" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG139" t="n">
         <v>9</v>
       </c>
       <c r="AH139" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AI139" t="n">
         <v>11.25</v>
       </c>
       <c r="AJ139" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK139" t="n">
         <v>200</v>
       </c>
       <c r="AL139" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM139" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AN139" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AO139" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AP139" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AQ139" t="n">
         <v>22</v>
@@ -20424,111 +20432,111 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.35</v>
+        <v>3.65</v>
       </c>
       <c r="H140" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="I140" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="J140" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K140" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L140" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="M140" t="n">
         <v>1.03</v>
       </c>
       <c r="N140" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O140" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P140" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R140" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="V140" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W140" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X140" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Y140" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Z140" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AA140" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB140" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AC140" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD140" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE140" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF140" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG140" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH140" t="n">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="AI140" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ140" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK140" t="n">
         <v>150</v>
       </c>
       <c r="AL140" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM140" t="n">
-        <v>14</v>
+        <v>11.75</v>
       </c>
       <c r="AN140" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO140" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AP140" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ140" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AR140" t="inlineStr"/>
       <c r="AS140" t="inlineStr"/>
@@ -20595,18 +20603,18 @@
         <v>3.5</v>
       </c>
       <c r="Q141" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R141" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V141" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W141" t="n">
         <v>1.44</v>
@@ -20706,10 +20714,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -20771,19 +20779,19 @@
         <v>9.75</v>
       </c>
       <c r="AD142" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE142" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF142" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG142" t="n">
         <v>5.7</v>
       </c>
       <c r="AH142" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AI142" t="n">
         <v>18</v>
@@ -20795,7 +20803,7 @@
         <v>800</v>
       </c>
       <c r="AL142" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AM142" t="n">
         <v>14</v>
@@ -20988,22 +20996,22 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H144" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I144" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="J144" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K144" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L144" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M144" t="n">
         <v>1.01</v>
@@ -21018,10 +21026,10 @@
         <v>17</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="R144" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="S144" t="inlineStr"/>
       <c r="T144" t="inlineStr"/>
@@ -21038,10 +21046,10 @@
         <v>7</v>
       </c>
       <c r="Y144" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Z144" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AA144" t="n">
         <v>51</v>
@@ -21050,10 +21058,10 @@
         <v>51</v>
       </c>
       <c r="AC144" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD144" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE144" t="n">
         <v>41</v>
@@ -21065,13 +21073,13 @@
         <v>34</v>
       </c>
       <c r="AH144" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI144" t="n">
         <v>15</v>
       </c>
       <c r="AJ144" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK144" t="n">
         <v>51</v>
@@ -21083,7 +21091,7 @@
         <v>19</v>
       </c>
       <c r="AN144" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO144" t="n">
         <v>17</v>
@@ -21132,16 +21140,16 @@
         <v>1.22</v>
       </c>
       <c r="H145" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I145" t="n">
         <v>7</v>
       </c>
       <c r="J145" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K145" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L145" t="n">
         <v>7</v>
@@ -21153,48 +21161,48 @@
         <v>34</v>
       </c>
       <c r="O145" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="P145" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="R145" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="S145" t="inlineStr"/>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="V145" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W145" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X145" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y145" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Z145" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AA145" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AB145" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC145" t="n">
         <v>11</v>
       </c>
-      <c r="AC145" t="n">
-        <v>10</v>
-      </c>
       <c r="AD145" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE145" t="n">
         <v>10</v>
@@ -21206,7 +21214,7 @@
         <v>34</v>
       </c>
       <c r="AH145" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI145" t="n">
         <v>21</v>
@@ -21215,10 +21223,10 @@
         <v>41</v>
       </c>
       <c r="AK145" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AL145" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM145" t="n">
         <v>51</v>
@@ -21233,7 +21241,7 @@
         <v>41</v>
       </c>
       <c r="AQ145" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR145" t="inlineStr"/>
       <c r="AS145" t="inlineStr"/>
@@ -21326,7 +21334,7 @@
         <v>1.98</v>
       </c>
       <c r="AA146" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB146" t="n">
         <v>9.5</v>
@@ -21353,16 +21361,16 @@
         <v>15.5</v>
       </c>
       <c r="AJ146" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AK146" t="n">
         <v>600</v>
       </c>
       <c r="AL146" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM146" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN146" t="n">
         <v>14.5</v>
@@ -21411,111 +21419,111 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I147" t="n">
         <v>5.6</v>
       </c>
       <c r="J147" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="K147" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="L147" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M147" t="n">
         <v>1.06</v>
       </c>
       <c r="N147" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="O147" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P147" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q147" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R147" t="n">
         <v>1.82</v>
-      </c>
-      <c r="R147" t="n">
-        <v>1.93</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="V147" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="W147" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X147" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="Y147" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AA147" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB147" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AC147" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD147" t="n">
         <v>12</v>
       </c>
       <c r="AE147" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF147" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AG147" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AH147" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AI147" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AJ147" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK147" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AL147" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM147" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN147" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO147" t="n">
         <v>120</v>
       </c>
       <c r="AP147" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ147" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr"/>
@@ -21693,22 +21701,22 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="I149" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J149" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K149" t="n">
         <v>2.32</v>
       </c>
       <c r="L149" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="M149" t="n">
         <v>1.04</v>
@@ -21720,66 +21728,66 @@
         <v>1.21</v>
       </c>
       <c r="P149" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R149" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V149" t="n">
         <v>1.47</v>
       </c>
       <c r="W149" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X149" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Y149" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Z149" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA149" t="n">
         <v>7.9</v>
       </c>
       <c r="AB149" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AC149" t="n">
         <v>8</v>
       </c>
       <c r="AD149" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE149" t="n">
         <v>11.25</v>
       </c>
-      <c r="AE149" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AF149" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG149" t="n">
         <v>8.5</v>
       </c>
       <c r="AH149" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI149" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AJ149" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AK149" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AL149" t="n">
         <v>17</v>
@@ -21788,16 +21796,16 @@
         <v>35</v>
       </c>
       <c r="AN149" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AO149" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP149" t="n">
+        <v>55</v>
+      </c>
+      <c r="AQ149" t="n">
         <v>50</v>
-      </c>
-      <c r="AQ149" t="n">
-        <v>45</v>
       </c>
       <c r="AR149" t="inlineStr"/>
       <c r="AS149" t="inlineStr"/>
@@ -21975,13 +21983,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H151" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I151" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J151" t="n">
         <v>3.4</v>
@@ -21990,7 +21998,7 @@
         <v>2.05</v>
       </c>
       <c r="L151" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M151" t="n">
         <v>1.07</v>
@@ -22005,10 +22013,10 @@
         <v>3</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R151" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
@@ -22019,10 +22027,10 @@
         <v>1.22</v>
       </c>
       <c r="W151" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X151" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y151" t="n">
         <v>1.83</v>
@@ -22043,13 +22051,13 @@
         <v>26</v>
       </c>
       <c r="AE151" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF151" t="n">
         <v>34</v>
       </c>
       <c r="AG151" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH151" t="n">
         <v>6</v>
@@ -22070,10 +22078,10 @@
         <v>13</v>
       </c>
       <c r="AN151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO151" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP151" t="n">
         <v>23</v>
@@ -22116,28 +22124,28 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H152" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I152" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J152" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K152" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L152" t="n">
         <v>4</v>
       </c>
       <c r="M152" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N152" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O152" t="n">
         <v>1.36</v>
@@ -22146,30 +22154,30 @@
         <v>3</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R152" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V152" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W152" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X152" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y152" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA152" t="n">
         <v>7</v>
@@ -22178,19 +22186,19 @@
         <v>10</v>
       </c>
       <c r="AC152" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD152" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE152" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF152" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH152" t="n">
         <v>6</v>
@@ -22202,19 +22210,19 @@
         <v>51</v>
       </c>
       <c r="AK152" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL152" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM152" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN152" t="n">
         <v>12</v>
       </c>
       <c r="AO152" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP152" t="n">
         <v>29</v>
@@ -22398,48 +22406,48 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="H154" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I154" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J154" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K154" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L154" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M154" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N154" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O154" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P154" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R154" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V154" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W154" t="n">
         <v>1.5</v>
@@ -22457,28 +22465,28 @@
         <v>6.5</v>
       </c>
       <c r="AB154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC154" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE154" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF154" t="n">
         <v>34</v>
       </c>
       <c r="AG154" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH154" t="n">
         <v>6.5</v>
       </c>
       <c r="AI154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ154" t="n">
         <v>67</v>
@@ -22487,10 +22495,10 @@
         <v>1250</v>
       </c>
       <c r="AL154" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM154" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN154" t="n">
         <v>13</v>
@@ -22569,10 +22577,10 @@
         <v>3.5</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R155" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
@@ -22680,13 +22688,13 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>3.2</v>
       </c>
       <c r="I156" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="J156" t="n">
         <v>2.88</v>
@@ -22739,16 +22747,16 @@
         <v>6</v>
       </c>
       <c r="AB156" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC156" t="n">
         <v>9.5</v>
       </c>
       <c r="AD156" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE156" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF156" t="n">
         <v>34</v>
@@ -22769,13 +22777,13 @@
         <v>101</v>
       </c>
       <c r="AL156" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM156" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN156" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO156" t="n">
         <v>41</v>
@@ -22825,10 +22833,10 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H157" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I157" t="n">
         <v>15</v>
@@ -22837,16 +22845,16 @@
         <v>1.73</v>
       </c>
       <c r="K157" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M157" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O157" t="n">
         <v>1.3</v>
@@ -22855,18 +22863,18 @@
         <v>3.4</v>
       </c>
       <c r="Q157" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R157" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V157" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W157" t="n">
         <v>1.4</v>
@@ -22875,19 +22883,19 @@
         <v>2.75</v>
       </c>
       <c r="Y157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA157" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB157" t="n">
         <v>5</v>
       </c>
       <c r="AC157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD157" t="n">
         <v>6.5</v>
@@ -22899,7 +22907,7 @@
         <v>41</v>
       </c>
       <c r="AG157" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH157" t="n">
         <v>11</v>
@@ -22984,10 +22992,10 @@
         <v>4.5</v>
       </c>
       <c r="M158" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N158" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O158" t="n">
         <v>1.36</v>
@@ -22996,10 +23004,10 @@
         <v>3</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R158" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
@@ -23107,28 +23115,28 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I159" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J159" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K159" t="n">
         <v>2.1</v>
       </c>
       <c r="L159" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M159" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N159" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O159" t="n">
         <v>1.33</v>
@@ -23166,16 +23174,16 @@
         <v>6.5</v>
       </c>
       <c r="AB159" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC159" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AC159" t="n">
-        <v>9</v>
       </c>
       <c r="AD159" t="n">
         <v>15</v>
       </c>
       <c r="AE159" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF159" t="n">
         <v>29</v>
@@ -23193,19 +23201,19 @@
         <v>51</v>
       </c>
       <c r="AK159" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL159" t="n">
         <v>11</v>
       </c>
       <c r="AM159" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN159" t="n">
         <v>15</v>
       </c>
       <c r="AO159" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP159" t="n">
         <v>41</v>
@@ -23251,7 +23259,7 @@
         <v>2</v>
       </c>
       <c r="H160" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I160" t="n">
         <v>3.9</v>
@@ -23266,22 +23274,22 @@
         <v>4.33</v>
       </c>
       <c r="M160" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O160" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P160" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q160" t="n">
         <v>2.05</v>
       </c>
       <c r="R160" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
@@ -23298,13 +23306,13 @@
         <v>2.63</v>
       </c>
       <c r="Y160" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z160" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA160" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB160" t="n">
         <v>9.5</v>
@@ -23530,69 +23538,73 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H162" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I162" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L162" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N162" t="n">
+        <v>17</v>
+      </c>
+      <c r="O162" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P162" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S162" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y162" t="n">
         <v>1.8</v>
       </c>
-      <c r="K162" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L162" t="n">
-        <v>7</v>
-      </c>
-      <c r="M162" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N162" t="n">
-        <v>19</v>
-      </c>
-      <c r="O162" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P162" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q162" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R162" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S162" t="inlineStr"/>
-      <c r="T162" t="inlineStr"/>
-      <c r="U162" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V162" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W162" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X162" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y162" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Z162" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA162" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB162" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC162" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD162" t="n">
         <v>9.5</v>
@@ -23601,31 +23613,31 @@
         <v>11</v>
       </c>
       <c r="AF162" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG162" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AH162" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI162" t="n">
         <v>17</v>
       </c>
       <c r="AJ162" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK162" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL162" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM162" t="n">
         <v>41</v>
       </c>
       <c r="AN162" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO162" t="n">
         <v>81</v>
@@ -23816,66 +23828,66 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H164" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I164" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J164" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K164" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L164" t="n">
         <v>2.67</v>
       </c>
       <c r="M164" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N164" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O164" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P164" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R164" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="V164" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W164" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X164" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="Y164" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Z164" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="AA164" t="n">
-        <v>13.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB164" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AC164" t="n">
         <v>10.75</v>
@@ -23884,37 +23896,37 @@
         <v>40</v>
       </c>
       <c r="AE164" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF164" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AG164" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH164" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AI164" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AJ164" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AK164" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL164" t="n">
         <v>9.75</v>
       </c>
       <c r="AM164" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN164" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO164" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP164" t="n">
         <v>15.5</v>
@@ -23957,84 +23969,84 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="H165" t="n">
         <v>3.45</v>
       </c>
       <c r="I165" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="J165" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K165" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L165" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="M165" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N165" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O165" t="n">
         <v>1.23</v>
       </c>
       <c r="P165" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q165" t="n">
         <v>1.7</v>
       </c>
       <c r="R165" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="V165" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="W165" t="n">
         <v>1.35</v>
       </c>
       <c r="X165" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Y165" t="n">
         <v>1.57</v>
       </c>
       <c r="Z165" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="AA165" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB165" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC165" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD165" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE165" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF165" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG165" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AH165" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI165" t="n">
         <v>12</v>
@@ -24055,13 +24067,13 @@
         <v>9</v>
       </c>
       <c r="AO165" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP165" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ165" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR165" t="inlineStr"/>
       <c r="AS165" t="inlineStr"/>
@@ -24098,22 +24110,22 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="H166" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I166" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J166" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K166" t="n">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="L166" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="M166" t="n">
         <v>1.03</v>
@@ -24122,87 +24134,87 @@
         <v>9.75</v>
       </c>
       <c r="O166" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P166" t="n">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="Q166" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="R166" t="n">
-        <v>2.87</v>
+        <v>3.1</v>
       </c>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="V166" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="W166" t="n">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="X166" t="n">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="Y166" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="Z166" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AA166" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AB166" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AC166" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD166" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AE166" t="n">
         <v>9.75</v>
       </c>
       <c r="AF166" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG166" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH166" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AI166" t="n">
         <v>18</v>
       </c>
       <c r="AJ166" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK166" t="n">
         <v>300</v>
       </c>
       <c r="AL166" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM166" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>28</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>250</v>
+      </c>
+      <c r="AP166" t="n">
         <v>90</v>
       </c>
-      <c r="AN166" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO166" t="n">
-        <v>300</v>
-      </c>
-      <c r="AP166" t="n">
-        <v>100</v>
-      </c>
       <c r="AQ166" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR166" t="inlineStr"/>
       <c r="AS166" t="inlineStr"/>
@@ -24242,25 +24254,25 @@
         <v>1.75</v>
       </c>
       <c r="H167" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I167" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J167" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K167" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L167" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="M167" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N167" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O167" t="n">
         <v>1.39</v>
@@ -24280,7 +24292,7 @@
         <v>3.7</v>
       </c>
       <c r="V167" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W167" t="n">
         <v>1.44</v>
@@ -24289,61 +24301,61 @@
         <v>2.6</v>
       </c>
       <c r="Y167" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z167" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AA167" t="n">
         <v>5.7</v>
       </c>
       <c r="AB167" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AC167" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD167" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE167" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF167" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG167" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AH167" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AI167" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AJ167" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK167" t="n">
         <v>900</v>
       </c>
       <c r="AL167" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AM167" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AN167" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO167" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AP167" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AQ167" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR167" t="inlineStr"/>
       <c r="AS167" t="inlineStr"/>
@@ -24380,22 +24392,22 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H168" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I168" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J168" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="K168" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L168" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="M168" t="n">
         <v>1.03</v>
@@ -24413,7 +24425,7 @@
         <v>1.55</v>
       </c>
       <c r="R168" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="S168" t="inlineStr"/>
       <c r="T168" t="inlineStr"/>
@@ -24436,19 +24448,19 @@
         <v>2.3</v>
       </c>
       <c r="AA168" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AB168" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC168" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD168" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE168" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AF168" t="n">
         <v>32</v>
@@ -24460,25 +24472,25 @@
         <v>7.9</v>
       </c>
       <c r="AI168" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ168" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK168" t="n">
         <v>250</v>
       </c>
       <c r="AL168" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM168" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AM168" t="n">
-        <v>9.75</v>
       </c>
       <c r="AN168" t="n">
         <v>8</v>
       </c>
       <c r="AO168" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP168" t="n">
         <v>12</v>
@@ -24521,22 +24533,22 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H169" t="n">
         <v>3.4</v>
       </c>
       <c r="I169" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J169" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K169" t="n">
         <v>2.1</v>
       </c>
       <c r="L169" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M169" t="n">
         <v>1.06</v>
@@ -24551,10 +24563,10 @@
         <v>3.4</v>
       </c>
       <c r="Q169" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R169" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S169" t="inlineStr"/>
       <c r="T169" t="inlineStr"/>
@@ -24565,10 +24577,10 @@
         <v>1.29</v>
       </c>
       <c r="W169" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X169" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y169" t="n">
         <v>1.8</v>
@@ -24583,19 +24595,19 @@
         <v>15</v>
       </c>
       <c r="AC169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD169" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE169" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF169" t="n">
         <v>34</v>
       </c>
       <c r="AG169" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH169" t="n">
         <v>6.5</v>
@@ -24610,7 +24622,7 @@
         <v>251</v>
       </c>
       <c r="AL169" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM169" t="n">
         <v>11</v>
@@ -24680,13 +24692,13 @@
         <v>7</v>
       </c>
       <c r="M170" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N170" t="n">
         <v>19</v>
       </c>
       <c r="O170" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P170" t="n">
         <v>5.5</v>
@@ -24698,16 +24710,16 @@
         <v>2.5</v>
       </c>
       <c r="S170" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T170" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U170" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V170" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="W170" t="n">
         <v>1.25</v>
@@ -24740,7 +24752,7 @@
         <v>23</v>
       </c>
       <c r="AG170" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH170" t="n">
         <v>11</v>
@@ -24810,7 +24822,7 @@
         <v>1.57</v>
       </c>
       <c r="H171" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I171" t="n">
         <v>4.75</v>
@@ -24819,19 +24831,19 @@
         <v>2.1</v>
       </c>
       <c r="K171" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L171" t="n">
         <v>5</v>
       </c>
       <c r="M171" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N171" t="n">
         <v>15</v>
       </c>
       <c r="O171" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P171" t="n">
         <v>4.5</v>
@@ -24852,13 +24864,13 @@
         <v>2.5</v>
       </c>
       <c r="V171" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W171" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X171" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y171" t="n">
         <v>1.67</v>
@@ -24867,10 +24879,10 @@
         <v>2.1</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB171" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC171" t="n">
         <v>8.5</v>
@@ -24885,10 +24897,10 @@
         <v>21</v>
       </c>
       <c r="AG171" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH171" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI171" t="n">
         <v>15</v>
@@ -24915,7 +24927,7 @@
         <v>34</v>
       </c>
       <c r="AQ171" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR171" t="inlineStr"/>
       <c r="AS171" t="inlineStr"/>
@@ -24952,75 +24964,75 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H172" t="n">
         <v>3</v>
       </c>
       <c r="I172" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J172" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="K172" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L172" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M172" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N172" t="n">
         <v>7</v>
       </c>
       <c r="O172" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P172" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q172" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R172" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
       <c r="U172" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V172" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="W172" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X172" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y172" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z172" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA172" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB172" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC172" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD172" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE172" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF172" t="n">
         <v>41</v>
@@ -25038,31 +25050,31 @@
         <v>67</v>
       </c>
       <c r="AK172" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL172" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM172" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN172" t="n">
         <v>12</v>
       </c>
-      <c r="AN172" t="n">
-        <v>11</v>
-      </c>
       <c r="AO172" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP172" t="n">
         <v>29</v>
-      </c>
-      <c r="AP172" t="n">
-        <v>26</v>
       </c>
       <c r="AQ172" t="n">
         <v>41</v>
       </c>
       <c r="AR172" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="173">
@@ -25097,40 +25109,40 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H173" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I173" t="n">
         <v>3.8</v>
       </c>
-      <c r="I173" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J173" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K173" t="n">
         <v>2.2</v>
       </c>
       <c r="L173" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M173" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N173" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O173" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P173" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q173" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R173" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
@@ -25138,7 +25150,7 @@
         <v>3.25</v>
       </c>
       <c r="V173" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W173" t="n">
         <v>1.4</v>
@@ -25147,22 +25159,22 @@
         <v>2.75</v>
       </c>
       <c r="Y173" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z173" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA173" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB173" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC173" t="n">
         <v>8.5</v>
       </c>
       <c r="AD173" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE173" t="n">
         <v>15</v>
@@ -25174,10 +25186,10 @@
         <v>11</v>
       </c>
       <c r="AH173" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI173" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ173" t="n">
         <v>51</v>
@@ -25186,22 +25198,22 @@
         <v>251</v>
       </c>
       <c r="AL173" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM173" t="n">
         <v>21</v>
       </c>
       <c r="AN173" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO173" t="n">
         <v>41</v>
       </c>
       <c r="AP173" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ173" t="n">
         <v>34</v>
-      </c>
-      <c r="AQ173" t="n">
-        <v>41</v>
       </c>
       <c r="AR173" t="inlineStr"/>
       <c r="AS173" t="inlineStr"/>
@@ -25327,13 +25339,13 @@
         <v>3.6</v>
       </c>
       <c r="M175" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N175" t="n">
         <v>10</v>
       </c>
       <c r="O175" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P175" t="n">
         <v>3.4</v>
@@ -25350,7 +25362,7 @@
         <v>3.4</v>
       </c>
       <c r="V175" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W175" t="n">
         <v>1.4</v>
@@ -25591,13 +25603,13 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H177" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I177" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="J177" t="n">
         <v>2.42</v>
@@ -25634,43 +25646,43 @@
         <v>1.44</v>
       </c>
       <c r="X177" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="Y177" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="Z177" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AA177" t="n">
         <v>5.9</v>
       </c>
       <c r="AB177" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AC177" t="n">
         <v>8.5</v>
       </c>
       <c r="AD177" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE177" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF177" t="n">
         <v>35</v>
       </c>
       <c r="AG177" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH177" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AI177" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AJ177" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK177" t="n">
         <v>1000</v>
@@ -25685,7 +25697,7 @@
         <v>14.5</v>
       </c>
       <c r="AO177" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AP177" t="n">
         <v>45</v>
@@ -25865,22 +25877,22 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="H179" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="I179" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="J179" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="K179" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="L179" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="M179" t="n">
         <v>1.03</v>
@@ -25889,87 +25901,87 @@
         <v>9</v>
       </c>
       <c r="O179" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P179" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R179" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="V179" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W179" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X179" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Y179" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Z179" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AA179" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AB179" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AC179" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD179" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AE179" t="n">
         <v>10.75</v>
       </c>
       <c r="AF179" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AG179" t="n">
         <v>9</v>
       </c>
       <c r="AH179" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI179" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ179" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK179" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AL179" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AM179" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN179" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AO179" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AP179" t="n">
         <v>150</v>
       </c>
       <c r="AQ179" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
@@ -26293,13 +26305,13 @@
         <v>1.82</v>
       </c>
       <c r="J182" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="K182" t="n">
         <v>2.3</v>
       </c>
       <c r="L182" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="M182" t="n">
         <v>1.04</v>
@@ -26317,7 +26329,7 @@
         <v>1.62</v>
       </c>
       <c r="R182" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
@@ -26328,22 +26340,22 @@
         <v>1.47</v>
       </c>
       <c r="W182" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X182" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Y182" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="Z182" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AA182" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB182" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC182" t="n">
         <v>12.5</v>
@@ -26352,10 +26364,10 @@
         <v>55</v>
       </c>
       <c r="AE182" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF182" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG182" t="n">
         <v>8.5</v>
@@ -26373,22 +26385,22 @@
         <v>300</v>
       </c>
       <c r="AL182" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM182" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AN182" t="n">
         <v>8.25</v>
       </c>
       <c r="AO182" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP182" t="n">
         <v>13</v>
       </c>
       <c r="AQ182" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR182" t="inlineStr"/>
       <c r="AS182" t="inlineStr"/>
@@ -26425,16 +26437,16 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H183" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I183" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J183" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K183" t="n">
         <v>2</v>
@@ -26475,16 +26487,16 @@
         <v>2.38</v>
       </c>
       <c r="Y183" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z183" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA183" t="n">
         <v>5.5</v>
       </c>
       <c r="AB183" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC183" t="n">
         <v>9</v>
@@ -26493,7 +26505,7 @@
         <v>15</v>
       </c>
       <c r="AE183" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF183" t="n">
         <v>34</v>
@@ -26505,10 +26517,10 @@
         <v>6.5</v>
       </c>
       <c r="AI183" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ183" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK183" t="n">
         <v>101</v>
@@ -26570,22 +26582,22 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H184" t="n">
         <v>3.1</v>
       </c>
       <c r="I184" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="J184" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K184" t="n">
         <v>2</v>
       </c>
       <c r="L184" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M184" t="n">
         <v>1.08</v>
@@ -26594,10 +26606,10 @@
         <v>8</v>
       </c>
       <c r="O184" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P184" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q184" t="n">
         <v>2.25</v>
@@ -26629,13 +26641,13 @@
         <v>7</v>
       </c>
       <c r="AB184" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC184" t="n">
         <v>10</v>
       </c>
-      <c r="AC184" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD184" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE184" t="n">
         <v>21</v>
@@ -26644,7 +26656,7 @@
         <v>34</v>
       </c>
       <c r="AG184" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH184" t="n">
         <v>6</v>
@@ -26659,7 +26671,7 @@
         <v>351</v>
       </c>
       <c r="AL184" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM184" t="n">
         <v>15</v>
@@ -26671,7 +26683,7 @@
         <v>34</v>
       </c>
       <c r="AP184" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ184" t="n">
         <v>41</v>
@@ -26878,10 +26890,10 @@
         <v>2.1</v>
       </c>
       <c r="M186" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N186" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O186" t="n">
         <v>1.3</v>
@@ -26890,10 +26902,10 @@
         <v>3.4</v>
       </c>
       <c r="Q186" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R186" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S186" t="inlineStr"/>
       <c r="T186" t="inlineStr"/>
@@ -27290,16 +27302,16 @@
         <v>1.95</v>
       </c>
       <c r="H189" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I189" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J189" t="n">
         <v>2.5</v>
       </c>
       <c r="K189" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L189" t="n">
         <v>3.75</v>
@@ -27308,31 +27320,31 @@
         <v>1.03</v>
       </c>
       <c r="N189" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O189" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P189" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q189" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R189" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S189" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="T189" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="U189" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V189" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W189" t="n">
         <v>1.29</v>
@@ -27341,16 +27353,16 @@
         <v>3.5</v>
       </c>
       <c r="Y189" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z189" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA189" t="n">
         <v>11</v>
       </c>
       <c r="AB189" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC189" t="n">
         <v>9</v>
@@ -27362,16 +27374,16 @@
         <v>13</v>
       </c>
       <c r="AF189" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG189" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH189" t="n">
         <v>7.5</v>
       </c>
       <c r="AI189" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ189" t="n">
         <v>34</v>
@@ -27380,7 +27392,7 @@
         <v>101</v>
       </c>
       <c r="AL189" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM189" t="n">
         <v>21</v>
@@ -27392,7 +27404,7 @@
         <v>41</v>
       </c>
       <c r="AP189" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ189" t="n">
         <v>26</v>
@@ -27453,27 +27465,27 @@
         <v>1.02</v>
       </c>
       <c r="N190" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O190" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P190" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q190" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R190" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V190" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W190" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -692,19 +692,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -740,16 +740,16 @@
         <v>1.57</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -767,10 +767,10 @@
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH2" t="n">
         <v>8</v>
@@ -782,13 +782,13 @@
         <v>41</v>
       </c>
       <c r="AK2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL2" t="n">
         <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>15</v>
@@ -800,7 +800,7 @@
         <v>29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -837,70 +837,70 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
         <v>2.15</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
         <v>2.63</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y3" t="n">
         <v>1.44</v>
       </c>
-      <c r="R3" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.4</v>
-      </c>
       <c r="Z3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
@@ -912,28 +912,28 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM3" t="n">
         <v>15</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>17</v>
       </c>
       <c r="AN3" t="n">
         <v>10</v>
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -997,13 +997,13 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
         <v>1.33</v>
@@ -1012,18 +1012,18 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
         <v>1.44</v>
@@ -1038,7 +1038,7 @@
         <v>1.95</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -1056,10 +1056,10 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1068,10 +1068,10 @@
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM4" t="n">
         <v>10</v>
@@ -1083,7 +1083,7 @@
         <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1141,13 +1141,13 @@
         <v>2.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1164,7 +1164,7 @@
         <v>4.33</v>
       </c>
       <c r="V5" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="W5" t="n">
         <v>1.5</v>
@@ -1264,13 +1264,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
         <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.8</v>
@@ -1279,16 +1279,16 @@
         <v>2.63</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
         <v>5.5</v>
@@ -1306,10 +1306,10 @@
         <v>2.07</v>
       </c>
       <c r="U6" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>1.25</v>
@@ -1318,16 +1318,16 @@
         <v>3.75</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.5</v>
@@ -1342,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH6" t="n">
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
@@ -1366,13 +1366,13 @@
         <v>23</v>
       </c>
       <c r="AO6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP6" t="n">
         <v>51</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="inlineStr"/>
       <c r="AS6" t="inlineStr"/>
@@ -1409,13 +1409,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
         <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
         <v>2.63</v>
@@ -1424,16 +1424,16 @@
         <v>2.25</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1450,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="W7" t="n">
         <v>1.36</v>
@@ -1459,22 +1459,22 @@
         <v>3</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1486,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
         <v>13</v>
@@ -1510,10 +1510,10 @@
         <v>41</v>
       </c>
       <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>34</v>
       </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J8" t="n">
         <v>4.5</v>
@@ -1565,16 +1565,16 @@
         <v>2.63</v>
       </c>
       <c r="L8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P8" t="n">
         <v>6</v>
@@ -1588,10 +1588,10 @@
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
         <v>1.22</v>
@@ -1618,7 +1618,7 @@
         <v>51</v>
       </c>
       <c r="AE8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
         <v>29</v>
@@ -1630,13 +1630,13 @@
         <v>9</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
         <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
         <v>12</v>
@@ -1645,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -1697,28 +1697,28 @@
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J9" t="n">
         <v>1.8</v>
       </c>
       <c r="K9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L9" t="n">
         <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N9" t="n">
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
         <v>1.5</v>
@@ -1727,16 +1727,16 @@
         <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="T9" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>1.25</v>
@@ -1745,52 +1745,52 @@
         <v>3.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC9" t="n">
         <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>101</v>
@@ -1848,7 +1848,7 @@
         <v>1.57</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -1860,24 +1860,24 @@
         <v>26</v>
       </c>
       <c r="O10" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
         <v>7</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="V10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>1.18</v>
@@ -1983,10 +1983,10 @@
         <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.4</v>
@@ -1998,7 +1998,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -2013,10 +2013,10 @@
         <v>2.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="T11" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
@@ -2025,7 +2025,7 @@
         <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X11" t="n">
         <v>3.5</v>
@@ -2058,7 +2058,7 @@
         <v>19</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI11" t="n">
         <v>11</v>
@@ -2122,60 +2122,60 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J12" t="n">
         <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L12" t="n">
         <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V12" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA12" t="n">
         <v>9</v>
@@ -2187,19 +2187,19 @@
         <v>13</v>
       </c>
       <c r="AD12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE12" t="n">
         <v>34</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>29</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
@@ -2208,10 +2208,10 @@
         <v>51</v>
       </c>
       <c r="AK12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM12" t="n">
         <v>10</v>
@@ -2229,10 +2229,10 @@
         <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="13">
@@ -2270,7 +2270,7 @@
         <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
         <v>2.05</v>
@@ -2279,51 +2279,51 @@
         <v>4.33</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M13" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W13" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="X13" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB13" t="n">
         <v>17</v>
@@ -2335,13 +2335,13 @@
         <v>41</v>
       </c>
       <c r="AE13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH13" t="n">
         <v>6.5</v>
@@ -2350,10 +2350,10 @@
         <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK13" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL13" t="n">
         <v>6.5</v>
@@ -2371,7 +2371,7 @@
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2408,19 +2408,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
         <v>2.05</v>
@@ -2452,7 +2452,7 @@
         <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
         <v>3</v>
@@ -2488,7 +2488,7 @@
         <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -2506,7 +2506,7 @@
         <v>8.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>12</v>
@@ -2567,36 +2567,36 @@
         <v>2.63</v>
       </c>
       <c r="M15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y15" t="n">
         <v>1.95</v>
@@ -2690,22 +2690,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I16" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K16" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
@@ -2720,10 +2720,10 @@
         <v>5.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S16" t="n">
         <v>1.8</v>
@@ -2732,10 +2732,10 @@
         <v>2.05</v>
       </c>
       <c r="U16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>1.25</v>
@@ -2750,7 +2750,7 @@
         <v>2.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB16" t="n">
         <v>8.5</v>
@@ -2835,16 +2835,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K17" t="n">
         <v>2.5</v>
@@ -2871,10 +2871,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -2889,22 +2889,22 @@
         <v>3.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA17" t="n">
         <v>9</v>
       </c>
       <c r="AB17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC17" t="n">
         <v>8.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>11</v>
@@ -2934,10 +2934,10 @@
         <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP17" t="n">
         <v>41</v>
@@ -2980,22 +2980,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H18" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K18" t="n">
         <v>2.6</v>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3010,16 +3010,16 @@
         <v>4.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
         <v>2.5</v>
@@ -3034,22 +3034,22 @@
         <v>3.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB18" t="n">
         <v>6.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
@@ -3067,13 +3067,13 @@
         <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM18" t="n">
         <v>51</v>
@@ -3134,31 +3134,31 @@
         <v>17</v>
       </c>
       <c r="J19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K19" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L19" t="n">
         <v>12</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
         <v>2</v>
@@ -3167,28 +3167,28 @@
         <v>1.9</v>
       </c>
       <c r="U19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y19" t="n">
         <v>2.5</v>
       </c>
-      <c r="V19" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>2.25</v>
-      </c>
       <c r="Z19" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AC19" t="n">
         <v>10</v>
@@ -3203,7 +3203,7 @@
         <v>34</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
         <v>12</v>
@@ -3212,7 +3212,7 @@
         <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
@@ -3225,13 +3225,13 @@
         <v>41</v>
       </c>
       <c r="AO19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AP19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>101</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>81</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3283,7 +3283,7 @@
         <v>2.88</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -3318,46 +3318,46 @@
         <v>4.33</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA20" t="n">
         <v>12</v>
       </c>
       <c r="AB20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>9</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK20" t="n">
         <v>151</v>
       </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
@@ -3366,7 +3366,7 @@
         <v>23</v>
       </c>
       <c r="AO20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP20" t="n">
         <v>51</v>
@@ -3412,19 +3412,19 @@
         <v>2.7</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
         <v>1.14</v>
@@ -3459,10 +3459,10 @@
         <v>2.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AA21" t="n">
         <v>6</v>
@@ -3492,7 +3492,7 @@
         <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="n">
         <v>1250</v>
@@ -3507,13 +3507,13 @@
         <v>12</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
         <v>2.09</v>
@@ -3554,10 +3554,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
         <v>7</v>
@@ -3569,7 +3569,7 @@
         <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3619,7 +3619,7 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -3641,19 +3641,19 @@
       </c>
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO22" t="n">
         <v>81</v>
       </c>
       <c r="AP22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ22" t="n">
         <v>67</v>
@@ -3995,28 +3995,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J25" t="n">
         <v>3</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
         <v>1.08</v>
       </c>
       <c r="N25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.4</v>
@@ -4025,10 +4025,10 @@
         <v>2.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S25" t="n">
         <v>3.5</v>
@@ -4037,10 +4037,10 @@
         <v>1.31</v>
       </c>
       <c r="U25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W25" t="n">
         <v>1.5</v>
@@ -4058,13 +4058,13 @@
         <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
         <v>21</v>
@@ -4088,13 +4088,13 @@
         <v>351</v>
       </c>
       <c r="AL25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM25" t="n">
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>34</v>
@@ -4168,10 +4168,10 @@
         <v>5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q26" t="n">
         <v>3.6</v>
@@ -4188,10 +4188,10 @@
         <v>1.07</v>
       </c>
       <c r="W26" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X26" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Y26" t="n">
         <v>2.63</v>
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -5020,10 +5020,10 @@
         <v>6.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N32" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O32" t="n">
         <v>1.73</v>
@@ -5052,16 +5052,16 @@
         <v>2.05</v>
       </c>
       <c r="Y32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA32" t="n">
         <v>4.33</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC32" t="n">
         <v>11</v>
@@ -5079,7 +5079,7 @@
         <v>4.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI32" t="n">
         <v>29</v>
@@ -5100,7 +5100,7 @@
         <v>21</v>
       </c>
       <c r="AO32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP32" t="n">
         <v>51</v>
@@ -5146,7 +5146,7 @@
         <v>2.7</v>
       </c>
       <c r="H33" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
         <v>3.1</v>
@@ -5569,45 +5569,45 @@
         <v>2.5</v>
       </c>
       <c r="H36" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J36" t="n">
         <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L36" t="n">
         <v>3.6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P36" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R36" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W36" t="n">
         <v>1.5</v>
@@ -5616,16 +5616,16 @@
         <v>2.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z36" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
         <v>10</v>
@@ -5640,7 +5640,7 @@
         <v>34</v>
       </c>
       <c r="AG36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH36" t="n">
         <v>6</v>
@@ -5652,7 +5652,7 @@
         <v>51</v>
       </c>
       <c r="AK36" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL36" t="n">
         <v>8</v>
@@ -5667,10 +5667,10 @@
         <v>29</v>
       </c>
       <c r="AP36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR36" t="n">
         <v>1.78</v>
@@ -5711,93 +5711,93 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H37" t="n">
         <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J37" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K37" t="n">
         <v>2.25</v>
       </c>
-      <c r="K37" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L37" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V37" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z37" t="n">
         <v>1.95</v>
       </c>
-      <c r="Z37" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA37" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC37" t="n">
         <v>8.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH37" t="n">
         <v>7</v>
       </c>
       <c r="AI37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ37" t="n">
         <v>51</v>
       </c>
       <c r="AK37" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL37" t="n">
         <v>13</v>
@@ -5852,13 +5852,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J38" t="n">
         <v>3.6</v>
@@ -5873,27 +5873,27 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P38" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R38" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W38" t="n">
         <v>1.44</v>
@@ -5917,16 +5917,16 @@
         <v>11</v>
       </c>
       <c r="AD38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF38" t="n">
         <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH38" t="n">
         <v>6</v>
@@ -5941,7 +5941,7 @@
         <v>251</v>
       </c>
       <c r="AL38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM38" t="n">
         <v>11</v>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H42" t="n">
         <v>5.5</v>
       </c>
       <c r="I42" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J42" t="n">
         <v>1.73</v>
@@ -6423,100 +6423,100 @@
         <v>2.6</v>
       </c>
       <c r="L42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O42" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R42" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T42" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="U42" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Z42" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC42" t="n">
         <v>9</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE42" t="n">
         <v>11</v>
       </c>
       <c r="AF42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH42" t="n">
         <v>11</v>
       </c>
       <c r="AI42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ42" t="n">
         <v>67</v>
       </c>
       <c r="AK42" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AL42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO42" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR42" t="inlineStr"/>
       <c r="AS42" t="inlineStr"/>
@@ -6553,10 +6553,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
         <v>5.5</v>
@@ -6568,7 +6568,7 @@
         <v>2.5</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -6589,34 +6589,34 @@
         <v>2.4</v>
       </c>
       <c r="S43" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U43" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z43" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB43" t="n">
         <v>9</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>8.5</v>
       </c>
       <c r="AC43" t="n">
         <v>8.5</v>
@@ -6625,16 +6625,16 @@
         <v>12</v>
       </c>
       <c r="AE43" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH43" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI43" t="n">
         <v>13</v>
@@ -6643,16 +6643,16 @@
         <v>41</v>
       </c>
       <c r="AK43" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO43" t="n">
         <v>51</v>
@@ -6728,18 +6728,18 @@
         <v>3.5</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R44" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W44" t="n">
         <v>1.4</v>
@@ -6839,19 +6839,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H45" t="n">
         <v>3.25</v>
       </c>
       <c r="I45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J45" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K45" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L45" t="n">
         <v>2.88</v>
@@ -6869,10 +6869,10 @@
         <v>3.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R45" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
@@ -6883,19 +6883,19 @@
         <v>1.25</v>
       </c>
       <c r="W45" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X45" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB45" t="n">
         <v>17</v>
@@ -6907,13 +6907,13 @@
         <v>34</v>
       </c>
       <c r="AE45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH45" t="n">
         <v>6.5</v>
@@ -6925,10 +6925,10 @@
         <v>51</v>
       </c>
       <c r="AK45" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM45" t="n">
         <v>10</v>
@@ -6937,7 +6937,7 @@
         <v>9</v>
       </c>
       <c r="AO45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP45" t="n">
         <v>19</v>
@@ -7024,10 +7024,10 @@
         <v>1.29</v>
       </c>
       <c r="W46" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X46" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Y46" t="n">
         <v>1.83</v>
@@ -7145,31 +7145,31 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T47" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U47" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V47" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W47" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X47" t="n">
         <v>3.4</v>
@@ -7266,28 +7266,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I48" t="n">
         <v>3.25</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.1</v>
       </c>
       <c r="K48" t="n">
         <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.36</v>
@@ -7304,16 +7304,16 @@
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V48" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W48" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X48" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y48" t="n">
         <v>1.83</v>
@@ -7325,16 +7325,16 @@
         <v>7</v>
       </c>
       <c r="AB48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF48" t="n">
         <v>34</v>
@@ -7343,7 +7343,7 @@
         <v>8.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI48" t="n">
         <v>15</v>
@@ -7355,19 +7355,19 @@
         <v>301</v>
       </c>
       <c r="AL48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM48" t="n">
         <v>15</v>
       </c>
       <c r="AN48" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO48" t="n">
         <v>34</v>
       </c>
       <c r="AP48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ48" t="n">
         <v>41</v>
@@ -7411,13 +7411,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J49" t="n">
         <v>3.4</v>
@@ -7426,25 +7426,25 @@
         <v>2.1</v>
       </c>
       <c r="L49" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M49" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R49" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S49" t="n">
         <v>2.7</v>
@@ -7480,7 +7480,7 @@
         <v>10</v>
       </c>
       <c r="AD49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE49" t="n">
         <v>21</v>
@@ -7498,7 +7498,7 @@
         <v>15</v>
       </c>
       <c r="AJ49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK49" t="n">
         <v>201</v>
@@ -7507,13 +7507,13 @@
         <v>8.5</v>
       </c>
       <c r="AM49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN49" t="n">
         <v>10</v>
       </c>
       <c r="AO49" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP49" t="n">
         <v>21</v>
@@ -8430,19 +8430,19 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H56" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K56" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L56" t="n">
         <v>6.5</v>
@@ -8466,10 +8466,10 @@
         <v>2.35</v>
       </c>
       <c r="S56" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T56" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U56" t="n">
         <v>2.38</v>
@@ -8499,43 +8499,43 @@
         <v>8.5</v>
       </c>
       <c r="AD56" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE56" t="n">
         <v>11</v>
       </c>
       <c r="AF56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG56" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ56" t="n">
         <v>51</v>
       </c>
       <c r="AK56" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO56" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AP56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ56" t="n">
         <v>41</v>
@@ -8575,28 +8575,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J57" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K57" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L57" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
@@ -8629,16 +8629,16 @@
         <v>2.38</v>
       </c>
       <c r="Y57" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z57" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AA57" t="n">
         <v>8.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC57" t="n">
         <v>13</v>
@@ -8659,7 +8659,7 @@
         <v>6.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ57" t="n">
         <v>67</v>
@@ -8668,10 +8668,10 @@
         <v>1000</v>
       </c>
       <c r="AL57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM57" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
@@ -8680,7 +8680,7 @@
         <v>19</v>
       </c>
       <c r="AP57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ57" t="n">
         <v>34</v>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>2.9</v>
       </c>
       <c r="I58" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J58" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K58" t="n">
         <v>1.83</v>
@@ -8787,10 +8787,10 @@
         <v>6.5</v>
       </c>
       <c r="AB58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD58" t="n">
         <v>29</v>
@@ -9022,28 +9022,28 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H60" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J60" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K60" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L60" t="n">
         <v>5</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O60" t="n">
         <v>1.36</v>
@@ -9052,10 +9052,10 @@
         <v>3</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R60" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
@@ -9066,10 +9066,10 @@
         <v>1.22</v>
       </c>
       <c r="W60" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X60" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y60" t="n">
         <v>2</v>
@@ -9093,7 +9093,7 @@
         <v>17</v>
       </c>
       <c r="AF60" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG60" t="n">
         <v>8</v>
@@ -9114,7 +9114,7 @@
         <v>11</v>
       </c>
       <c r="AM60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN60" t="n">
         <v>15</v>
@@ -9304,54 +9304,54 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I62" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J62" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K62" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L62" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="M62" t="n">
         <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O62" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P62" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R62" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="V62" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="W62" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X62" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="Y62" t="n">
         <v>1.65</v>
@@ -9360,28 +9360,28 @@
         <v>2.1</v>
       </c>
       <c r="AA62" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB62" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC62" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AD62" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE62" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF62" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG62" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AH62" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI62" t="n">
         <v>14</v>
@@ -9393,22 +9393,22 @@
         <v>450</v>
       </c>
       <c r="AL62" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM62" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AN62" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AO62" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP62" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR62" t="inlineStr"/>
       <c r="AS62" t="inlineStr"/>
@@ -9445,19 +9445,19 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H63" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J63" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="K63" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="L63" t="n">
         <v>7.8</v>
@@ -9466,63 +9466,63 @@
         <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O63" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R63" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="V63" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W63" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X63" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Z63" t="n">
         <v>1.65</v>
       </c>
       <c r="AA63" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB63" t="n">
         <v>6.4</v>
       </c>
-      <c r="AB63" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AC63" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AD63" t="n">
         <v>7.9</v>
       </c>
       <c r="AE63" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF63" t="n">
         <v>35</v>
       </c>
       <c r="AG63" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI63" t="n">
         <v>28</v>
@@ -9534,7 +9534,7 @@
         <v>1000</v>
       </c>
       <c r="AL63" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM63" t="n">
         <v>75</v>
@@ -9586,19 +9586,19 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H64" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J64" t="n">
         <v>2.88</v>
       </c>
       <c r="K64" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L64" t="n">
         <v>3.75</v>
@@ -9610,24 +9610,24 @@
         <v>11</v>
       </c>
       <c r="O64" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P64" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R64" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V64" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W64" t="n">
         <v>1.4</v>
@@ -9660,7 +9660,7 @@
         <v>26</v>
       </c>
       <c r="AG64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH64" t="n">
         <v>6.5</v>
@@ -9727,22 +9727,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H65" t="n">
         <v>3.9</v>
       </c>
       <c r="I65" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J65" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K65" t="n">
         <v>2.38</v>
       </c>
       <c r="L65" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -9751,52 +9751,52 @@
         <v>15</v>
       </c>
       <c r="O65" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P65" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R65" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U65" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X65" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Z65" t="n">
         <v>2.05</v>
       </c>
-      <c r="T65" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U65" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V65" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W65" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X65" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y65" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z65" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AA65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC65" t="n">
         <v>8.5</v>
       </c>
       <c r="AD65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE65" t="n">
         <v>13</v>
@@ -9805,13 +9805,13 @@
         <v>21</v>
       </c>
       <c r="AG65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI65" t="n">
         <v>15</v>
-      </c>
-      <c r="AH65" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI65" t="n">
-        <v>13</v>
       </c>
       <c r="AJ65" t="n">
         <v>41</v>
@@ -9823,7 +9823,7 @@
         <v>15</v>
       </c>
       <c r="AM65" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN65" t="n">
         <v>15</v>
@@ -10154,16 +10154,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J68" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K68" t="n">
         <v>2.3</v>
@@ -10172,10 +10172,10 @@
         <v>6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O68" t="n">
         <v>1.25</v>
@@ -10184,10 +10184,10 @@
         <v>3.75</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="R68" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S68" t="n">
         <v>2.05</v>
@@ -10196,10 +10196,10 @@
         <v>1.8</v>
       </c>
       <c r="U68" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V68" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W68" t="n">
         <v>1.36</v>
@@ -10208,16 +10208,16 @@
         <v>3</v>
       </c>
       <c r="Y68" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z68" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA68" t="n">
         <v>7</v>
       </c>
       <c r="AB68" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC68" t="n">
         <v>8.5</v>
@@ -10226,7 +10226,7 @@
         <v>11</v>
       </c>
       <c r="AE68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF68" t="n">
         <v>26</v>
@@ -10235,7 +10235,7 @@
         <v>11</v>
       </c>
       <c r="AH68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI68" t="n">
         <v>17</v>
@@ -10247,10 +10247,10 @@
         <v>301</v>
       </c>
       <c r="AL68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN68" t="n">
         <v>19</v>
@@ -10262,7 +10262,7 @@
         <v>41</v>
       </c>
       <c r="AQ68" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR68" t="inlineStr"/>
       <c r="AS68" t="inlineStr"/>
@@ -10299,28 +10299,28 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="H69" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I69" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J69" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L69" t="n">
         <v>5.5</v>
       </c>
       <c r="M69" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O69" t="n">
         <v>1.14</v>
@@ -10329,22 +10329,22 @@
         <v>5.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="R69" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S69" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T69" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U69" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V69" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W69" t="n">
         <v>1.25</v>
@@ -10359,7 +10359,7 @@
         <v>2.2</v>
       </c>
       <c r="AA69" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB69" t="n">
         <v>8.5</v>
@@ -10374,13 +10374,13 @@
         <v>11</v>
       </c>
       <c r="AF69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG69" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH69" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI69" t="n">
         <v>15</v>
@@ -10392,13 +10392,13 @@
         <v>151</v>
       </c>
       <c r="AL69" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM69" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO69" t="n">
         <v>67</v>
@@ -10444,22 +10444,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H70" t="n">
         <v>4.33</v>
       </c>
       <c r="I70" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J70" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L70" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M70" t="n">
         <v>1.03</v>
@@ -10468,40 +10468,40 @@
         <v>17</v>
       </c>
       <c r="O70" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P70" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R70" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T70" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U70" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V70" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W70" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X70" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y70" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z70" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA70" t="n">
         <v>17</v>
@@ -10519,10 +10519,10 @@
         <v>41</v>
       </c>
       <c r="AF70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH70" t="n">
         <v>8.5</v>
@@ -10534,10 +10534,10 @@
         <v>41</v>
       </c>
       <c r="AK70" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM70" t="n">
         <v>8.5</v>
@@ -10601,7 +10601,7 @@
         <v>2.6</v>
       </c>
       <c r="K71" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L71" t="n">
         <v>4</v>
@@ -10619,10 +10619,10 @@
         <v>3.75</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
@@ -10639,13 +10639,13 @@
         <v>3</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB71" t="n">
         <v>10</v>
@@ -10663,7 +10663,7 @@
         <v>23</v>
       </c>
       <c r="AG71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH71" t="n">
         <v>6.5</v>
@@ -10675,7 +10675,7 @@
         <v>41</v>
       </c>
       <c r="AK71" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL71" t="n">
         <v>12</v>
@@ -10736,7 +10736,7 @@
         <v>5.25</v>
       </c>
       <c r="I72" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J72" t="n">
         <v>2.05</v>
@@ -10745,7 +10745,7 @@
         <v>2.5</v>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M72" t="n">
         <v>1.02</v>
@@ -10754,46 +10754,46 @@
         <v>19</v>
       </c>
       <c r="O72" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P72" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R72" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S72" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="T72" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="U72" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V72" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W72" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X72" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y72" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z72" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA72" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC72" t="n">
         <v>8.5</v>
@@ -10808,19 +10808,19 @@
         <v>21</v>
       </c>
       <c r="AG72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH72" t="n">
         <v>10</v>
       </c>
       <c r="AI72" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ72" t="n">
         <v>51</v>
       </c>
       <c r="AK72" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL72" t="n">
         <v>15</v>
@@ -10829,7 +10829,7 @@
         <v>26</v>
       </c>
       <c r="AN72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO72" t="n">
         <v>51</v>
@@ -10875,22 +10875,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="H73" t="n">
         <v>5.25</v>
       </c>
       <c r="I73" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J73" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K73" t="n">
         <v>2.5</v>
       </c>
       <c r="L73" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="M73" t="n">
         <v>1.03</v>
@@ -10899,73 +10899,73 @@
         <v>15</v>
       </c>
       <c r="O73" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R73" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S73" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U73" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V73" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W73" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="X73" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="Z73" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AA73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB73" t="n">
         <v>7</v>
       </c>
-      <c r="AB73" t="n">
-        <v>6</v>
-      </c>
       <c r="AC73" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD73" t="n">
         <v>9</v>
       </c>
-      <c r="AD73" t="n">
-        <v>8</v>
-      </c>
       <c r="AE73" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF73" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AG73" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH73" t="n">
         <v>10</v>
       </c>
       <c r="AI73" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ73" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AK73" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL73" t="n">
         <v>19</v>
@@ -10974,16 +10974,16 @@
         <v>41</v>
       </c>
       <c r="AN73" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AO73" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP73" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ73" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR73" t="inlineStr"/>
       <c r="AS73" t="inlineStr"/>
@@ -11056,16 +11056,16 @@
         <v>2.4</v>
       </c>
       <c r="S74" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T74" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="U74" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V74" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W74" t="n">
         <v>1.29</v>
@@ -11451,7 +11451,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="H77" t="n">
         <v>2.75</v>
@@ -11466,30 +11466,30 @@
         <v>1.8</v>
       </c>
       <c r="L77" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M77" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N77" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="O77" t="n">
         <v>1.7</v>
       </c>
       <c r="P77" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Q77" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R77" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="V77" t="n">
         <v>1.11</v>
@@ -11507,13 +11507,13 @@
         <v>1.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AB77" t="n">
         <v>8.25</v>
       </c>
       <c r="AC77" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AD77" t="n">
         <v>20</v>
@@ -11522,10 +11522,10 @@
         <v>25</v>
       </c>
       <c r="AF77" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG77" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AH77" t="n">
         <v>5.9</v>
@@ -11540,22 +11540,22 @@
         <v>101</v>
       </c>
       <c r="AL77" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AM77" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AN77" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO77" t="n">
         <v>75</v>
       </c>
       <c r="AP77" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AQ77" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR77" t="inlineStr"/>
       <c r="AS77" t="inlineStr"/>
@@ -11607,7 +11607,7 @@
         <v>2.05</v>
       </c>
       <c r="L78" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M78" t="n">
         <v>1.1</v>
@@ -11651,10 +11651,10 @@
         <v>5</v>
       </c>
       <c r="AB78" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD78" t="n">
         <v>11.25</v>
@@ -11681,7 +11681,7 @@
         <v>101</v>
       </c>
       <c r="AL78" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AM78" t="n">
         <v>35</v>
@@ -11739,16 +11739,16 @@
         <v>3.3</v>
       </c>
       <c r="I79" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J79" t="n">
         <v>3.1</v>
       </c>
       <c r="K79" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L79" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M79" t="n">
         <v>1.08</v>
@@ -11763,10 +11763,10 @@
         <v>3</v>
       </c>
       <c r="Q79" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R79" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S79" t="n">
         <v>3.1</v>
@@ -11775,10 +11775,10 @@
         <v>1.36</v>
       </c>
       <c r="U79" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W79" t="n">
         <v>1.5</v>
@@ -11787,10 +11787,10 @@
         <v>2.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z79" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA79" t="n">
         <v>7</v>
@@ -11811,19 +11811,19 @@
         <v>34</v>
       </c>
       <c r="AG79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH79" t="n">
         <v>6</v>
       </c>
       <c r="AI79" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ79" t="n">
         <v>51</v>
       </c>
       <c r="AK79" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL79" t="n">
         <v>8.5</v>
@@ -11838,7 +11838,7 @@
         <v>34</v>
       </c>
       <c r="AP79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ79" t="n">
         <v>41</v>
@@ -11882,16 +11882,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J80" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
@@ -11900,10 +11900,10 @@
         <v>2.75</v>
       </c>
       <c r="M80" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N80" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O80" t="n">
         <v>1.3</v>
@@ -11912,10 +11912,10 @@
         <v>3.4</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R80" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
@@ -11953,7 +11953,7 @@
         <v>29</v>
       </c>
       <c r="AF80" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG80" t="n">
         <v>9.5</v>
@@ -11968,10 +11968,10 @@
         <v>51</v>
       </c>
       <c r="AK80" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL80" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM80" t="n">
         <v>9.5</v>
@@ -12023,40 +12023,40 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I81" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J81" t="n">
         <v>2.88</v>
       </c>
       <c r="K81" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L81" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O81" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P81" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R81" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S81" t="n">
         <v>2.03</v>
@@ -12065,58 +12065,58 @@
         <v>1.83</v>
       </c>
       <c r="U81" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V81" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W81" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X81" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Z81" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AA81" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE81" t="n">
         <v>17</v>
       </c>
       <c r="AF81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH81" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ81" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK81" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AL81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM81" t="n">
         <v>17</v>
@@ -12125,13 +12125,13 @@
         <v>11</v>
       </c>
       <c r="AO81" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ81" t="n">
         <v>29</v>
-      </c>
-      <c r="AP81" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ81" t="n">
-        <v>23</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12168,13 +12168,13 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>3.6</v>
       </c>
       <c r="I82" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J82" t="n">
         <v>2.5</v>
@@ -12186,30 +12186,30 @@
         <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N82" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O82" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P82" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R82" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V82" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W82" t="n">
         <v>1.33</v>
@@ -12218,16 +12218,16 @@
         <v>3.25</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z82" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AA82" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC82" t="n">
         <v>8.5</v>
@@ -12254,7 +12254,7 @@
         <v>41</v>
       </c>
       <c r="AK82" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL82" t="n">
         <v>15</v>
@@ -12269,10 +12269,10 @@
         <v>41</v>
       </c>
       <c r="AP82" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ82" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12309,48 +12309,48 @@
         </is>
       </c>
       <c r="G83" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K83" t="n">
         <v>2.25</v>
       </c>
-      <c r="H83" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K83" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L83" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M83" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N83" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O83" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P83" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R83" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V83" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W83" t="n">
         <v>1.36</v>
@@ -12359,25 +12359,25 @@
         <v>3</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC83" t="n">
         <v>9</v>
       </c>
-      <c r="AB83" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC83" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE83" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF83" t="n">
         <v>23</v>
@@ -12398,22 +12398,22 @@
         <v>151</v>
       </c>
       <c r="AL83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM83" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO83" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ83" t="n">
         <v>34</v>
-      </c>
-      <c r="AP83" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ83" t="n">
-        <v>29</v>
       </c>
       <c r="AR83" t="inlineStr"/>
       <c r="AS83" t="inlineStr"/>
@@ -12450,13 +12450,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>3.5</v>
       </c>
       <c r="I84" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J84" t="n">
         <v>3.4</v>
@@ -12471,7 +12471,7 @@
         <v>1.03</v>
       </c>
       <c r="N84" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O84" t="n">
         <v>1.17</v>
@@ -12480,16 +12480,16 @@
         <v>5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R84" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S84" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T84" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="U84" t="n">
         <v>2.38</v>
@@ -12510,13 +12510,13 @@
         <v>2.5</v>
       </c>
       <c r="AA84" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB84" t="n">
         <v>19</v>
       </c>
       <c r="AC84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD84" t="n">
         <v>34</v>
@@ -12877,22 +12877,22 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H87" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I87" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K87" t="n">
         <v>2.1</v>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M87" t="n">
         <v>1.07</v>
@@ -12901,10 +12901,10 @@
         <v>9</v>
       </c>
       <c r="O87" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P87" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q87" t="n">
         <v>2.2</v>
@@ -12925,46 +12925,46 @@
         <v>1.22</v>
       </c>
       <c r="W87" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X87" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y87" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB87" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>6</v>
       </c>
       <c r="AC87" t="n">
         <v>9</v>
       </c>
       <c r="AD87" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE87" t="n">
         <v>15</v>
       </c>
       <c r="AF87" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG87" t="n">
         <v>8</v>
       </c>
       <c r="AH87" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ87" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK87" t="n">
         <v>101</v>
@@ -12976,22 +12976,22 @@
         <v>34</v>
       </c>
       <c r="AN87" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO87" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AP87" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ87" t="n">
         <v>67</v>
       </c>
       <c r="AR87" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="88">
@@ -13029,7 +13029,7 @@
         <v>13</v>
       </c>
       <c r="H88" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I88" t="n">
         <v>1.25</v>
@@ -13038,7 +13038,7 @@
         <v>12</v>
       </c>
       <c r="K88" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L88" t="n">
         <v>1.73</v>
@@ -13056,10 +13056,10 @@
         <v>3.5</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R88" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S88" t="n">
         <v>2.6</v>
@@ -13068,16 +13068,16 @@
         <v>1.5</v>
       </c>
       <c r="U88" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V88" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W88" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X88" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y88" t="n">
         <v>2.63</v>
@@ -13086,7 +13086,7 @@
         <v>1.44</v>
       </c>
       <c r="AA88" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB88" t="n">
         <v>51</v>
@@ -13098,7 +13098,7 @@
         <v>201</v>
       </c>
       <c r="AE88" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AF88" t="n">
         <v>101</v>
@@ -13175,13 +13175,13 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H89" t="n">
         <v>4.1</v>
       </c>
       <c r="I89" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="J89" t="n">
         <v>7.5</v>
@@ -13211,10 +13211,10 @@
         <v>1.83</v>
       </c>
       <c r="S89" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="T89" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="U89" t="n">
         <v>3.5</v>
@@ -13229,10 +13229,10 @@
         <v>2.75</v>
       </c>
       <c r="Y89" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z89" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA89" t="n">
         <v>15</v>
@@ -13262,7 +13262,7 @@
         <v>21</v>
       </c>
       <c r="AJ89" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK89" t="n">
         <v>501</v>
@@ -13277,7 +13277,7 @@
         <v>8.5</v>
       </c>
       <c r="AO89" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP89" t="n">
         <v>13</v>
@@ -13286,7 +13286,7 @@
         <v>34</v>
       </c>
       <c r="AR89" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AS89" t="n">
         <v>2.55</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H90" t="n">
         <v>3.8</v>
       </c>
       <c r="I90" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J90" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K90" t="n">
         <v>2.2</v>
@@ -13342,10 +13342,10 @@
         <v>6</v>
       </c>
       <c r="M90" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N90" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O90" t="n">
         <v>1.33</v>
@@ -13366,10 +13366,10 @@
         <v>1.41</v>
       </c>
       <c r="U90" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V90" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="W90" t="n">
         <v>1.44</v>
@@ -13378,10 +13378,10 @@
         <v>2.63</v>
       </c>
       <c r="Y90" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA90" t="n">
         <v>6</v>
@@ -13393,7 +13393,7 @@
         <v>8.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE90" t="n">
         <v>15</v>
@@ -13405,7 +13405,7 @@
         <v>9</v>
       </c>
       <c r="AH90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI90" t="n">
         <v>19</v>
@@ -13423,7 +13423,7 @@
         <v>29</v>
       </c>
       <c r="AN90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO90" t="n">
         <v>67</v>
@@ -13797,10 +13797,10 @@
         <v>2.03</v>
       </c>
       <c r="U93" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V93" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W93" t="n">
         <v>1.25</v>
@@ -14174,7 +14174,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H96" t="n">
         <v>4</v>
@@ -14254,13 +14254,13 @@
         <v>8</v>
       </c>
       <c r="AI96" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ96" t="n">
         <v>67</v>
       </c>
       <c r="AK96" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL96" t="n">
         <v>13</v>
@@ -14278,7 +14278,7 @@
         <v>41</v>
       </c>
       <c r="AQ96" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14456,13 +14456,13 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I98" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J98" t="n">
         <v>3.1</v>
@@ -14527,10 +14527,10 @@
         <v>21</v>
       </c>
       <c r="AF98" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG98" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH98" t="n">
         <v>5.5</v>
@@ -14554,7 +14554,7 @@
         <v>13</v>
       </c>
       <c r="AO98" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP98" t="n">
         <v>34</v>
@@ -14601,22 +14601,22 @@
         </is>
       </c>
       <c r="G99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H99" t="n">
         <v>3.1</v>
       </c>
-      <c r="H99" t="n">
-        <v>3</v>
-      </c>
       <c r="I99" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="J99" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
         <v>2.05</v>
       </c>
       <c r="L99" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="M99" t="n">
         <v>1.07</v>
@@ -14645,10 +14645,10 @@
         <v>1.22</v>
       </c>
       <c r="W99" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X99" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y99" t="n">
         <v>1.91</v>
@@ -14657,22 +14657,22 @@
         <v>1.91</v>
       </c>
       <c r="AA99" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB99" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE99" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF99" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG99" t="n">
         <v>8</v>
@@ -14690,22 +14690,22 @@
         <v>301</v>
       </c>
       <c r="AL99" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN99" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO99" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP99" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ99" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR99" t="inlineStr"/>
       <c r="AS99" t="inlineStr"/>
@@ -14742,22 +14742,22 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H100" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I100" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J100" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K100" t="n">
         <v>2.25</v>
       </c>
       <c r="L100" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M100" t="n">
         <v>1.05</v>
@@ -14766,24 +14766,24 @@
         <v>11</v>
       </c>
       <c r="O100" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P100" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="R100" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="S100" t="inlineStr"/>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V100" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="W100" t="n">
         <v>1.4</v>
@@ -14801,13 +14801,13 @@
         <v>6.5</v>
       </c>
       <c r="AB100" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC100" t="n">
         <v>8.5</v>
       </c>
       <c r="AD100" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE100" t="n">
         <v>13</v>
@@ -14837,7 +14837,7 @@
         <v>34</v>
       </c>
       <c r="AN100" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO100" t="n">
         <v>67</v>
@@ -14883,10 +14883,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H101" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I101" t="n">
         <v>3.6</v>
@@ -14895,16 +14895,16 @@
         <v>2.88</v>
       </c>
       <c r="K101" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L101" t="n">
         <v>4.33</v>
       </c>
       <c r="M101" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
         <v>1.4</v>
@@ -14921,10 +14921,10 @@
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V101" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W101" t="n">
         <v>1.5</v>
@@ -14942,10 +14942,10 @@
         <v>6.5</v>
       </c>
       <c r="AB101" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC101" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD101" t="n">
         <v>19</v>
@@ -14957,22 +14957,22 @@
         <v>34</v>
       </c>
       <c r="AG101" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH101" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ101" t="n">
         <v>51</v>
       </c>
       <c r="AK101" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL101" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM101" t="n">
         <v>17</v>
@@ -16305,13 +16305,13 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H111" t="n">
         <v>3.5</v>
       </c>
       <c r="I111" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J111" t="n">
         <v>3.75</v>
@@ -16320,13 +16320,13 @@
         <v>2.1</v>
       </c>
       <c r="L111" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M111" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N111" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O111" t="n">
         <v>1.29</v>
@@ -16361,10 +16361,10 @@
         <v>2</v>
       </c>
       <c r="AA111" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC111" t="n">
         <v>11</v>
@@ -16391,7 +16391,7 @@
         <v>51</v>
       </c>
       <c r="AK111" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL111" t="n">
         <v>8</v>
@@ -16406,10 +16406,10 @@
         <v>21</v>
       </c>
       <c r="AP111" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ111" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR111" t="inlineStr"/>
       <c r="AS111" t="inlineStr"/>
@@ -16857,10 +16857,10 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="H115" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I115" t="n">
         <v>2.2</v>
@@ -16880,35 +16880,35 @@
         <v>1.25</v>
       </c>
       <c r="P115" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q115" t="n">
         <v>1.75</v>
       </c>
       <c r="R115" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="V115" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
       <c r="Y115" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="Z115" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AA115" t="n">
         <v>10.25</v>
       </c>
       <c r="AB115" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC115" t="n">
         <v>10.5</v>
@@ -16917,16 +16917,16 @@
         <v>35</v>
       </c>
       <c r="AE115" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF115" t="n">
         <v>30</v>
       </c>
       <c r="AG115" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH115" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AI115" t="n">
         <v>13.5</v>
@@ -16941,7 +16941,7 @@
         <v>8.5</v>
       </c>
       <c r="AM115" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AN115" t="n">
         <v>9</v>
@@ -17020,18 +17020,18 @@
         <v>2.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R116" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V116" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W116" t="n">
         <v>1.57</v>
@@ -17097,10 +17097,10 @@
         <v>41</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="117">
@@ -17153,22 +17153,22 @@
         <v>4.75</v>
       </c>
       <c r="M117" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N117" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O117" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P117" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R117" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr"/>
@@ -17242,10 +17242,10 @@
         <v>51</v>
       </c>
       <c r="AR117" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="118">
@@ -17570,22 +17570,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H120" t="n">
         <v>3.6</v>
       </c>
       <c r="I120" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J120" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K120" t="n">
         <v>2.38</v>
       </c>
       <c r="L120" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M120" t="n">
         <v>1.03</v>
@@ -17618,10 +17618,10 @@
         <v>1.53</v>
       </c>
       <c r="W120" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X120" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y120" t="n">
         <v>1.5</v>
@@ -17633,13 +17633,13 @@
         <v>13</v>
       </c>
       <c r="AB120" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC120" t="n">
         <v>11</v>
       </c>
       <c r="AD120" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE120" t="n">
         <v>21</v>
@@ -17651,7 +17651,7 @@
         <v>17</v>
       </c>
       <c r="AH120" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI120" t="n">
         <v>11</v>
@@ -17672,10 +17672,10 @@
         <v>9.5</v>
       </c>
       <c r="AO120" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP120" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ120" t="n">
         <v>21</v>
@@ -17860,7 +17860,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
@@ -17869,7 +17869,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K122" t="n">
         <v>2.25</v>
@@ -17881,7 +17881,7 @@
         <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O122" t="n">
         <v>1.22</v>
@@ -17890,46 +17890,46 @@
         <v>4</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R122" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S122" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T122" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U122" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V122" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X122" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y122" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z122" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA122" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC122" t="n">
         <v>9.5</v>
       </c>
       <c r="AD122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE122" t="n">
         <v>17</v>
@@ -17944,13 +17944,13 @@
         <v>6.5</v>
       </c>
       <c r="AI122" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ122" t="n">
         <v>41</v>
       </c>
       <c r="AK122" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL122" t="n">
         <v>12</v>
@@ -17965,16 +17965,16 @@
         <v>29</v>
       </c>
       <c r="AP122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ122" t="n">
         <v>29</v>
       </c>
       <c r="AR122" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AS122" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="123">
@@ -18451,19 +18451,19 @@
         <v>2.2</v>
       </c>
       <c r="H126" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I126" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J126" t="n">
         <v>2.88</v>
       </c>
       <c r="K126" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L126" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M126" t="n">
         <v>1.04</v>
@@ -18472,42 +18472,42 @@
         <v>13</v>
       </c>
       <c r="O126" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P126" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R126" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="S126" t="inlineStr"/>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V126" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W126" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X126" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y126" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z126" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA126" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB126" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC126" t="n">
         <v>9</v>
@@ -18519,13 +18519,13 @@
         <v>17</v>
       </c>
       <c r="AF126" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG126" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH126" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI126" t="n">
         <v>13</v>
@@ -18546,13 +18546,13 @@
         <v>11</v>
       </c>
       <c r="AO126" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ126" t="n">
         <v>29</v>
-      </c>
-      <c r="AP126" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ126" t="n">
-        <v>26</v>
       </c>
       <c r="AR126" t="inlineStr"/>
       <c r="AS126" t="inlineStr"/>
@@ -18613,28 +18613,28 @@
         <v>17</v>
       </c>
       <c r="O127" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P127" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R127" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S127" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T127" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U127" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V127" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W127" t="n">
         <v>1.3</v>
@@ -18875,22 +18875,22 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H129" t="n">
         <v>3.3</v>
       </c>
       <c r="I129" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J129" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K129" t="n">
         <v>2.2</v>
       </c>
       <c r="L129" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M129" t="n">
         <v>1.05</v>
@@ -18899,16 +18899,16 @@
         <v>11</v>
       </c>
       <c r="O129" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P129" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R129" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S129" t="inlineStr"/>
       <c r="T129" t="inlineStr"/>
@@ -18931,16 +18931,16 @@
         <v>2</v>
       </c>
       <c r="AA129" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC129" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD129" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE129" t="n">
         <v>21</v>
@@ -18964,19 +18964,19 @@
         <v>201</v>
       </c>
       <c r="AL129" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN129" t="n">
         <v>10</v>
       </c>
       <c r="AO129" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP129" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ129" t="n">
         <v>29</v>
@@ -19157,22 +19157,22 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>3.4</v>
       </c>
       <c r="I131" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J131" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K131" t="n">
         <v>2.05</v>
       </c>
       <c r="L131" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M131" t="n">
         <v>1.07</v>
@@ -19201,22 +19201,22 @@
         <v>1.22</v>
       </c>
       <c r="W131" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X131" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y131" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Z131" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AA131" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC131" t="n">
         <v>9</v>
@@ -19228,22 +19228,22 @@
         <v>17</v>
       </c>
       <c r="AF131" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG131" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH131" t="n">
         <v>6.5</v>
       </c>
       <c r="AI131" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ131" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK131" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AL131" t="n">
         <v>10</v>
@@ -19255,13 +19255,13 @@
         <v>15</v>
       </c>
       <c r="AO131" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP131" t="n">
         <v>41</v>
       </c>
       <c r="AQ131" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR131" t="inlineStr"/>
       <c r="AS131" t="inlineStr"/>
@@ -19298,16 +19298,16 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H132" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I132" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J132" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K132" t="n">
         <v>1.91</v>
@@ -19354,13 +19354,13 @@
         <v>1.62</v>
       </c>
       <c r="AA132" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB132" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC132" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD132" t="n">
         <v>41</v>
@@ -19372,13 +19372,13 @@
         <v>51</v>
       </c>
       <c r="AG132" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH132" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI132" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ132" t="n">
         <v>81</v>
@@ -19403,10 +19403,10 @@
         <v>41</v>
       </c>
       <c r="AR132" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="133">
@@ -19444,7 +19444,7 @@
         <v>7</v>
       </c>
       <c r="H133" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I133" t="n">
         <v>1.42</v>
@@ -19491,10 +19491,10 @@
         <v>3</v>
       </c>
       <c r="Y133" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA133" t="n">
         <v>17</v>
@@ -19539,7 +19539,7 @@
         <v>8.5</v>
       </c>
       <c r="AO133" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP133" t="n">
         <v>12</v>
@@ -19958,7 +19958,7 @@
         <v>67</v>
       </c>
       <c r="AK136" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL136" t="n">
         <v>7</v>
@@ -20047,10 +20047,10 @@
         <v>2.63</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R137" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S137" t="inlineStr"/>
       <c r="T137" t="inlineStr"/>
@@ -20124,10 +20124,10 @@
         <v>41</v>
       </c>
       <c r="AR137" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="138">
@@ -20162,87 +20162,87 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="H138" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I138" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J138" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="K138" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="L138" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M138" t="n">
         <v>1.03</v>
       </c>
       <c r="N138" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="O138" t="n">
         <v>1.14</v>
       </c>
       <c r="P138" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="Q138" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R138" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="S138" t="inlineStr"/>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V138" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W138" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X138" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="Y138" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Z138" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AA138" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB138" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC138" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD138" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE138" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF138" t="n">
         <v>18</v>
       </c>
       <c r="AG138" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AH138" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI138" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ138" t="n">
         <v>30</v>
@@ -20251,22 +20251,22 @@
         <v>150</v>
       </c>
       <c r="AL138" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AM138" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AN138" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AO138" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP138" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AQ138" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AR138" t="inlineStr"/>
       <c r="AS138" t="inlineStr"/>
@@ -20303,22 +20303,22 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I139" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="J139" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="K139" t="n">
         <v>2.3</v>
       </c>
       <c r="L139" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="M139" t="n">
         <v>1.03</v>
@@ -20327,54 +20327,54 @@
         <v>9</v>
       </c>
       <c r="O139" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P139" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q139" t="n">
         <v>1.57</v>
       </c>
       <c r="R139" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S139" t="inlineStr"/>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="V139" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W139" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X139" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="Y139" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Z139" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AA139" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC139" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD139" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE139" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF139" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG139" t="n">
         <v>9</v>
@@ -20389,25 +20389,25 @@
         <v>40</v>
       </c>
       <c r="AK139" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL139" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM139" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AN139" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AO139" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AP139" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AQ139" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR139" t="inlineStr"/>
       <c r="AS139" t="inlineStr"/>
@@ -20615,10 +20615,10 @@
         <v>3.75</v>
       </c>
       <c r="Q141" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R141" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S141" t="inlineStr"/>
       <c r="T141" t="inlineStr"/>
@@ -20888,39 +20888,39 @@
         <v>1.06</v>
       </c>
       <c r="N143" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O143" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P143" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="Q143" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R143" t="n">
         <v>1.83</v>
-      </c>
-      <c r="R143" t="n">
-        <v>1.88</v>
       </c>
       <c r="S143" t="inlineStr"/>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="V143" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W143" t="n">
         <v>1.4</v>
       </c>
       <c r="X143" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Y143" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Z143" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA143" t="n">
         <v>13.5</v>
@@ -20938,28 +20938,28 @@
         <v>55</v>
       </c>
       <c r="AF143" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG143" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH143" t="n">
         <v>7.4</v>
       </c>
       <c r="AI143" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ143" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK143" t="n">
         <v>700</v>
       </c>
       <c r="AL143" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AM143" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AN143" t="n">
         <v>8</v>
@@ -20968,10 +20968,10 @@
         <v>11.5</v>
       </c>
       <c r="AP143" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ143" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR143" t="inlineStr"/>
       <c r="AS143" t="inlineStr"/>
@@ -21290,22 +21290,22 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I146" t="n">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="J146" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="K146" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L146" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="M146" t="n">
         <v>1.06</v>
@@ -21314,24 +21314,24 @@
         <v>8</v>
       </c>
       <c r="O146" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P146" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R146" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S146" t="inlineStr"/>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="V146" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W146" t="n">
         <v>1.4</v>
@@ -21340,61 +21340,61 @@
         <v>2.8</v>
       </c>
       <c r="Y146" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="Z146" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AA146" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AB146" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AC146" t="n">
         <v>8.5</v>
       </c>
       <c r="AD146" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE146" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF146" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG146" t="n">
         <v>8</v>
       </c>
       <c r="AH146" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AI146" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ146" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK146" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AL146" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AM146" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AN146" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO146" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AP146" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ146" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR146" t="inlineStr"/>
       <c r="AS146" t="inlineStr"/>
@@ -21431,22 +21431,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H147" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I147" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="J147" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="K147" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L147" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="M147" t="n">
         <v>1.06</v>
@@ -21455,16 +21455,16 @@
         <v>7.7</v>
       </c>
       <c r="O147" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P147" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q147" t="n">
         <v>1.93</v>
       </c>
       <c r="R147" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
@@ -21475,10 +21475,10 @@
         <v>1.31</v>
       </c>
       <c r="W147" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="X147" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Y147" t="n">
         <v>1.93</v>
@@ -21487,16 +21487,16 @@
         <v>1.78</v>
       </c>
       <c r="AA147" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB147" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AC147" t="n">
         <v>8.75</v>
       </c>
       <c r="AD147" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE147" t="n">
         <v>14.5</v>
@@ -21508,34 +21508,34 @@
         <v>7.7</v>
       </c>
       <c r="AH147" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AI147" t="n">
         <v>19.5</v>
       </c>
       <c r="AJ147" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK147" t="n">
         <v>1000</v>
       </c>
       <c r="AL147" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM147" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN147" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO147" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AP147" t="n">
+        <v>60</v>
+      </c>
+      <c r="AQ147" t="n">
         <v>65</v>
-      </c>
-      <c r="AQ147" t="n">
-        <v>70</v>
       </c>
       <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr"/>
@@ -22700,28 +22700,28 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I156" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J156" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K156" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L156" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M156" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N156" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O156" t="n">
         <v>1.44</v>
@@ -22730,10 +22730,10 @@
         <v>2.63</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R156" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
@@ -22759,16 +22759,16 @@
         <v>6</v>
       </c>
       <c r="AB156" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AC156" t="n">
         <v>9.5</v>
       </c>
       <c r="AD156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE156" t="n">
         <v>19</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>21</v>
       </c>
       <c r="AF156" t="n">
         <v>34</v>
@@ -22789,28 +22789,28 @@
         <v>101</v>
       </c>
       <c r="AL156" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM156" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN156" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO156" t="n">
         <v>41</v>
       </c>
       <c r="AP156" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ156" t="n">
         <v>41</v>
       </c>
       <c r="AR156" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS156" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="157">
@@ -22845,28 +22845,28 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H157" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I157" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J157" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="K157" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L157" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M157" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N157" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O157" t="n">
         <v>1.3</v>
@@ -22875,18 +22875,18 @@
         <v>3.4</v>
       </c>
       <c r="Q157" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R157" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V157" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W157" t="n">
         <v>1.4</v>
@@ -22895,13 +22895,13 @@
         <v>2.75</v>
       </c>
       <c r="Y157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AA157" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AB157" t="n">
         <v>5</v>
@@ -22910,7 +22910,7 @@
         <v>10</v>
       </c>
       <c r="AD157" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE157" t="n">
         <v>15</v>
@@ -22919,37 +22919,37 @@
         <v>41</v>
       </c>
       <c r="AG157" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI157" t="n">
         <v>34</v>
       </c>
       <c r="AJ157" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AK157" t="n">
         <v>101</v>
       </c>
       <c r="AL157" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM157" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN157" t="n">
         <v>41</v>
       </c>
       <c r="AO157" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AP157" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AQ157" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR157" t="inlineStr"/>
       <c r="AS157" t="inlineStr"/>
@@ -22986,16 +22986,16 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I158" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J158" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K158" t="n">
         <v>2.05</v>
@@ -23007,7 +23007,7 @@
         <v>1.08</v>
       </c>
       <c r="N158" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O158" t="n">
         <v>1.36</v>
@@ -23048,10 +23048,10 @@
         <v>9</v>
       </c>
       <c r="AC158" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE158" t="n">
         <v>19</v>
@@ -23060,13 +23060,13 @@
         <v>34</v>
       </c>
       <c r="AG158" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH158" t="n">
         <v>6</v>
       </c>
       <c r="AI158" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ158" t="n">
         <v>51</v>
@@ -23075,10 +23075,10 @@
         <v>351</v>
       </c>
       <c r="AL158" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM158" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN158" t="n">
         <v>13</v>
@@ -23130,7 +23130,7 @@
         <v>1.8</v>
       </c>
       <c r="H159" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I159" t="n">
         <v>4.75</v>
@@ -23216,7 +23216,7 @@
         <v>351</v>
       </c>
       <c r="AL159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM159" t="n">
         <v>23</v>
@@ -23268,16 +23268,16 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H160" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J160" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K160" t="n">
         <v>2.1</v>
@@ -23286,10 +23286,10 @@
         <v>4.33</v>
       </c>
       <c r="M160" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N160" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O160" t="n">
         <v>1.3</v>
@@ -23318,16 +23318,16 @@
         <v>2.63</v>
       </c>
       <c r="Y160" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Z160" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AA160" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB160" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC160" t="n">
         <v>9</v>
@@ -23345,7 +23345,7 @@
         <v>9</v>
       </c>
       <c r="AH160" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI160" t="n">
         <v>15</v>
@@ -23360,10 +23360,10 @@
         <v>11</v>
       </c>
       <c r="AM160" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN160" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO160" t="n">
         <v>41</v>
@@ -23409,84 +23409,84 @@
         </is>
       </c>
       <c r="G161" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L161" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N161" t="n">
+        <v>11</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P161" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q161" t="n">
         <v>1.95</v>
       </c>
-      <c r="H161" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J161" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K161" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L161" t="n">
-        <v>4</v>
-      </c>
-      <c r="M161" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N161" t="n">
-        <v>12</v>
-      </c>
-      <c r="O161" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P161" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>1.8</v>
-      </c>
       <c r="R161" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S161" t="inlineStr"/>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V161" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X161" t="n">
         <v>2.75</v>
       </c>
-      <c r="V161" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W161" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X161" t="n">
-        <v>3</v>
-      </c>
       <c r="Y161" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z161" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA161" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB161" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG161" t="n">
         <v>10</v>
       </c>
-      <c r="AC161" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD161" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE161" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF161" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG161" t="n">
-        <v>12</v>
-      </c>
       <c r="AH161" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI161" t="n">
         <v>13</v>
@@ -23495,22 +23495,22 @@
         <v>41</v>
       </c>
       <c r="AK161" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL161" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM161" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN161" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO161" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP161" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ161" t="n">
         <v>34</v>
@@ -23574,16 +23574,16 @@
         <v>13</v>
       </c>
       <c r="O162" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P162" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R162" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S162" t="n">
         <v>2.05</v>
@@ -23592,10 +23592,10 @@
         <v>1.8</v>
       </c>
       <c r="U162" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V162" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W162" t="n">
         <v>1.33</v>
@@ -23610,16 +23610,16 @@
         <v>1.8</v>
       </c>
       <c r="AA162" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB162" t="n">
         <v>7</v>
-      </c>
-      <c r="AB162" t="n">
-        <v>6.5</v>
       </c>
       <c r="AC162" t="n">
         <v>8.5</v>
       </c>
       <c r="AD162" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE162" t="n">
         <v>12</v>
@@ -23628,19 +23628,19 @@
         <v>26</v>
       </c>
       <c r="AG162" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH162" t="n">
         <v>9</v>
       </c>
       <c r="AI162" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ162" t="n">
         <v>51</v>
       </c>
       <c r="AK162" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL162" t="n">
         <v>19</v>
@@ -23701,7 +23701,7 @@
         <v>3.9</v>
       </c>
       <c r="I163" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J163" t="n">
         <v>2.5</v>
@@ -23710,37 +23710,37 @@
         <v>2.38</v>
       </c>
       <c r="L163" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M163" t="n">
         <v>1.03</v>
       </c>
       <c r="N163" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O163" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P163" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R163" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S163" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T163" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U163" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V163" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W163" t="n">
         <v>1.3</v>
@@ -23749,10 +23749,10 @@
         <v>3.4</v>
       </c>
       <c r="Y163" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z163" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA163" t="n">
         <v>10</v>
@@ -23764,7 +23764,7 @@
         <v>9</v>
       </c>
       <c r="AD163" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE163" t="n">
         <v>15</v>
@@ -23773,13 +23773,13 @@
         <v>21</v>
       </c>
       <c r="AG163" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH163" t="n">
         <v>7.5</v>
       </c>
       <c r="AI163" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ163" t="n">
         <v>41</v>
@@ -23800,10 +23800,10 @@
         <v>41</v>
       </c>
       <c r="AP163" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ163" t="n">
         <v>26</v>
-      </c>
-      <c r="AQ163" t="n">
-        <v>29</v>
       </c>
       <c r="AR163" t="inlineStr"/>
       <c r="AS163" t="inlineStr"/>
@@ -23846,16 +23846,16 @@
         <v>3.5</v>
       </c>
       <c r="I164" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="J164" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K164" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L164" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="M164" t="n">
         <v>1.04</v>
@@ -23867,7 +23867,7 @@
         <v>1.22</v>
       </c>
       <c r="P164" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q164" t="n">
         <v>1.65</v>
@@ -23881,13 +23881,13 @@
         <v>2.57</v>
       </c>
       <c r="V164" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W164" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="X164" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Y164" t="n">
         <v>1.57</v>
@@ -23896,10 +23896,10 @@
         <v>2.25</v>
       </c>
       <c r="AA164" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB164" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC164" t="n">
         <v>11.25</v>
@@ -23911,13 +23911,13 @@
         <v>26</v>
       </c>
       <c r="AF164" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG164" t="n">
         <v>8.25</v>
       </c>
       <c r="AH164" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI164" t="n">
         <v>12</v>
@@ -23932,16 +23932,16 @@
         <v>9.25</v>
       </c>
       <c r="AM164" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AN164" t="n">
         <v>8.5</v>
       </c>
       <c r="AO164" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AP164" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ164" t="n">
         <v>21</v>
@@ -23981,66 +23981,66 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I165" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J165" t="n">
         <v>3.4</v>
       </c>
-      <c r="I165" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J165" t="n">
-        <v>3.3</v>
-      </c>
       <c r="K165" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L165" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="M165" t="n">
         <v>1.05</v>
       </c>
       <c r="N165" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="O165" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P165" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R165" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="V165" t="n">
         <v>1.4</v>
       </c>
       <c r="W165" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X165" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Y165" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Z165" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AA165" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AB165" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC165" t="n">
         <v>10</v>
@@ -24049,19 +24049,19 @@
         <v>35</v>
       </c>
       <c r="AE165" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF165" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG165" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AH165" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AI165" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ165" t="n">
         <v>45</v>
@@ -24070,22 +24070,22 @@
         <v>300</v>
       </c>
       <c r="AL165" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AM165" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN165" t="n">
         <v>9</v>
       </c>
       <c r="AO165" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AP165" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ165" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR165" t="inlineStr"/>
       <c r="AS165" t="inlineStr"/>
@@ -24686,22 +24686,22 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H170" t="n">
         <v>5.5</v>
       </c>
       <c r="I170" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J170" t="n">
         <v>1.8</v>
       </c>
       <c r="K170" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L170" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M170" t="n">
         <v>1.02</v>
@@ -24728,10 +24728,10 @@
         <v>2.05</v>
       </c>
       <c r="U170" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V170" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W170" t="n">
         <v>1.25</v>
@@ -24740,43 +24740,43 @@
         <v>3.75</v>
       </c>
       <c r="Y170" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z170" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA170" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB170" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC170" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD170" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE170" t="n">
         <v>11</v>
       </c>
       <c r="AF170" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG170" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH170" t="n">
         <v>11</v>
       </c>
       <c r="AI170" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ170" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK170" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL170" t="n">
         <v>23</v>
@@ -24791,7 +24791,7 @@
         <v>81</v>
       </c>
       <c r="AP170" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ170" t="n">
         <v>41</v>
@@ -24912,7 +24912,7 @@
         <v>15</v>
       </c>
       <c r="AH171" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI171" t="n">
         <v>15</v>
@@ -25333,10 +25333,10 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H175" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I175" t="n">
         <v>3.1</v>
@@ -25357,24 +25357,24 @@
         <v>10</v>
       </c>
       <c r="O175" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P175" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q175" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R175" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V175" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W175" t="n">
         <v>1.4</v>
@@ -25389,7 +25389,7 @@
         <v>2</v>
       </c>
       <c r="AA175" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB175" t="n">
         <v>11</v>
@@ -25404,10 +25404,10 @@
         <v>19</v>
       </c>
       <c r="AF175" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG175" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH175" t="n">
         <v>6</v>
@@ -25434,7 +25434,7 @@
         <v>34</v>
       </c>
       <c r="AP175" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ175" t="n">
         <v>34</v>
@@ -25615,71 +25615,71 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="H177" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I177" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J177" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="K177" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L177" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P177" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="Q177" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="R177" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="V177" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W177" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X177" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Y177" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Z177" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AA177" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB177" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC177" t="n">
         <v>8.5</v>
       </c>
       <c r="AD177" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE177" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AE177" t="n">
-        <v>16.5</v>
       </c>
       <c r="AF177" t="n">
         <v>35</v>
@@ -25688,10 +25688,10 @@
         <v>7.8</v>
       </c>
       <c r="AH177" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI177" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ177" t="n">
         <v>100</v>
@@ -25700,22 +25700,22 @@
         <v>1000</v>
       </c>
       <c r="AL177" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AM177" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AN177" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AO177" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AP177" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AQ177" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR177" t="inlineStr"/>
       <c r="AS177" t="inlineStr"/>
@@ -25889,111 +25889,111 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="H179" t="n">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="I179" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="J179" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="K179" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="L179" t="n">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
       <c r="M179" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N179" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O179" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P179" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R179" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="V179" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W179" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X179" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="Y179" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z179" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AA179" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB179" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AC179" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD179" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AE179" t="n">
         <v>11</v>
       </c>
       <c r="AF179" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG179" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH179" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI179" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AJ179" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AK179" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL179" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM179" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN179" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO179" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AP179" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AQ179" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
@@ -26030,50 +26030,50 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="H180" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="I180" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J180" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="K180" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="L180" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P180" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="R180" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V180" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="W180" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X180" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y180" t="n">
         <v>2.5</v>
@@ -26082,55 +26082,55 @@
         <v>1.47</v>
       </c>
       <c r="AA180" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AB180" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="AC180" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AD180" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE180" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF180" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG180" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH180" t="n">
         <v>28</v>
-      </c>
-      <c r="AH180" t="n">
-        <v>25</v>
       </c>
       <c r="AI180" t="n">
         <v>55</v>
       </c>
       <c r="AJ180" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AK180" t="n">
         <v>101</v>
       </c>
       <c r="AL180" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AM180" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AN180" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AO180" t="n">
         <v>101</v>
       </c>
       <c r="AP180" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AQ180" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26170,16 +26170,16 @@
         <v>2.65</v>
       </c>
       <c r="H181" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I181" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J181" t="n">
         <v>3.05</v>
       </c>
       <c r="K181" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L181" t="n">
         <v>2.72</v>
@@ -26223,10 +26223,10 @@
         <v>2.57</v>
       </c>
       <c r="AA181" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC181" t="n">
         <v>10.25</v>
@@ -26244,7 +26244,7 @@
         <v>9.5</v>
       </c>
       <c r="AH181" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI181" t="n">
         <v>11.5</v>
@@ -26271,7 +26271,7 @@
         <v>15.5</v>
       </c>
       <c r="AQ181" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AR181" t="inlineStr"/>
       <c r="AS181" t="inlineStr"/>
@@ -26308,7 +26308,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H182" t="n">
         <v>3.75</v>
@@ -26317,10 +26317,10 @@
         <v>1.82</v>
       </c>
       <c r="J182" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="K182" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L182" t="n">
         <v>2.35</v>
@@ -26329,78 +26329,78 @@
         <v>1.04</v>
       </c>
       <c r="N182" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O182" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P182" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q182" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R182" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="V182" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="W182" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X182" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Y182" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="Z182" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="AA182" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB182" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AC182" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD182" t="n">
         <v>55</v>
       </c>
       <c r="AE182" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF182" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AG182" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>350</v>
+      </c>
+      <c r="AL182" t="n">
         <v>8.5</v>
       </c>
-      <c r="AH182" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI182" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ182" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK182" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL182" t="n">
-        <v>9</v>
-      </c>
       <c r="AM182" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AN182" t="n">
         <v>8.25</v>
@@ -26409,10 +26409,10 @@
         <v>15.5</v>
       </c>
       <c r="AP182" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ182" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR182" t="inlineStr"/>
       <c r="AS182" t="inlineStr"/>
@@ -26449,22 +26449,22 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I183" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J183" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K183" t="n">
         <v>2</v>
       </c>
       <c r="L183" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M183" t="n">
         <v>1.08</v>
@@ -26487,64 +26487,64 @@
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V183" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W183" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X183" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y183" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z183" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA183" t="n">
         <v>5.5</v>
       </c>
       <c r="AB183" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC183" t="n">
         <v>9</v>
       </c>
       <c r="AD183" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE183" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF183" t="n">
         <v>34</v>
       </c>
       <c r="AG183" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH183" t="n">
         <v>6.5</v>
       </c>
       <c r="AI183" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ183" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK183" t="n">
         <v>101</v>
       </c>
       <c r="AL183" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM183" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN183" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO183" t="n">
         <v>51</v>
@@ -26556,10 +26556,10 @@
         <v>51</v>
       </c>
       <c r="AR183" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="184">
@@ -27311,22 +27311,22 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H189" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I189" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J189" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K189" t="n">
         <v>2.3</v>
       </c>
       <c r="L189" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M189" t="n">
         <v>1.04</v>
@@ -27374,13 +27374,13 @@
         <v>9.5</v>
       </c>
       <c r="AB189" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC189" t="n">
         <v>9</v>
       </c>
       <c r="AD189" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE189" t="n">
         <v>15</v>
@@ -27413,10 +27413,10 @@
         <v>12</v>
       </c>
       <c r="AO189" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP189" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ189" t="n">
         <v>29</v>
@@ -27738,22 +27738,22 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="H192" t="n">
         <v>2.9</v>
       </c>
       <c r="I192" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J192" t="n">
         <v>3.45</v>
       </c>
       <c r="K192" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="L192" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
@@ -27784,16 +27784,16 @@
         <v>2.35</v>
       </c>
       <c r="Y192" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Z192" t="n">
         <v>1.75</v>
       </c>
       <c r="AA192" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB192" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC192" t="n">
         <v>10.5</v>
@@ -27823,16 +27823,16 @@
         <v>800</v>
       </c>
       <c r="AL192" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AM192" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AN192" t="n">
         <v>9.75</v>
       </c>
       <c r="AO192" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP192" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -728,10 +728,10 @@
         <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
         <v>2.38</v>
@@ -837,13 +837,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -852,13 +852,13 @@
         <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.14</v>
@@ -867,10 +867,10 @@
         <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
         <v>1.83</v>
@@ -903,10 +903,10 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE3" t="n">
         <v>23</v>
@@ -918,7 +918,7 @@
         <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -1006,10 +1006,10 @@
         <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1123,19 +1123,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J5" t="n">
         <v>4.33</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>2.75</v>
@@ -1173,16 +1173,16 @@
         <v>2.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
@@ -1200,16 +1200,16 @@
         <v>8</v>
       </c>
       <c r="AH5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL5" t="n">
         <v>6.5</v>
@@ -1221,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
@@ -1270,91 +1270,91 @@
         <v>5.25</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>1.8</v>
       </c>
       <c r="K6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="T6" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC6" t="n">
         <v>9</v>
       </c>
-      <c r="AB6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL6" t="n">
         <v>23</v>
@@ -1409,66 +1409,66 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
         <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.8</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V7" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="W7" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AA7" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
         <v>9</v>
@@ -1477,31 +1477,31 @@
         <v>19</v>
       </c>
       <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>15</v>
       </c>
-      <c r="AF7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AL7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
         <v>12</v>
@@ -1510,10 +1510,10 @@
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="inlineStr"/>
       <c r="AS7" t="inlineStr"/>
@@ -1559,13 +1559,13 @@
         <v>1.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1580,30 +1580,30 @@
         <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
@@ -1624,7 +1624,7 @@
         <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>9</v>
@@ -1639,22 +1639,22 @@
         <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1691,22 +1691,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K9" t="n">
         <v>2.75</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.03</v>
@@ -1745,52 +1745,52 @@
         <v>3.75</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA9" t="n">
         <v>9.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
         <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO9" t="n">
         <v>101</v>
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
@@ -1857,51 +1857,51 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R10" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.8</v>
       </c>
-      <c r="V10" t="n">
-        <v>2</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X10" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC10" t="n">
         <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE10" t="n">
         <v>10</v>
@@ -1910,10 +1910,10 @@
         <v>21</v>
       </c>
       <c r="AG10" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
@@ -1922,19 +1922,19 @@
         <v>51</v>
       </c>
       <c r="AK10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP10" t="n">
         <v>51</v>
@@ -2013,10 +2013,10 @@
         <v>2.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T11" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
@@ -2411,57 +2411,57 @@
         <v>6.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I14" t="n">
         <v>1.48</v>
       </c>
       <c r="J14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z14" t="n">
         <v>1.95</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1.8</v>
       </c>
       <c r="AA14" t="n">
         <v>17</v>
@@ -2482,25 +2482,25 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AN14" t="n">
         <v>8.5</v>
@@ -2512,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="AQ14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2552,7 +2552,7 @@
         <v>4.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
         <v>1.91</v>
@@ -2647,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
@@ -2980,13 +2980,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H18" t="n">
         <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
         <v>1.73</v>
@@ -2995,7 +2995,7 @@
         <v>2.6</v>
       </c>
       <c r="L18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M18" t="n">
         <v>1.03</v>
@@ -3016,10 +3016,10 @@
         <v>2.3</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U18" t="n">
         <v>2.5</v>
@@ -3028,49 +3028,49 @@
         <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Y18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AA18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC18" t="n">
         <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE18" t="n">
         <v>11</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
         <v>67</v>
       </c>
       <c r="AK18" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3082,13 +3082,13 @@
         <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AP18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>67</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>51</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3283,7 +3283,7 @@
         <v>2.88</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -3324,7 +3324,7 @@
         <v>2.05</v>
       </c>
       <c r="AA20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
         <v>8.5</v>
@@ -3333,7 +3333,7 @@
         <v>9.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
         <v>10</v>
@@ -3363,10 +3363,10 @@
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP20" t="n">
         <v>51</v>
@@ -3418,7 +3418,7 @@
         <v>2.88</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
         <v>1.83</v>
@@ -3427,16 +3427,16 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q21" t="n">
         <v>3</v>
@@ -3453,10 +3453,10 @@
         <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y21" t="n">
         <v>2.25</v>
@@ -3471,7 +3471,7 @@
         <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD21" t="n">
         <v>29</v>
@@ -3483,7 +3483,7 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH21" t="n">
         <v>6</v>
@@ -3498,7 +3498,7 @@
         <v>1250</v>
       </c>
       <c r="AL21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AM21" t="n">
         <v>12</v>
@@ -3659,10 +3659,10 @@
         <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="23">
@@ -3697,19 +3697,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>2.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.5</v>
       </c>
       <c r="K23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L23" t="n">
         <v>4.5</v>
@@ -3718,7 +3718,7 @@
         <v>1.17</v>
       </c>
       <c r="N23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O23" t="n">
         <v>1.73</v>
@@ -3766,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -3846,22 +3846,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L24" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3894,46 +3894,46 @@
         <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AC24" t="n">
         <v>9.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>19</v>
       </c>
       <c r="AF24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI24" t="n">
         <v>19</v>
       </c>
       <c r="AJ24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="n">
         <v>501</v>
@@ -3942,19 +3942,19 @@
         <v>8.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
         <v>41</v>
       </c>
       <c r="AP24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR24" t="n">
         <v>1.9</v>
@@ -3995,46 +3995,46 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H25" t="n">
         <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
         <v>3</v>
       </c>
-      <c r="K25" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Q25" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="T25" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="U25" t="n">
         <v>4</v>
@@ -4049,10 +4049,10 @@
         <v>2.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA25" t="n">
         <v>7</v>
@@ -4073,7 +4073,7 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
@@ -4085,7 +4085,7 @@
         <v>51</v>
       </c>
       <c r="AK25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4094,7 +4094,7 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
         <v>34</v>
@@ -4106,10 +4106,10 @@
         <v>41</v>
       </c>
       <c r="AR25" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="26">
@@ -4156,7 +4156,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="L26" t="n">
         <v>3.75</v>
@@ -4285,40 +4285,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H27" t="n">
         <v>3.5</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L27" t="n">
         <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4329,22 +4329,22 @@
         <v>1.11</v>
       </c>
       <c r="W27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X27" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC27" t="n">
         <v>10</v>
@@ -4353,13 +4353,13 @@
         <v>12</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH27" t="n">
         <v>7.5</v>
@@ -4368,19 +4368,19 @@
         <v>29</v>
       </c>
       <c r="AJ27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK27" t="n">
         <v>101</v>
       </c>
       <c r="AL27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM27" t="n">
         <v>26</v>
       </c>
       <c r="AN27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO27" t="n">
         <v>67</v>
@@ -4430,19 +4430,19 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I28" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K28" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L28" t="n">
         <v>4.33</v>
@@ -4495,7 +4495,7 @@
         <v>12</v>
       </c>
       <c r="AD28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -4522,13 +4522,13 @@
         <v>6.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP28" t="n">
         <v>41</v>
@@ -4712,13 +4712,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
         <v>2.9</v>
       </c>
       <c r="I30" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J30" t="n">
         <v>2.88</v>
@@ -4730,10 +4730,10 @@
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N30" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
         <v>1.5</v>
@@ -4756,16 +4756,16 @@
         <v>1.14</v>
       </c>
       <c r="W30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z30" t="n">
         <v>1.62</v>
-      </c>
-      <c r="X30" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1.57</v>
       </c>
       <c r="AA30" t="n">
         <v>5.5</v>
@@ -4792,7 +4792,7 @@
         <v>6</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>81</v>
@@ -4801,7 +4801,7 @@
         <v>900</v>
       </c>
       <c r="AL30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM30" t="n">
         <v>19</v>
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
@@ -5052,16 +5052,16 @@
         <v>2.05</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA32" t="n">
         <v>4.33</v>
       </c>
       <c r="AB32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC32" t="n">
         <v>11</v>
@@ -5079,7 +5079,7 @@
         <v>4.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI32" t="n">
         <v>29</v>
@@ -5100,7 +5100,7 @@
         <v>21</v>
       </c>
       <c r="AO32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP32" t="n">
         <v>51</v>
@@ -5143,22 +5143,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
         <v>1.8</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.17</v>
@@ -5199,19 +5199,19 @@
         <v>1.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD33" t="n">
         <v>29</v>
       </c>
       <c r="AE33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF33" t="n">
         <v>51</v>
@@ -5220,7 +5220,7 @@
         <v>5</v>
       </c>
       <c r="AH33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI33" t="n">
         <v>21</v>
@@ -5235,13 +5235,13 @@
         <v>6</v>
       </c>
       <c r="AM33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN33" t="n">
         <v>13</v>
       </c>
       <c r="AO33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP33" t="n">
         <v>34</v>
@@ -5852,28 +5852,28 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="J38" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K38" t="n">
         <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O38" t="n">
         <v>1.3</v>
@@ -5882,10 +5882,10 @@
         <v>3.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R38" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
@@ -5908,19 +5908,19 @@
         <v>1.95</v>
       </c>
       <c r="AA38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF38" t="n">
         <v>34</v>
@@ -5929,7 +5929,7 @@
         <v>9.5</v>
       </c>
       <c r="AH38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI38" t="n">
         <v>15</v>
@@ -5941,19 +5941,19 @@
         <v>251</v>
       </c>
       <c r="AL38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP38" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ38" t="n">
         <v>29</v>
@@ -6553,7 +6553,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H43" t="n">
         <v>4</v>
@@ -6577,34 +6577,34 @@
         <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V43" t="n">
         <v>1.53</v>
       </c>
-      <c r="R43" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1.62</v>
-      </c>
       <c r="W43" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X43" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Y43" t="n">
         <v>1.62</v>
@@ -6613,7 +6613,7 @@
         <v>2.2</v>
       </c>
       <c r="AA43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB43" t="n">
         <v>9</v>
@@ -6625,16 +6625,16 @@
         <v>12</v>
       </c>
       <c r="AE43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI43" t="n">
         <v>13</v>
@@ -6643,10 +6643,10 @@
         <v>41</v>
       </c>
       <c r="AK43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -6698,16 +6698,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H44" t="n">
         <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
@@ -6757,7 +6757,7 @@
         <v>9.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC44" t="n">
         <v>10</v>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J45" t="n">
         <v>4</v>
@@ -6854,7 +6854,7 @@
         <v>2.05</v>
       </c>
       <c r="L45" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -6883,10 +6883,10 @@
         <v>1.25</v>
       </c>
       <c r="W45" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X45" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y45" t="n">
         <v>1.91</v>
@@ -6898,7 +6898,7 @@
         <v>9</v>
       </c>
       <c r="AB45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC45" t="n">
         <v>12</v>
@@ -6916,7 +6916,7 @@
         <v>9</v>
       </c>
       <c r="AH45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI45" t="n">
         <v>15</v>
@@ -6934,10 +6934,10 @@
         <v>10</v>
       </c>
       <c r="AN45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP45" t="n">
         <v>19</v>
@@ -6980,16 +6980,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I46" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K46" t="n">
         <v>2.1</v>
@@ -7001,19 +7001,19 @@
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P46" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q46" t="n">
         <v>2.05</v>
       </c>
       <c r="R46" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
@@ -7024,22 +7024,22 @@
         <v>1.29</v>
       </c>
       <c r="W46" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X46" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z46" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA46" t="n">
         <v>9</v>
       </c>
       <c r="AB46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
         <v>11</v>
@@ -7069,16 +7069,16 @@
         <v>251</v>
       </c>
       <c r="AL46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN46" t="n">
         <v>9.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP46" t="n">
         <v>21</v>
@@ -7145,31 +7145,31 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R47" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U47" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V47" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W47" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="X47" t="n">
         <v>3.4</v>
@@ -7272,7 +7272,7 @@
         <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J48" t="n">
         <v>3</v>
@@ -7287,39 +7287,39 @@
         <v>1.07</v>
       </c>
       <c r="N48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P48" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R48" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W48" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X48" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z48" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA48" t="n">
         <v>7</v>
@@ -7340,19 +7340,19 @@
         <v>34</v>
       </c>
       <c r="AG48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH48" t="n">
         <v>6.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ48" t="n">
         <v>51</v>
       </c>
       <c r="AK48" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL48" t="n">
         <v>9</v>
@@ -7411,40 +7411,40 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="H49" t="n">
         <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K49" t="n">
         <v>2.1</v>
       </c>
       <c r="L49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="n">
         <v>2.7</v>
@@ -7471,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="AA49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB49" t="n">
         <v>13</v>
@@ -7480,7 +7480,7 @@
         <v>10</v>
       </c>
       <c r="AD49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE49" t="n">
         <v>21</v>
@@ -7498,22 +7498,22 @@
         <v>15</v>
       </c>
       <c r="AJ49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK49" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL49" t="n">
         <v>8.5</v>
       </c>
       <c r="AM49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN49" t="n">
         <v>10</v>
       </c>
       <c r="AO49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP49" t="n">
         <v>21</v>
@@ -7590,16 +7590,16 @@
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R50" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="T50" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U50" t="n">
         <v>2.75</v>
@@ -7671,10 +7671,10 @@
         <v>34</v>
       </c>
       <c r="AR50" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AS50" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="51">
@@ -8596,7 +8596,7 @@
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
@@ -8614,7 +8614,7 @@
         <v>3.55</v>
       </c>
       <c r="T57" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U57" t="n">
         <v>4.5</v>
@@ -8665,13 +8665,13 @@
         <v>67</v>
       </c>
       <c r="AK57" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL57" t="n">
         <v>6</v>
       </c>
       <c r="AM57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
@@ -8873,13 +8873,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>2.9</v>
       </c>
       <c r="I59" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J59" t="n">
         <v>4</v>
@@ -8888,13 +8888,13 @@
         <v>1.95</v>
       </c>
       <c r="L59" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M59" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O59" t="n">
         <v>1.44</v>
@@ -8945,7 +8945,7 @@
         <v>34</v>
       </c>
       <c r="AE59" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF59" t="n">
         <v>41</v>
@@ -8954,7 +8954,7 @@
         <v>6.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI59" t="n">
         <v>17</v>
@@ -8975,13 +8975,13 @@
         <v>10</v>
       </c>
       <c r="AO59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP59" t="n">
         <v>21</v>
       </c>
       <c r="AQ59" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR59" t="n">
         <v>1.83</v>
@@ -9163,28 +9163,28 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H61" t="n">
         <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K61" t="n">
         <v>2.05</v>
       </c>
       <c r="L61" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M61" t="n">
         <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.36</v>
@@ -9193,10 +9193,10 @@
         <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R61" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
@@ -9219,28 +9219,28 @@
         <v>1.83</v>
       </c>
       <c r="AA61" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB61" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC61" t="n">
         <v>10</v>
       </c>
-      <c r="AC61" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE61" t="n">
         <v>21</v>
       </c>
-      <c r="AE61" t="n">
-        <v>19</v>
-      </c>
       <c r="AF61" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG61" t="n">
         <v>8.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI61" t="n">
         <v>15</v>
@@ -9252,22 +9252,22 @@
         <v>301</v>
       </c>
       <c r="AL61" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO61" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ61" t="n">
         <v>34</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>41</v>
       </c>
       <c r="AR61" t="inlineStr"/>
       <c r="AS61" t="inlineStr"/>
@@ -9445,22 +9445,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H63" t="n">
         <v>5.4</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J63" t="n">
         <v>1.7</v>
       </c>
       <c r="K63" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="L63" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M63" t="n">
         <v>1.04</v>
@@ -9472,13 +9472,13 @@
         <v>1.2</v>
       </c>
       <c r="P63" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R63" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
@@ -9492,7 +9492,7 @@
         <v>1.31</v>
       </c>
       <c r="X63" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Y63" t="n">
         <v>2.1</v>
@@ -9504,13 +9504,13 @@
         <v>6.6</v>
       </c>
       <c r="AB63" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AC63" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AE63" t="n">
         <v>11.75</v>
@@ -9522,10 +9522,10 @@
         <v>9.5</v>
       </c>
       <c r="AH63" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI63" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ63" t="n">
         <v>150</v>
@@ -9534,7 +9534,7 @@
         <v>1000</v>
       </c>
       <c r="AL63" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM63" t="n">
         <v>75</v>
@@ -9549,7 +9549,7 @@
         <v>150</v>
       </c>
       <c r="AQ63" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -9745,16 +9745,16 @@
         <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O65" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P65" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q65" t="n">
         <v>1.7</v>
@@ -9769,10 +9769,10 @@
         <v>1.85</v>
       </c>
       <c r="U65" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V65" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W65" t="n">
         <v>1.33</v>
@@ -10013,34 +10013,34 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I67" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K67" t="n">
         <v>2.05</v>
       </c>
       <c r="L67" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M67" t="n">
         <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O67" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P67" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q67" t="n">
         <v>2.1</v>
@@ -10069,7 +10069,7 @@
         <v>1.91</v>
       </c>
       <c r="AA67" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB67" t="n">
         <v>17</v>
@@ -10450,46 +10450,46 @@
         <v>4.33</v>
       </c>
       <c r="I70" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K70" t="n">
         <v>2.5</v>
       </c>
       <c r="L70" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M70" t="n">
         <v>1.03</v>
       </c>
       <c r="N70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O70" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P70" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R70" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S70" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="T70" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U70" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V70" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W70" t="n">
         <v>1.29</v>
@@ -10595,42 +10595,42 @@
         <v>3.5</v>
       </c>
       <c r="I71" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J71" t="n">
         <v>2.6</v>
       </c>
       <c r="K71" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L71" t="n">
         <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N71" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O71" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P71" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="R71" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V71" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W71" t="n">
         <v>1.36</v>
@@ -10639,13 +10639,13 @@
         <v>3</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB71" t="n">
         <v>10</v>
@@ -10663,7 +10663,7 @@
         <v>23</v>
       </c>
       <c r="AG71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH71" t="n">
         <v>6.5</v>
@@ -10675,10 +10675,10 @@
         <v>41</v>
       </c>
       <c r="AK71" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM71" t="n">
         <v>21</v>
@@ -11165,16 +11165,16 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H75" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J75" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K75" t="n">
         <v>2.1</v>
@@ -11186,13 +11186,13 @@
         <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P75" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q75" t="n">
         <v>2.2</v>
@@ -11242,7 +11242,7 @@
         <v>8.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI75" t="n">
         <v>23</v>
@@ -11592,111 +11592,111 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H78" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I78" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="J78" t="n">
         <v>2.15</v>
       </c>
       <c r="K78" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L78" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="M78" t="n">
         <v>1.1</v>
       </c>
       <c r="N78" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O78" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P78" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="R78" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="n">
-        <v>4.05</v>
+        <v>4.25</v>
       </c>
       <c r="V78" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="W78" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="X78" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Y78" t="n">
-        <v>2.27</v>
+        <v>2.4</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AA78" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="AB78" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD78" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE78" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF78" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG78" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AH78" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ78" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AK78" t="n">
         <v>101</v>
       </c>
       <c r="AL78" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AM78" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO78" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AP78" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ78" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR78" t="inlineStr"/>
       <c r="AS78" t="inlineStr"/>
@@ -11882,22 +11882,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="J80" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K80" t="n">
         <v>2.1</v>
       </c>
       <c r="L80" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M80" t="n">
         <v>1.06</v>
@@ -11938,19 +11938,19 @@
         <v>1.95</v>
       </c>
       <c r="AA80" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC80" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD80" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE80" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF80" t="n">
         <v>34</v>
@@ -11974,16 +11974,16 @@
         <v>7.5</v>
       </c>
       <c r="AM80" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN80" t="n">
         <v>9</v>
       </c>
       <c r="AO80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP80" t="n">
         <v>19</v>
-      </c>
-      <c r="AP80" t="n">
-        <v>17</v>
       </c>
       <c r="AQ80" t="n">
         <v>29</v>
@@ -12595,22 +12595,22 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H85" t="n">
         <v>3.4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K85" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L85" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M85" t="n">
         <v>1.04</v>
@@ -12619,24 +12619,24 @@
         <v>13</v>
       </c>
       <c r="O85" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P85" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V85" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W85" t="n">
         <v>1.36</v>
@@ -12645,16 +12645,16 @@
         <v>3</v>
       </c>
       <c r="Y85" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z85" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA85" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC85" t="n">
         <v>9</v>
@@ -12690,7 +12690,7 @@
         <v>17</v>
       </c>
       <c r="AN85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO85" t="n">
         <v>34</v>
@@ -12766,10 +12766,10 @@
         <v>4</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R86" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
@@ -12877,13 +12877,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H87" t="n">
         <v>4.2</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J87" t="n">
         <v>2.05</v>
@@ -12895,16 +12895,16 @@
         <v>8</v>
       </c>
       <c r="M87" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N87" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O87" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P87" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q87" t="n">
         <v>2.2</v>
@@ -12931,10 +12931,10 @@
         <v>2.63</v>
       </c>
       <c r="Y87" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z87" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA87" t="n">
         <v>5</v>
@@ -13062,10 +13062,10 @@
         <v>1.93</v>
       </c>
       <c r="S88" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="T88" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U88" t="n">
         <v>3.25</v>
@@ -13092,7 +13092,7 @@
         <v>51</v>
       </c>
       <c r="AC88" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD88" t="n">
         <v>201</v>
@@ -13104,7 +13104,7 @@
         <v>101</v>
       </c>
       <c r="AG88" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH88" t="n">
         <v>11</v>
@@ -13137,10 +13137,10 @@
         <v>41</v>
       </c>
       <c r="AR88" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="89">
@@ -13178,10 +13178,10 @@
         <v>7.5</v>
       </c>
       <c r="H89" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="J89" t="n">
         <v>7.5</v>
@@ -13193,10 +13193,10 @@
         <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N89" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O89" t="n">
         <v>1.3</v>
@@ -13253,7 +13253,7 @@
         <v>51</v>
       </c>
       <c r="AG89" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AH89" t="n">
         <v>8</v>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H90" t="n">
         <v>3.8</v>
       </c>
       <c r="I90" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J90" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K90" t="n">
         <v>2.2</v>
@@ -13342,10 +13342,10 @@
         <v>6</v>
       </c>
       <c r="M90" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O90" t="n">
         <v>1.33</v>
@@ -13393,7 +13393,7 @@
         <v>8.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE90" t="n">
         <v>15</v>
@@ -13402,7 +13402,7 @@
         <v>29</v>
       </c>
       <c r="AG90" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH90" t="n">
         <v>7.5</v>
@@ -13414,7 +13414,7 @@
         <v>67</v>
       </c>
       <c r="AK90" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AL90" t="n">
         <v>13</v>
@@ -13423,10 +13423,10 @@
         <v>29</v>
       </c>
       <c r="AN90" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO90" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP90" t="n">
         <v>41</v>
@@ -14913,18 +14913,18 @@
         <v>2.75</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R101" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S101" t="inlineStr"/>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V101" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W101" t="n">
         <v>1.5</v>
@@ -16990,22 +16990,22 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I116" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J116" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K116" t="n">
         <v>1.95</v>
       </c>
       <c r="L116" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M116" t="n">
         <v>1.1</v>
@@ -17040,25 +17040,25 @@
         <v>2.25</v>
       </c>
       <c r="Y116" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z116" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA116" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC116" t="n">
         <v>9.5</v>
       </c>
       <c r="AD116" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE116" t="n">
         <v>19</v>
-      </c>
-      <c r="AE116" t="n">
-        <v>21</v>
       </c>
       <c r="AF116" t="n">
         <v>41</v>
@@ -17067,40 +17067,40 @@
         <v>6.5</v>
       </c>
       <c r="AH116" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI116" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ116" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK116" t="n">
         <v>101</v>
       </c>
       <c r="AL116" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM116" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN116" t="n">
         <v>17</v>
       </c>
-      <c r="AN116" t="n">
-        <v>13</v>
-      </c>
       <c r="AO116" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP116" t="n">
         <v>41</v>
       </c>
-      <c r="AP116" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ116" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR116" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="117">
@@ -17135,13 +17135,13 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H117" t="n">
         <v>3.1</v>
       </c>
       <c r="I117" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J117" t="n">
         <v>2.88</v>
@@ -17150,7 +17150,7 @@
         <v>1.95</v>
       </c>
       <c r="L117" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M117" t="n">
         <v>1.08</v>
@@ -17191,7 +17191,7 @@
         <v>1.62</v>
       </c>
       <c r="AA117" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB117" t="n">
         <v>8.5</v>
@@ -17200,7 +17200,7 @@
         <v>9.5</v>
       </c>
       <c r="AD117" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE117" t="n">
         <v>21</v>
@@ -17215,7 +17215,7 @@
         <v>6.5</v>
       </c>
       <c r="AI117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ117" t="n">
         <v>81</v>
@@ -17236,10 +17236,10 @@
         <v>41</v>
       </c>
       <c r="AP117" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ117" t="n">
         <v>41</v>
-      </c>
-      <c r="AQ117" t="n">
-        <v>51</v>
       </c>
       <c r="AR117" t="n">
         <v>1.85</v>
@@ -17570,22 +17570,22 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H120" t="n">
         <v>3.6</v>
       </c>
       <c r="I120" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J120" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K120" t="n">
         <v>2.38</v>
       </c>
       <c r="L120" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M120" t="n">
         <v>1.03</v>
@@ -17633,25 +17633,25 @@
         <v>13</v>
       </c>
       <c r="AB120" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC120" t="n">
         <v>11</v>
       </c>
       <c r="AD120" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE120" t="n">
         <v>21</v>
       </c>
       <c r="AF120" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG120" t="n">
         <v>17</v>
       </c>
       <c r="AH120" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI120" t="n">
         <v>11</v>
@@ -17669,13 +17669,13 @@
         <v>13</v>
       </c>
       <c r="AN120" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO120" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP120" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ120" t="n">
         <v>21</v>
@@ -17878,10 +17878,10 @@
         <v>3.4</v>
       </c>
       <c r="M122" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N122" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O122" t="n">
         <v>1.22</v>
@@ -17890,10 +17890,10 @@
         <v>4</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R122" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S122" t="n">
         <v>2.26</v>
@@ -18188,10 +18188,10 @@
         <v>4.33</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R124" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S124" t="n">
         <v>2.05</v>
@@ -18589,22 +18589,22 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I127" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="J127" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K127" t="n">
         <v>2.5</v>
       </c>
       <c r="L127" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M127" t="n">
         <v>1.03</v>
@@ -18625,10 +18625,10 @@
         <v>2.35</v>
       </c>
       <c r="S127" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T127" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U127" t="n">
         <v>2.38</v>
@@ -18643,34 +18643,34 @@
         <v>3.4</v>
       </c>
       <c r="Y127" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z127" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA127" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB127" t="n">
         <v>8</v>
-      </c>
-      <c r="AB127" t="n">
-        <v>7.5</v>
       </c>
       <c r="AC127" t="n">
         <v>8.5</v>
       </c>
       <c r="AD127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE127" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF127" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG127" t="n">
         <v>15</v>
       </c>
       <c r="AH127" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI127" t="n">
         <v>17</v>
@@ -18682,16 +18682,16 @@
         <v>201</v>
       </c>
       <c r="AL127" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM127" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN127" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO127" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP127" t="n">
         <v>41</v>
@@ -19016,22 +19016,22 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H130" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I130" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J130" t="n">
         <v>2.2</v>
       </c>
       <c r="K130" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L130" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M130" t="n">
         <v>1.05</v>
@@ -19081,7 +19081,7 @@
         <v>8.5</v>
       </c>
       <c r="AD130" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE130" t="n">
         <v>13</v>
@@ -19105,7 +19105,7 @@
         <v>351</v>
       </c>
       <c r="AL130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM130" t="n">
         <v>26</v>
@@ -19157,16 +19157,16 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H131" t="n">
         <v>3.4</v>
       </c>
       <c r="I131" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J131" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K131" t="n">
         <v>2.05</v>
@@ -19195,10 +19195,10 @@
       <c r="S131" t="inlineStr"/>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V131" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W131" t="n">
         <v>1.44</v>
@@ -19216,13 +19216,13 @@
         <v>6.5</v>
       </c>
       <c r="AB131" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC131" t="n">
         <v>9</v>
       </c>
       <c r="AD131" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE131" t="n">
         <v>17</v>
@@ -19243,7 +19243,7 @@
         <v>51</v>
       </c>
       <c r="AK131" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL131" t="n">
         <v>10</v>
@@ -19258,7 +19258,7 @@
         <v>41</v>
       </c>
       <c r="AP131" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ131" t="n">
         <v>41</v>
@@ -19298,22 +19298,22 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H132" t="n">
         <v>3</v>
       </c>
       <c r="I132" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J132" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K132" t="n">
         <v>1.91</v>
       </c>
       <c r="L132" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M132" t="n">
         <v>1.1</v>
@@ -19336,10 +19336,10 @@
       <c r="S132" t="inlineStr"/>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V132" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W132" t="n">
         <v>1.57</v>
@@ -19348,16 +19348,16 @@
         <v>2.25</v>
       </c>
       <c r="Y132" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z132" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA132" t="n">
         <v>8.5</v>
       </c>
       <c r="AB132" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC132" t="n">
         <v>15</v>
@@ -19366,7 +19366,7 @@
         <v>41</v>
       </c>
       <c r="AE132" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF132" t="n">
         <v>51</v>
@@ -19381,14 +19381,16 @@
         <v>19</v>
       </c>
       <c r="AJ132" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK132" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>501</v>
+      </c>
       <c r="AL132" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AM132" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN132" t="n">
         <v>9.5</v>
@@ -19441,66 +19443,66 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H133" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I133" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="J133" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K133" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L133" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M133" t="n">
         <v>1.04</v>
       </c>
       <c r="N133" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O133" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P133" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R133" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V133" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X133" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y133" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z133" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA133" t="n">
         <v>17</v>
       </c>
       <c r="AB133" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC133" t="n">
         <v>21</v>
@@ -19530,7 +19532,7 @@
         <v>401</v>
       </c>
       <c r="AL133" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM133" t="n">
         <v>6.5</v>
@@ -19588,7 +19590,7 @@
         <v>3.1</v>
       </c>
       <c r="I134" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J134" t="n">
         <v>3.1</v>
@@ -19671,7 +19673,7 @@
         <v>501</v>
       </c>
       <c r="AL134" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM134" t="n">
         <v>15</v>
@@ -20017,22 +20019,22 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>3</v>
       </c>
       <c r="I137" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J137" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K137" t="n">
         <v>1.95</v>
       </c>
       <c r="L137" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M137" t="n">
         <v>1.08</v>
@@ -20073,10 +20075,10 @@
         <v>1.73</v>
       </c>
       <c r="AA137" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB137" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC137" t="n">
         <v>11</v>
@@ -20109,13 +20111,13 @@
         <v>7</v>
       </c>
       <c r="AM137" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN137" t="n">
         <v>11</v>
       </c>
-      <c r="AN137" t="n">
-        <v>10</v>
-      </c>
       <c r="AO137" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP137" t="n">
         <v>23</v>
@@ -20444,22 +20446,22 @@
         </is>
       </c>
       <c r="G140" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H140" t="n">
         <v>3.6</v>
       </c>
-      <c r="H140" t="n">
+      <c r="I140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J140" t="n">
         <v>3.65</v>
       </c>
-      <c r="I140" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J140" t="n">
-        <v>3.85</v>
-      </c>
       <c r="K140" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L140" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="M140" t="n">
         <v>1.03</v>
@@ -20468,24 +20470,24 @@
         <v>9.25</v>
       </c>
       <c r="O140" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P140" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R140" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="S140" t="inlineStr"/>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V140" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="W140" t="n">
         <v>1.28</v>
@@ -20494,37 +20496,37 @@
         <v>3.35</v>
       </c>
       <c r="Y140" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Z140" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AA140" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AB140" t="n">
         <v>24</v>
       </c>
       <c r="AC140" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD140" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE140" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF140" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG140" t="n">
         <v>9.25</v>
       </c>
       <c r="AH140" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AI140" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AJ140" t="n">
         <v>32</v>
@@ -20533,10 +20535,10 @@
         <v>175</v>
       </c>
       <c r="AL140" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AM140" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AN140" t="n">
         <v>8.5</v>
@@ -20545,10 +20547,10 @@
         <v>19.5</v>
       </c>
       <c r="AP140" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ140" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR140" t="inlineStr"/>
       <c r="AS140" t="inlineStr"/>
@@ -20726,13 +20728,13 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H142" t="n">
+        <v>3</v>
+      </c>
+      <c r="I142" t="n">
         <v>2.95</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3</v>
       </c>
       <c r="J142" t="n">
         <v>3.15</v>
@@ -20741,30 +20743,30 @@
         <v>1.9</v>
       </c>
       <c r="L142" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M142" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N142" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O142" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P142" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="Q142" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="R142" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S142" t="inlineStr"/>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="V142" t="n">
         <v>1.18</v>
@@ -20773,19 +20775,19 @@
         <v>1.57</v>
       </c>
       <c r="X142" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="Y142" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="Z142" t="n">
         <v>1.7</v>
       </c>
       <c r="AA142" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB142" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AC142" t="n">
         <v>9.75</v>
@@ -20794,13 +20796,13 @@
         <v>24</v>
       </c>
       <c r="AE142" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF142" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG142" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AH142" t="n">
         <v>5.9</v>
@@ -20818,19 +20820,19 @@
         <v>7.4</v>
       </c>
       <c r="AM142" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AN142" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AO142" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP142" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AQ142" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR142" t="inlineStr"/>
       <c r="AS142" t="inlineStr"/>
@@ -21713,111 +21715,111 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="H149" t="n">
-        <v>4.25</v>
+        <v>4.65</v>
       </c>
       <c r="I149" t="n">
-        <v>5.7</v>
+        <v>7.3</v>
       </c>
       <c r="J149" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="K149" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L149" t="n">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="M149" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N149" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O149" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P149" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R149" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="V149" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W149" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X149" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Y149" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Z149" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="AA149" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AB149" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="AC149" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE149" t="n">
         <v>10.75</v>
       </c>
-      <c r="AE149" t="n">
-        <v>11.25</v>
-      </c>
       <c r="AF149" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG149" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH149" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AI149" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AJ149" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>175</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>75</v>
+      </c>
+      <c r="AQ149" t="n">
         <v>65</v>
-      </c>
-      <c r="AK149" t="n">
-        <v>450</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM149" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN149" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO149" t="n">
-        <v>110</v>
-      </c>
-      <c r="AP149" t="n">
-        <v>55</v>
-      </c>
-      <c r="AQ149" t="n">
-        <v>50</v>
       </c>
       <c r="AR149" t="inlineStr"/>
       <c r="AS149" t="inlineStr"/>
@@ -22845,48 +22847,48 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H157" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I157" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J157" t="n">
         <v>1.8</v>
       </c>
       <c r="K157" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L157" t="n">
         <v>11</v>
       </c>
       <c r="M157" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N157" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P157" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R157" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V157" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="W157" t="n">
         <v>1.4</v>
@@ -22919,37 +22921,37 @@
         <v>41</v>
       </c>
       <c r="AG157" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH157" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI157" t="n">
         <v>34</v>
       </c>
       <c r="AJ157" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK157" t="n">
         <v>101</v>
       </c>
       <c r="AL157" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AM157" t="n">
         <v>51</v>
       </c>
       <c r="AN157" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AO157" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AP157" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AQ157" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR157" t="inlineStr"/>
       <c r="AS157" t="inlineStr"/>
@@ -23127,84 +23129,84 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I159" t="n">
-        <v>4.75</v>
+        <v>4.1</v>
       </c>
       <c r="J159" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="K159" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L159" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M159" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N159" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="O159" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P159" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="R159" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="V159" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W159" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X159" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y159" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA159" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB159" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC159" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD159" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE159" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF159" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG159" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH159" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI159" t="n">
         <v>17</v>
@@ -23216,16 +23218,16 @@
         <v>351</v>
       </c>
       <c r="AL159" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AM159" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AN159" t="n">
         <v>15</v>
       </c>
       <c r="AO159" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP159" t="n">
         <v>41</v>
@@ -23274,7 +23276,7 @@
         <v>3.3</v>
       </c>
       <c r="I160" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J160" t="n">
         <v>2.63</v>
@@ -23286,10 +23288,10 @@
         <v>4.33</v>
       </c>
       <c r="M160" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O160" t="n">
         <v>1.3</v>
@@ -23318,10 +23320,10 @@
         <v>2.63</v>
       </c>
       <c r="Y160" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z160" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA160" t="n">
         <v>7</v>
@@ -23363,7 +23365,7 @@
         <v>21</v>
       </c>
       <c r="AN160" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO160" t="n">
         <v>41</v>
@@ -23550,115 +23552,115 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H162" t="n">
         <v>4.5</v>
       </c>
       <c r="I162" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J162" t="n">
         <v>1.91</v>
       </c>
       <c r="K162" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L162" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M162" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N162" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O162" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P162" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R162" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S162" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="T162" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y162" t="n">
         <v>1.8</v>
       </c>
-      <c r="U162" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V162" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W162" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X162" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y162" t="n">
+      <c r="Z162" t="n">
         <v>1.91</v>
       </c>
-      <c r="Z162" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AA162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB162" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AB162" t="n">
-        <v>7</v>
       </c>
       <c r="AC162" t="n">
         <v>8.5</v>
       </c>
       <c r="AD162" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE162" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF162" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG162" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH162" t="n">
         <v>9</v>
       </c>
       <c r="AI162" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ162" t="n">
         <v>51</v>
       </c>
       <c r="AK162" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AL162" t="n">
         <v>19</v>
       </c>
       <c r="AM162" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN162" t="n">
         <v>21</v>
       </c>
       <c r="AO162" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP162" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ162" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR162" t="inlineStr"/>
       <c r="AS162" t="inlineStr"/>
@@ -23695,67 +23697,67 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I163" t="n">
         <v>3.4</v>
       </c>
       <c r="J163" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K163" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L163" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M163" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N163" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O163" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R163" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="S163" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="T163" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="U163" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="V163" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="W163" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X163" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y163" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Z163" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AA163" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB163" t="n">
         <v>11</v>
@@ -23770,28 +23772,28 @@
         <v>15</v>
       </c>
       <c r="AF163" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG163" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH163" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI163" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ163" t="n">
         <v>41</v>
       </c>
       <c r="AK163" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL163" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM163" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN163" t="n">
         <v>12</v>
@@ -23800,10 +23802,10 @@
         <v>41</v>
       </c>
       <c r="AP163" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ163" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR163" t="inlineStr"/>
       <c r="AS163" t="inlineStr"/>
@@ -24831,10 +24833,10 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H171" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I171" t="n">
         <v>5</v>
@@ -24843,7 +24845,7 @@
         <v>2.1</v>
       </c>
       <c r="K171" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L171" t="n">
         <v>5</v>
@@ -24855,16 +24857,16 @@
         <v>15</v>
       </c>
       <c r="O171" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P171" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q171" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R171" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S171" t="n">
         <v>2.05</v>
@@ -24873,28 +24875,28 @@
         <v>1.8</v>
       </c>
       <c r="U171" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V171" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W171" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X171" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y171" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z171" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA171" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB171" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC171" t="n">
         <v>8.5</v>
@@ -24906,10 +24908,10 @@
         <v>12</v>
       </c>
       <c r="AF171" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG171" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH171" t="n">
         <v>8</v>
@@ -24918,19 +24920,19 @@
         <v>15</v>
       </c>
       <c r="AJ171" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK171" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL171" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM171" t="n">
         <v>29</v>
       </c>
       <c r="AN171" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO171" t="n">
         <v>51</v>
@@ -25351,10 +25353,10 @@
         <v>3.6</v>
       </c>
       <c r="M175" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N175" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O175" t="n">
         <v>1.29</v>
@@ -25755,41 +25757,41 @@
         <v>1.42</v>
       </c>
       <c r="H178" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I178" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J178" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K178" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L178" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P178" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R178" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="V178" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="W178" t="n">
         <v>1.39</v>
@@ -25798,13 +25800,13 @@
         <v>2.57</v>
       </c>
       <c r="Y178" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AA178" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB178" t="n">
         <v>6.2</v>
@@ -25816,13 +25818,13 @@
         <v>9</v>
       </c>
       <c r="AE178" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF178" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG178" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AH178" t="n">
         <v>8.25</v>
@@ -25831,13 +25833,13 @@
         <v>21</v>
       </c>
       <c r="AJ178" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK178" t="n">
         <v>900</v>
       </c>
       <c r="AL178" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM178" t="n">
         <v>45</v>
@@ -25852,7 +25854,7 @@
         <v>90</v>
       </c>
       <c r="AQ178" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -26167,19 +26169,19 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="H181" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="I181" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="J181" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K181" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="L181" t="n">
         <v>2.72</v>
@@ -26188,42 +26190,42 @@
         <v>1.03</v>
       </c>
       <c r="N181" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O181" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="P181" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="R181" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="V181" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W181" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X181" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="Y181" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Z181" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="AA181" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB181" t="n">
         <v>17</v>
@@ -26235,43 +26237,43 @@
         <v>32</v>
       </c>
       <c r="AE181" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF181" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG181" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH181" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AI181" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL181" t="n">
         <v>11.5</v>
       </c>
-      <c r="AJ181" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK181" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL181" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AM181" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AN181" t="n">
         <v>9.25</v>
       </c>
       <c r="AO181" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP181" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ181" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR181" t="inlineStr"/>
       <c r="AS181" t="inlineStr"/>
@@ -26308,108 +26310,108 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H182" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="I182" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="J182" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="K182" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="L182" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="M182" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N182" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="O182" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P182" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="Q182" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R182" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
       <c r="U182" t="n">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="V182" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W182" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="X182" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="Y182" t="n">
         <v>1.65</v>
       </c>
       <c r="Z182" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AA182" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC182" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB182" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC182" t="n">
-        <v>13</v>
-      </c>
       <c r="AD182" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AE182" t="n">
         <v>32</v>
       </c>
       <c r="AF182" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG182" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AH182" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AI182" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ182" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK182" t="n">
         <v>350</v>
       </c>
       <c r="AL182" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AM182" t="n">
         <v>9.5</v>
       </c>
       <c r="AN182" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO182" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP182" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ182" t="n">
         <v>22</v>
@@ -26594,22 +26596,22 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H184" t="n">
         <v>3.1</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J184" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K184" t="n">
         <v>2</v>
       </c>
       <c r="L184" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M184" t="n">
         <v>1.08</v>
@@ -26618,10 +26620,10 @@
         <v>8</v>
       </c>
       <c r="O184" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P184" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q184" t="n">
         <v>2.25</v>
@@ -26650,7 +26652,7 @@
         <v>1.8</v>
       </c>
       <c r="AA184" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB184" t="n">
         <v>11</v>
@@ -26683,16 +26685,16 @@
         <v>351</v>
       </c>
       <c r="AL184" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM184" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN184" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO184" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP184" t="n">
         <v>26</v>
@@ -27311,13 +27313,13 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H189" t="n">
         <v>3.5</v>
       </c>
       <c r="I189" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J189" t="n">
         <v>2.75</v>
@@ -27371,7 +27373,7 @@
         <v>2.25</v>
       </c>
       <c r="AA189" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB189" t="n">
         <v>12</v>
@@ -27738,22 +27740,22 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H192" t="n">
         <v>2.9</v>
       </c>
       <c r="I192" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="J192" t="n">
         <v>3.45</v>
       </c>
       <c r="K192" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="L192" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M192" t="inlineStr"/>
       <c r="N192" t="inlineStr"/>
@@ -27764,7 +27766,7 @@
         <v>2.47</v>
       </c>
       <c r="Q192" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R192" t="n">
         <v>1.53</v>
@@ -27772,7 +27774,7 @@
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
       <c r="U192" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="V192" t="n">
         <v>1.19</v>
@@ -27790,10 +27792,10 @@
         <v>1.75</v>
       </c>
       <c r="AA192" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB192" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC192" t="n">
         <v>10.5</v>
@@ -27814,16 +27816,16 @@
         <v>5.7</v>
       </c>
       <c r="AI192" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AJ192" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK192" t="n">
         <v>800</v>
       </c>
       <c r="AL192" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AM192" t="n">
         <v>12</v>
@@ -27832,7 +27834,7 @@
         <v>9.75</v>
       </c>
       <c r="AO192" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP192" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -1550,28 +1550,28 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.75</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L8" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O8" t="n">
         <v>1.13</v>
@@ -1580,24 +1580,24 @@
         <v>6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
         <v>1.5</v>
@@ -1606,28 +1606,28 @@
         <v>2.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
         <v>51</v>
       </c>
       <c r="AE8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF8" t="n">
         <v>34</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>29</v>
       </c>
       <c r="AG8" t="n">
         <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
         <v>13</v>
@@ -1639,7 +1639,7 @@
         <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM8" t="n">
         <v>10</v>
@@ -1654,7 +1654,7 @@
         <v>11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="inlineStr"/>
       <c r="AS8" t="inlineStr"/>
@@ -1977,13 +1977,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J11" t="n">
         <v>3.6</v>
@@ -1992,13 +1992,13 @@
         <v>2.4</v>
       </c>
       <c r="L11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -2013,10 +2013,10 @@
         <v>2.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="T11" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="U11" t="n">
         <v>2.3</v>
@@ -2031,10 +2031,10 @@
         <v>3.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2046,13 +2046,13 @@
         <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
         <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
         <v>19</v>
@@ -2064,25 +2064,25 @@
         <v>11</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN11" t="n">
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ11" t="n">
         <v>19</v>
@@ -2426,16 +2426,16 @@
         <v>2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
         <v>1.67</v>
@@ -2446,10 +2446,10 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
         <v>1.33</v>
@@ -2549,22 +2549,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
         <v>4.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -2605,7 +2605,7 @@
         <v>1.8</v>
       </c>
       <c r="AA15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB15" t="n">
         <v>21</v>
@@ -2614,10 +2614,10 @@
         <v>15</v>
       </c>
       <c r="AD15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE15" t="n">
         <v>41</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>34</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
@@ -2641,10 +2641,10 @@
         <v>6.5</v>
       </c>
       <c r="AM15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN15" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>9</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -3409,40 +3409,40 @@
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.7</v>
       </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.88</v>
-      </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
         <v>1.83</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
@@ -3453,10 +3453,10 @@
         <v>1.13</v>
       </c>
       <c r="W21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y21" t="n">
         <v>2.25</v>
@@ -3465,16 +3465,16 @@
         <v>1.57</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -3483,7 +3483,7 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH21" t="n">
         <v>6</v>
@@ -3498,13 +3498,13 @@
         <v>1250</v>
       </c>
       <c r="AL21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -3563,7 +3563,7 @@
         <v>7</v>
       </c>
       <c r="J22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
@@ -3659,10 +3659,10 @@
         <v>67</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="23">
@@ -3697,22 +3697,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H23" t="n">
         <v>2.8</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M23" t="n">
         <v>1.17</v>
@@ -3721,22 +3721,22 @@
         <v>5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R23" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S23" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="U23" t="n">
         <v>8</v>
@@ -3757,19 +3757,19 @@
         <v>1.44</v>
       </c>
       <c r="AA23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
       </c>
       <c r="AD23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
@@ -3781,7 +3781,7 @@
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ23" t="n">
         <v>126</v>
@@ -3790,13 +3790,13 @@
         <v>451</v>
       </c>
       <c r="AL23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AM23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
         <v>41</v>
@@ -3858,7 +3858,7 @@
         <v>2.75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L24" t="n">
         <v>4.75</v>
@@ -3882,10 +3882,10 @@
         <v>1.5</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U24" t="n">
         <v>5</v>
@@ -3957,10 +3957,10 @@
         <v>51</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="25">
@@ -3995,13 +3995,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
         <v>3.1</v>
@@ -4019,34 +4019,34 @@
         <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y25" t="n">
         <v>1.91</v>
@@ -4055,10 +4055,10 @@
         <v>1.91</v>
       </c>
       <c r="AA25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC25" t="n">
         <v>9.5</v>
@@ -4073,7 +4073,7 @@
         <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH25" t="n">
         <v>6</v>
@@ -4100,7 +4100,7 @@
         <v>34</v>
       </c>
       <c r="AP25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
@@ -4144,28 +4144,28 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I26" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J26" t="n">
         <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="L26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="N26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.83</v>
@@ -4194,10 +4194,10 @@
         <v>1.95</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA26" t="n">
         <v>5.5</v>
@@ -4212,7 +4212,7 @@
         <v>34</v>
       </c>
       <c r="AE26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
@@ -4224,16 +4224,16 @@
         <v>6.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK26" t="n">
         <v>101</v>
       </c>
       <c r="AL26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AM26" t="n">
         <v>11</v>
@@ -4288,16 +4288,16 @@
         <v>1.7</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
         <v>2.5</v>
       </c>
       <c r="K27" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="L27" t="n">
         <v>7</v>
@@ -4309,10 +4309,10 @@
         <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q27" t="n">
         <v>3.1</v>
@@ -4350,7 +4350,7 @@
         <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>21</v>
@@ -4377,10 +4377,10 @@
         <v>8.5</v>
       </c>
       <c r="AM27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>67</v>
@@ -4430,28 +4430,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H28" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J28" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="L28" t="n">
         <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O28" t="n">
         <v>1.67</v>
@@ -4495,7 +4495,7 @@
         <v>12</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -4522,13 +4522,13 @@
         <v>6.5</v>
       </c>
       <c r="AM28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP28" t="n">
         <v>41</v>
@@ -4881,10 +4881,10 @@
         <v>5.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P31" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q31" t="n">
         <v>3.1</v>
@@ -5020,10 +5020,10 @@
         <v>6.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N32" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="O32" t="n">
         <v>1.73</v>
@@ -5032,18 +5032,18 @@
         <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V32" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W32" t="n">
         <v>1.75</v>
@@ -5187,10 +5187,10 @@
         <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X33" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="Y33" t="n">
         <v>2.5</v>
@@ -6701,78 +6701,78 @@
         <v>2.75</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="J44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K44" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="R44" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="V44" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X44" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y44" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z44" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA44" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD44" t="n">
         <v>29</v>
       </c>
       <c r="AE44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH44" t="n">
         <v>6.5</v>
@@ -6781,16 +6781,16 @@
         <v>15</v>
       </c>
       <c r="AJ44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK44" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN44" t="n">
         <v>9.5</v>
@@ -6799,10 +6799,10 @@
         <v>23</v>
       </c>
       <c r="AP44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR44" t="inlineStr"/>
       <c r="AS44" t="inlineStr"/>
@@ -6839,16 +6839,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>3.2</v>
       </c>
       <c r="I45" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J45" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K45" t="n">
         <v>2.05</v>
@@ -6889,10 +6889,10 @@
         <v>2.63</v>
       </c>
       <c r="Y45" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Z45" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AA45" t="n">
         <v>9</v>
@@ -6907,10 +6907,10 @@
         <v>34</v>
       </c>
       <c r="AE45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG45" t="n">
         <v>9</v>
@@ -6928,10 +6928,10 @@
         <v>301</v>
       </c>
       <c r="AL45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AN45" t="n">
         <v>9.5</v>
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
@@ -7130,7 +7130,7 @@
         <v>3.3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K47" t="n">
         <v>2.38</v>
@@ -7151,16 +7151,16 @@
         <v>4.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T47" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U47" t="n">
         <v>2.5</v>
@@ -7184,7 +7184,7 @@
         <v>10</v>
       </c>
       <c r="AB47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC47" t="n">
         <v>9</v>
@@ -7208,16 +7208,16 @@
         <v>12</v>
       </c>
       <c r="AJ47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK47" t="n">
         <v>126</v>
       </c>
       <c r="AL47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN47" t="n">
         <v>12</v>
@@ -7590,10 +7590,10 @@
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S50" t="n">
         <v>2.31</v>
@@ -8575,28 +8575,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
         <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
         <v>4.5</v>
       </c>
       <c r="K57" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M57" t="n">
         <v>1.08</v>
       </c>
       <c r="N57" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.44</v>
@@ -8665,19 +8665,19 @@
         <v>67</v>
       </c>
       <c r="AK57" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL57" t="n">
         <v>6</v>
       </c>
       <c r="AM57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AN57" t="n">
         <v>9.5</v>
       </c>
       <c r="AO57" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP57" t="n">
         <v>19</v>
@@ -8727,7 +8727,7 @@
         <v>2.7</v>
       </c>
       <c r="H58" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I58" t="n">
         <v>2.8</v>
@@ -8748,10 +8748,10 @@
         <v>6.5</v>
       </c>
       <c r="O58" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P58" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q58" t="n">
         <v>2.7</v>
@@ -8760,16 +8760,16 @@
         <v>1.44</v>
       </c>
       <c r="S58" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T58" t="n">
         <v>1.19</v>
       </c>
       <c r="U58" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V58" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W58" t="n">
         <v>1.62</v>
@@ -8778,10 +8778,10 @@
         <v>2.2</v>
       </c>
       <c r="Y58" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA58" t="n">
         <v>6.5</v>
@@ -9448,84 +9448,84 @@
         <v>1.28</v>
       </c>
       <c r="H63" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I63" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="J63" t="n">
         <v>1.7</v>
       </c>
       <c r="K63" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="L63" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="M63" t="n">
         <v>1.04</v>
       </c>
       <c r="N63" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="O63" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P63" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R63" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="n">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="V63" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="W63" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X63" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Z63" t="n">
         <v>1.65</v>
       </c>
       <c r="AA63" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB63" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC63" t="n">
         <v>9.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AE63" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF63" t="n">
         <v>35</v>
       </c>
       <c r="AG63" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH63" t="n">
         <v>11.25</v>
       </c>
       <c r="AI63" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ63" t="n">
         <v>150</v>
@@ -9549,7 +9549,7 @@
         <v>150</v>
       </c>
       <c r="AQ63" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR63" t="inlineStr"/>
       <c r="AS63" t="inlineStr"/>
@@ -10013,13 +10013,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H67" t="n">
         <v>3.2</v>
       </c>
       <c r="I67" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
         <v>4.33</v>
@@ -10034,7 +10034,7 @@
         <v>1.07</v>
       </c>
       <c r="N67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O67" t="n">
         <v>1.36</v>
@@ -10043,10 +10043,10 @@
         <v>3</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R67" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
@@ -10063,16 +10063,16 @@
         <v>2.63</v>
       </c>
       <c r="Y67" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z67" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA67" t="n">
         <v>10</v>
       </c>
       <c r="AB67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC67" t="n">
         <v>13</v>
@@ -10081,7 +10081,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF67" t="n">
         <v>41</v>
@@ -10105,16 +10105,16 @@
         <v>7</v>
       </c>
       <c r="AM67" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN67" t="n">
         <v>9</v>
       </c>
       <c r="AO67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ67" t="n">
         <v>29</v>
@@ -10592,16 +10592,16 @@
         <v>1.95</v>
       </c>
       <c r="H71" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I71" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J71" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K71" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L71" t="n">
         <v>4</v>
@@ -10633,22 +10633,22 @@
         <v>1.44</v>
       </c>
       <c r="W71" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X71" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y71" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z71" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA71" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB71" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC71" t="n">
         <v>8.5</v>
@@ -10660,16 +10660,16 @@
         <v>15</v>
       </c>
       <c r="AF71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI71" t="n">
         <v>12</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>13</v>
       </c>
       <c r="AJ71" t="n">
         <v>41</v>
@@ -10690,10 +10690,10 @@
         <v>41</v>
       </c>
       <c r="AP71" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ71" t="n">
         <v>29</v>
-      </c>
-      <c r="AQ71" t="n">
-        <v>34</v>
       </c>
       <c r="AR71" t="inlineStr"/>
       <c r="AS71" t="inlineStr"/>
@@ -11020,28 +11020,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="H74" t="n">
         <v>4.75</v>
       </c>
       <c r="I74" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K74" t="n">
         <v>2.5</v>
       </c>
       <c r="L74" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M74" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N74" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O74" t="n">
         <v>1.17</v>
@@ -11056,16 +11056,16 @@
         <v>2.4</v>
       </c>
       <c r="S74" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T74" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="U74" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V74" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W74" t="n">
         <v>1.29</v>
@@ -11074,16 +11074,16 @@
         <v>3.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z74" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA74" t="n">
         <v>9</v>
       </c>
       <c r="AB74" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC74" t="n">
         <v>8.5</v>
@@ -11122,7 +11122,7 @@
         <v>17</v>
       </c>
       <c r="AO74" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP74" t="n">
         <v>41</v>
@@ -11189,10 +11189,10 @@
         <v>9</v>
       </c>
       <c r="O75" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P75" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q75" t="n">
         <v>2.2</v>
@@ -11310,66 +11310,66 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H76" t="n">
         <v>4.33</v>
       </c>
       <c r="I76" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J76" t="n">
         <v>2.05</v>
       </c>
       <c r="K76" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M76" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O76" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P76" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q76" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R76" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="V76" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="W76" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X76" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AA76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB76" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC76" t="n">
         <v>8.5</v>
@@ -11378,25 +11378,25 @@
         <v>11</v>
       </c>
       <c r="AE76" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG76" t="n">
         <v>13</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>12</v>
       </c>
       <c r="AH76" t="n">
         <v>8.5</v>
       </c>
       <c r="AI76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ76" t="n">
         <v>51</v>
       </c>
       <c r="AK76" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AL76" t="n">
         <v>15</v>
@@ -11408,7 +11408,7 @@
         <v>17</v>
       </c>
       <c r="AO76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP76" t="n">
         <v>41</v>
@@ -11592,40 +11592,40 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="H78" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I78" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="J78" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="K78" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L78" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N78" t="n">
         <v>6.6</v>
       </c>
-      <c r="M78" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N78" t="n">
-        <v>5.7</v>
-      </c>
       <c r="O78" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="P78" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="Q78" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="R78" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="S78" t="inlineStr"/>
       <c r="T78" t="inlineStr"/>
@@ -11633,67 +11633,67 @@
         <v>4.25</v>
       </c>
       <c r="V78" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W78" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X78" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="Y78" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="Z78" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA78" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="AB78" t="n">
         <v>5.8</v>
       </c>
       <c r="AC78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE78" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF78" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG78" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="AH78" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AI78" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ78" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AK78" t="n">
         <v>101</v>
       </c>
       <c r="AL78" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AM78" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AN78" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO78" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AP78" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AQ78" t="n">
         <v>110</v>
@@ -12736,13 +12736,13 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H86" t="n">
         <v>3.4</v>
       </c>
       <c r="I86" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J86" t="n">
         <v>3.1</v>
@@ -12760,24 +12760,24 @@
         <v>13</v>
       </c>
       <c r="O86" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P86" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R86" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V86" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W86" t="n">
         <v>1.33</v>
@@ -12792,16 +12792,16 @@
         <v>2.25</v>
       </c>
       <c r="AA86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB86" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC86" t="n">
         <v>10</v>
       </c>
       <c r="AD86" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE86" t="n">
         <v>19</v>
@@ -12822,7 +12822,7 @@
         <v>41</v>
       </c>
       <c r="AK86" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL86" t="n">
         <v>11</v>
@@ -12837,7 +12837,7 @@
         <v>26</v>
       </c>
       <c r="AP86" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ86" t="n">
         <v>26</v>
@@ -13184,19 +13184,19 @@
         <v>1.48</v>
       </c>
       <c r="J89" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K89" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L89" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="M89" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N89" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O89" t="n">
         <v>1.3</v>
@@ -13205,10 +13205,10 @@
         <v>3.4</v>
       </c>
       <c r="Q89" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R89" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S89" t="n">
         <v>2.85</v>
@@ -13238,10 +13238,10 @@
         <v>15</v>
       </c>
       <c r="AB89" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD89" t="n">
         <v>81</v>
@@ -13271,7 +13271,7 @@
         <v>6</v>
       </c>
       <c r="AM89" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AN89" t="n">
         <v>8.5</v>
@@ -13324,22 +13324,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I90" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K90" t="n">
         <v>2.2</v>
       </c>
       <c r="L90" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M90" t="n">
         <v>1.06</v>
@@ -13348,16 +13348,16 @@
         <v>9.5</v>
       </c>
       <c r="O90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P90" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q90" t="n">
         <v>2.05</v>
       </c>
       <c r="R90" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S90" t="n">
         <v>2.95</v>
@@ -13378,22 +13378,22 @@
         <v>2.63</v>
       </c>
       <c r="Y90" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Z90" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AA90" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC90" t="n">
         <v>8.5</v>
       </c>
       <c r="AD90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE90" t="n">
         <v>15</v>
@@ -13405,22 +13405,22 @@
         <v>9.5</v>
       </c>
       <c r="AH90" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI90" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ90" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK90" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AL90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM90" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN90" t="n">
         <v>17</v>
@@ -13432,7 +13432,7 @@
         <v>41</v>
       </c>
       <c r="AQ90" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR90" t="n">
         <v>1.55</v>
@@ -13614,10 +13614,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H92" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I92" t="n">
         <v>1.62</v>
@@ -13629,13 +13629,13 @@
         <v>2.25</v>
       </c>
       <c r="L92" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M92" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O92" t="n">
         <v>1.29</v>
@@ -13673,7 +13673,7 @@
         <v>15</v>
       </c>
       <c r="AB92" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC92" t="n">
         <v>17</v>
@@ -14177,63 +14177,63 @@
         <v>1.53</v>
       </c>
       <c r="H96" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I96" t="n">
         <v>5.25</v>
       </c>
       <c r="J96" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K96" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L96" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M96" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N96" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O96" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P96" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R96" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S96" t="inlineStr"/>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V96" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="W96" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X96" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y96" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Z96" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AA96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB96" t="n">
         <v>6.5</v>
-      </c>
-      <c r="AB96" t="n">
-        <v>7</v>
       </c>
       <c r="AC96" t="n">
         <v>8.5</v>
@@ -14248,19 +14248,19 @@
         <v>29</v>
       </c>
       <c r="AG96" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AH96" t="n">
         <v>8</v>
       </c>
       <c r="AI96" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ96" t="n">
         <v>67</v>
       </c>
       <c r="AK96" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AL96" t="n">
         <v>13</v>
@@ -14269,16 +14269,16 @@
         <v>29</v>
       </c>
       <c r="AN96" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO96" t="n">
         <v>67</v>
       </c>
       <c r="AP96" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ96" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR96" t="inlineStr"/>
       <c r="AS96" t="inlineStr"/>
@@ -14315,28 +14315,28 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J97" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K97" t="n">
         <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M97" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N97" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O97" t="n">
         <v>1.4</v>
@@ -14345,10 +14345,10 @@
         <v>2.75</v>
       </c>
       <c r="Q97" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R97" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S97" t="inlineStr"/>
       <c r="T97" t="inlineStr"/>
@@ -14359,10 +14359,10 @@
         <v>1.2</v>
       </c>
       <c r="W97" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X97" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y97" t="n">
         <v>2</v>
@@ -14374,22 +14374,22 @@
         <v>6.5</v>
       </c>
       <c r="AB97" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC97" t="n">
         <v>9.5</v>
       </c>
       <c r="AD97" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE97" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF97" t="n">
         <v>34</v>
       </c>
       <c r="AG97" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH97" t="n">
         <v>6</v>
@@ -14404,13 +14404,13 @@
         <v>351</v>
       </c>
       <c r="AL97" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM97" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN97" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO97" t="n">
         <v>41</v>
@@ -14421,8 +14421,12 @@
       <c r="AQ97" t="n">
         <v>41</v>
       </c>
-      <c r="AR97" t="inlineStr"/>
-      <c r="AS97" t="inlineStr"/>
+      <c r="AR97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -16470,16 +16474,16 @@
         <v>15</v>
       </c>
       <c r="O112" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P112" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q112" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R112" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S112" t="n">
         <v>2.05</v>
@@ -16724,103 +16728,103 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="I114" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J114" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="L114" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P114" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q114" t="n">
         <v>1.65</v>
       </c>
       <c r="R114" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="V114" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W114" t="inlineStr"/>
       <c r="X114" t="inlineStr"/>
       <c r="Y114" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Z114" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AA114" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB114" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AC114" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AD114" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AE114" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF114" t="n">
         <v>24</v>
       </c>
       <c r="AG114" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH114" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AI114" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AJ114" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AK114" t="n">
         <v>500</v>
       </c>
       <c r="AL114" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM114" t="n">
         <v>40</v>
       </c>
       <c r="AN114" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO114" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AP114" t="n">
         <v>60</v>
       </c>
       <c r="AQ114" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR114" t="inlineStr"/>
       <c r="AS114" t="inlineStr"/>
@@ -16857,22 +16861,22 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="H115" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I115" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="J115" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K115" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L115" t="n">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
@@ -16880,80 +16884,84 @@
         <v>1.25</v>
       </c>
       <c r="P115" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q115" t="n">
         <v>1.75</v>
       </c>
       <c r="R115" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S115" t="inlineStr"/>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="V115" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
+        <v>1.35</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X115" t="n">
+        <v>2.57</v>
+      </c>
       <c r="Y115" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Z115" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA115" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC115" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD115" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE115" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF115" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG115" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH115" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI115" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ115" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK115" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL115" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM115" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN115" t="n">
         <v>9</v>
       </c>
       <c r="AO115" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AP115" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ115" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR115" t="inlineStr"/>
       <c r="AS115" t="inlineStr"/>
@@ -17135,22 +17143,22 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I117" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="J117" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K117" t="n">
         <v>1.95</v>
       </c>
       <c r="L117" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M117" t="n">
         <v>1.08</v>
@@ -17179,10 +17187,10 @@
         <v>1.17</v>
       </c>
       <c r="W117" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X117" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y117" t="n">
         <v>2.2</v>
@@ -17191,19 +17199,19 @@
         <v>1.62</v>
       </c>
       <c r="AA117" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB117" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC117" t="n">
         <v>9.5</v>
       </c>
       <c r="AD117" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE117" t="n">
         <v>19</v>
-      </c>
-      <c r="AE117" t="n">
-        <v>21</v>
       </c>
       <c r="AF117" t="n">
         <v>41</v>
@@ -17215,7 +17223,7 @@
         <v>6.5</v>
       </c>
       <c r="AI117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ117" t="n">
         <v>81</v>
@@ -17224,22 +17232,22 @@
         <v>101</v>
       </c>
       <c r="AL117" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM117" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AN117" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO117" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP117" t="n">
         <v>41</v>
       </c>
-      <c r="AP117" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ117" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR117" t="n">
         <v>1.85</v>
@@ -17280,13 +17288,13 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H118" t="n">
         <v>2.9</v>
       </c>
       <c r="I118" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J118" t="n">
         <v>2.88</v>
@@ -17295,13 +17303,13 @@
         <v>1.91</v>
       </c>
       <c r="L118" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M118" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N118" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O118" t="n">
         <v>1.5</v>
@@ -17324,28 +17332,28 @@
         <v>1.17</v>
       </c>
       <c r="W118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z118" t="n">
         <v>1.62</v>
-      </c>
-      <c r="X118" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y118" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z118" t="n">
-        <v>1.57</v>
       </c>
       <c r="AA118" t="n">
         <v>5.5</v>
       </c>
       <c r="AB118" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC118" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD118" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE118" t="n">
         <v>21</v>
@@ -17354,13 +17362,13 @@
         <v>41</v>
       </c>
       <c r="AG118" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH118" t="n">
         <v>6</v>
       </c>
       <c r="AI118" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ118" t="n">
         <v>81</v>
@@ -17378,7 +17386,7 @@
         <v>15</v>
       </c>
       <c r="AO118" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP118" t="n">
         <v>41</v>
@@ -17715,19 +17723,19 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H121" t="n">
         <v>3.4</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J121" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K121" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
         <v>4</v>
@@ -17774,7 +17782,7 @@
         <v>6.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC121" t="n">
         <v>10</v>
@@ -17807,10 +17815,10 @@
         <v>7.5</v>
       </c>
       <c r="AM121" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO121" t="n">
         <v>34</v>
@@ -17860,28 +17868,28 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H122" t="n">
         <v>3.2</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J122" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K122" t="n">
         <v>2.25</v>
       </c>
       <c r="L122" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M122" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N122" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O122" t="n">
         <v>1.22</v>
@@ -17890,10 +17898,10 @@
         <v>4</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R122" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S122" t="n">
         <v>2.26</v>
@@ -17920,16 +17928,16 @@
         <v>2.25</v>
       </c>
       <c r="AA122" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC122" t="n">
         <v>9.5</v>
       </c>
       <c r="AD122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE122" t="n">
         <v>17</v>
@@ -17953,19 +17961,19 @@
         <v>126</v>
       </c>
       <c r="AL122" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN122" t="n">
         <v>12</v>
       </c>
-      <c r="AM122" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN122" t="n">
-        <v>11</v>
-      </c>
       <c r="AO122" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ122" t="n">
         <v>29</v>
@@ -18188,10 +18196,10 @@
         <v>4.33</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R124" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S124" t="n">
         <v>2.05</v>
@@ -19449,7 +19457,7 @@
         <v>4.75</v>
       </c>
       <c r="I133" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J133" t="n">
         <v>7.5</v>
@@ -19458,13 +19466,13 @@
         <v>2.4</v>
       </c>
       <c r="L133" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M133" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N133" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O133" t="n">
         <v>1.22</v>
@@ -19473,10 +19481,10 @@
         <v>4</v>
       </c>
       <c r="Q133" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R133" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S133" t="inlineStr"/>
       <c r="T133" t="inlineStr"/>
@@ -19499,16 +19507,16 @@
         <v>1.75</v>
       </c>
       <c r="AA133" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB133" t="n">
         <v>41</v>
       </c>
       <c r="AC133" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD133" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE133" t="n">
         <v>51</v>
@@ -19520,7 +19528,7 @@
         <v>12</v>
       </c>
       <c r="AH133" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI133" t="n">
         <v>21</v>
@@ -19541,7 +19549,7 @@
         <v>8.5</v>
       </c>
       <c r="AO133" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP133" t="n">
         <v>12</v>
@@ -19590,7 +19598,7 @@
         <v>3.1</v>
       </c>
       <c r="I134" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J134" t="n">
         <v>3.1</v>
@@ -19608,16 +19616,16 @@
         <v>7</v>
       </c>
       <c r="O134" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P134" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q134" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R134" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S134" t="inlineStr"/>
       <c r="T134" t="inlineStr"/>
@@ -19673,7 +19681,7 @@
         <v>501</v>
       </c>
       <c r="AL134" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM134" t="n">
         <v>15</v>
@@ -19691,10 +19699,10 @@
         <v>41</v>
       </c>
       <c r="AR134" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="135">
@@ -23129,28 +23137,28 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I159" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J159" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K159" t="n">
         <v>2</v>
       </c>
       <c r="L159" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M159" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N159" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O159" t="n">
         <v>1.4</v>
@@ -23159,10 +23167,10 @@
         <v>2.75</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R159" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
@@ -23173,10 +23181,10 @@
         <v>1.2</v>
       </c>
       <c r="W159" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X159" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y159" t="n">
         <v>2</v>
@@ -23188,13 +23196,13 @@
         <v>6</v>
       </c>
       <c r="AB159" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AC159" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD159" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE159" t="n">
         <v>19</v>
@@ -23203,7 +23211,7 @@
         <v>34</v>
       </c>
       <c r="AG159" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH159" t="n">
         <v>6</v>
@@ -23212,13 +23220,13 @@
         <v>17</v>
       </c>
       <c r="AJ159" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK159" t="n">
         <v>351</v>
       </c>
       <c r="AL159" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM159" t="n">
         <v>19</v>
@@ -23230,13 +23238,17 @@
         <v>41</v>
       </c>
       <c r="AP159" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ159" t="n">
         <v>41</v>
       </c>
-      <c r="AR159" t="inlineStr"/>
-      <c r="AS159" t="inlineStr"/>
+      <c r="AR159" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -23270,22 +23282,22 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I160" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="J160" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K160" t="n">
         <v>2.1</v>
       </c>
       <c r="L160" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M160" t="n">
         <v>1.06</v>
@@ -23303,7 +23315,7 @@
         <v>2.05</v>
       </c>
       <c r="R160" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S160" t="inlineStr"/>
       <c r="T160" t="inlineStr"/>
@@ -23326,16 +23338,16 @@
         <v>1.91</v>
       </c>
       <c r="AA160" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB160" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC160" t="n">
         <v>9</v>
       </c>
       <c r="AD160" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE160" t="n">
         <v>17</v>
@@ -23347,7 +23359,7 @@
         <v>9</v>
       </c>
       <c r="AH160" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI160" t="n">
         <v>15</v>
@@ -23359,10 +23371,10 @@
         <v>251</v>
       </c>
       <c r="AL160" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM160" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN160" t="n">
         <v>13</v>
@@ -23371,7 +23383,7 @@
         <v>41</v>
       </c>
       <c r="AP160" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ160" t="n">
         <v>41</v>
@@ -26620,24 +26632,24 @@
         <v>8</v>
       </c>
       <c r="O184" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P184" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R184" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V184" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W184" t="n">
         <v>1.5</v>
@@ -26652,7 +26664,7 @@
         <v>1.8</v>
       </c>
       <c r="AA184" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB184" t="n">
         <v>11</v>
@@ -26670,7 +26682,7 @@
         <v>34</v>
       </c>
       <c r="AG184" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AH184" t="n">
         <v>6</v>
@@ -27313,22 +27325,22 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H189" t="n">
         <v>3.5</v>
       </c>
       <c r="I189" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J189" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K189" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L189" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M189" t="n">
         <v>1.04</v>
@@ -27343,10 +27355,10 @@
         <v>4.33</v>
       </c>
       <c r="Q189" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R189" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S189" t="n">
         <v>2.05</v>
@@ -27376,25 +27388,25 @@
         <v>10</v>
       </c>
       <c r="AB189" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC189" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD189" t="n">
         <v>21</v>
       </c>
       <c r="AE189" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF189" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG189" t="n">
         <v>13</v>
       </c>
       <c r="AH189" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI189" t="n">
         <v>12</v>
@@ -27406,22 +27418,22 @@
         <v>126</v>
       </c>
       <c r="AL189" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM189" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN189" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO189" t="n">
         <v>34</v>
       </c>
       <c r="AP189" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ189" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR189" t="inlineStr"/>
       <c r="AS189" t="inlineStr"/>
@@ -27599,13 +27611,13 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H191" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I191" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J191" t="n">
         <v>2.3</v>
@@ -27623,24 +27635,24 @@
         <v>6.2</v>
       </c>
       <c r="O191" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P191" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="Q191" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R191" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="V191" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W191" t="n">
         <v>1.47</v>
@@ -27649,13 +27661,13 @@
         <v>2.32</v>
       </c>
       <c r="Y191" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="Z191" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AA191" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB191" t="n">
         <v>6.9</v>
@@ -27667,16 +27679,16 @@
         <v>13</v>
       </c>
       <c r="AE191" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF191" t="n">
         <v>37</v>
       </c>
       <c r="AG191" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AH191" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI191" t="n">
         <v>20</v>
@@ -27691,10 +27703,10 @@
         <v>10.5</v>
       </c>
       <c r="AM191" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN191" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AO191" t="n">
         <v>110</v>
@@ -27877,44 +27889,44 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="H193" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I193" t="n">
-        <v>5</v>
+        <v>4.45</v>
       </c>
       <c r="J193" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="K193" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L193" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="M193" t="inlineStr"/>
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P193" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="Q193" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R193" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S193" t="inlineStr"/>
       <c r="T193" t="inlineStr"/>
       <c r="U193" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="V193" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W193" t="n">
         <v>1.39</v>
@@ -27923,58 +27935,58 @@
         <v>2.55</v>
       </c>
       <c r="Y193" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Z193" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AA193" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB193" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AC193" t="n">
         <v>8.25</v>
       </c>
       <c r="AD193" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE193" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF193" t="n">
         <v>29</v>
       </c>
       <c r="AG193" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH193" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AI193" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ193" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK193" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AL193" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AM193" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AN193" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AO193" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AP193" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AQ193" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS192"/>
+  <dimension ref="A1:AS191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3846,19 +3846,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
         <v>4.75</v>
@@ -3867,25 +3867,25 @@
         <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="T24" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U24" t="n">
         <v>4.33</v>
@@ -3894,16 +3894,16 @@
         <v>1.2</v>
       </c>
       <c r="W24" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -3918,28 +3918,28 @@
         <v>17</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>34</v>
       </c>
       <c r="AG24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AH24" t="n">
         <v>6.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ24" t="n">
         <v>67</v>
       </c>
       <c r="AK24" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AL24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM24" t="n">
         <v>19</v>
@@ -3995,16 +3995,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
@@ -4019,16 +4019,16 @@
         <v>8.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>3.1</v>
@@ -4049,25 +4049,25 @@
         <v>2.63</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC25" t="n">
         <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="n">
         <v>29</v>
@@ -4085,7 +4085,7 @@
         <v>51</v>
       </c>
       <c r="AK25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL25" t="n">
         <v>9</v>
@@ -4094,16 +4094,16 @@
         <v>15</v>
       </c>
       <c r="AN25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
         <v>34</v>
       </c>
       <c r="AP25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR25" t="n">
         <v>1.78</v>
@@ -4712,22 +4712,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H30" t="n">
         <v>2.88</v>
       </c>
       <c r="I30" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
         <v>1.91</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M30" t="n">
         <v>1.11</v>
@@ -4771,7 +4771,7 @@
         <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC30" t="n">
         <v>10</v>
@@ -4780,7 +4780,7 @@
         <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF30" t="n">
         <v>41</v>
@@ -4789,7 +4789,7 @@
         <v>6</v>
       </c>
       <c r="AH30" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI30" t="n">
         <v>19</v>
@@ -4801,19 +4801,19 @@
         <v>900</v>
       </c>
       <c r="AL30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AM30" t="n">
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO30" t="n">
         <v>41</v>
       </c>
       <c r="AP30" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ30" t="n">
         <v>51</v>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
         <v>2.75</v>
       </c>
       <c r="I31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.4</v>
       </c>
       <c r="K31" t="n">
         <v>1.8</v>
@@ -4875,10 +4875,10 @@
         <v>4.33</v>
       </c>
       <c r="M31" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
         <v>1.67</v>
@@ -4907,10 +4907,10 @@
         <v>2.1</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA31" t="n">
         <v>5.5</v>
@@ -4919,10 +4919,10 @@
         <v>10</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -4931,13 +4931,13 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AH31" t="n">
         <v>6</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>101</v>
@@ -4946,10 +4946,10 @@
         <v>101</v>
       </c>
       <c r="AL31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN31" t="n">
         <v>13</v>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H32" t="n">
         <v>2.9</v>
       </c>
       <c r="I32" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
         <v>2.75</v>
@@ -5046,10 +5046,10 @@
         <v>1.1</v>
       </c>
       <c r="W32" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X32" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y32" t="n">
         <v>2.75</v>
@@ -5076,10 +5076,10 @@
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI32" t="n">
         <v>29</v>
@@ -5091,7 +5091,7 @@
         <v>101</v>
       </c>
       <c r="AL32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM32" t="n">
         <v>23</v>
@@ -5167,10 +5167,10 @@
         <v>5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P33" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q33" t="n">
         <v>3.4</v>
@@ -5187,10 +5187,10 @@
         <v>1.1</v>
       </c>
       <c r="W33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y33" t="n">
         <v>2.5</v>
@@ -5305,7 +5305,7 @@
         <v>1.17</v>
       </c>
       <c r="N34" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
         <v>1.73</v>
@@ -5314,24 +5314,24 @@
         <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V34" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W34" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="X34" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="Y34" t="n">
         <v>2.5</v>
@@ -7572,28 +7572,28 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="H50" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="J50" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K50" t="n">
         <v>2.4</v>
       </c>
       <c r="L50" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
         <v>1.22</v>
@@ -7602,13 +7602,13 @@
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S50" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="T50" t="n">
         <v>1.62</v>
@@ -7626,22 +7626,22 @@
         <v>3.25</v>
       </c>
       <c r="Y50" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Z50" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AA50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB50" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB50" t="n">
-        <v>6</v>
-      </c>
       <c r="AC50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD50" t="n">
         <v>9</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>8</v>
       </c>
       <c r="AE50" t="n">
         <v>12</v>
@@ -7653,13 +7653,13 @@
         <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK50" t="n">
         <v>301</v>
@@ -7671,13 +7671,13 @@
         <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO50" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ50" t="n">
         <v>51</v>
@@ -8587,28 +8587,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H57" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I57" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J57" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K57" t="n">
         <v>1.83</v>
       </c>
       <c r="L57" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O57" t="n">
         <v>1.57</v>
@@ -8647,19 +8647,19 @@
         <v>1.57</v>
       </c>
       <c r="AA57" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC57" t="n">
         <v>11</v>
       </c>
       <c r="AD57" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AE57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF57" t="n">
         <v>41</v>
@@ -8680,19 +8680,19 @@
         <v>101</v>
       </c>
       <c r="AL57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN57" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ57" t="n">
         <v>41</v>
@@ -8739,10 +8739,10 @@
         <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I58" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J58" t="n">
         <v>3.75</v>
@@ -8772,7 +8772,7 @@
         <v>1.53</v>
       </c>
       <c r="S58" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="T58" t="n">
         <v>1.26</v>
@@ -8823,16 +8823,16 @@
         <v>17</v>
       </c>
       <c r="AJ58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK58" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AL58" t="n">
         <v>7</v>
       </c>
       <c r="AM58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN58" t="n">
         <v>11</v>
@@ -8847,10 +8847,10 @@
         <v>41</v>
       </c>
       <c r="AR58" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -11173,7 +11173,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="H75" t="n">
         <v>4.33</v>
@@ -11182,7 +11182,7 @@
         <v>5.25</v>
       </c>
       <c r="J75" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K75" t="n">
         <v>2.38</v>
@@ -11197,16 +11197,16 @@
         <v>15</v>
       </c>
       <c r="O75" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P75" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R75" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
@@ -11229,10 +11229,10 @@
         <v>1.91</v>
       </c>
       <c r="AA75" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB75" t="n">
         <v>8</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>7.5</v>
       </c>
       <c r="AC75" t="n">
         <v>8.5</v>
@@ -16172,81 +16172,81 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H110" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I110" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="J110" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K110" t="n">
         <v>2.1</v>
       </c>
       <c r="L110" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M110" t="n">
         <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O110" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P110" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q110" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R110" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S110" t="inlineStr"/>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V110" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W110" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X110" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y110" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z110" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA110" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC110" t="n">
         <v>11</v>
       </c>
       <c r="AD110" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE110" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF110" t="n">
         <v>34</v>
       </c>
       <c r="AG110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH110" t="n">
         <v>6.5</v>
@@ -16267,16 +16267,16 @@
         <v>11</v>
       </c>
       <c r="AN110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO110" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP110" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ110" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR110" t="inlineStr"/>
       <c r="AS110" t="inlineStr"/>
@@ -16316,10 +16316,10 @@
         <v>1.33</v>
       </c>
       <c r="H111" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I111" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J111" t="n">
         <v>1.8</v>
@@ -16328,7 +16328,7 @@
         <v>2.5</v>
       </c>
       <c r="L111" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M111" t="n">
         <v>1.03</v>
@@ -16367,16 +16367,16 @@
         <v>3.25</v>
       </c>
       <c r="Y111" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Z111" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AA111" t="n">
         <v>7</v>
       </c>
       <c r="AB111" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC111" t="n">
         <v>9</v>
@@ -16385,7 +16385,7 @@
         <v>8</v>
       </c>
       <c r="AE111" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF111" t="n">
         <v>29</v>
@@ -16418,7 +16418,7 @@
         <v>101</v>
       </c>
       <c r="AP111" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ111" t="n">
         <v>51</v>
@@ -18029,40 +18029,40 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="H123" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="I123" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J123" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L123" t="n">
+        <v>8</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N123" t="n">
+        <v>13</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P123" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q123" t="n">
         <v>1.73</v>
       </c>
-      <c r="K123" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L123" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M123" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N123" t="n">
-        <v>15</v>
-      </c>
-      <c r="O123" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P123" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>1.67</v>
-      </c>
       <c r="R123" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S123" t="n">
         <v>2.05</v>
@@ -18071,16 +18071,16 @@
         <v>1.8</v>
       </c>
       <c r="U123" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V123" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W123" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X123" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y123" t="n">
         <v>2.1</v>
@@ -18089,7 +18089,7 @@
         <v>1.67</v>
       </c>
       <c r="AA123" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB123" t="n">
         <v>6</v>
@@ -18107,10 +18107,10 @@
         <v>29</v>
       </c>
       <c r="AG123" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH123" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI123" t="n">
         <v>23</v>
@@ -18128,22 +18128,22 @@
         <v>41</v>
       </c>
       <c r="AN123" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO123" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AP123" t="n">
         <v>67</v>
       </c>
       <c r="AQ123" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR123" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AS123" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="124">
@@ -21416,7 +21416,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>bRhzONhd</t>
+          <t>QXpMoRp3</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -21426,7 +21426,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -21436,120 +21436,120 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>O. Ljubljana</t>
+          <t>Radomlje</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.8</v>
+        <v>1.37</v>
       </c>
       <c r="H147" t="n">
-        <v>4</v>
+        <v>4.65</v>
       </c>
       <c r="I147" t="n">
-        <v>1.53</v>
+        <v>7.3</v>
       </c>
       <c r="J147" t="n">
-        <v>5.7</v>
+        <v>1.87</v>
       </c>
       <c r="K147" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L147" t="n">
-        <v>2.07</v>
+        <v>6.4</v>
       </c>
       <c r="M147" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N147" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O147" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P147" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="Q147" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="R147" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="S147" t="inlineStr"/>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V147" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X147" t="n">
         <v>3.05</v>
       </c>
-      <c r="V147" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W147" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X147" t="n">
-        <v>2.7</v>
-      </c>
       <c r="Y147" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="Z147" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AA147" t="n">
-        <v>14</v>
+        <v>7.7</v>
       </c>
       <c r="AB147" t="n">
-        <v>32</v>
+        <v>6.9</v>
       </c>
       <c r="AC147" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI147" t="n">
         <v>18.5</v>
       </c>
-      <c r="AD147" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE147" t="n">
+      <c r="AJ147" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>175</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>75</v>
+      </c>
+      <c r="AQ147" t="n">
         <v>65</v>
-      </c>
-      <c r="AF147" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG147" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH147" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI147" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ147" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK147" t="n">
-        <v>900</v>
-      </c>
-      <c r="AL147" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AM147" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AN147" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AO147" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP147" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AQ147" t="n">
-        <v>29</v>
       </c>
       <c r="AR147" t="inlineStr"/>
       <c r="AS147" t="inlineStr"/>
@@ -21557,7 +21557,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>QXpMoRp3</t>
+          <t>ANFij1KO</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -21567,130 +21567,130 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Daejeon</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Radomlje</t>
+          <t>Ulsan HD</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.37</v>
+        <v>2.35</v>
       </c>
       <c r="H148" t="n">
-        <v>4.65</v>
+        <v>3.3</v>
       </c>
       <c r="I148" t="n">
-        <v>7.3</v>
+        <v>3</v>
       </c>
       <c r="J148" t="n">
-        <v>1.87</v>
+        <v>3</v>
       </c>
       <c r="K148" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L148" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="M148" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N148" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O148" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="P148" t="n">
-        <v>4.15</v>
+        <v>3.5</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="R148" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="S148" t="inlineStr"/>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="n">
-        <v>2.42</v>
+        <v>3.25</v>
       </c>
       <c r="V148" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="W148" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X148" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="Y148" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="Z148" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AA148" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="AB148" t="n">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="AC148" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD148" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AE148" t="n">
-        <v>10.75</v>
+        <v>19</v>
       </c>
       <c r="AF148" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AG148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH148" t="n">
-        <v>9.25</v>
+        <v>6.5</v>
       </c>
       <c r="AI148" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AJ148" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AK148" t="n">
-        <v>600</v>
+        <v>201</v>
       </c>
       <c r="AL148" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AM148" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="AN148" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AO148" t="n">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="AP148" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AQ148" t="n">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="AR148" t="inlineStr"/>
       <c r="AS148" t="inlineStr"/>
@@ -21698,7 +21698,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ANFij1KO</t>
+          <t>td398rzg</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -21708,7 +21708,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -21718,108 +21718,108 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Daejeon</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Pohang</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="H149" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J149" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K149" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L149" t="n">
         <v>3.5</v>
       </c>
       <c r="M149" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N149" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O149" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P149" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q149" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R149" t="n">
-        <v>1.9</v>
+        <v>1.67</v>
       </c>
       <c r="S149" t="inlineStr"/>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V149" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="W149" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X149" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y149" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="Z149" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AA149" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB149" t="n">
         <v>12</v>
       </c>
       <c r="AC149" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD149" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE149" t="n">
         <v>23</v>
       </c>
-      <c r="AE149" t="n">
-        <v>19</v>
-      </c>
       <c r="AF149" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG149" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AH149" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI149" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>301</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM149" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ149" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK149" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL149" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM149" t="n">
-        <v>15</v>
       </c>
       <c r="AN149" t="n">
         <v>11</v>
@@ -21831,7 +21831,7 @@
         <v>23</v>
       </c>
       <c r="AQ149" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR149" t="inlineStr"/>
       <c r="AS149" t="inlineStr"/>
@@ -21839,7 +21839,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>td398rzg</t>
+          <t>llo2A45t</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -21859,37 +21859,37 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Pohang</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
         <v>3.1</v>
       </c>
       <c r="I150" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="J150" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K150" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L150" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M150" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N150" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O150" t="n">
         <v>1.36</v>
@@ -21898,10 +21898,10 @@
         <v>3</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R150" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S150" t="inlineStr"/>
       <c r="T150" t="inlineStr"/>
@@ -21918,25 +21918,25 @@
         <v>2.5</v>
       </c>
       <c r="Y150" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Z150" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AA150" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB150" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD150" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AE150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF150" t="n">
         <v>34</v>
@@ -21954,25 +21954,25 @@
         <v>51</v>
       </c>
       <c r="AK150" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM150" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN150" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO150" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP150" t="n">
         <v>29</v>
       </c>
-      <c r="AP150" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ150" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR150" t="inlineStr"/>
       <c r="AS150" t="inlineStr"/>
@@ -21980,7 +21980,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>llo2A45t</t>
+          <t>tAUvOBng</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -21990,47 +21990,47 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Seongnam</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Hwaseong</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="H151" t="n">
         <v>3.1</v>
       </c>
       <c r="I151" t="n">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="J151" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="K151" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L151" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M151" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N151" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O151" t="n">
         <v>1.36</v>
@@ -22039,51 +22039,51 @@
         <v>3</v>
       </c>
       <c r="Q151" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R151" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S151" t="inlineStr"/>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V151" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W151" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X151" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y151" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Z151" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AA151" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AB151" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AC151" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD151" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AE151" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF151" t="n">
         <v>34</v>
       </c>
       <c r="AG151" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AH151" t="n">
         <v>6</v>
@@ -22095,25 +22095,25 @@
         <v>51</v>
       </c>
       <c r="AK151" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AL151" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM151" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AN151" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO151" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ151" t="n">
         <v>34</v>
-      </c>
-      <c r="AP151" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ151" t="n">
-        <v>41</v>
       </c>
       <c r="AR151" t="inlineStr"/>
       <c r="AS151" t="inlineStr"/>
@@ -22121,7 +22121,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>tAUvOBng</t>
+          <t>rZQeKToI</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -22131,7 +22131,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -22141,120 +22141,120 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Seongnam</t>
+          <t>Bucheon FC 1995</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Hwaseong</t>
+          <t>Cheongju</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J152" t="n">
         <v>2.88</v>
       </c>
-      <c r="H152" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K152" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L152" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="M152" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N152" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O152" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P152" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R152" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S152" t="inlineStr"/>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="V152" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="W152" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X152" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Y152" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="Z152" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AA152" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB152" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AC152" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD152" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AE152" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF152" t="n">
         <v>34</v>
       </c>
       <c r="AG152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AH152" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI152" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ152" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK152" t="n">
-        <v>251</v>
+        <v>1250</v>
       </c>
       <c r="AL152" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM152" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AN152" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO152" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AP152" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ152" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR152" t="inlineStr"/>
       <c r="AS152" t="inlineStr"/>
@@ -22262,7 +22262,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>rZQeKToI</t>
+          <t>xxOmMkH5</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -22282,120 +22282,120 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Bucheon FC 1995</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Cheongju</t>
+          <t>Asan</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H153" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I153" t="n">
+        <v>3</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L153" t="n">
         <v>3.5</v>
       </c>
-      <c r="J153" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K153" t="n">
-        <v>2</v>
-      </c>
-      <c r="L153" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M153" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N153" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O153" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="P153" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q153" t="n">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="R153" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="S153" t="inlineStr"/>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="V153" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="W153" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X153" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Y153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z153" t="n">
         <v>2</v>
       </c>
-      <c r="Z153" t="n">
-        <v>1.73</v>
-      </c>
       <c r="AA153" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AB153" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC153" t="n">
         <v>9.5</v>
       </c>
       <c r="AD153" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE153" t="n">
         <v>19</v>
       </c>
       <c r="AF153" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AG153" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AH153" t="n">
         <v>6.5</v>
       </c>
       <c r="AI153" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ153" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AK153" t="n">
-        <v>1250</v>
+        <v>201</v>
       </c>
       <c r="AL153" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM153" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN153" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO153" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP153" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AQ153" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR153" t="inlineStr"/>
       <c r="AS153" t="inlineStr"/>
@@ -22403,7 +22403,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>xxOmMkH5</t>
+          <t>S4gXasRp</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -22413,138 +22413,142 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Asan</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H154" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J154" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K154" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L154" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M154" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N154" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O154" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P154" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.98</v>
+        <v>2.35</v>
       </c>
       <c r="R154" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="S154" t="inlineStr"/>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="V154" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W154" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X154" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="Y154" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="Z154" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AA154" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB154" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AB154" t="n">
-        <v>12</v>
       </c>
       <c r="AC154" t="n">
         <v>9.5</v>
       </c>
       <c r="AD154" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE154" t="n">
         <v>19</v>
       </c>
       <c r="AF154" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AG154" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AH154" t="n">
         <v>6.5</v>
       </c>
       <c r="AI154" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ154" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO154" t="n">
         <v>41</v>
       </c>
-      <c r="AK154" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL154" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM154" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN154" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO154" t="n">
-        <v>29</v>
-      </c>
       <c r="AP154" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AQ154" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR154" t="inlineStr"/>
-      <c r="AS154" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>2.05</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>S4gXasRp</t>
+          <t>UTa1zO2c</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -22554,7 +22558,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -22564,132 +22568,128 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="H155" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="I155" t="n">
+        <v>11</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L155" t="n">
+        <v>11</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N155" t="n">
+        <v>11</v>
+      </c>
+      <c r="O155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P155" t="n">
         <v>3.25</v>
       </c>
-      <c r="I155" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J155" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K155" t="n">
-        <v>2</v>
-      </c>
-      <c r="L155" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M155" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N155" t="n">
-        <v>8</v>
-      </c>
-      <c r="O155" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P155" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Q155" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="R155" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S155" t="inlineStr"/>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="V155" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="W155" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X155" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="Y155" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Z155" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AA155" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB155" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AC155" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD155" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AE155" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF155" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI155" t="n">
         <v>34</v>
       </c>
-      <c r="AG155" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH155" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI155" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ155" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AK155" t="n">
         <v>101</v>
       </c>
       <c r="AL155" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AM155" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AN155" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AO155" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AP155" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AQ155" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR155" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS155" t="n">
-        <v>2.05</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AR155" t="inlineStr"/>
+      <c r="AS155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>UTa1zO2c</t>
+          <t>2u1o9o4b</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -22699,7 +22699,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -22709,120 +22709,120 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.29</v>
+        <v>2</v>
       </c>
       <c r="H156" t="n">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="I156" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J156" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="K156" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L156" t="n">
-        <v>11</v>
+        <v>4.33</v>
       </c>
       <c r="M156" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N156" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O156" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P156" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R156" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S156" t="inlineStr"/>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="V156" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W156" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X156" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Y156" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="Z156" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AA156" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AB156" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AC156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL156" t="n">
         <v>10</v>
       </c>
-      <c r="AD156" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF156" t="n">
+      <c r="AM156" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO156" t="n">
         <v>41</v>
       </c>
-      <c r="AG156" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH156" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI156" t="n">
+      <c r="AP156" t="n">
         <v>34</v>
       </c>
-      <c r="AJ156" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL156" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM156" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN156" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO156" t="n">
-        <v>151</v>
-      </c>
-      <c r="AP156" t="n">
-        <v>101</v>
-      </c>
       <c r="AQ156" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AR156" t="inlineStr"/>
       <c r="AS156" t="inlineStr"/>
@@ -22830,7 +22830,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2u1o9o4b</t>
+          <t>ChTzK2IG</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -22850,81 +22850,81 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K157" t="n">
         <v>2</v>
-      </c>
-      <c r="H157" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>4</v>
-      </c>
-      <c r="J157" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K157" t="n">
-        <v>2.05</v>
       </c>
       <c r="L157" t="n">
         <v>4.33</v>
       </c>
       <c r="M157" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N157" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O157" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R157" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S157" t="inlineStr"/>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V157" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W157" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X157" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y157" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Z157" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AA157" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB157" t="n">
         <v>9</v>
       </c>
       <c r="AC157" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD157" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE157" t="n">
         <v>19</v>
@@ -22933,7 +22933,7 @@
         <v>34</v>
       </c>
       <c r="AG157" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH157" t="n">
         <v>6</v>
@@ -22942,19 +22942,19 @@
         <v>17</v>
       </c>
       <c r="AJ157" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK157" t="n">
         <v>351</v>
       </c>
       <c r="AL157" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM157" t="n">
         <v>19</v>
       </c>
       <c r="AN157" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO157" t="n">
         <v>41</v>
@@ -22965,13 +22965,17 @@
       <c r="AQ157" t="n">
         <v>41</v>
       </c>
-      <c r="AR157" t="inlineStr"/>
-      <c r="AS157" t="inlineStr"/>
+      <c r="AR157" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ChTzK2IG</t>
+          <t>WKh2533N</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -22981,7 +22985,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -22991,132 +22995,128 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Cadiz CF</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G158" t="n">
         <v>2.1</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I158" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J158" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K158" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L158" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M158" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N158" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O158" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P158" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="R158" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S158" t="inlineStr"/>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="V158" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="W158" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X158" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="Y158" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Z158" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="AA158" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AB158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC158" t="n">
         <v>9</v>
-      </c>
-      <c r="AC158" t="n">
-        <v>9.5</v>
       </c>
       <c r="AD158" t="n">
         <v>19</v>
       </c>
       <c r="AE158" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF158" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG158" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH158" t="n">
         <v>6</v>
       </c>
       <c r="AI158" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM158" t="n">
         <v>17</v>
       </c>
-      <c r="AJ158" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK158" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL158" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM158" t="n">
-        <v>19</v>
-      </c>
       <c r="AN158" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO158" t="n">
         <v>41</v>
       </c>
       <c r="AP158" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ158" t="n">
         <v>41</v>
       </c>
-      <c r="AR158" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AS158" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="AR158" t="inlineStr"/>
+      <c r="AS158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>WKh2533N</t>
+          <t>tEM1jqaT</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -23126,130 +23126,130 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Cadiz CF</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H159" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I159" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J159" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K159" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L159" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M159" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O159" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P159" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q159" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="R159" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S159" t="inlineStr"/>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V159" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="W159" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X159" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y159" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z159" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA159" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC159" t="n">
         <v>9</v>
       </c>
       <c r="AD159" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE159" t="n">
         <v>17</v>
       </c>
       <c r="AF159" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG159" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH159" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI159" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ159" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK159" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL159" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM159" t="n">
         <v>17</v>
       </c>
       <c r="AN159" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO159" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP159" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ159" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR159" t="inlineStr"/>
       <c r="AS159" t="inlineStr"/>
@@ -23257,7 +23257,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>tEM1jqaT</t>
+          <t>ATCXpNMj</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -23267,7 +23267,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -23277,120 +23277,124 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.15</v>
+        <v>1.44</v>
       </c>
       <c r="H160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N160" t="n">
+        <v>15</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P160" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S160" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V160" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X160" t="n">
         <v>3.4</v>
       </c>
-      <c r="I160" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J160" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K160" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L160" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M160" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N160" t="n">
-        <v>11</v>
-      </c>
-      <c r="O160" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P160" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R160" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S160" t="inlineStr"/>
-      <c r="T160" t="inlineStr"/>
-      <c r="U160" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V160" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W160" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X160" t="n">
-        <v>2.75</v>
-      </c>
       <c r="Y160" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z160" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA160" t="n">
         <v>8</v>
       </c>
       <c r="AB160" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE160" t="n">
         <v>11</v>
       </c>
-      <c r="AC160" t="n">
+      <c r="AF160" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH160" t="n">
         <v>9</v>
       </c>
-      <c r="AD160" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE160" t="n">
+      <c r="AI160" t="n">
         <v>17</v>
       </c>
-      <c r="AF160" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG160" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH160" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI160" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ160" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK160" t="n">
         <v>201</v>
       </c>
       <c r="AL160" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AM160" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AN160" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AO160" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AP160" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AQ160" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR160" t="inlineStr"/>
       <c r="AS160" t="inlineStr"/>
@@ -23398,7 +23402,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ATCXpNMj</t>
+          <t>jPkK8QEc</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -23418,49 +23422,49 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Young Boys</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="H161" t="n">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="I161" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="J161" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="K161" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="L161" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="M161" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O161" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P161" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q161" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R161" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S161" t="n">
         <v>2.03</v>
@@ -23469,73 +23473,73 @@
         <v>1.83</v>
       </c>
       <c r="U161" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V161" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W161" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X161" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y161" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="Z161" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AA161" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB161" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AC161" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD161" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE161" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AF161" t="n">
         <v>23</v>
       </c>
       <c r="AG161" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH161" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI161" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ161" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK161" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL161" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM161" t="n">
         <v>19</v>
       </c>
-      <c r="AM161" t="n">
-        <v>34</v>
-      </c>
       <c r="AN161" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AO161" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AP161" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AQ161" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR161" t="inlineStr"/>
       <c r="AS161" t="inlineStr"/>
@@ -23543,7 +23547,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>jPkK8QEc</t>
+          <t>vczmwVa3</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -23553,134 +23557,130 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Young Boys</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I162" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J162" t="n">
         <v>3.7</v>
       </c>
-      <c r="I162" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J162" t="n">
-        <v>2.63</v>
-      </c>
       <c r="K162" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L162" t="n">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="M162" t="n">
         <v>1.04</v>
       </c>
       <c r="N162" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="O162" t="n">
         <v>1.22</v>
       </c>
       <c r="P162" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="Q162" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R162" t="n">
         <v>2.1</v>
       </c>
-      <c r="S162" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T162" t="n">
-        <v>1.83</v>
-      </c>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
       <c r="U162" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="V162" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="W162" t="n">
         <v>1.33</v>
       </c>
       <c r="X162" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="Y162" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z162" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA162" t="n">
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="AB162" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AC162" t="n">
-        <v>9</v>
+        <v>11.25</v>
       </c>
       <c r="AD162" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="AE162" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF162" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AG162" t="n">
-        <v>13</v>
+        <v>8.25</v>
       </c>
       <c r="AH162" t="n">
         <v>7</v>
       </c>
       <c r="AI162" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ162" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK162" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AL162" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="AM162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO162" t="n">
         <v>19</v>
       </c>
-      <c r="AN162" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO162" t="n">
-        <v>41</v>
-      </c>
       <c r="AP162" t="n">
-        <v>26</v>
+        <v>14.5</v>
       </c>
       <c r="AQ162" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AR162" t="inlineStr"/>
       <c r="AS162" t="inlineStr"/>
@@ -23688,7 +23688,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>vczmwVa3</t>
+          <t>IDCessdD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -23708,63 +23708,63 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="H163" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I163" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="J163" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K163" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="L163" t="n">
-        <v>2.55</v>
+        <v>2.92</v>
       </c>
       <c r="M163" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N163" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="O163" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P163" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="Q163" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R163" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S163" t="inlineStr"/>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="V163" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="W163" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="X163" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="Y163" t="n">
         <v>1.57</v>
@@ -23773,31 +23773,31 @@
         <v>2.25</v>
       </c>
       <c r="AA163" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AB163" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="AC163" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AD163" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AE163" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF163" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG163" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AH163" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AI163" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ163" t="n">
         <v>45</v>
@@ -23806,22 +23806,22 @@
         <v>300</v>
       </c>
       <c r="AL163" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AM163" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AN163" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO163" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AP163" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ163" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR163" t="inlineStr"/>
       <c r="AS163" t="inlineStr"/>
@@ -23829,7 +23829,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>IDCessdD</t>
+          <t>pOrCCS1e</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -23839,130 +23839,130 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Bangkok Utd</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Nong Bua Pitchaya</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2.82</v>
+        <v>1.28</v>
       </c>
       <c r="H164" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="I164" t="n">
-        <v>2.4</v>
+        <v>8.75</v>
       </c>
       <c r="J164" t="n">
-        <v>3.4</v>
+        <v>1.65</v>
       </c>
       <c r="K164" t="n">
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="L164" t="n">
-        <v>2.92</v>
+        <v>6.7</v>
       </c>
       <c r="M164" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N164" t="n">
-        <v>7.7</v>
+        <v>9.75</v>
       </c>
       <c r="O164" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="P164" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.75</v>
+        <v>1.34</v>
       </c>
       <c r="R164" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="S164" t="inlineStr"/>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="V164" t="n">
-        <v>1.4</v>
+        <v>1.87</v>
       </c>
       <c r="W164" t="n">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="X164" t="n">
-        <v>2.85</v>
+        <v>4</v>
       </c>
       <c r="Y164" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Z164" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AA164" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AB164" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="AC164" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD164" t="n">
-        <v>35</v>
+        <v>9.25</v>
       </c>
       <c r="AE164" t="n">
-        <v>23</v>
+        <v>9.75</v>
       </c>
       <c r="AF164" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AG164" t="n">
-        <v>7.7</v>
+        <v>10.5</v>
       </c>
       <c r="AH164" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AI164" t="n">
-        <v>11.75</v>
+        <v>17.5</v>
       </c>
       <c r="AJ164" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AK164" t="n">
         <v>300</v>
       </c>
       <c r="AL164" t="n">
-        <v>9.75</v>
+        <v>37</v>
       </c>
       <c r="AM164" t="n">
-        <v>13.5</v>
+        <v>75</v>
       </c>
       <c r="AN164" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="AO164" t="n">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="AP164" t="n">
-        <v>17.5</v>
+        <v>80</v>
       </c>
       <c r="AQ164" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="AR164" t="inlineStr"/>
       <c r="AS164" t="inlineStr"/>
@@ -23970,7 +23970,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>pOrCCS1e</t>
+          <t>YqP6Y9OE</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -23990,120 +23990,120 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Bangkok Utd</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.28</v>
+        <v>1.78</v>
       </c>
       <c r="H165" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="I165" t="n">
-        <v>8.75</v>
+        <v>5.2</v>
       </c>
       <c r="J165" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K165" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L165" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="M165" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N165" t="n">
-        <v>9.75</v>
+        <v>5.9</v>
       </c>
       <c r="O165" t="n">
-        <v>1.1</v>
+        <v>1.42</v>
       </c>
       <c r="P165" t="n">
-        <v>5.8</v>
+        <v>2.67</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.34</v>
+        <v>2.22</v>
       </c>
       <c r="R165" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="S165" t="inlineStr"/>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="n">
-        <v>1.83</v>
+        <v>3.85</v>
       </c>
       <c r="V165" t="n">
-        <v>1.87</v>
+        <v>1.22</v>
       </c>
       <c r="W165" t="n">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="X165" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Y165" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="Z165" t="n">
-        <v>2.15</v>
+        <v>1.72</v>
       </c>
       <c r="AA165" t="n">
-        <v>11.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB165" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC165" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AD165" t="n">
-        <v>9.25</v>
+        <v>14.5</v>
       </c>
       <c r="AE165" t="n">
-        <v>9.75</v>
+        <v>16</v>
       </c>
       <c r="AF165" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AG165" t="n">
-        <v>10.5</v>
+        <v>5.9</v>
       </c>
       <c r="AH165" t="n">
-        <v>12</v>
+        <v>6.1</v>
       </c>
       <c r="AI165" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ165" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AK165" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="AL165" t="n">
-        <v>37</v>
+        <v>11.75</v>
       </c>
       <c r="AM165" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AN165" t="n">
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="AO165" t="n">
-        <v>250</v>
+        <v>110</v>
       </c>
       <c r="AP165" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AQ165" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR165" t="inlineStr"/>
       <c r="AS165" t="inlineStr"/>
@@ -24111,7 +24111,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>YqP6Y9OE</t>
+          <t>hlnKA6W7</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -24131,120 +24131,120 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Muang Thong Utd</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Buriram</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.78</v>
+        <v>4.8</v>
       </c>
       <c r="H166" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="J166" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K166" t="n">
         <v>2.37</v>
       </c>
-      <c r="K166" t="n">
-        <v>2</v>
-      </c>
       <c r="L166" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="M166" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N166" t="n">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="O166" t="n">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="P166" t="n">
-        <v>2.67</v>
+        <v>4.45</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.22</v>
+        <v>1.52</v>
       </c>
       <c r="R166" t="n">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="S166" t="inlineStr"/>
       <c r="T166" t="inlineStr"/>
       <c r="U166" t="n">
-        <v>3.85</v>
+        <v>2.25</v>
       </c>
       <c r="V166" t="n">
-        <v>1.22</v>
+        <v>1.57</v>
       </c>
       <c r="W166" t="n">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="X166" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="Y166" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="Z166" t="n">
-        <v>1.72</v>
+        <v>2.25</v>
       </c>
       <c r="AA166" t="n">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="AB166" t="n">
-        <v>7.4</v>
+        <v>32</v>
       </c>
       <c r="AC166" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH166" t="n">
         <v>8.25</v>
       </c>
-      <c r="AD166" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE166" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF166" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG166" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AH166" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AI166" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ166" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AK166" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="AL166" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="AM166" t="n">
-        <v>30</v>
+        <v>9.25</v>
       </c>
       <c r="AN166" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="AO166" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="AP166" t="n">
-        <v>60</v>
+        <v>11.5</v>
       </c>
       <c r="AQ166" t="n">
-        <v>60</v>
+        <v>18.5</v>
       </c>
       <c r="AR166" t="inlineStr"/>
       <c r="AS166" t="inlineStr"/>
@@ -24252,7 +24252,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>hlnKA6W7</t>
+          <t>URW0alWQ</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -24262,130 +24262,130 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Muang Thong Utd</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Buriram</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="H167" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="I167" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="J167" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="K167" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="L167" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="M167" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N167" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O167" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="P167" t="n">
-        <v>4.45</v>
+        <v>3.25</v>
       </c>
       <c r="Q167" t="n">
-        <v>1.52</v>
+        <v>2.05</v>
       </c>
       <c r="R167" t="n">
-        <v>2.35</v>
+        <v>1.75</v>
       </c>
       <c r="S167" t="inlineStr"/>
       <c r="T167" t="inlineStr"/>
       <c r="U167" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="V167" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="W167" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X167" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="Y167" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="Z167" t="n">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AA167" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AB167" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AC167" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI167" t="n">
         <v>15</v>
       </c>
-      <c r="AD167" t="n">
-        <v>80</v>
-      </c>
-      <c r="AE167" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF167" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG167" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH167" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AI167" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ167" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AK167" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN167" t="n">
         <v>9.5</v>
       </c>
-      <c r="AM167" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AN167" t="n">
-        <v>8</v>
-      </c>
       <c r="AO167" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AP167" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AQ167" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AR167" t="inlineStr"/>
       <c r="AS167" t="inlineStr"/>
@@ -24393,7 +24393,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>URW0alWQ</t>
+          <t>YR7PQTP1</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -24403,7 +24403,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -24413,120 +24413,124 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>1.36</v>
       </c>
       <c r="H168" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="I168" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="J168" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="K168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N168" t="n">
+        <v>19</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U168" t="n">
         <v>2.1</v>
       </c>
-      <c r="L168" t="n">
-        <v>3</v>
-      </c>
-      <c r="M168" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N168" t="n">
+      <c r="V168" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X168" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA168" t="n">
         <v>10</v>
       </c>
-      <c r="O168" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P168" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R168" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S168" t="inlineStr"/>
-      <c r="T168" t="inlineStr"/>
-      <c r="U168" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V168" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W168" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X168" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z168" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA168" t="n">
-        <v>9</v>
-      </c>
       <c r="AB168" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AC168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE168" t="n">
         <v>11</v>
       </c>
-      <c r="AD168" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE168" t="n">
+      <c r="AF168" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL168" t="n">
         <v>23</v>
       </c>
-      <c r="AF168" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG168" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH168" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI168" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ168" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK168" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL168" t="n">
-        <v>8</v>
-      </c>
       <c r="AM168" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AN168" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AO168" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AP168" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AQ168" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR168" t="inlineStr"/>
       <c r="AS168" t="inlineStr"/>
@@ -24534,7 +24538,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>YR7PQTP1</t>
+          <t>M1Th1A1E</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -24544,7 +24548,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -24554,67 +24558,67 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="H169" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="I169" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L169" t="n">
+        <v>5</v>
+      </c>
+      <c r="M169" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N169" t="n">
+        <v>15</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P169" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T169" t="n">
         <v>1.8</v>
       </c>
-      <c r="K169" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L169" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M169" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N169" t="n">
-        <v>19</v>
-      </c>
-      <c r="O169" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P169" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q169" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R169" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S169" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T169" t="n">
-        <v>2.05</v>
-      </c>
       <c r="U169" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="V169" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="W169" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X169" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Y169" t="n">
         <v>1.73</v>
@@ -24623,7 +24627,7 @@
         <v>2</v>
       </c>
       <c r="AA169" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AB169" t="n">
         <v>8</v>
@@ -24632,40 +24636,40 @@
         <v>8.5</v>
       </c>
       <c r="AD169" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AE169" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF169" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG169" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AH169" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI169" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ169" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK169" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL169" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AM169" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN169" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AO169" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AP169" t="n">
         <v>41</v>
@@ -24679,7 +24683,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>M1Th1A1E</t>
+          <t>pfVo5OHr</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -24689,142 +24693,142 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Igdir FK</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="H170" t="n">
-        <v>4.1</v>
+        <v>3</v>
       </c>
       <c r="I170" t="n">
+        <v>3</v>
+      </c>
+      <c r="J170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L170" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>7</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="n">
         <v>5</v>
       </c>
-      <c r="J170" t="n">
+      <c r="V170" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y170" t="n">
         <v>2.1</v>
       </c>
-      <c r="K170" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L170" t="n">
-        <v>5</v>
-      </c>
-      <c r="M170" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N170" t="n">
-        <v>15</v>
-      </c>
-      <c r="O170" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P170" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q170" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R170" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S170" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T170" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U170" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V170" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W170" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X170" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y170" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Z170" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AA170" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AB170" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AC170" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD170" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>67</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN170" t="n">
         <v>12</v>
       </c>
-      <c r="AE170" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF170" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG170" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH170" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI170" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ170" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK170" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL170" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM170" t="n">
+      <c r="AO170" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP170" t="n">
         <v>29</v>
-      </c>
-      <c r="AN170" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO170" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP170" t="n">
-        <v>41</v>
       </c>
       <c r="AQ170" t="n">
         <v>41</v>
       </c>
-      <c r="AR170" t="inlineStr"/>
-      <c r="AS170" t="inlineStr"/>
+      <c r="AR170" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>pfVo5OHr</t>
+          <t>hvcyGuW0</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -24844,132 +24848,128 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J171" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="K171" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="L171" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="M171" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N171" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O171" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="P171" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q171" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="R171" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="S171" t="inlineStr"/>
       <c r="T171" t="inlineStr"/>
       <c r="U171" t="n">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="V171" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="W171" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="X171" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y171" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z171" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AA171" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AB171" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG171" t="n">
         <v>11</v>
       </c>
-      <c r="AC171" t="n">
+      <c r="AH171" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL171" t="n">
         <v>11</v>
       </c>
-      <c r="AD171" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE171" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF171" t="n">
+      <c r="AM171" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO171" t="n">
         <v>41</v>
-      </c>
-      <c r="AG171" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH171" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI171" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ171" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK171" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL171" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AM171" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN171" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO171" t="n">
-        <v>34</v>
       </c>
       <c r="AP171" t="n">
         <v>29</v>
       </c>
       <c r="AQ171" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR171" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AS171" t="n">
-        <v>1.9</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AR171" t="inlineStr"/>
+      <c r="AS171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>hvcyGuW0</t>
+          <t>EBvGApfL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -24979,7 +24979,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -24989,128 +24989,58 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Amedspor</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Erokspor</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H172" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J172" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K172" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L172" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M172" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N172" t="n">
-        <v>11</v>
-      </c>
-      <c r="O172" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P172" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q172" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R172" t="n">
-        <v>1.9</v>
-      </c>
+          <t>Yeni Malatyaspor</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
       <c r="S172" t="inlineStr"/>
       <c r="T172" t="inlineStr"/>
-      <c r="U172" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V172" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W172" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X172" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y172" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="Z172" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA172" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB172" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC172" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD172" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE172" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF172" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG172" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH172" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI172" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ172" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK172" t="n">
-        <v>251</v>
-      </c>
-      <c r="AL172" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM172" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN172" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO172" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP172" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ172" t="n">
-        <v>34</v>
-      </c>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="inlineStr"/>
+      <c r="AH172" t="inlineStr"/>
+      <c r="AI172" t="inlineStr"/>
+      <c r="AJ172" t="inlineStr"/>
+      <c r="AK172" t="inlineStr"/>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
+      <c r="AN172" t="inlineStr"/>
+      <c r="AO172" t="inlineStr"/>
+      <c r="AP172" t="inlineStr"/>
+      <c r="AQ172" t="inlineStr"/>
       <c r="AR172" t="inlineStr"/>
       <c r="AS172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>EBvGApfL</t>
+          <t>vgOf32ne</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -25120,7 +25050,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -25130,58 +25060,128 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Amedspor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>3</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N173" t="n">
+        <v>11</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P173" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.85</v>
+      </c>
       <c r="S173" t="inlineStr"/>
       <c r="T173" t="inlineStr"/>
-      <c r="U173" t="inlineStr"/>
-      <c r="V173" t="inlineStr"/>
-      <c r="W173" t="inlineStr"/>
-      <c r="X173" t="inlineStr"/>
-      <c r="Y173" t="inlineStr"/>
-      <c r="Z173" t="inlineStr"/>
-      <c r="AA173" t="inlineStr"/>
-      <c r="AB173" t="inlineStr"/>
-      <c r="AC173" t="inlineStr"/>
-      <c r="AD173" t="inlineStr"/>
-      <c r="AE173" t="inlineStr"/>
-      <c r="AF173" t="inlineStr"/>
-      <c r="AG173" t="inlineStr"/>
-      <c r="AH173" t="inlineStr"/>
-      <c r="AI173" t="inlineStr"/>
-      <c r="AJ173" t="inlineStr"/>
-      <c r="AK173" t="inlineStr"/>
-      <c r="AL173" t="inlineStr"/>
-      <c r="AM173" t="inlineStr"/>
-      <c r="AN173" t="inlineStr"/>
-      <c r="AO173" t="inlineStr"/>
-      <c r="AP173" t="inlineStr"/>
-      <c r="AQ173" t="inlineStr"/>
+      <c r="U173" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X173" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>34</v>
+      </c>
       <c r="AR173" t="inlineStr"/>
       <c r="AS173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>vgOf32ne</t>
+          <t>KWcw8htQ</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -25191,130 +25191,130 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Obolon</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Vorskla Poltava</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H174" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="I174" t="n">
-        <v>3.1</v>
+        <v>2.47</v>
       </c>
       <c r="J174" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="K174" t="n">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="L174" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="M174" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N174" t="n">
-        <v>11</v>
+        <v>4.4</v>
       </c>
       <c r="O174" t="n">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="P174" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="Q174" t="n">
-        <v>1.95</v>
+        <v>2.37</v>
       </c>
       <c r="R174" t="n">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="S174" t="inlineStr"/>
       <c r="T174" t="inlineStr"/>
       <c r="U174" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="V174" t="n">
-        <v>1.33</v>
+        <v>1.16</v>
       </c>
       <c r="W174" t="n">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="X174" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="Y174" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="Z174" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AA174" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="AB174" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AC174" t="n">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD174" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AE174" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AF174" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AG174" t="n">
-        <v>9.5</v>
+        <v>5.1</v>
       </c>
       <c r="AH174" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI174" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ174" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="AK174" t="n">
-        <v>201</v>
+        <v>900</v>
       </c>
       <c r="AL174" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="AM174" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="AN174" t="n">
-        <v>12</v>
+        <v>9.75</v>
       </c>
       <c r="AO174" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AP174" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ174" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AR174" t="inlineStr"/>
       <c r="AS174" t="inlineStr"/>
@@ -25322,7 +25322,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>KWcw8htQ</t>
+          <t>Yey281z9</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -25332,7 +25332,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -25342,120 +25342,116 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Oleksandriya</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>FK Zorya Luhansk</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.1</v>
+        <v>1.78</v>
       </c>
       <c r="H175" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="I175" t="n">
-        <v>2.47</v>
+        <v>4.5</v>
       </c>
       <c r="J175" t="n">
-        <v>3.8</v>
+        <v>2.35</v>
       </c>
       <c r="K175" t="n">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L175" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="M175" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N175" t="n">
-        <v>4.4</v>
-      </c>
+        <v>4.9</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
       <c r="O175" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="P175" t="n">
-        <v>2.32</v>
+        <v>2.62</v>
       </c>
       <c r="Q175" t="n">
-        <v>2.37</v>
+        <v>2.07</v>
       </c>
       <c r="R175" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="S175" t="inlineStr"/>
       <c r="T175" t="inlineStr"/>
       <c r="U175" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="V175" t="n">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="W175" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="X175" t="n">
-        <v>2.2</v>
+        <v>2.42</v>
       </c>
       <c r="Y175" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="Z175" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="AA175" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="AB175" t="n">
-        <v>14.5</v>
+        <v>7.5</v>
       </c>
       <c r="AC175" t="n">
-        <v>11.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD175" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="AE175" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF175" t="n">
         <v>35</v>
       </c>
-      <c r="AF175" t="n">
-        <v>50</v>
-      </c>
       <c r="AG175" t="n">
-        <v>5.1</v>
+        <v>7.8</v>
       </c>
       <c r="AH175" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI175" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ175" t="n">
         <v>100</v>
       </c>
       <c r="AK175" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AL175" t="n">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="AM175" t="n">
-        <v>11.25</v>
+        <v>24</v>
       </c>
       <c r="AN175" t="n">
-        <v>9.75</v>
+        <v>15.5</v>
       </c>
       <c r="AO175" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="AP175" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AQ175" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AR175" t="inlineStr"/>
       <c r="AS175" t="inlineStr"/>
@@ -25463,7 +25459,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Yey281z9</t>
+          <t>WAHrnBJ6</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -25473,7 +25469,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -25483,59 +25479,59 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Oleksandriya</t>
+          <t>Dyn. Kyiv</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>FK Zorya Luhansk</t>
+          <t>Karpaty Lviv</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.78</v>
+        <v>1.42</v>
       </c>
       <c r="H176" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I176" t="n">
-        <v>4.5</v>
+        <v>7.2</v>
       </c>
       <c r="J176" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="K176" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="L176" t="n">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="n">
-        <v>1.37</v>
+        <v>1.26</v>
       </c>
       <c r="P176" t="n">
-        <v>2.62</v>
+        <v>3.15</v>
       </c>
       <c r="Q176" t="n">
-        <v>2.07</v>
+        <v>1.78</v>
       </c>
       <c r="R176" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="S176" t="inlineStr"/>
       <c r="T176" t="inlineStr"/>
       <c r="U176" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="V176" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="W176" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="X176" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="Y176" t="n">
         <v>1.98</v>
@@ -25544,55 +25540,55 @@
         <v>1.65</v>
       </c>
       <c r="AA176" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AB176" t="n">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC176" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD176" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE176" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AF176" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AG176" t="n">
-        <v>7.8</v>
+        <v>10.25</v>
       </c>
       <c r="AH176" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI176" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ176" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK176" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL176" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AM176" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="AN176" t="n">
-        <v>15.5</v>
+        <v>23</v>
       </c>
       <c r="AO176" t="n">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AP176" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AQ176" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AR176" t="inlineStr"/>
       <c r="AS176" t="inlineStr"/>
@@ -25600,7 +25596,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>WAHrnBJ6</t>
+          <t>hIe3Hz76</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -25610,126 +25606,130 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Dyn. Kyiv</t>
+          <t>Al Sharjah</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Karpaty Lviv</t>
+          <t>Al Bataeh</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="H177" t="n">
-        <v>4.1</v>
+        <v>4.75</v>
       </c>
       <c r="I177" t="n">
-        <v>7.2</v>
+        <v>8.75</v>
       </c>
       <c r="J177" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="K177" t="n">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="L177" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N177" t="n">
+        <v>8.5</v>
+      </c>
       <c r="O177" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="P177" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="Q177" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="R177" t="n">
-        <v>1.83</v>
+        <v>2.12</v>
       </c>
       <c r="S177" t="inlineStr"/>
       <c r="T177" t="inlineStr"/>
       <c r="U177" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="V177" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W177" t="n">
         <v>1.33</v>
       </c>
-      <c r="W177" t="n">
-        <v>1.39</v>
-      </c>
       <c r="X177" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="Y177" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Z177" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AA177" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AB177" t="n">
         <v>6.2</v>
       </c>
       <c r="AC177" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD177" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE177" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF177" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG177" t="n">
-        <v>10.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH177" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AI177" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ177" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK177" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL177" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AM177" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AN177" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO177" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AP177" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ177" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AR177" t="inlineStr"/>
       <c r="AS177" t="inlineStr"/>
@@ -25737,7 +25737,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>hIe3Hz76</t>
+          <t>nLheJdxf</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -25757,120 +25757,116 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Shabab Al-Ahli Dubai</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Al Bataeh</t>
+          <t>Al Urooba</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.32</v>
+        <v>1.06</v>
       </c>
       <c r="H178" t="n">
-        <v>4.75</v>
+        <v>10.25</v>
       </c>
       <c r="I178" t="n">
-        <v>8.75</v>
+        <v>25</v>
       </c>
       <c r="J178" t="n">
-        <v>1.78</v>
+        <v>1.28</v>
       </c>
       <c r="K178" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="L178" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="M178" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N178" t="n">
-        <v>8.5</v>
-      </c>
+        <v>15.5</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
       <c r="O178" t="n">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="P178" t="n">
-        <v>3.9</v>
+        <v>7.1</v>
       </c>
       <c r="Q178" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="R178" t="n">
-        <v>2.12</v>
+        <v>3.8</v>
       </c>
       <c r="S178" t="inlineStr"/>
       <c r="T178" t="inlineStr"/>
       <c r="U178" t="n">
-        <v>2.55</v>
+        <v>1.57</v>
       </c>
       <c r="V178" t="n">
-        <v>1.45</v>
+        <v>2.27</v>
       </c>
       <c r="W178" t="n">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="X178" t="n">
-        <v>3.05</v>
+        <v>4.7</v>
       </c>
       <c r="Y178" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="Z178" t="n">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="AA178" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AB178" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="AC178" t="n">
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="AD178" t="n">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="AE178" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF178" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH178" t="n">
         <v>28</v>
       </c>
-      <c r="AG178" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH178" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AI178" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AJ178" t="n">
+        <v>300</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL178" t="n">
         <v>100</v>
       </c>
-      <c r="AK178" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL178" t="n">
-        <v>23</v>
-      </c>
       <c r="AM178" t="n">
-        <v>60</v>
+        <v>350</v>
       </c>
       <c r="AN178" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="AO178" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="AP178" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="AQ178" t="n">
-        <v>80</v>
+        <v>350</v>
       </c>
       <c r="AR178" t="inlineStr"/>
       <c r="AS178" t="inlineStr"/>
@@ -25878,7 +25874,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>nLheJdxf</t>
+          <t>jganLI7s</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -25888,7 +25884,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -25898,116 +25894,120 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Shabab Al-Ahli Dubai</t>
+          <t>Al Nasr</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Al Urooba</t>
+          <t>Al Jazira</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.06</v>
+        <v>2.75</v>
       </c>
       <c r="H179" t="n">
-        <v>10.25</v>
+        <v>3.8</v>
       </c>
       <c r="I179" t="n">
-        <v>25</v>
+        <v>2.22</v>
       </c>
       <c r="J179" t="n">
-        <v>1.28</v>
+        <v>3.15</v>
       </c>
       <c r="K179" t="n">
-        <v>3.75</v>
+        <v>2.35</v>
       </c>
       <c r="L179" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
+        <v>2.72</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N179" t="n">
+        <v>9.25</v>
+      </c>
       <c r="O179" t="n">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="P179" t="n">
-        <v>7.1</v>
+        <v>4.4</v>
       </c>
       <c r="Q179" t="n">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="R179" t="n">
-        <v>3.8</v>
+        <v>2.35</v>
       </c>
       <c r="S179" t="inlineStr"/>
       <c r="T179" t="inlineStr"/>
       <c r="U179" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V179" t="n">
         <v>1.57</v>
       </c>
-      <c r="V179" t="n">
-        <v>2.27</v>
-      </c>
       <c r="W179" t="n">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="X179" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="Y179" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="Z179" t="n">
-        <v>1.47</v>
+        <v>2.42</v>
       </c>
       <c r="AA179" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB179" t="n">
-        <v>7.7</v>
+        <v>17</v>
       </c>
       <c r="AC179" t="n">
-        <v>16</v>
+        <v>10.25</v>
       </c>
       <c r="AD179" t="n">
-        <v>6.3</v>
+        <v>32</v>
       </c>
       <c r="AE179" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="AF179" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AG179" t="n">
-        <v>30</v>
+        <v>9.25</v>
       </c>
       <c r="AH179" t="n">
-        <v>28</v>
+        <v>7.8</v>
       </c>
       <c r="AI179" t="n">
-        <v>55</v>
+        <v>11.75</v>
       </c>
       <c r="AJ179" t="n">
-        <v>300</v>
+        <v>37</v>
       </c>
       <c r="AK179" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AL179" t="n">
-        <v>100</v>
+        <v>11.5</v>
       </c>
       <c r="AM179" t="n">
-        <v>350</v>
+        <v>13.5</v>
       </c>
       <c r="AN179" t="n">
-        <v>110</v>
+        <v>9.25</v>
       </c>
       <c r="AO179" t="n">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="AP179" t="n">
-        <v>600</v>
+        <v>15.5</v>
       </c>
       <c r="AQ179" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="AR179" t="inlineStr"/>
       <c r="AS179" t="inlineStr"/>
@@ -26015,7 +26015,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>jganLI7s</t>
+          <t>K6xFwRN8</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -26035,120 +26035,120 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Al Nasr</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Al Jazira</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.75</v>
+        <v>3.95</v>
       </c>
       <c r="H180" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="I180" t="n">
-        <v>2.22</v>
+        <v>1.87</v>
       </c>
       <c r="J180" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K180" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="L180" t="n">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="M180" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N180" t="n">
-        <v>9.25</v>
+        <v>7.9</v>
       </c>
       <c r="O180" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P180" t="n">
-        <v>4.4</v>
+        <v>3.65</v>
       </c>
       <c r="Q180" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="R180" t="n">
-        <v>2.35</v>
+        <v>2</v>
       </c>
       <c r="S180" t="inlineStr"/>
       <c r="T180" t="inlineStr"/>
       <c r="U180" t="n">
-        <v>2.27</v>
+        <v>2.72</v>
       </c>
       <c r="V180" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="W180" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="X180" t="n">
-        <v>3.35</v>
+        <v>2.87</v>
       </c>
       <c r="Y180" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="Z180" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="AA180" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB180" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AC180" t="n">
-        <v>10.25</v>
+        <v>12.5</v>
       </c>
       <c r="AD180" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE180" t="n">
         <v>32</v>
       </c>
-      <c r="AE180" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AF180" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>350</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ180" t="n">
         <v>22</v>
-      </c>
-      <c r="AG180" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH180" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AI180" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ180" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK180" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL180" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM180" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AN180" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AO180" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP180" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ180" t="n">
-        <v>20</v>
       </c>
       <c r="AR180" t="inlineStr"/>
       <c r="AS180" t="inlineStr"/>
@@ -26156,7 +26156,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>K6xFwRN8</t>
+          <t>b1isc9Ur</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -26166,138 +26166,142 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.95</v>
+        <v>1.8</v>
       </c>
       <c r="H181" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I181" t="n">
-        <v>1.87</v>
+        <v>4.75</v>
       </c>
       <c r="J181" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="K181" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L181" t="n">
-        <v>2.45</v>
+        <v>5.5</v>
       </c>
       <c r="M181" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N181" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O181" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="P181" t="n">
-        <v>3.65</v>
+        <v>2.63</v>
       </c>
       <c r="Q181" t="n">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="R181" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="S181" t="inlineStr"/>
       <c r="T181" t="inlineStr"/>
       <c r="U181" t="n">
-        <v>2.72</v>
+        <v>4.33</v>
       </c>
       <c r="V181" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="W181" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="X181" t="n">
-        <v>2.87</v>
+        <v>2.5</v>
       </c>
       <c r="Y181" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="Z181" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="AA181" t="n">
-        <v>13.5</v>
+        <v>5.5</v>
       </c>
       <c r="AB181" t="n">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="AC181" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="AD181" t="n">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="AE181" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AF181" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG181" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AH181" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AI181" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AJ181" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="AK181" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AL181" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="AM181" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AN181" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AO181" t="n">
-        <v>16.5</v>
+        <v>51</v>
       </c>
       <c r="AP181" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="AQ181" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR181" t="inlineStr"/>
-      <c r="AS181" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>b1isc9Ur</t>
+          <t>lnUhF8jR</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -26307,7 +26311,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -26317,49 +26321,49 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="H182" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I182" t="n">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="J182" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="K182" t="n">
         <v>2</v>
       </c>
       <c r="L182" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M182" t="n">
         <v>1.08</v>
       </c>
       <c r="N182" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O182" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P182" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q182" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R182" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S182" t="inlineStr"/>
       <c r="T182" t="inlineStr"/>
@@ -26376,25 +26380,25 @@
         <v>2.5</v>
       </c>
       <c r="Y182" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="Z182" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AA182" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AB182" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AC182" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD182" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AE182" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF182" t="n">
         <v>34</v>
@@ -26403,46 +26407,46 @@
         <v>7.5</v>
       </c>
       <c r="AH182" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI182" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ182" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AK182" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AL182" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AM182" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AN182" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AO182" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AP182" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ182" t="n">
         <v>41</v>
       </c>
-      <c r="AQ182" t="n">
-        <v>51</v>
-      </c>
       <c r="AR182" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AS182" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>lnUhF8jR</t>
+          <t>pIFO9nEl</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -26452,7 +26456,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -26462,90 +26466,90 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="H183" t="n">
         <v>3.1</v>
       </c>
       <c r="I183" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J183" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K183" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L183" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M183" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N183" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O183" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P183" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q183" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R183" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S183" t="inlineStr"/>
       <c r="T183" t="inlineStr"/>
       <c r="U183" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="V183" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W183" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="X183" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y183" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="Z183" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AA183" t="n">
         <v>7</v>
       </c>
       <c r="AB183" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC183" t="n">
         <v>11</v>
       </c>
-      <c r="AC183" t="n">
-        <v>10</v>
-      </c>
       <c r="AD183" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE183" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF183" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG183" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH183" t="n">
         <v>6</v>
@@ -26554,22 +26558,22 @@
         <v>17</v>
       </c>
       <c r="AJ183" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK183" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AL183" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM183" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN183" t="n">
         <v>11</v>
       </c>
       <c r="AO183" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP183" t="n">
         <v>26</v>
@@ -26578,16 +26582,16 @@
         <v>41</v>
       </c>
       <c r="AR183" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>pIFO9nEl</t>
+          <t>tp9X7Qr1</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -26597,7 +26601,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -26607,132 +26611,128 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="H184" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="I184" t="n">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="J184" t="n">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="K184" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="L184" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="M184" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N184" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="O184" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="P184" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q184" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="R184" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="S184" t="inlineStr"/>
       <c r="T184" t="inlineStr"/>
       <c r="U184" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="V184" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="W184" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="X184" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Y184" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z184" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA184" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AB184" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AC184" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AD184" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="AE184" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AF184" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG184" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AH184" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AI184" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AJ184" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK184" t="n">
         <v>101</v>
       </c>
       <c r="AL184" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM184" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AN184" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO184" t="n">
-        <v>26</v>
+        <v>9.5</v>
       </c>
       <c r="AP184" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AQ184" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR184" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AS184" t="n">
-        <v>1.93</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AR184" t="inlineStr"/>
+      <c r="AS184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>tp9X7Qr1</t>
+          <t>nq1D9EV9</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -26742,130 +26742,134 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>00:30</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L185" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N185" t="n">
+        <v>13</v>
+      </c>
+      <c r="O185" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P185" t="n">
         <v>4</v>
       </c>
-      <c r="I185" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J185" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K185" t="n">
+      <c r="Q185" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z185" t="n">
         <v>2.2</v>
       </c>
-      <c r="L185" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M185" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N185" t="n">
-        <v>10</v>
-      </c>
-      <c r="O185" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P185" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q185" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R185" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S185" t="inlineStr"/>
-      <c r="T185" t="inlineStr"/>
-      <c r="U185" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V185" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W185" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X185" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y185" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z185" t="n">
-        <v>1.63</v>
-      </c>
       <c r="AA185" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AB185" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO185" t="n">
         <v>34</v>
       </c>
-      <c r="AC185" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD185" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE185" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF185" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG185" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH185" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI185" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ185" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK185" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL185" t="n">
-        <v>6</v>
-      </c>
-      <c r="AM185" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AN185" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO185" t="n">
-        <v>10</v>
-      </c>
       <c r="AP185" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AQ185" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR185" t="inlineStr"/>
       <c r="AS185" t="inlineStr"/>
@@ -26873,7 +26877,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>nq1D9EV9</t>
+          <t>vHIoi6Fr</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -26893,124 +26897,120 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H186" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K186" t="n">
         <v>2.2</v>
       </c>
-      <c r="H186" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J186" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K186" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L186" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N186" t="n">
+        <v>10</v>
+      </c>
+      <c r="O186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P186" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="n">
         <v>3.5</v>
       </c>
-      <c r="M186" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N186" t="n">
+      <c r="V186" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X186" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE186" t="n">
         <v>13</v>
       </c>
-      <c r="O186" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P186" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q186" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R186" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S186" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T186" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U186" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V186" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W186" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X186" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y186" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z186" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA186" t="n">
+      <c r="AF186" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG186" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AB186" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC186" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD186" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE186" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF186" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG186" t="n">
-        <v>13</v>
       </c>
       <c r="AH186" t="n">
         <v>7</v>
       </c>
       <c r="AI186" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ186" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>51</v>
+      </c>
+      <c r="AP186" t="n">
         <v>41</v>
       </c>
-      <c r="AK186" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL186" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM186" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN186" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO186" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP186" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ186" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR186" t="inlineStr"/>
       <c r="AS186" t="inlineStr"/>
@@ -27018,7 +27018,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>vHIoi6Fr</t>
+          <t>dIjc95yR</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -27028,7 +27028,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>00:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -27038,120 +27038,124 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="H187" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I187" t="n">
-        <v>5.75</v>
+        <v>2.55</v>
       </c>
       <c r="J187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K187" t="n">
         <v>2.25</v>
       </c>
-      <c r="K187" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L187" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="M187" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N187" t="n">
+        <v>13</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P187" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S187" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T187" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V187" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC187" t="n">
         <v>10</v>
       </c>
-      <c r="O187" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P187" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q187" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R187" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S187" t="inlineStr"/>
-      <c r="T187" t="inlineStr"/>
-      <c r="U187" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V187" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W187" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X187" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y187" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z187" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA187" t="n">
+      <c r="AD187" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH187" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB187" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC187" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD187" t="n">
+      <c r="AI187" t="n">
         <v>12</v>
       </c>
-      <c r="AE187" t="n">
+      <c r="AJ187" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM187" t="n">
         <v>13</v>
       </c>
-      <c r="AF187" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG187" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH187" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI187" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ187" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK187" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL187" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM187" t="n">
-        <v>29</v>
-      </c>
       <c r="AN187" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AO187" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AP187" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AQ187" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR187" t="inlineStr"/>
       <c r="AS187" t="inlineStr"/>
@@ -27159,7 +27163,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>dIjc95yR</t>
+          <t>CUGgkppe</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -27169,7 +27173,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -27179,100 +27183,96 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.75</v>
+        <v>1.55</v>
       </c>
       <c r="H188" t="n">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="I188" t="n">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="J188" t="n">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="K188" t="n">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="L188" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="M188" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N188" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O188" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P188" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="Q188" t="n">
-        <v>1.7</v>
+        <v>1.44</v>
       </c>
       <c r="R188" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="n">
         <v>2.1</v>
       </c>
-      <c r="S188" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T188" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U188" t="n">
-        <v>2.63</v>
-      </c>
       <c r="V188" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="W188" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="X188" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Y188" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Z188" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AA188" t="n">
         <v>11</v>
       </c>
       <c r="AB188" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI188" t="n">
         <v>15</v>
-      </c>
-      <c r="AC188" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD188" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE188" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF188" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG188" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH188" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI188" t="n">
-        <v>12</v>
       </c>
       <c r="AJ188" t="n">
         <v>41</v>
@@ -27281,22 +27281,22 @@
         <v>126</v>
       </c>
       <c r="AL188" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AM188" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AN188" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AO188" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AP188" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ188" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR188" t="inlineStr"/>
       <c r="AS188" t="inlineStr"/>
@@ -27304,7 +27304,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CUGgkppe</t>
+          <t>zN6vQ1p2</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -27314,130 +27314,130 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="H189" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="I189" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="J189" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="K189" t="n">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L189" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M189" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N189" t="n">
-        <v>19</v>
+        <v>6.2</v>
       </c>
       <c r="O189" t="n">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="P189" t="n">
-        <v>5.5</v>
+        <v>2.37</v>
       </c>
       <c r="Q189" t="n">
-        <v>1.48</v>
+        <v>2.32</v>
       </c>
       <c r="R189" t="n">
-        <v>2.6</v>
+        <v>1.47</v>
       </c>
       <c r="S189" t="inlineStr"/>
       <c r="T189" t="inlineStr"/>
       <c r="U189" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="V189" t="n">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="W189" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="X189" t="n">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Y189" t="n">
-        <v>1.5</v>
+        <v>2.18</v>
       </c>
       <c r="Z189" t="n">
-        <v>2.37</v>
+        <v>1.53</v>
       </c>
       <c r="AA189" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AB189" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC189" t="n">
         <v>8.5</v>
       </c>
       <c r="AD189" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE189" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AF189" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AG189" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="AH189" t="n">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="AI189" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AJ189" t="n">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="AK189" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL189" t="n">
-        <v>19</v>
+        <v>10.75</v>
       </c>
       <c r="AM189" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN189" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AO189" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AP189" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AQ189" t="n">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="AR189" t="inlineStr"/>
       <c r="AS189" t="inlineStr"/>
@@ -27445,7 +27445,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>zN6vQ1p2</t>
+          <t>SAr5tNUr</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -27455,7 +27455,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>19:45</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -27465,120 +27465,116 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Caracas</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.65</v>
+        <v>3.35</v>
       </c>
       <c r="H190" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I190" t="n">
-        <v>5.7</v>
+        <v>2.18</v>
       </c>
       <c r="J190" t="n">
-        <v>2.25</v>
+        <v>3.9</v>
       </c>
       <c r="K190" t="n">
         <v>1.95</v>
       </c>
       <c r="L190" t="n">
-        <v>6</v>
-      </c>
-      <c r="M190" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N190" t="n">
-        <v>6.2</v>
-      </c>
+        <v>2.82</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
       <c r="O190" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="P190" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="Q190" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="R190" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="S190" t="inlineStr"/>
       <c r="T190" t="inlineStr"/>
       <c r="U190" t="n">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="V190" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W190" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X190" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="Y190" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="Z190" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AA190" t="n">
-        <v>5</v>
+        <v>8.25</v>
       </c>
       <c r="AB190" t="n">
-        <v>6.6</v>
+        <v>16.5</v>
       </c>
       <c r="AC190" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AD190" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AE190" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF190" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG190" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH190" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI190" t="n">
         <v>16</v>
       </c>
-      <c r="AF190" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG190" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH190" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI190" t="n">
-        <v>22</v>
-      </c>
       <c r="AJ190" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="AK190" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AL190" t="n">
-        <v>10.75</v>
+        <v>6.3</v>
       </c>
       <c r="AM190" t="n">
-        <v>32</v>
+        <v>9.75</v>
       </c>
       <c r="AN190" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO190" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP190" t="n">
         <v>20</v>
       </c>
-      <c r="AO190" t="n">
-        <v>150</v>
-      </c>
-      <c r="AP190" t="n">
-        <v>90</v>
-      </c>
       <c r="AQ190" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="AR190" t="inlineStr"/>
       <c r="AS190" t="inlineStr"/>
@@ -27586,7 +27582,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>SAr5tNUr</t>
+          <t>GIqRm5x9</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -27596,7 +27592,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>19:45</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -27606,256 +27602,119 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Metropolitanos</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Carabobo</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I191" t="n">
-        <v>2.2</v>
+        <v>4.15</v>
       </c>
       <c r="J191" t="n">
-        <v>3.85</v>
+        <v>2.4</v>
       </c>
       <c r="K191" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="L191" t="n">
-        <v>2.87</v>
+        <v>4.6</v>
       </c>
       <c r="M191" t="inlineStr"/>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="P191" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q191" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="R191" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="S191" t="inlineStr"/>
       <c r="T191" t="inlineStr"/>
       <c r="U191" t="n">
-        <v>3.65</v>
+        <v>3.25</v>
       </c>
       <c r="V191" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="W191" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="X191" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="Y191" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="Z191" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="AA191" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB191" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB191" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AC191" t="n">
-        <v>11.75</v>
+        <v>8.25</v>
       </c>
       <c r="AD191" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE191" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF191" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG191" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH191" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>700</v>
+      </c>
+      <c r="AL191" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AM191" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN191" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO191" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP191" t="n">
         <v>45</v>
       </c>
-      <c r="AE191" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF191" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG191" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AH191" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AI191" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ191" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK191" t="n">
-        <v>900</v>
-      </c>
-      <c r="AL191" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AM191" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AN191" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AO191" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP191" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ191" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AR191" t="inlineStr"/>
       <c r="AS191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>GIqRm5x9</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>23/02/2025</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Monagas</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H192" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I192" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J192" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="K192" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L192" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P192" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Q192" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R192" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S192" t="inlineStr"/>
-      <c r="T192" t="inlineStr"/>
-      <c r="U192" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="V192" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W192" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="X192" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Y192" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Z192" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AA192" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB192" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AC192" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD192" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE192" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF192" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG192" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH192" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AI192" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ192" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK192" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL192" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AM192" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN192" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO192" t="n">
-        <v>75</v>
-      </c>
-      <c r="AP192" t="n">
-        <v>50</v>
-      </c>
-      <c r="AQ192" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR192" t="inlineStr"/>
-      <c r="AS192" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-23.xlsx
@@ -8739,10 +8739,10 @@
         <v>3</v>
       </c>
       <c r="H58" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I58" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J58" t="n">
         <v>3.75</v>
@@ -8751,37 +8751,37 @@
         <v>1.95</v>
       </c>
       <c r="L58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M58" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R58" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S58" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="T58" t="n">
         <v>1.26</v>
       </c>
       <c r="U58" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V58" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W58" t="n">
         <v>1.53</v>
@@ -8790,13 +8790,13 @@
         <v>2.38</v>
       </c>
       <c r="Y58" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Z58" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AA58" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB58" t="n">
         <v>13</v>
@@ -8808,25 +8808,25 @@
         <v>29</v>
       </c>
       <c r="AE58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF58" t="n">
         <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH58" t="n">
         <v>5.5</v>
       </c>
       <c r="AI58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ58" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK58" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="AL58" t="n">
         <v>7</v>
@@ -8835,7 +8835,7 @@
         <v>11</v>
       </c>
       <c r="AN58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO58" t="n">
         <v>26</v>
@@ -8847,10 +8847,10 @@
         <v>41</v>
       </c>
       <c r="AR58" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="59">
@@ -16325,7 +16325,7 @@
         <v>1.8</v>
       </c>
       <c r="K111" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L111" t="n">
         <v>8</v>
@@ -16334,19 +16334,19 @@
         <v>1.03</v>
       </c>
       <c r="N111" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O111" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P111" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R111" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S111" t="n">
         <v>2.05</v>
@@ -16355,25 +16355,25 @@
         <v>1.8</v>
       </c>
       <c r="U111" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V111" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W111" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X111" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y111" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z111" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA111" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB111" t="n">
         <v>6.5</v>
@@ -16382,31 +16382,31 @@
         <v>9</v>
       </c>
       <c r="AD111" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE111" t="n">
         <v>11</v>
       </c>
       <c r="AF111" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG111" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH111" t="n">
         <v>10</v>
       </c>
       <c r="AI111" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ111" t="n">
         <v>67</v>
       </c>
       <c r="AK111" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AL111" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM111" t="n">
         <v>41</v>
